--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\PrivateFTP\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="267">
   <si>
     <t>序号</t>
   </si>
@@ -850,6 +850,10 @@
   </si>
   <si>
     <t>净水器</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒柜</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1387,19 +1391,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,35 +1430,20 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1596,7 +1600,9 @@
             <c:separator>,</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1819,6 +1825,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,11 +2029,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="298981440"/>
-        <c:axId val="298982000"/>
+        <c:axId val="192516016"/>
+        <c:axId val="192516576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298981440"/>
+        <c:axId val="192516016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298982000"/>
+        <c:crossAx val="192516576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2071,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298982000"/>
+        <c:axId val="192516576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298981440"/>
+        <c:crossAx val="192516016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,10 +2573,10 @@
   <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2639,10 +2646,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2666,14 +2673,14 @@
       <c r="L2" s="40"/>
       <c r="M2" s="52"/>
       <c r="N2" s="40"/>
-      <c r="P2" s="88"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2695,14 +2702,14 @@
       <c r="L3" s="40"/>
       <c r="M3" s="52"/>
       <c r="N3" s="40"/>
-      <c r="P3" s="88"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="87"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2724,14 +2731,14 @@
       <c r="L4" s="40"/>
       <c r="M4" s="52"/>
       <c r="N4" s="40"/>
-      <c r="P4" s="88"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="72">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
@@ -2751,14 +2758,14 @@
       <c r="L5" s="40"/>
       <c r="M5" s="52"/>
       <c r="N5" s="40"/>
-      <c r="P5" s="88"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2778,14 +2785,14 @@
       <c r="L6" s="40"/>
       <c r="M6" s="52"/>
       <c r="N6" s="40"/>
-      <c r="P6" s="88"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="72">
         <v>6</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
@@ -2805,14 +2812,14 @@
       <c r="L7" s="40"/>
       <c r="M7" s="52"/>
       <c r="N7" s="40"/>
-      <c r="P7" s="88"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="72">
         <v>7</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
@@ -2832,14 +2839,14 @@
       <c r="L8" s="40"/>
       <c r="M8" s="52"/>
       <c r="N8" s="39"/>
-      <c r="P8" s="88"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72">
         <v>8</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="87"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
@@ -2859,14 +2866,14 @@
       <c r="L9" s="40"/>
       <c r="M9" s="52"/>
       <c r="N9" s="39"/>
-      <c r="P9" s="88"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72">
         <v>9</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -2886,14 +2893,14 @@
       <c r="L10" s="40"/>
       <c r="M10" s="52"/>
       <c r="N10" s="39"/>
-      <c r="P10" s="88"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72">
         <v>10</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
@@ -2913,14 +2920,14 @@
       <c r="L11" s="40"/>
       <c r="M11" s="52"/>
       <c r="N11" s="40"/>
-      <c r="P11" s="88"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72">
         <v>11</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="69" t="s">
         <v>27</v>
       </c>
@@ -2942,14 +2949,14 @@
       <c r="L12" s="40"/>
       <c r="M12" s="52"/>
       <c r="N12" s="39"/>
-      <c r="P12" s="88"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72">
         <v>12</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="87" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -2973,15 +2980,15 @@
       <c r="L13" s="40"/>
       <c r="M13" s="52"/>
       <c r="N13" s="70"/>
-      <c r="P13" s="88"/>
+      <c r="P13" s="80"/>
       <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72">
         <v>13</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
@@ -3008,8 +3015,8 @@
       <c r="A15" s="72">
         <v>14</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
@@ -3036,8 +3043,8 @@
       <c r="A16" s="72">
         <v>15</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -3066,8 +3073,8 @@
       <c r="A17" s="72">
         <v>16</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="17" t="s">
         <v>38</v>
       </c>
@@ -3094,8 +3101,8 @@
       <c r="A18" s="72">
         <v>17</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
@@ -3122,8 +3129,8 @@
       <c r="A19" s="72">
         <v>18</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
@@ -3150,14 +3157,14 @@
       <c r="A20" s="72">
         <v>19</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="17" t="s">
         <v>256</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="17">
         <v>0</v>
@@ -3179,8 +3186,8 @@
       <c r="A21" s="72">
         <v>20</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="17" t="s">
         <v>43</v>
       </c>
@@ -3207,8 +3214,8 @@
       <c r="A22" s="72">
         <v>21</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="69" t="s">
         <v>257</v>
       </c>
@@ -3235,8 +3242,8 @@
       <c r="A23" s="72">
         <v>22</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -3244,7 +3251,7 @@
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -3265,14 +3272,14 @@
       <c r="A24" s="72">
         <v>23</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -3293,8 +3300,8 @@
       <c r="A25" s="72">
         <v>24</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="17" t="s">
         <v>48</v>
       </c>
@@ -3321,8 +3328,8 @@
       <c r="A26" s="72">
         <v>25</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
@@ -3349,8 +3356,8 @@
       <c r="A27" s="72">
         <v>26</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="87" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3379,14 +3386,14 @@
       <c r="A28" s="72">
         <v>27</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G28" s="17">
         <v>0</v>
@@ -3407,8 +3414,8 @@
       <c r="A29" s="72">
         <v>28</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17" t="s">
         <v>55</v>
       </c>
@@ -3435,7 +3442,7 @@
       <c r="A30" s="72">
         <v>29</v>
       </c>
-      <c r="B30" s="83"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -3465,20 +3472,20 @@
       <c r="A31" s="72">
         <v>30</v>
       </c>
-      <c r="B31" s="84"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="83"/>
       <c r="N31" s="62">
         <f>SUM(F2:F30)</f>
         <v>23500</v>
@@ -3488,10 +3495,10 @@
       <c r="A32" s="72">
         <v>31</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -3520,8 +3527,8 @@
       <c r="A33" s="72">
         <v>32</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="12" t="s">
         <v>18</v>
       </c>
@@ -3548,8 +3555,8 @@
       <c r="A34" s="72">
         <v>33</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="12" t="s">
         <v>60</v>
       </c>
@@ -3576,8 +3583,8 @@
       <c r="A35" s="72">
         <v>34</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="12" t="s">
         <v>61</v>
       </c>
@@ -3604,8 +3611,8 @@
       <c r="A36" s="72">
         <v>35</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="87"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="12" t="s">
         <v>62</v>
       </c>
@@ -3632,8 +3639,8 @@
       <c r="A37" s="72">
         <v>36</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="87" t="s">
+      <c r="B37" s="76"/>
+      <c r="C37" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -3662,8 +3669,8 @@
       <c r="A38" s="72">
         <v>37</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="12" t="s">
         <v>64</v>
       </c>
@@ -3690,8 +3697,8 @@
       <c r="A39" s="72">
         <v>38</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -3720,8 +3727,8 @@
       <c r="A40" s="72">
         <v>39</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="12" t="s">
         <v>67</v>
       </c>
@@ -3748,8 +3755,8 @@
       <c r="A41" s="72">
         <v>40</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="12" t="s">
         <v>68</v>
       </c>
@@ -3776,8 +3783,8 @@
       <c r="A42" s="72">
         <v>41</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="12" t="s">
         <v>69</v>
       </c>
@@ -3804,8 +3811,8 @@
       <c r="A43" s="72">
         <v>42</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="12" t="s">
         <v>258</v>
       </c>
@@ -3832,8 +3839,8 @@
       <c r="A44" s="72">
         <v>43</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="87" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -3862,8 +3869,8 @@
       <c r="A45" s="72">
         <v>44</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="87"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="12" t="s">
         <v>72</v>
       </c>
@@ -3890,8 +3897,8 @@
       <c r="A46" s="72">
         <v>45</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="87"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="12" t="s">
         <v>259</v>
       </c>
@@ -3918,8 +3925,8 @@
       <c r="A47" s="72">
         <v>46</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="87" t="s">
+      <c r="B47" s="76"/>
+      <c r="C47" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -3948,8 +3955,8 @@
       <c r="A48" s="72">
         <v>47</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="87"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="12" t="s">
         <v>53</v>
       </c>
@@ -3976,8 +3983,8 @@
       <c r="A49" s="72">
         <v>48</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="87"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="12" t="s">
         <v>75</v>
       </c>
@@ -4004,8 +4011,8 @@
       <c r="A50" s="72">
         <v>49</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="87"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="12" t="s">
         <v>76</v>
       </c>
@@ -4030,20 +4037,20 @@
       <c r="A51" s="72">
         <v>50</v>
       </c>
-      <c r="B51" s="84"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="61"/>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="76"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="83"/>
       <c r="N51" s="62">
         <f>SUM(F32:F50)</f>
         <v>6500</v>
@@ -4053,10 +4060,10 @@
       <c r="A52" s="72">
         <v>51</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -4085,8 +4092,8 @@
       <c r="A53" s="72">
         <v>52</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="12" t="s">
         <v>18</v>
       </c>
@@ -4113,8 +4120,8 @@
       <c r="A54" s="72">
         <v>53</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="87"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="12" t="s">
         <v>60</v>
       </c>
@@ -4141,8 +4148,8 @@
       <c r="A55" s="72">
         <v>54</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="87"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="12" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4176,8 @@
       <c r="A56" s="72">
         <v>55</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="87"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="12" t="s">
         <v>62</v>
       </c>
@@ -4197,8 +4204,8 @@
       <c r="A57" s="72">
         <v>56</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="87" t="s">
+      <c r="B57" s="76"/>
+      <c r="C57" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -4227,8 +4234,8 @@
       <c r="A58" s="72">
         <v>57</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="87"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="12" t="s">
         <v>64</v>
       </c>
@@ -4255,8 +4262,8 @@
       <c r="A59" s="72">
         <v>58</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="86" t="s">
+      <c r="B59" s="76"/>
+      <c r="C59" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -4285,8 +4292,8 @@
       <c r="A60" s="72">
         <v>59</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="12" t="s">
         <v>67</v>
       </c>
@@ -4313,8 +4320,8 @@
       <c r="A61" s="72">
         <v>60</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="12" t="s">
         <v>68</v>
       </c>
@@ -4341,8 +4348,8 @@
       <c r="A62" s="72">
         <v>61</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="12" t="s">
         <v>69</v>
       </c>
@@ -4369,8 +4376,8 @@
       <c r="A63" s="72">
         <v>62</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
       <c r="D63" s="12" t="s">
         <v>43</v>
       </c>
@@ -4397,8 +4404,8 @@
       <c r="A64" s="72">
         <v>63</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="87" t="s">
+      <c r="B64" s="76"/>
+      <c r="C64" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -4427,8 +4434,8 @@
       <c r="A65" s="72">
         <v>64</v>
       </c>
-      <c r="B65" s="83"/>
-      <c r="C65" s="87"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="12" t="s">
         <v>72</v>
       </c>
@@ -4455,8 +4462,8 @@
       <c r="A66" s="72">
         <v>65</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="87"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="12" t="s">
         <v>73</v>
       </c>
@@ -4483,8 +4490,8 @@
       <c r="A67" s="72">
         <v>66</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="87" t="s">
+      <c r="B67" s="76"/>
+      <c r="C67" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D67" s="12" t="s">
@@ -4513,8 +4520,8 @@
       <c r="A68" s="72">
         <v>67</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="87"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="12" t="s">
         <v>53</v>
       </c>
@@ -4541,8 +4548,8 @@
       <c r="A69" s="72">
         <v>68</v>
       </c>
-      <c r="B69" s="83"/>
-      <c r="C69" s="87"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="12" t="s">
         <v>75</v>
       </c>
@@ -4569,8 +4576,8 @@
       <c r="A70" s="72">
         <v>69</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="87"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="12" t="s">
         <v>76</v>
       </c>
@@ -4595,20 +4602,20 @@
       <c r="A71" s="72">
         <v>70</v>
       </c>
-      <c r="B71" s="84"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="76"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="83"/>
       <c r="N71" s="62">
         <f>SUM(F52:F70)</f>
         <v>300</v>
@@ -4618,10 +4625,10 @@
       <c r="A72" s="72">
         <v>71</v>
       </c>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="12" t="s">
@@ -4650,8 +4657,8 @@
       <c r="A73" s="72">
         <v>72</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="87"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="12" t="s">
         <v>18</v>
       </c>
@@ -4678,8 +4685,8 @@
       <c r="A74" s="72">
         <v>73</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="87"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="12" t="s">
         <v>60</v>
       </c>
@@ -4706,8 +4713,8 @@
       <c r="A75" s="72">
         <v>74</v>
       </c>
-      <c r="B75" s="83"/>
-      <c r="C75" s="87"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="12" t="s">
         <v>61</v>
       </c>
@@ -4734,8 +4741,8 @@
       <c r="A76" s="72">
         <v>75</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="87"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="12" t="s">
         <v>62</v>
       </c>
@@ -4762,8 +4769,8 @@
       <c r="A77" s="72">
         <v>76</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="87" t="s">
+      <c r="B77" s="76"/>
+      <c r="C77" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="12" t="s">
@@ -4792,8 +4799,8 @@
       <c r="A78" s="72">
         <v>77</v>
       </c>
-      <c r="B78" s="83"/>
-      <c r="C78" s="87"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="12" t="s">
         <v>64</v>
       </c>
@@ -4820,8 +4827,8 @@
       <c r="A79" s="72">
         <v>78</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="86" t="s">
+      <c r="B79" s="76"/>
+      <c r="C79" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="73" t="s">
@@ -4850,8 +4857,8 @@
       <c r="A80" s="72">
         <v>79</v>
       </c>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="73" t="s">
         <v>249</v>
       </c>
@@ -4878,8 +4885,8 @@
       <c r="A81" s="72">
         <v>80</v>
       </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="73" t="s">
         <v>250</v>
       </c>
@@ -4906,8 +4913,8 @@
       <c r="A82" s="72">
         <v>81</v>
       </c>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="77"/>
       <c r="D82" s="12" t="s">
         <v>260</v>
       </c>
@@ -4934,8 +4941,8 @@
       <c r="A83" s="72">
         <v>82</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="87" t="s">
+      <c r="B83" s="76"/>
+      <c r="C83" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="12" t="s">
@@ -4964,8 +4971,8 @@
       <c r="A84" s="72">
         <v>83</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="87"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="73" t="s">
         <v>251</v>
       </c>
@@ -4992,8 +4999,8 @@
       <c r="A85" s="72">
         <v>84</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="86" t="s">
+      <c r="B85" s="76"/>
+      <c r="C85" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D85" s="73" t="s">
@@ -5022,8 +5029,8 @@
       <c r="A86" s="72">
         <v>85</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="84"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="77"/>
       <c r="D86" s="73" t="s">
         <v>253</v>
       </c>
@@ -5050,20 +5057,20 @@
       <c r="A87" s="72">
         <v>86</v>
       </c>
-      <c r="B87" s="84"/>
+      <c r="B87" s="77"/>
       <c r="C87" s="61"/>
-      <c r="D87" s="77" t="s">
+      <c r="D87" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="76"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="83"/>
       <c r="N87" s="62">
         <f>SUM(F72:F86)</f>
         <v>300</v>
@@ -5073,10 +5080,10 @@
       <c r="A88" s="72">
         <v>87</v>
       </c>
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -5105,8 +5112,8 @@
       <c r="A89" s="72">
         <v>88</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="87"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="17" t="s">
         <v>81</v>
       </c>
@@ -5133,8 +5140,8 @@
       <c r="A90" s="72">
         <v>89</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="87"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="17" t="s">
         <v>82</v>
       </c>
@@ -5161,8 +5168,8 @@
       <c r="A91" s="72">
         <v>90</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="87"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="17" t="s">
         <v>60</v>
       </c>
@@ -5189,8 +5196,8 @@
       <c r="A92" s="72">
         <v>91</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="87"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="17" t="s">
         <v>83</v>
       </c>
@@ -5217,8 +5224,8 @@
       <c r="A93" s="72">
         <v>92</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="87"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="17" t="s">
         <v>84</v>
       </c>
@@ -5245,8 +5252,8 @@
       <c r="A94" s="72">
         <v>93</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="87" t="s">
+      <c r="B94" s="76"/>
+      <c r="C94" s="78" t="s">
         <v>29</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -5275,8 +5282,8 @@
       <c r="A95" s="72">
         <v>94</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="87"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="78"/>
       <c r="D95" s="17" t="s">
         <v>86</v>
       </c>
@@ -5301,8 +5308,8 @@
       <c r="A96" s="72">
         <v>95</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="86" t="s">
+      <c r="B96" s="76"/>
+      <c r="C96" s="79" t="s">
         <v>87</v>
       </c>
       <c r="D96" s="17" t="s">
@@ -5331,8 +5338,8 @@
       <c r="A97" s="72">
         <v>96</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="17" t="s">
         <v>89</v>
       </c>
@@ -5359,8 +5366,8 @@
       <c r="A98" s="72">
         <v>97</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="84"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="69" t="s">
         <v>90</v>
       </c>
@@ -5387,8 +5394,8 @@
       <c r="A99" s="72">
         <v>98</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="87" t="s">
+      <c r="B99" s="76"/>
+      <c r="C99" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -5417,14 +5424,14 @@
       <c r="A100" s="72">
         <v>99</v>
       </c>
-      <c r="B100" s="83"/>
-      <c r="C100" s="87"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E100" s="46"/>
       <c r="F100" s="46">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G100" s="17">
         <v>0</v>
@@ -5445,14 +5452,14 @@
       <c r="A101" s="72">
         <v>100</v>
       </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="78"/>
       <c r="D101" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="46">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="17">
         <v>0</v>
@@ -5473,14 +5480,14 @@
       <c r="A102" s="72">
         <v>101</v>
       </c>
-      <c r="B102" s="83"/>
-      <c r="C102" s="87"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="17" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="46">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="17">
         <v>0</v>
@@ -5501,8 +5508,8 @@
       <c r="A103" s="72">
         <v>102</v>
       </c>
-      <c r="B103" s="83"/>
-      <c r="C103" s="87"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="78"/>
       <c r="D103" s="17" t="s">
         <v>265</v>
       </c>
@@ -5529,8 +5536,8 @@
       <c r="A104" s="72">
         <v>103</v>
       </c>
-      <c r="B104" s="83"/>
-      <c r="C104" s="87"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="78"/>
       <c r="D104" s="69" t="s">
         <v>96</v>
       </c>
@@ -5557,33 +5564,33 @@
       <c r="A105" s="72">
         <v>104</v>
       </c>
-      <c r="B105" s="84"/>
+      <c r="B105" s="77"/>
       <c r="C105" s="61"/>
-      <c r="D105" s="74" t="s">
+      <c r="D105" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="76"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="83"/>
       <c r="N105" s="62">
         <f>SUM(F88:F104)</f>
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="72">
         <v>105</v>
       </c>
-      <c r="B106" s="86" t="s">
+      <c r="B106" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="87" t="s">
+      <c r="C106" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
@@ -5612,8 +5619,8 @@
       <c r="A107" s="72">
         <v>106</v>
       </c>
-      <c r="B107" s="83"/>
-      <c r="C107" s="87"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="17" t="s">
         <v>81</v>
       </c>
@@ -5640,8 +5647,8 @@
       <c r="A108" s="72">
         <v>107</v>
       </c>
-      <c r="B108" s="83"/>
-      <c r="C108" s="87"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="78"/>
       <c r="D108" s="17" t="s">
         <v>99</v>
       </c>
@@ -5666,8 +5673,8 @@
       <c r="A109" s="72">
         <v>108</v>
       </c>
-      <c r="B109" s="83"/>
-      <c r="C109" s="87"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="78"/>
       <c r="D109" s="17" t="s">
         <v>60</v>
       </c>
@@ -5694,8 +5701,8 @@
       <c r="A110" s="72">
         <v>109</v>
       </c>
-      <c r="B110" s="83"/>
-      <c r="C110" s="87"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="78"/>
       <c r="D110" s="17" t="s">
         <v>101</v>
       </c>
@@ -5722,8 +5729,8 @@
       <c r="A111" s="72">
         <v>110</v>
       </c>
-      <c r="B111" s="83"/>
-      <c r="C111" s="87"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="78"/>
       <c r="D111" s="17" t="s">
         <v>102</v>
       </c>
@@ -5750,8 +5757,8 @@
       <c r="A112" s="72">
         <v>111</v>
       </c>
-      <c r="B112" s="83"/>
-      <c r="C112" s="87"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="78"/>
       <c r="D112" s="17" t="s">
         <v>103</v>
       </c>
@@ -5778,8 +5785,8 @@
       <c r="A113" s="72">
         <v>112</v>
       </c>
-      <c r="B113" s="83"/>
-      <c r="C113" s="87"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="78"/>
       <c r="D113" s="17" t="s">
         <v>104</v>
       </c>
@@ -5806,8 +5813,8 @@
       <c r="A114" s="72">
         <v>113</v>
       </c>
-      <c r="B114" s="83"/>
-      <c r="C114" s="87"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="78"/>
       <c r="D114" s="17" t="s">
         <v>105</v>
       </c>
@@ -5834,8 +5841,8 @@
       <c r="A115" s="72">
         <v>114</v>
       </c>
-      <c r="B115" s="83"/>
-      <c r="C115" s="87"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="17" t="s">
         <v>106</v>
       </c>
@@ -5862,8 +5869,8 @@
       <c r="A116" s="72">
         <v>115</v>
       </c>
-      <c r="B116" s="83"/>
-      <c r="C116" s="87"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="17" t="s">
         <v>107</v>
       </c>
@@ -5890,8 +5897,8 @@
       <c r="A117" s="72">
         <v>116</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="87"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="17" t="s">
         <v>109</v>
       </c>
@@ -5918,8 +5925,8 @@
       <c r="A118" s="72">
         <v>117</v>
       </c>
-      <c r="B118" s="83"/>
-      <c r="C118" s="86" t="s">
+      <c r="B118" s="76"/>
+      <c r="C118" s="79" t="s">
         <v>29</v>
       </c>
       <c r="D118" s="17" t="s">
@@ -5946,8 +5953,8 @@
       <c r="A119" s="72">
         <v>118</v>
       </c>
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
       <c r="D119" s="17" t="s">
         <v>111</v>
       </c>
@@ -5972,8 +5979,8 @@
       <c r="A120" s="72">
         <v>119</v>
       </c>
-      <c r="B120" s="83"/>
-      <c r="C120" s="83"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="17" t="s">
         <v>112</v>
       </c>
@@ -5998,8 +6005,8 @@
       <c r="A121" s="72">
         <v>120</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="84"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="77"/>
       <c r="D121" s="17" t="s">
         <v>113</v>
       </c>
@@ -6024,8 +6031,8 @@
       <c r="A122" s="72">
         <v>121</v>
       </c>
-      <c r="B122" s="83"/>
-      <c r="C122" s="87" t="s">
+      <c r="B122" s="76"/>
+      <c r="C122" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D122" s="17" t="s">
@@ -6052,8 +6059,8 @@
       <c r="A123" s="72">
         <v>122</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="87"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="78"/>
       <c r="D123" s="17" t="s">
         <v>262</v>
       </c>
@@ -6078,8 +6085,8 @@
       <c r="A124" s="72">
         <v>123</v>
       </c>
-      <c r="B124" s="83"/>
-      <c r="C124" s="87"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="78"/>
       <c r="D124" s="17" t="s">
         <v>264</v>
       </c>
@@ -6104,8 +6111,8 @@
       <c r="A125" s="72">
         <v>124</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="87"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="78"/>
       <c r="D125" s="17" t="s">
         <v>263</v>
       </c>
@@ -6130,20 +6137,20 @@
       <c r="A126" s="72">
         <v>125</v>
       </c>
-      <c r="B126" s="84"/>
+      <c r="B126" s="77"/>
       <c r="C126" s="60"/>
-      <c r="D126" s="74" t="s">
+      <c r="D126" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="75"/>
-      <c r="H126" s="75"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="75"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="76"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="82"/>
+      <c r="K126" s="82"/>
+      <c r="L126" s="82"/>
+      <c r="M126" s="83"/>
       <c r="N126" s="65">
         <f>SUM(F106:F125)</f>
         <v>6800</v>
@@ -6153,10 +6160,10 @@
       <c r="A127" s="72">
         <v>126</v>
       </c>
-      <c r="B127" s="82" t="s">
+      <c r="B127" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="C127" s="87" t="s">
+      <c r="C127" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -6185,8 +6192,8 @@
       <c r="A128" s="72">
         <v>127</v>
       </c>
-      <c r="B128" s="83"/>
-      <c r="C128" s="87"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="78"/>
       <c r="D128" s="17" t="s">
         <v>116</v>
       </c>
@@ -6213,8 +6220,8 @@
       <c r="A129" s="72">
         <v>128</v>
       </c>
-      <c r="B129" s="83"/>
-      <c r="C129" s="87"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="78"/>
       <c r="D129" s="17" t="s">
         <v>117</v>
       </c>
@@ -6241,8 +6248,8 @@
       <c r="A130" s="72">
         <v>129</v>
       </c>
-      <c r="B130" s="83"/>
-      <c r="C130" s="87"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="78"/>
       <c r="D130" s="17" t="s">
         <v>16</v>
       </c>
@@ -6269,8 +6276,8 @@
       <c r="A131" s="72">
         <v>130</v>
       </c>
-      <c r="B131" s="83"/>
-      <c r="C131" s="87"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="78"/>
       <c r="D131" s="17" t="s">
         <v>118</v>
       </c>
@@ -6297,8 +6304,8 @@
       <c r="A132" s="72">
         <v>131</v>
       </c>
-      <c r="B132" s="83"/>
-      <c r="C132" s="87"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="78"/>
       <c r="D132" s="17" t="s">
         <v>119</v>
       </c>
@@ -6325,8 +6332,8 @@
       <c r="A133" s="72">
         <v>132</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="86" t="s">
+      <c r="B133" s="76"/>
+      <c r="C133" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D133" s="17" t="s">
@@ -6355,8 +6362,8 @@
       <c r="A134" s="72">
         <v>133</v>
       </c>
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="76"/>
       <c r="D134" s="17" t="s">
         <v>121</v>
       </c>
@@ -6383,8 +6390,8 @@
       <c r="A135" s="72">
         <v>134</v>
       </c>
-      <c r="B135" s="83"/>
-      <c r="C135" s="84"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="77"/>
       <c r="D135" s="17" t="s">
         <v>122</v>
       </c>
@@ -6411,7 +6418,7 @@
       <c r="A136" s="72">
         <v>135</v>
       </c>
-      <c r="B136" s="83"/>
+      <c r="B136" s="76"/>
       <c r="C136" s="71" t="s">
         <v>44</v>
       </c>
@@ -6441,8 +6448,8 @@
       <c r="A137" s="72">
         <v>136</v>
       </c>
-      <c r="B137" s="83"/>
-      <c r="C137" s="87" t="s">
+      <c r="B137" s="76"/>
+      <c r="C137" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D137" s="17" t="s">
@@ -6471,8 +6478,8 @@
       <c r="A138" s="72">
         <v>137</v>
       </c>
-      <c r="B138" s="83"/>
-      <c r="C138" s="87"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="78"/>
       <c r="D138" s="17" t="s">
         <v>125</v>
       </c>
@@ -6499,8 +6506,8 @@
       <c r="A139" s="72">
         <v>138</v>
       </c>
-      <c r="B139" s="83"/>
-      <c r="C139" s="87"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="78"/>
       <c r="D139" s="17" t="s">
         <v>127</v>
       </c>
@@ -6527,20 +6534,20 @@
       <c r="A140" s="72">
         <v>139</v>
       </c>
-      <c r="B140" s="84"/>
+      <c r="B140" s="77"/>
       <c r="C140" s="60"/>
-      <c r="D140" s="77" t="s">
+      <c r="D140" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="E140" s="78"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="75"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="75"/>
-      <c r="J140" s="75"/>
-      <c r="K140" s="75"/>
-      <c r="L140" s="75"/>
-      <c r="M140" s="76"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
+      <c r="K140" s="82"/>
+      <c r="L140" s="82"/>
+      <c r="M140" s="83"/>
       <c r="N140" s="65">
         <f>SUM(F127:F139)</f>
         <v>0</v>
@@ -6550,10 +6557,10 @@
       <c r="A141" s="72">
         <v>140</v>
       </c>
-      <c r="B141" s="82" t="s">
+      <c r="B141" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="C141" s="87" t="s">
+      <c r="C141" s="78" t="s">
         <v>128</v>
       </c>
       <c r="D141" s="12" t="s">
@@ -6574,8 +6581,8 @@
       <c r="A142" s="72">
         <v>141</v>
       </c>
-      <c r="B142" s="83"/>
-      <c r="C142" s="87"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="78"/>
       <c r="D142" s="12" t="s">
         <v>130</v>
       </c>
@@ -6594,8 +6601,8 @@
       <c r="A143" s="72">
         <v>142</v>
       </c>
-      <c r="B143" s="83"/>
-      <c r="C143" s="87"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="78"/>
       <c r="D143" s="12" t="s">
         <v>131</v>
       </c>
@@ -6614,8 +6621,8 @@
       <c r="A144" s="72">
         <v>143</v>
       </c>
-      <c r="B144" s="83"/>
-      <c r="C144" s="87"/>
+      <c r="B144" s="76"/>
+      <c r="C144" s="78"/>
       <c r="D144" s="12" t="s">
         <v>132</v>
       </c>
@@ -6634,20 +6641,20 @@
       <c r="A145" s="72">
         <v>144</v>
       </c>
-      <c r="B145" s="83"/>
+      <c r="B145" s="76"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="74" t="s">
+      <c r="D145" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E145" s="75"/>
-      <c r="F145" s="75"/>
-      <c r="G145" s="75"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="75"/>
-      <c r="J145" s="75"/>
-      <c r="K145" s="75"/>
-      <c r="L145" s="75"/>
-      <c r="M145" s="76"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
+      <c r="L145" s="82"/>
+      <c r="M145" s="83"/>
       <c r="N145" s="65">
         <v>0</v>
       </c>
@@ -6656,8 +6663,8 @@
       <c r="A146" s="72">
         <v>145</v>
       </c>
-      <c r="B146" s="83"/>
-      <c r="C146" s="87" t="s">
+      <c r="B146" s="76"/>
+      <c r="C146" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D146" s="12" t="s">
@@ -6680,8 +6687,8 @@
       <c r="A147" s="72">
         <v>146</v>
       </c>
-      <c r="B147" s="83"/>
-      <c r="C147" s="87"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="78"/>
       <c r="D147" s="12" t="s">
         <v>136</v>
       </c>
@@ -6702,8 +6709,8 @@
       <c r="A148" s="72">
         <v>147</v>
       </c>
-      <c r="B148" s="83"/>
-      <c r="C148" s="87"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="78"/>
       <c r="D148" s="12" t="s">
         <v>137</v>
       </c>
@@ -6724,8 +6731,8 @@
       <c r="A149" s="72">
         <v>148</v>
       </c>
-      <c r="B149" s="83"/>
-      <c r="C149" s="87"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="78"/>
       <c r="D149" s="12" t="s">
         <v>138</v>
       </c>
@@ -6746,187 +6753,187 @@
       <c r="A150" s="72">
         <v>149</v>
       </c>
-      <c r="B150" s="84"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="77" t="s">
+      <c r="D150" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="78"/>
-      <c r="F150" s="75"/>
-      <c r="G150" s="75"/>
-      <c r="H150" s="75"/>
-      <c r="I150" s="75"/>
-      <c r="J150" s="75"/>
-      <c r="K150" s="75"/>
-      <c r="L150" s="75"/>
-      <c r="M150" s="76"/>
-      <c r="N150" s="91">
+      <c r="E150" s="89"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="82"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="82"/>
+      <c r="L150" s="82"/>
+      <c r="M150" s="83"/>
+      <c r="N150" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="79" t="s">
+      <c r="A152" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B152" s="80"/>
-      <c r="C152" s="80"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="80"/>
-      <c r="F152" s="80"/>
-      <c r="G152" s="80"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="80"/>
-      <c r="J152" s="80"/>
-      <c r="K152" s="80"/>
-      <c r="L152" s="80"/>
-      <c r="M152" s="81"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
+      <c r="I152" s="85"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="85"/>
+      <c r="L152" s="85"/>
+      <c r="M152" s="86"/>
       <c r="N152" s="58">
         <f>N31+N51+N105+N126+N140+N145+N146+N147+N148+N149</f>
-        <v>46800</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="79" t="s">
+      <c r="A153" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B153" s="80"/>
-      <c r="C153" s="80"/>
-      <c r="D153" s="80"/>
-      <c r="E153" s="80"/>
-      <c r="F153" s="80"/>
-      <c r="G153" s="80"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="80"/>
-      <c r="J153" s="80"/>
-      <c r="K153" s="80"/>
-      <c r="L153" s="80"/>
-      <c r="M153" s="81"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
+      <c r="I153" s="85"/>
+      <c r="J153" s="85"/>
+      <c r="K153" s="85"/>
+      <c r="L153" s="85"/>
+      <c r="M153" s="86"/>
       <c r="N153" s="58">
         <f>SUM(F2:F12)+F30+SUM(F32:F36)+SUM(F88:F93)+SUM(F106:F117)+SUM(F127:F132)</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="79" t="s">
+      <c r="A154" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B154" s="80"/>
-      <c r="C154" s="80"/>
-      <c r="D154" s="80"/>
-      <c r="E154" s="80"/>
-      <c r="F154" s="80"/>
-      <c r="G154" s="80"/>
-      <c r="H154" s="80"/>
-      <c r="I154" s="80"/>
-      <c r="J154" s="80"/>
-      <c r="K154" s="80"/>
-      <c r="L154" s="80"/>
-      <c r="M154" s="81"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="85"/>
+      <c r="M154" s="86"/>
       <c r="N154" s="58">
         <f>SUM(F133:F135,F39:F43,F16:F22)</f>
-        <v>15500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="79" t="s">
+      <c r="A155" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B155" s="80"/>
-      <c r="C155" s="80"/>
-      <c r="D155" s="80"/>
-      <c r="E155" s="80"/>
-      <c r="F155" s="80"/>
-      <c r="G155" s="80"/>
-      <c r="H155" s="80"/>
-      <c r="I155" s="80"/>
-      <c r="J155" s="80"/>
-      <c r="K155" s="80"/>
-      <c r="L155" s="80"/>
-      <c r="M155" s="81"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="85"/>
+      <c r="M155" s="86"/>
       <c r="N155" s="58">
         <f>SUM(F99:F104,F122:F125,F136:F136,F44:F46,F23:F26)</f>
-        <v>28300</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="79" t="s">
+      <c r="A156" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B156" s="80"/>
-      <c r="C156" s="80"/>
-      <c r="D156" s="80"/>
-      <c r="E156" s="80"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="80"/>
-      <c r="H156" s="80"/>
-      <c r="I156" s="80"/>
-      <c r="J156" s="80"/>
-      <c r="K156" s="80"/>
-      <c r="L156" s="80"/>
-      <c r="M156" s="81"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="85"/>
+      <c r="L156" s="85"/>
+      <c r="M156" s="86"/>
       <c r="N156" s="58">
         <f>SUM(F137:F139,F48:F50,F27:F29,F96:F98)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="79" t="s">
+      <c r="A157" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B157" s="80"/>
-      <c r="C157" s="80"/>
-      <c r="D157" s="80"/>
-      <c r="E157" s="80"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="80"/>
-      <c r="H157" s="80"/>
-      <c r="I157" s="80"/>
-      <c r="J157" s="80"/>
-      <c r="K157" s="80"/>
-      <c r="L157" s="80"/>
-      <c r="M157" s="81"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85"/>
+      <c r="M157" s="86"/>
       <c r="N157" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B158" s="80"/>
-      <c r="C158" s="80"/>
-      <c r="D158" s="80"/>
-      <c r="E158" s="80"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="80"/>
-      <c r="H158" s="80"/>
-      <c r="I158" s="80"/>
-      <c r="J158" s="80"/>
-      <c r="K158" s="80"/>
-      <c r="L158" s="80"/>
-      <c r="M158" s="81"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85"/>
+      <c r="M158" s="86"/>
       <c r="N158" s="58">
         <f>SUM(F37:F38,F13:F15,F94:F95,F119:F121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="85" t="s">
+      <c r="A159" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="B159" s="80"/>
-      <c r="C159" s="80"/>
-      <c r="D159" s="80"/>
-      <c r="E159" s="80"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="80"/>
-      <c r="H159" s="80"/>
-      <c r="I159" s="80"/>
-      <c r="J159" s="80"/>
-      <c r="K159" s="80"/>
-      <c r="L159" s="80"/>
-      <c r="M159" s="81"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
+      <c r="K159" s="85"/>
+      <c r="L159" s="85"/>
+      <c r="M159" s="86"/>
       <c r="N159" s="58">
         <f>SUM(N145:N149)</f>
         <v>0</v>
@@ -6934,20 +6941,33 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B72:B87"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="P2:P13"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="D126:M126"/>
+    <mergeCell ref="D140:M140"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="A156:M156"/>
+    <mergeCell ref="A157:M157"/>
+    <mergeCell ref="A158:M158"/>
+    <mergeCell ref="A159:M159"/>
+    <mergeCell ref="B88:B105"/>
+    <mergeCell ref="B106:B126"/>
+    <mergeCell ref="B127:B140"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="A153:M153"/>
+    <mergeCell ref="A154:M154"/>
+    <mergeCell ref="A155:M155"/>
+    <mergeCell ref="D150:M150"/>
+    <mergeCell ref="B141:B150"/>
+    <mergeCell ref="C146:C149"/>
     <mergeCell ref="C122:C125"/>
     <mergeCell ref="C127:C132"/>
     <mergeCell ref="C133:C135"/>
@@ -6957,41 +6977,28 @@
     <mergeCell ref="C99:C104"/>
     <mergeCell ref="C106:C117"/>
     <mergeCell ref="C118:C121"/>
+    <mergeCell ref="P2:P13"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D71:M71"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="A156:M156"/>
-    <mergeCell ref="A157:M157"/>
-    <mergeCell ref="A158:M158"/>
-    <mergeCell ref="A159:M159"/>
     <mergeCell ref="B2:B31"/>
     <mergeCell ref="B32:B51"/>
-    <mergeCell ref="B88:B105"/>
-    <mergeCell ref="B106:B126"/>
-    <mergeCell ref="B127:B140"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="A153:M153"/>
-    <mergeCell ref="A154:M154"/>
-    <mergeCell ref="A155:M155"/>
-    <mergeCell ref="D150:M150"/>
-    <mergeCell ref="B141:B150"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="D126:M126"/>
-    <mergeCell ref="D140:M140"/>
-    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="B72:B87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -7008,10 +7015,10 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P82" sqref="P82:P93"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="D72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7490,7 +7497,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="90"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7525,7 +7532,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9867,7 +9874,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="88"/>
+      <c r="P82" s="80"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -9903,7 +9910,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="88"/>
+      <c r="P83" s="80"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -9939,7 +9946,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="88"/>
+      <c r="P84" s="80"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -9975,7 +9982,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="88"/>
+      <c r="P85" s="80"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -10011,7 +10018,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="88"/>
+      <c r="P86" s="80"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -10047,7 +10054,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="88"/>
+      <c r="P87" s="80"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -10083,7 +10090,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="88"/>
+      <c r="P88" s="80"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -10119,7 +10126,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="88"/>
+      <c r="P89" s="80"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -10155,7 +10162,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="88"/>
+      <c r="P90" s="80"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -10189,7 +10196,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="88"/>
+      <c r="P91" s="80"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -10226,7 +10233,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="88"/>
+      <c r="P92" s="80"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -10262,7 +10269,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="88"/>
+      <c r="P93" s="80"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -11040,167 +11047,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="79" t="s">
+      <c r="A120" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="80"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="80"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="80"/>
-      <c r="I120" s="80"/>
-      <c r="J120" s="80"/>
-      <c r="K120" s="80"/>
-      <c r="L120" s="80"/>
-      <c r="M120" s="81"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
+      <c r="K120" s="85"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="86"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="79" t="s">
+      <c r="A121" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="80"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="80"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="80"/>
-      <c r="H121" s="80"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="80"/>
-      <c r="L121" s="80"/>
-      <c r="M121" s="81"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="85"/>
+      <c r="L121" s="85"/>
+      <c r="M121" s="86"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B122" s="80"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
-      <c r="K122" s="80"/>
-      <c r="L122" s="80"/>
-      <c r="M122" s="81"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="85"/>
+      <c r="M122" s="86"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="80"/>
-      <c r="I123" s="80"/>
-      <c r="J123" s="80"/>
-      <c r="K123" s="80"/>
-      <c r="L123" s="80"/>
-      <c r="M123" s="81"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="86"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="79" t="s">
+      <c r="A124" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="80"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="80"/>
-      <c r="I124" s="80"/>
-      <c r="J124" s="80"/>
-      <c r="K124" s="80"/>
-      <c r="L124" s="80"/>
-      <c r="M124" s="81"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
+      <c r="K124" s="85"/>
+      <c r="L124" s="85"/>
+      <c r="M124" s="86"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="79" t="s">
+      <c r="A125" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="80"/>
-      <c r="C125" s="80"/>
-      <c r="D125" s="80"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="81"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="85"/>
+      <c r="L125" s="85"/>
+      <c r="M125" s="86"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="79" t="s">
+      <c r="A126" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B126" s="80"/>
-      <c r="C126" s="80"/>
-      <c r="D126" s="80"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="80"/>
-      <c r="I126" s="80"/>
-      <c r="J126" s="80"/>
-      <c r="K126" s="80"/>
-      <c r="L126" s="80"/>
-      <c r="M126" s="81"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="85"/>
+      <c r="L126" s="85"/>
+      <c r="M126" s="86"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="79" t="s">
+      <c r="A127" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="80"/>
-      <c r="C127" s="80"/>
-      <c r="D127" s="80"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="80"/>
-      <c r="M127" s="81"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="85"/>
+      <c r="K127" s="85"/>
+      <c r="L127" s="85"/>
+      <c r="M127" s="86"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -11305,8 +11312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11334,7 +11341,7 @@
       <c r="C3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="88"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -11344,7 +11351,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="88"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -11354,7 +11361,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="88"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -11364,7 +11371,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="88"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -11374,7 +11381,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="88"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -11384,7 +11391,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -11394,7 +11401,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -11404,7 +11411,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="88"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -11414,23 +11421,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="88"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="88"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="M14" s="88"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -1477,60 +1477,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1556,6 +1502,60 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1713,9 +1713,7 @@
             <c:separator>,</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1938,7 +1936,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2142,11 +2139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371436848"/>
-        <c:axId val="371437408"/>
+        <c:axId val="374913216"/>
+        <c:axId val="374913776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371436848"/>
+        <c:axId val="374913216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2178,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371437408"/>
+        <c:crossAx val="374913776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371437408"/>
+        <c:axId val="374913776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371436848"/>
+        <c:crossAx val="374913216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2686,10 +2683,10 @@
   <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2759,163 +2756,163 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95">
-        <v>0</v>
-      </c>
-      <c r="G2" s="94">
-        <v>0</v>
-      </c>
-      <c r="H2" s="94" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77">
+        <v>0</v>
+      </c>
+      <c r="G2" s="76">
+        <v>0</v>
+      </c>
+      <c r="H2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="96">
-        <v>0</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94" t="s">
+      <c r="I2" s="78">
+        <v>0</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="97"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="79"/>
       <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="94" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95">
-        <v>0</v>
-      </c>
-      <c r="G3" s="94">
-        <v>0</v>
-      </c>
-      <c r="H3" s="94" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77">
+        <v>0</v>
+      </c>
+      <c r="G3" s="76">
+        <v>0</v>
+      </c>
+      <c r="H3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="78">
         <v>90</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="97"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="79"/>
       <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="94" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95">
-        <v>0</v>
-      </c>
-      <c r="G4" s="94">
-        <v>0</v>
-      </c>
-      <c r="H4" s="94" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77">
+        <v>0</v>
+      </c>
+      <c r="G4" s="76">
+        <v>0</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="78">
         <v>20</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="97"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="79"/>
       <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95">
-        <v>0</v>
-      </c>
-      <c r="G5" s="94">
-        <v>0</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="96">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77">
+        <v>0</v>
+      </c>
+      <c r="G5" s="76">
+        <v>0</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78">
         <v>1000</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="97"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="79"/>
       <c r="P5" s="90"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="94" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95">
-        <v>0</v>
-      </c>
-      <c r="G6" s="94">
-        <v>0</v>
-      </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="96">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77">
+        <v>0</v>
+      </c>
+      <c r="G6" s="76">
+        <v>0</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="78">
         <v>2000</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="97"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="79"/>
       <c r="P6" s="90"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="79"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
@@ -2941,8 +2938,8 @@
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="17" t="s">
         <v>280</v>
       </c>
@@ -2968,180 +2965,180 @@
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="94" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95">
-        <v>0</v>
-      </c>
-      <c r="G9" s="94">
-        <v>0</v>
-      </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="96">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77">
+        <v>0</v>
+      </c>
+      <c r="G9" s="76">
+        <v>0</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="78">
         <v>300</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94" t="s">
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
       <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="94" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95">
-        <v>0</v>
-      </c>
-      <c r="G10" s="94">
-        <v>0</v>
-      </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="96">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77">
+        <v>0</v>
+      </c>
+      <c r="G10" s="76">
+        <v>0</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="78">
         <v>200</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94" t="s">
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="81"/>
       <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="94" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95">
-        <v>0</v>
-      </c>
-      <c r="G11" s="94">
-        <v>0</v>
-      </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="96">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77">
+        <v>0</v>
+      </c>
+      <c r="G11" s="76">
+        <v>0</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="78">
         <v>150</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94" t="s">
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
       <c r="P11" s="90"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95">
-        <v>0</v>
-      </c>
-      <c r="G12" s="94">
-        <v>0</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="96">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77">
+        <v>0</v>
+      </c>
+      <c r="G12" s="76">
+        <v>0</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="78">
         <v>350</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94" t="s">
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="97"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="79"/>
       <c r="P12" s="90"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="100" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95">
-        <v>0</v>
-      </c>
-      <c r="G13" s="94">
-        <v>0</v>
-      </c>
-      <c r="H13" s="94" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77">
+        <v>0</v>
+      </c>
+      <c r="G13" s="76">
+        <v>0</v>
+      </c>
+      <c r="H13" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="96">
+      <c r="I13" s="78">
         <v>30</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94" t="s">
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="81"/>
       <c r="P13" s="90"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="79" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95">
-        <v>0</v>
-      </c>
-      <c r="G14" s="94">
-        <v>0</v>
-      </c>
-      <c r="H14" s="94" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77">
+        <v>0</v>
+      </c>
+      <c r="G14" s="76">
+        <v>0</v>
+      </c>
+      <c r="H14" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="96">
+      <c r="I14" s="78">
         <v>30</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94" t="s">
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="101"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="83"/>
       <c r="P14" s="90"/>
       <c r="R14" s="63"/>
     </row>
@@ -3149,68 +3146,68 @@
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="94" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95">
-        <v>0</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0</v>
-      </c>
-      <c r="H15" s="94" t="s">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77">
+        <v>0</v>
+      </c>
+      <c r="G15" s="76">
+        <v>0</v>
+      </c>
+      <c r="H15" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="96">
+      <c r="I15" s="78">
         <v>25</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94" t="s">
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M15" s="97"/>
-      <c r="N15" s="99"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="81"/>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="94" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95">
-        <v>0</v>
-      </c>
-      <c r="G16" s="94">
-        <v>0</v>
-      </c>
-      <c r="H16" s="94" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77">
+        <v>0</v>
+      </c>
+      <c r="G16" s="76">
+        <v>0</v>
+      </c>
+      <c r="H16" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="96">
+      <c r="I16" s="78">
         <v>2500</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M16" s="97"/>
-      <c r="N16" s="99"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="81"/>
     </row>
     <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="76" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="85" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3241,8 +3238,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3271,8 +3268,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3301,8 +3298,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3331,8 +3328,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="17" t="s">
         <v>255</v>
       </c>
@@ -3362,8 +3359,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3392,8 +3389,8 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="69" t="s">
         <v>256</v>
       </c>
@@ -3422,8 +3419,8 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="79" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3431,7 +3428,7 @@
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -3454,14 +3451,14 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="17">
         <v>0</v>
@@ -3484,8 +3481,8 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3512,8 +3509,8 @@
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="17" t="s">
         <v>271</v>
       </c>
@@ -3540,8 +3537,8 @@
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3568,8 +3565,8 @@
       <c r="A29" s="71">
         <v>25</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="17" t="s">
         <v>273</v>
       </c>
@@ -3598,8 +3595,8 @@
       <c r="A30" s="71">
         <v>26</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="79" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="89" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -3630,8 +3627,8 @@
       <c r="A31" s="71">
         <v>27</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="79"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="17" t="s">
         <v>53</v>
       </c>
@@ -3660,8 +3657,8 @@
       <c r="A32" s="71">
         <v>28</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
@@ -3690,52 +3687,52 @@
       <c r="A33" s="71">
         <v>29</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95">
-        <v>0</v>
-      </c>
-      <c r="G33" s="94">
-        <v>0</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="77">
+        <v>0</v>
+      </c>
+      <c r="G33" s="76">
+        <v>0</v>
+      </c>
+      <c r="H33" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="96">
+      <c r="I33" s="78">
         <v>20</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94" t="s">
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M33" s="97"/>
-      <c r="N33" s="99"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="81"/>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
         <v>30</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="61"/>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="82"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93"/>
       <c r="N34" s="62">
         <f>SUM(F2:F33)</f>
         <v>25200</v>
@@ -3745,224 +3742,224 @@
       <c r="A35" s="71">
         <v>31</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95">
-        <v>0</v>
-      </c>
-      <c r="G35" s="94">
-        <v>0</v>
-      </c>
-      <c r="H35" s="94" t="s">
+      <c r="E35" s="77"/>
+      <c r="F35" s="77">
+        <v>0</v>
+      </c>
+      <c r="G35" s="76">
+        <v>0</v>
+      </c>
+      <c r="H35" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="96">
+      <c r="I35" s="78">
         <v>90</v>
       </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94" t="s">
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="98"/>
-      <c r="N35" s="97"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="79"/>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="71">
         <v>32</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="94" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95">
-        <v>0</v>
-      </c>
-      <c r="G36" s="94">
-        <v>0</v>
-      </c>
-      <c r="H36" s="94" t="s">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77">
+        <v>0</v>
+      </c>
+      <c r="G36" s="76">
+        <v>0</v>
+      </c>
+      <c r="H36" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="96">
+      <c r="I36" s="78">
         <v>20</v>
       </c>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94" t="s">
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M36" s="98"/>
-      <c r="N36" s="97"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="79"/>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="71">
         <v>33</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="94" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95">
-        <v>0</v>
-      </c>
-      <c r="G37" s="94">
-        <v>0</v>
-      </c>
-      <c r="H37" s="94" t="s">
+      <c r="E37" s="77"/>
+      <c r="F37" s="77">
+        <v>0</v>
+      </c>
+      <c r="G37" s="76">
+        <v>0</v>
+      </c>
+      <c r="H37" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="96">
+      <c r="I37" s="78">
         <v>1800</v>
       </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94" t="s">
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M37" s="98"/>
-      <c r="N37" s="97"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="79"/>
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="71">
         <v>34</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="94" t="s">
+      <c r="B38" s="86"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95">
-        <v>0</v>
-      </c>
-      <c r="G38" s="94">
-        <v>0</v>
-      </c>
-      <c r="H38" s="94" t="s">
+      <c r="E38" s="77"/>
+      <c r="F38" s="77">
+        <v>0</v>
+      </c>
+      <c r="G38" s="76">
+        <v>0</v>
+      </c>
+      <c r="H38" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="96">
+      <c r="I38" s="78">
         <v>250</v>
       </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94" t="s">
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M38" s="98"/>
-      <c r="N38" s="97"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="79"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="71">
         <v>35</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="94" t="s">
+      <c r="B39" s="86"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95">
-        <v>0</v>
-      </c>
-      <c r="G39" s="94">
-        <v>0</v>
-      </c>
-      <c r="H39" s="94" t="s">
+      <c r="E39" s="77"/>
+      <c r="F39" s="77">
+        <v>0</v>
+      </c>
+      <c r="G39" s="76">
+        <v>0</v>
+      </c>
+      <c r="H39" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="96">
+      <c r="I39" s="78">
         <v>200</v>
       </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94" t="s">
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M39" s="98"/>
-      <c r="N39" s="97"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="71">
         <v>36</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="79" t="s">
+      <c r="B40" s="86"/>
+      <c r="C40" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="94" t="s">
+      <c r="D40" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95">
-        <v>0</v>
-      </c>
-      <c r="G40" s="94">
-        <v>0</v>
-      </c>
-      <c r="H40" s="94" t="s">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77">
+        <v>0</v>
+      </c>
+      <c r="G40" s="76">
+        <v>0</v>
+      </c>
+      <c r="H40" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="96">
+      <c r="I40" s="78">
         <v>15</v>
       </c>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94" t="s">
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M40" s="98"/>
-      <c r="N40" s="97"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="71">
         <v>37</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="94" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95">
-        <v>0</v>
-      </c>
-      <c r="G41" s="94">
-        <v>0</v>
-      </c>
-      <c r="H41" s="94" t="s">
+      <c r="E41" s="77"/>
+      <c r="F41" s="77">
+        <v>0</v>
+      </c>
+      <c r="G41" s="76">
+        <v>0</v>
+      </c>
+      <c r="H41" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="96">
+      <c r="I41" s="78">
         <v>50</v>
       </c>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94" t="s">
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="71">
         <v>38</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="76" t="s">
+      <c r="B42" s="86"/>
+      <c r="C42" s="85" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -3993,8 +3990,8 @@
       <c r="A43" s="71">
         <v>39</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="12" t="s">
         <v>67</v>
       </c>
@@ -4023,8 +4020,8 @@
       <c r="A44" s="71">
         <v>40</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="12" t="s">
         <v>68</v>
       </c>
@@ -4051,8 +4048,8 @@
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="75"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="75" t="s">
         <v>284</v>
       </c>
@@ -4075,8 +4072,8 @@
       <c r="A46" s="71">
         <v>41</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="12" t="s">
         <v>69</v>
       </c>
@@ -4105,8 +4102,8 @@
       <c r="A47" s="71">
         <v>42</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87"/>
       <c r="D47" s="12" t="s">
         <v>257</v>
       </c>
@@ -4135,8 +4132,8 @@
       <c r="A48" s="71">
         <v>43</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="79" t="s">
+      <c r="B48" s="86"/>
+      <c r="C48" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -4167,8 +4164,8 @@
       <c r="A49" s="71">
         <v>44</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="79"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="12" t="s">
         <v>72</v>
       </c>
@@ -4197,8 +4194,8 @@
       <c r="A50" s="71">
         <v>45</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="79"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="12" t="s">
         <v>258</v>
       </c>
@@ -4227,8 +4224,8 @@
       <c r="A51" s="71">
         <v>46</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="79" t="s">
+      <c r="B51" s="86"/>
+      <c r="C51" s="89" t="s">
         <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -4259,8 +4256,8 @@
       <c r="A52" s="71">
         <v>47</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="79"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="12" t="s">
         <v>53</v>
       </c>
@@ -4289,8 +4286,8 @@
       <c r="A53" s="71">
         <v>48</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="79"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="12" t="s">
         <v>75</v>
       </c>
@@ -4319,8 +4316,8 @@
       <c r="A54" s="71">
         <v>49</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="79"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="12" t="s">
         <v>76</v>
       </c>
@@ -4347,20 +4344,20 @@
       <c r="A55" s="71">
         <v>50</v>
       </c>
-      <c r="B55" s="78"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="61"/>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="82"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
       <c r="N55" s="62">
         <f>SUM(F35:F54)</f>
         <v>7500</v>
@@ -4370,224 +4367,224 @@
       <c r="A56" s="71">
         <v>51</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="94" t="s">
+      <c r="D56" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95">
-        <v>0</v>
-      </c>
-      <c r="G56" s="94">
-        <v>0</v>
-      </c>
-      <c r="H56" s="94" t="s">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77">
+        <v>0</v>
+      </c>
+      <c r="G56" s="76">
+        <v>0</v>
+      </c>
+      <c r="H56" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="96">
+      <c r="I56" s="78">
         <v>90</v>
       </c>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94" t="s">
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M56" s="98"/>
-      <c r="N56" s="97"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="79"/>
     </row>
     <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="71">
         <v>52</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="94" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95">
-        <v>0</v>
-      </c>
-      <c r="G57" s="94">
-        <v>0</v>
-      </c>
-      <c r="H57" s="94" t="s">
+      <c r="E57" s="77"/>
+      <c r="F57" s="77">
+        <v>0</v>
+      </c>
+      <c r="G57" s="76">
+        <v>0</v>
+      </c>
+      <c r="H57" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="96">
+      <c r="I57" s="78">
         <v>20</v>
       </c>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94" t="s">
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M57" s="98"/>
-      <c r="N57" s="97"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="79"/>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="71">
         <v>53</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="94" t="s">
+      <c r="B58" s="86"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95">
-        <v>0</v>
-      </c>
-      <c r="G58" s="94">
-        <v>0</v>
-      </c>
-      <c r="H58" s="94" t="s">
+      <c r="E58" s="77"/>
+      <c r="F58" s="77">
+        <v>0</v>
+      </c>
+      <c r="G58" s="76">
+        <v>0</v>
+      </c>
+      <c r="H58" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="96">
+      <c r="I58" s="78">
         <v>1800</v>
       </c>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94" t="s">
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M58" s="98"/>
-      <c r="N58" s="97"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="79"/>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="71">
         <v>54</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="94" t="s">
+      <c r="B59" s="86"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95">
-        <v>0</v>
-      </c>
-      <c r="G59" s="94">
-        <v>0</v>
-      </c>
-      <c r="H59" s="94" t="s">
+      <c r="E59" s="77"/>
+      <c r="F59" s="77">
+        <v>0</v>
+      </c>
+      <c r="G59" s="76">
+        <v>0</v>
+      </c>
+      <c r="H59" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="96">
+      <c r="I59" s="78">
         <v>250</v>
       </c>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94" t="s">
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M59" s="98"/>
-      <c r="N59" s="97"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="79"/>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="71">
         <v>55</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="94" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95">
-        <v>0</v>
-      </c>
-      <c r="G60" s="94">
-        <v>0</v>
-      </c>
-      <c r="H60" s="94" t="s">
+      <c r="E60" s="77"/>
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
+      <c r="G60" s="76">
+        <v>0</v>
+      </c>
+      <c r="H60" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="96">
+      <c r="I60" s="78">
         <v>200</v>
       </c>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94" t="s">
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M60" s="98"/>
-      <c r="N60" s="97"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="79"/>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="71">
         <v>56</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="79" t="s">
+      <c r="B61" s="86"/>
+      <c r="C61" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="94" t="s">
+      <c r="D61" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95">
-        <v>0</v>
-      </c>
-      <c r="G61" s="94">
-        <v>0</v>
-      </c>
-      <c r="H61" s="94" t="s">
+      <c r="E61" s="77"/>
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
+      <c r="G61" s="76">
+        <v>0</v>
+      </c>
+      <c r="H61" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="96">
+      <c r="I61" s="78">
         <v>15</v>
       </c>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94" t="s">
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M61" s="98"/>
-      <c r="N61" s="97"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="79"/>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="71">
         <v>57</v>
       </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="94" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95">
-        <v>0</v>
-      </c>
-      <c r="G62" s="94">
-        <v>0</v>
-      </c>
-      <c r="H62" s="94" t="s">
+      <c r="E62" s="77"/>
+      <c r="F62" s="77">
+        <v>0</v>
+      </c>
+      <c r="G62" s="76">
+        <v>0</v>
+      </c>
+      <c r="H62" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="96">
+      <c r="I62" s="78">
         <v>50</v>
       </c>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94" t="s">
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="71">
         <v>58</v>
       </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="76" t="s">
+      <c r="B63" s="86"/>
+      <c r="C63" s="85" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -4618,8 +4615,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4648,8 +4645,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4678,8 +4675,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4708,8 +4705,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -4738,8 +4735,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="79" t="s">
+      <c r="B68" s="86"/>
+      <c r="C68" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -4770,8 +4767,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="79"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -4800,8 +4797,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="77"/>
-      <c r="C70" s="79"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -4830,8 +4827,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="79" t="s">
+      <c r="B71" s="86"/>
+      <c r="C71" s="89" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -4862,8 +4859,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="79"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -4892,8 +4889,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="79"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -4920,20 +4917,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="78"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="93"/>
       <c r="N74" s="62">
         <f>SUM(F56:F73)</f>
         <v>300</v>
@@ -4943,224 +4940,224 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="94" t="s">
+      <c r="D75" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="95"/>
-      <c r="F75" s="95">
-        <v>0</v>
-      </c>
-      <c r="G75" s="94">
-        <v>0</v>
-      </c>
-      <c r="H75" s="94" t="s">
+      <c r="E75" s="77"/>
+      <c r="F75" s="77">
+        <v>0</v>
+      </c>
+      <c r="G75" s="76">
+        <v>0</v>
+      </c>
+      <c r="H75" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="96">
+      <c r="I75" s="78">
         <v>90</v>
       </c>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94" t="s">
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M75" s="98"/>
-      <c r="N75" s="97"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="79"/>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="77"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="94" t="s">
+      <c r="B76" s="86"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95">
-        <v>0</v>
-      </c>
-      <c r="G76" s="94">
-        <v>0</v>
-      </c>
-      <c r="H76" s="94" t="s">
+      <c r="E76" s="77"/>
+      <c r="F76" s="77">
+        <v>0</v>
+      </c>
+      <c r="G76" s="76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="96">
+      <c r="I76" s="78">
         <v>20</v>
       </c>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94" t="s">
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M76" s="98"/>
-      <c r="N76" s="97"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="79"/>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="94" t="s">
+      <c r="B77" s="86"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95">
-        <v>0</v>
-      </c>
-      <c r="G77" s="94">
-        <v>0</v>
-      </c>
-      <c r="H77" s="94" t="s">
+      <c r="E77" s="77"/>
+      <c r="F77" s="77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="76">
+        <v>0</v>
+      </c>
+      <c r="H77" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I77" s="96">
+      <c r="I77" s="78">
         <v>1800</v>
       </c>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94" t="s">
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M77" s="98"/>
-      <c r="N77" s="97"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="79"/>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="77"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="94" t="s">
+      <c r="B78" s="86"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95">
-        <v>0</v>
-      </c>
-      <c r="G78" s="94">
-        <v>0</v>
-      </c>
-      <c r="H78" s="94" t="s">
+      <c r="E78" s="77"/>
+      <c r="F78" s="77">
+        <v>0</v>
+      </c>
+      <c r="G78" s="76">
+        <v>0</v>
+      </c>
+      <c r="H78" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I78" s="96">
+      <c r="I78" s="78">
         <v>250</v>
       </c>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94" t="s">
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M78" s="98"/>
-      <c r="N78" s="97"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="79"/>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="77"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="94" t="s">
+      <c r="B79" s="86"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95">
-        <v>0</v>
-      </c>
-      <c r="G79" s="94">
-        <v>0</v>
-      </c>
-      <c r="H79" s="94" t="s">
+      <c r="E79" s="77"/>
+      <c r="F79" s="77">
+        <v>0</v>
+      </c>
+      <c r="G79" s="76">
+        <v>0</v>
+      </c>
+      <c r="H79" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I79" s="96">
+      <c r="I79" s="78">
         <v>200</v>
       </c>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94" t="s">
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M79" s="98"/>
-      <c r="N79" s="97"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="79"/>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="79" t="s">
+      <c r="B80" s="86"/>
+      <c r="C80" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="94" t="s">
+      <c r="D80" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95">
-        <v>0</v>
-      </c>
-      <c r="G80" s="94">
-        <v>0</v>
-      </c>
-      <c r="H80" s="94" t="s">
+      <c r="E80" s="77"/>
+      <c r="F80" s="77">
+        <v>0</v>
+      </c>
+      <c r="G80" s="76">
+        <v>0</v>
+      </c>
+      <c r="H80" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I80" s="96">
+      <c r="I80" s="78">
         <v>15</v>
       </c>
-      <c r="J80" s="94"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94" t="s">
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M80" s="98"/>
-      <c r="N80" s="97"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="79"/>
     </row>
     <row r="81" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="77"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="94" t="s">
+      <c r="B81" s="86"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95">
-        <v>0</v>
-      </c>
-      <c r="G81" s="94">
-        <v>0</v>
-      </c>
-      <c r="H81" s="94" t="s">
+      <c r="E81" s="77"/>
+      <c r="F81" s="77">
+        <v>0</v>
+      </c>
+      <c r="G81" s="76">
+        <v>0</v>
+      </c>
+      <c r="H81" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="96">
+      <c r="I81" s="78">
         <v>50</v>
       </c>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94" t="s">
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M81" s="97"/>
-      <c r="N81" s="97"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
     </row>
     <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="77"/>
-      <c r="C82" s="76" t="s">
+      <c r="B82" s="86"/>
+      <c r="C82" s="85" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="72" t="s">
@@ -5191,8 +5188,8 @@
       <c r="A83" s="71">
         <v>79</v>
       </c>
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
       <c r="D83" s="72" t="s">
         <v>248</v>
       </c>
@@ -5221,8 +5218,8 @@
       <c r="A84" s="71">
         <v>80</v>
       </c>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
       <c r="D84" s="72" t="s">
         <v>249</v>
       </c>
@@ -5251,8 +5248,8 @@
       <c r="A85" s="71">
         <v>81</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="78"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="87"/>
       <c r="D85" s="12" t="s">
         <v>259</v>
       </c>
@@ -5281,8 +5278,8 @@
       <c r="A86" s="71">
         <v>82</v>
       </c>
-      <c r="B86" s="77"/>
-      <c r="C86" s="79" t="s">
+      <c r="B86" s="86"/>
+      <c r="C86" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="12" t="s">
@@ -5313,8 +5310,8 @@
       <c r="A87" s="71">
         <v>83</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="79"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="72" t="s">
         <v>250</v>
       </c>
@@ -5343,8 +5340,8 @@
       <c r="A88" s="71">
         <v>84</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="76" t="s">
+      <c r="B88" s="86"/>
+      <c r="C88" s="85" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="72" t="s">
@@ -5375,8 +5372,8 @@
       <c r="A89" s="71">
         <v>85</v>
       </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="78"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="87"/>
       <c r="D89" s="72" t="s">
         <v>252</v>
       </c>
@@ -5405,20 +5402,20 @@
       <c r="A90" s="71">
         <v>86</v>
       </c>
-      <c r="B90" s="78"/>
+      <c r="B90" s="87"/>
       <c r="C90" s="61"/>
-      <c r="D90" s="83" t="s">
+      <c r="D90" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="82"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="92"/>
+      <c r="J90" s="92"/>
+      <c r="K90" s="92"/>
+      <c r="L90" s="92"/>
+      <c r="M90" s="93"/>
       <c r="N90" s="62">
         <f>SUM(F75:F89)</f>
         <v>300</v>
@@ -5428,252 +5425,252 @@
       <c r="A91" s="71">
         <v>87</v>
       </c>
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="94" t="s">
+      <c r="D91" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95">
-        <v>0</v>
-      </c>
-      <c r="G91" s="94">
-        <v>0</v>
-      </c>
-      <c r="H91" s="94" t="s">
+      <c r="E91" s="77"/>
+      <c r="F91" s="77">
+        <v>0</v>
+      </c>
+      <c r="G91" s="76">
+        <v>0</v>
+      </c>
+      <c r="H91" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I91" s="95">
+      <c r="I91" s="77">
         <v>100</v>
       </c>
-      <c r="J91" s="94"/>
-      <c r="K91" s="97"/>
-      <c r="L91" s="94" t="s">
+      <c r="J91" s="76"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M91" s="98"/>
-      <c r="N91" s="97"/>
+      <c r="M91" s="80"/>
+      <c r="N91" s="79"/>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="71">
         <v>88</v>
       </c>
-      <c r="B92" s="77"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="94" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95">
-        <v>0</v>
-      </c>
-      <c r="G92" s="94">
-        <v>0</v>
-      </c>
-      <c r="H92" s="94" t="s">
+      <c r="E92" s="77"/>
+      <c r="F92" s="77">
+        <v>0</v>
+      </c>
+      <c r="G92" s="76">
+        <v>0</v>
+      </c>
+      <c r="H92" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I92" s="95">
+      <c r="I92" s="77">
         <v>150</v>
       </c>
-      <c r="J92" s="94"/>
-      <c r="K92" s="97"/>
-      <c r="L92" s="94" t="s">
+      <c r="J92" s="76"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M92" s="98"/>
-      <c r="N92" s="97"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="79"/>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="71">
         <v>89</v>
       </c>
-      <c r="B93" s="77"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="94" t="s">
+      <c r="B93" s="86"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="95"/>
-      <c r="F93" s="95">
-        <v>0</v>
-      </c>
-      <c r="G93" s="94">
-        <v>0</v>
-      </c>
-      <c r="H93" s="94" t="s">
+      <c r="E93" s="77"/>
+      <c r="F93" s="77">
+        <v>0</v>
+      </c>
+      <c r="G93" s="76">
+        <v>0</v>
+      </c>
+      <c r="H93" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I93" s="95">
+      <c r="I93" s="77">
         <v>1500</v>
       </c>
-      <c r="J93" s="94"/>
-      <c r="K93" s="97"/>
-      <c r="L93" s="94" t="s">
+      <c r="J93" s="76"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M93" s="98"/>
-      <c r="N93" s="97"/>
+      <c r="M93" s="80"/>
+      <c r="N93" s="79"/>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="71">
         <v>90</v>
       </c>
-      <c r="B94" s="77"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="94" t="s">
+      <c r="B94" s="86"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95">
-        <v>0</v>
-      </c>
-      <c r="G94" s="94">
-        <v>0</v>
-      </c>
-      <c r="H94" s="94" t="s">
+      <c r="E94" s="77"/>
+      <c r="F94" s="77">
+        <v>0</v>
+      </c>
+      <c r="G94" s="76">
+        <v>0</v>
+      </c>
+      <c r="H94" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I94" s="95">
+      <c r="I94" s="77">
         <v>1000</v>
       </c>
-      <c r="J94" s="94"/>
-      <c r="K94" s="97"/>
-      <c r="L94" s="94" t="s">
+      <c r="J94" s="76"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M94" s="98"/>
-      <c r="N94" s="97"/>
+      <c r="M94" s="80"/>
+      <c r="N94" s="79"/>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="71">
         <v>91</v>
       </c>
-      <c r="B95" s="77"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="94" t="s">
+      <c r="B95" s="86"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="95"/>
-      <c r="F95" s="95">
-        <v>0</v>
-      </c>
-      <c r="G95" s="94">
-        <v>0</v>
-      </c>
-      <c r="H95" s="94" t="s">
+      <c r="E95" s="77"/>
+      <c r="F95" s="77">
+        <v>0</v>
+      </c>
+      <c r="G95" s="76">
+        <v>0</v>
+      </c>
+      <c r="H95" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I95" s="95">
+      <c r="I95" s="77">
         <v>1400</v>
       </c>
-      <c r="J95" s="94"/>
-      <c r="K95" s="97"/>
-      <c r="L95" s="94" t="s">
+      <c r="J95" s="76"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M95" s="98"/>
-      <c r="N95" s="97"/>
+      <c r="M95" s="80"/>
+      <c r="N95" s="79"/>
     </row>
     <row r="96" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="71">
         <v>92</v>
       </c>
-      <c r="B96" s="77"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="94" t="s">
+      <c r="B96" s="86"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95">
-        <v>0</v>
-      </c>
-      <c r="G96" s="94">
-        <v>0</v>
-      </c>
-      <c r="H96" s="94" t="s">
+      <c r="E96" s="77"/>
+      <c r="F96" s="77">
+        <v>0</v>
+      </c>
+      <c r="G96" s="76">
+        <v>0</v>
+      </c>
+      <c r="H96" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I96" s="95">
+      <c r="I96" s="77">
         <v>500</v>
       </c>
-      <c r="J96" s="94"/>
-      <c r="K96" s="97"/>
-      <c r="L96" s="94" t="s">
+      <c r="J96" s="76"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M96" s="98"/>
-      <c r="N96" s="97"/>
+      <c r="M96" s="80"/>
+      <c r="N96" s="79"/>
     </row>
     <row r="97" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="71">
         <v>93</v>
       </c>
-      <c r="B97" s="77"/>
-      <c r="C97" s="79" t="s">
+      <c r="B97" s="86"/>
+      <c r="C97" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="94" t="s">
+      <c r="D97" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95">
-        <v>0</v>
-      </c>
-      <c r="G97" s="94">
-        <v>0</v>
-      </c>
-      <c r="H97" s="94" t="s">
+      <c r="E97" s="77"/>
+      <c r="F97" s="77">
+        <v>0</v>
+      </c>
+      <c r="G97" s="76">
+        <v>0</v>
+      </c>
+      <c r="H97" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I97" s="95">
+      <c r="I97" s="77">
         <v>30</v>
       </c>
-      <c r="J97" s="94"/>
-      <c r="K97" s="97"/>
-      <c r="L97" s="94" t="s">
+      <c r="J97" s="76"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M97" s="98"/>
-      <c r="N97" s="97"/>
+      <c r="M97" s="80"/>
+      <c r="N97" s="79"/>
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="71">
         <v>94</v>
       </c>
-      <c r="B98" s="77"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="94" t="s">
+      <c r="B98" s="86"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95">
-        <v>0</v>
-      </c>
-      <c r="G98" s="94">
-        <v>0</v>
-      </c>
-      <c r="H98" s="94"/>
-      <c r="I98" s="95">
+      <c r="E98" s="77"/>
+      <c r="F98" s="77">
+        <v>0</v>
+      </c>
+      <c r="G98" s="76">
+        <v>0</v>
+      </c>
+      <c r="H98" s="76"/>
+      <c r="I98" s="77">
         <v>300</v>
       </c>
-      <c r="J98" s="94"/>
-      <c r="K98" s="97"/>
-      <c r="L98" s="94" t="s">
+      <c r="J98" s="76"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M98" s="97"/>
-      <c r="N98" s="97"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="79"/>
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="71">
         <v>95</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="76" t="s">
+      <c r="B99" s="86"/>
+      <c r="C99" s="85" t="s">
         <v>87</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -5704,8 +5701,8 @@
       <c r="A100" s="71">
         <v>96</v>
       </c>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
       <c r="D100" s="17" t="s">
         <v>89</v>
       </c>
@@ -5734,8 +5731,8 @@
       <c r="A101" s="71">
         <v>97</v>
       </c>
-      <c r="B101" s="77"/>
-      <c r="C101" s="78"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="87"/>
       <c r="D101" s="69" t="s">
         <v>90</v>
       </c>
@@ -5764,8 +5761,8 @@
       <c r="A102" s="71">
         <v>98</v>
       </c>
-      <c r="B102" s="77"/>
-      <c r="C102" s="79" t="s">
+      <c r="B102" s="86"/>
+      <c r="C102" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -5796,14 +5793,14 @@
       <c r="A103" s="71">
         <v>99</v>
       </c>
-      <c r="B103" s="77"/>
-      <c r="C103" s="79"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="46">
-        <v>3788</v>
+        <v>3325</v>
       </c>
       <c r="G103" s="17">
         <v>0</v>
@@ -5826,14 +5823,14 @@
       <c r="A104" s="71">
         <v>100</v>
       </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="79"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="46">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="G104" s="17">
         <v>0</v>
@@ -5856,8 +5853,8 @@
       <c r="A105" s="71">
         <v>101</v>
       </c>
-      <c r="B105" s="77"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="17" t="s">
         <v>265</v>
       </c>
@@ -5886,14 +5883,14 @@
       <c r="A106" s="71">
         <v>102</v>
       </c>
-      <c r="B106" s="77"/>
-      <c r="C106" s="79"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="17" t="s">
         <v>264</v>
       </c>
       <c r="E106" s="46"/>
       <c r="F106" s="46">
-        <v>3300</v>
+        <v>2610</v>
       </c>
       <c r="G106" s="17">
         <v>0</v>
@@ -5916,269 +5913,269 @@
       <c r="A107" s="71">
         <v>103</v>
       </c>
-      <c r="B107" s="77"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="100" t="s">
+      <c r="B107" s="86"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95">
-        <v>0</v>
-      </c>
-      <c r="G107" s="94">
-        <v>0</v>
-      </c>
-      <c r="H107" s="94" t="s">
+      <c r="E107" s="77"/>
+      <c r="F107" s="77">
+        <v>0</v>
+      </c>
+      <c r="G107" s="76">
+        <v>0</v>
+      </c>
+      <c r="H107" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I107" s="95">
+      <c r="I107" s="77">
         <v>150</v>
       </c>
-      <c r="J107" s="100"/>
-      <c r="K107" s="94"/>
-      <c r="L107" s="94"/>
-      <c r="M107" s="97"/>
-      <c r="N107" s="99"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="76"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="81"/>
     </row>
     <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="71">
         <v>104</v>
       </c>
-      <c r="B108" s="78"/>
+      <c r="B108" s="87"/>
       <c r="C108" s="61"/>
-      <c r="D108" s="80" t="s">
+      <c r="D108" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="81"/>
-      <c r="L108" s="81"/>
-      <c r="M108" s="82"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
+      <c r="L108" s="92"/>
+      <c r="M108" s="93"/>
       <c r="N108" s="62">
         <f>SUM(F91:F107)</f>
-        <v>10687</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="71">
         <v>105</v>
       </c>
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="94" t="s">
+      <c r="D109" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95">
-        <v>0</v>
-      </c>
-      <c r="G109" s="94">
-        <v>0</v>
-      </c>
-      <c r="H109" s="94" t="s">
+      <c r="E109" s="77"/>
+      <c r="F109" s="77">
+        <v>0</v>
+      </c>
+      <c r="G109" s="76">
+        <v>0</v>
+      </c>
+      <c r="H109" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="96">
+      <c r="I109" s="78">
         <v>100</v>
       </c>
-      <c r="J109" s="94"/>
-      <c r="K109" s="94"/>
-      <c r="L109" s="94" t="s">
+      <c r="J109" s="76"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M109" s="98"/>
-      <c r="N109" s="97"/>
+      <c r="M109" s="80"/>
+      <c r="N109" s="79"/>
     </row>
     <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="71">
         <v>106</v>
       </c>
-      <c r="B110" s="77"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="94" t="s">
+      <c r="B110" s="86"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95">
-        <v>0</v>
-      </c>
-      <c r="G110" s="94">
-        <v>0</v>
-      </c>
-      <c r="H110" s="94" t="s">
+      <c r="E110" s="77"/>
+      <c r="F110" s="77">
+        <v>0</v>
+      </c>
+      <c r="G110" s="76">
+        <v>0</v>
+      </c>
+      <c r="H110" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I110" s="96">
+      <c r="I110" s="78">
         <v>150</v>
       </c>
-      <c r="J110" s="94"/>
-      <c r="K110" s="94"/>
-      <c r="L110" s="94" t="s">
+      <c r="J110" s="76"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M110" s="98"/>
-      <c r="N110" s="97"/>
+      <c r="M110" s="80"/>
+      <c r="N110" s="79"/>
     </row>
     <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="71">
         <v>107</v>
       </c>
-      <c r="B111" s="77"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="94" t="s">
+      <c r="B111" s="86"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95">
-        <v>0</v>
-      </c>
-      <c r="G111" s="94">
-        <v>0</v>
-      </c>
-      <c r="H111" s="94"/>
-      <c r="I111" s="96">
-        <v>0</v>
-      </c>
-      <c r="J111" s="94"/>
-      <c r="K111" s="94"/>
-      <c r="L111" s="94" t="s">
+      <c r="E111" s="77"/>
+      <c r="F111" s="77">
+        <v>0</v>
+      </c>
+      <c r="G111" s="76">
+        <v>0</v>
+      </c>
+      <c r="H111" s="76"/>
+      <c r="I111" s="78">
+        <v>0</v>
+      </c>
+      <c r="J111" s="76"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M111" s="98"/>
-      <c r="N111" s="97"/>
+      <c r="M111" s="80"/>
+      <c r="N111" s="79"/>
     </row>
     <row r="112" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="71">
         <v>108</v>
       </c>
-      <c r="B112" s="77"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="94" t="s">
+      <c r="B112" s="86"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95">
-        <v>0</v>
-      </c>
-      <c r="G112" s="94">
-        <v>0</v>
-      </c>
-      <c r="H112" s="94" t="s">
+      <c r="E112" s="77"/>
+      <c r="F112" s="77">
+        <v>0</v>
+      </c>
+      <c r="G112" s="76">
+        <v>0</v>
+      </c>
+      <c r="H112" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="I112" s="96">
+      <c r="I112" s="78">
         <v>1000</v>
       </c>
-      <c r="J112" s="94"/>
-      <c r="K112" s="94"/>
-      <c r="L112" s="94" t="s">
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M112" s="98"/>
-      <c r="N112" s="97"/>
+      <c r="M112" s="80"/>
+      <c r="N112" s="79"/>
     </row>
     <row r="113" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="71">
         <v>109</v>
       </c>
-      <c r="B113" s="77"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="94" t="s">
+      <c r="B113" s="86"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="E113" s="95"/>
-      <c r="F113" s="95">
-        <v>0</v>
-      </c>
-      <c r="G113" s="94">
-        <v>0</v>
-      </c>
-      <c r="H113" s="94" t="s">
+      <c r="E113" s="77"/>
+      <c r="F113" s="77">
+        <v>0</v>
+      </c>
+      <c r="G113" s="76">
+        <v>0</v>
+      </c>
+      <c r="H113" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="96">
+      <c r="I113" s="78">
         <v>200</v>
       </c>
-      <c r="J113" s="94"/>
-      <c r="K113" s="94"/>
-      <c r="L113" s="94" t="s">
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M113" s="98"/>
-      <c r="N113" s="97"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="79"/>
     </row>
     <row r="114" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="71">
         <v>110</v>
       </c>
-      <c r="B114" s="77"/>
-      <c r="C114" s="79"/>
-      <c r="D114" s="94" t="s">
+      <c r="B114" s="86"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95">
-        <v>0</v>
-      </c>
-      <c r="G114" s="94">
-        <v>0</v>
-      </c>
-      <c r="H114" s="94" t="s">
+      <c r="E114" s="77"/>
+      <c r="F114" s="77">
+        <v>0</v>
+      </c>
+      <c r="G114" s="76">
+        <v>0</v>
+      </c>
+      <c r="H114" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I114" s="96">
+      <c r="I114" s="78">
         <v>600</v>
       </c>
-      <c r="J114" s="94"/>
-      <c r="K114" s="94"/>
-      <c r="L114" s="94" t="s">
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M114" s="98"/>
-      <c r="N114" s="97"/>
+      <c r="M114" s="80"/>
+      <c r="N114" s="79"/>
     </row>
     <row r="115" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="71">
         <v>111</v>
       </c>
-      <c r="B115" s="77"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="94" t="s">
+      <c r="B115" s="86"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E115" s="95"/>
-      <c r="F115" s="95">
-        <v>0</v>
-      </c>
-      <c r="G115" s="94">
-        <v>0</v>
-      </c>
-      <c r="H115" s="94" t="s">
+      <c r="E115" s="77"/>
+      <c r="F115" s="77">
+        <v>0</v>
+      </c>
+      <c r="G115" s="76">
+        <v>0</v>
+      </c>
+      <c r="H115" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I115" s="96">
+      <c r="I115" s="78">
         <v>1800</v>
       </c>
-      <c r="J115" s="94"/>
-      <c r="K115" s="94"/>
-      <c r="L115" s="94" t="s">
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M115" s="98"/>
-      <c r="N115" s="97"/>
+      <c r="M115" s="80"/>
+      <c r="N115" s="79"/>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="79"/>
+      <c r="B116" s="86"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="17" t="s">
         <v>274</v>
       </c>
@@ -6203,8 +6200,8 @@
     </row>
     <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="79"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="17" t="s">
         <v>282</v>
       </c>
@@ -6225,8 +6222,8 @@
     </row>
     <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="75"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="79"/>
+      <c r="B118" s="86"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="17" t="s">
         <v>283</v>
       </c>
@@ -6247,8 +6244,8 @@
     </row>
     <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="75"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="79"/>
+      <c r="B119" s="86"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="17" t="s">
         <v>281</v>
       </c>
@@ -6271,8 +6268,8 @@
       <c r="A120" s="71">
         <v>112</v>
       </c>
-      <c r="B120" s="77"/>
-      <c r="C120" s="79"/>
+      <c r="B120" s="86"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="17" t="s">
         <v>276</v>
       </c>
@@ -6301,242 +6298,242 @@
       <c r="A121" s="71">
         <v>113</v>
       </c>
-      <c r="B121" s="77"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="94" t="s">
+      <c r="B121" s="86"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="E121" s="95"/>
-      <c r="F121" s="95">
-        <v>0</v>
-      </c>
-      <c r="G121" s="94">
-        <v>0</v>
-      </c>
-      <c r="H121" s="94" t="s">
+      <c r="E121" s="77"/>
+      <c r="F121" s="77">
+        <v>0</v>
+      </c>
+      <c r="G121" s="76">
+        <v>0</v>
+      </c>
+      <c r="H121" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I121" s="96">
+      <c r="I121" s="78">
         <v>20</v>
       </c>
-      <c r="J121" s="94"/>
-      <c r="K121" s="94"/>
-      <c r="L121" s="94" t="s">
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M121" s="98"/>
-      <c r="N121" s="97"/>
+      <c r="M121" s="80"/>
+      <c r="N121" s="79"/>
     </row>
     <row r="122" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="71">
         <v>114</v>
       </c>
-      <c r="B122" s="77"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="94" t="s">
+      <c r="B122" s="86"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E122" s="95"/>
-      <c r="F122" s="95">
-        <v>0</v>
-      </c>
-      <c r="G122" s="94">
-        <v>0</v>
-      </c>
-      <c r="H122" s="94" t="s">
+      <c r="E122" s="77"/>
+      <c r="F122" s="77">
+        <v>0</v>
+      </c>
+      <c r="G122" s="76">
+        <v>0</v>
+      </c>
+      <c r="H122" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I122" s="96">
+      <c r="I122" s="78">
         <v>30</v>
       </c>
-      <c r="J122" s="94"/>
-      <c r="K122" s="94"/>
-      <c r="L122" s="94" t="s">
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M122" s="98"/>
-      <c r="N122" s="97"/>
+      <c r="M122" s="80"/>
+      <c r="N122" s="79"/>
     </row>
     <row r="123" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="71">
         <v>115</v>
       </c>
-      <c r="B123" s="77"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="94" t="s">
+      <c r="B123" s="86"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95">
-        <v>0</v>
-      </c>
-      <c r="G123" s="94">
-        <v>0</v>
-      </c>
-      <c r="H123" s="94" t="s">
+      <c r="E123" s="77"/>
+      <c r="F123" s="77">
+        <v>0</v>
+      </c>
+      <c r="G123" s="76">
+        <v>0</v>
+      </c>
+      <c r="H123" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="I123" s="96">
+      <c r="I123" s="78">
         <v>200</v>
       </c>
-      <c r="J123" s="94"/>
-      <c r="K123" s="94"/>
-      <c r="L123" s="94" t="s">
+      <c r="J123" s="76"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M123" s="98"/>
-      <c r="N123" s="97"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="79"/>
     </row>
     <row r="124" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="71">
         <v>116</v>
       </c>
-      <c r="B124" s="77"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="94" t="s">
+      <c r="B124" s="86"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="E124" s="95"/>
-      <c r="F124" s="95">
-        <v>0</v>
-      </c>
-      <c r="G124" s="94">
-        <v>0</v>
-      </c>
-      <c r="H124" s="94" t="s">
+      <c r="E124" s="77"/>
+      <c r="F124" s="77">
+        <v>0</v>
+      </c>
+      <c r="G124" s="76">
+        <v>0</v>
+      </c>
+      <c r="H124" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I124" s="96">
+      <c r="I124" s="78">
         <v>200</v>
       </c>
-      <c r="J124" s="94"/>
-      <c r="K124" s="94"/>
-      <c r="L124" s="94" t="s">
+      <c r="J124" s="76"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M124" s="98"/>
-      <c r="N124" s="97"/>
+      <c r="M124" s="80"/>
+      <c r="N124" s="79"/>
     </row>
     <row r="125" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="71">
         <v>117</v>
       </c>
-      <c r="B125" s="77"/>
-      <c r="C125" s="76" t="s">
+      <c r="B125" s="86"/>
+      <c r="C125" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="94" t="s">
+      <c r="D125" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="E125" s="95"/>
-      <c r="F125" s="95">
-        <v>0</v>
-      </c>
-      <c r="G125" s="94">
-        <v>0</v>
-      </c>
-      <c r="H125" s="94"/>
-      <c r="I125" s="96">
+      <c r="E125" s="77"/>
+      <c r="F125" s="77">
+        <v>0</v>
+      </c>
+      <c r="G125" s="76">
+        <v>0</v>
+      </c>
+      <c r="H125" s="76"/>
+      <c r="I125" s="78">
         <v>500</v>
       </c>
-      <c r="J125" s="94"/>
-      <c r="K125" s="94"/>
-      <c r="L125" s="94" t="s">
+      <c r="J125" s="76"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M125" s="98"/>
-      <c r="N125" s="97"/>
+      <c r="M125" s="80"/>
+      <c r="N125" s="79"/>
     </row>
     <row r="126" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="71">
         <v>118</v>
       </c>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="94" t="s">
+      <c r="B126" s="86"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E126" s="95"/>
-      <c r="F126" s="95">
-        <v>0</v>
-      </c>
-      <c r="G126" s="94">
-        <v>0</v>
-      </c>
-      <c r="H126" s="94"/>
-      <c r="I126" s="96">
-        <v>0</v>
-      </c>
-      <c r="J126" s="94"/>
-      <c r="K126" s="94"/>
-      <c r="L126" s="94" t="s">
+      <c r="E126" s="77"/>
+      <c r="F126" s="77">
+        <v>0</v>
+      </c>
+      <c r="G126" s="76">
+        <v>0</v>
+      </c>
+      <c r="H126" s="76"/>
+      <c r="I126" s="78">
+        <v>0</v>
+      </c>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M126" s="98"/>
-      <c r="N126" s="97"/>
+      <c r="M126" s="80"/>
+      <c r="N126" s="79"/>
     </row>
     <row r="127" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
         <v>119</v>
       </c>
-      <c r="B127" s="77"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="94" t="s">
+      <c r="B127" s="86"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="E127" s="95"/>
-      <c r="F127" s="95">
-        <v>0</v>
-      </c>
-      <c r="G127" s="94">
-        <v>0</v>
-      </c>
-      <c r="H127" s="94"/>
-      <c r="I127" s="96">
+      <c r="E127" s="77"/>
+      <c r="F127" s="77">
+        <v>0</v>
+      </c>
+      <c r="G127" s="76">
+        <v>0</v>
+      </c>
+      <c r="H127" s="76"/>
+      <c r="I127" s="78">
         <v>100</v>
       </c>
-      <c r="J127" s="94"/>
-      <c r="K127" s="94"/>
-      <c r="L127" s="94" t="s">
+      <c r="J127" s="76"/>
+      <c r="K127" s="76"/>
+      <c r="L127" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M127" s="97"/>
-      <c r="N127" s="97"/>
+      <c r="M127" s="79"/>
+      <c r="N127" s="79"/>
     </row>
     <row r="128" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
         <v>120</v>
       </c>
-      <c r="B128" s="77"/>
-      <c r="C128" s="78"/>
-      <c r="D128" s="94" t="s">
+      <c r="B128" s="86"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E128" s="95"/>
-      <c r="F128" s="95">
-        <v>0</v>
-      </c>
-      <c r="G128" s="94">
-        <v>0</v>
-      </c>
-      <c r="H128" s="94"/>
-      <c r="I128" s="96">
+      <c r="E128" s="77"/>
+      <c r="F128" s="77">
+        <v>0</v>
+      </c>
+      <c r="G128" s="76">
+        <v>0</v>
+      </c>
+      <c r="H128" s="76"/>
+      <c r="I128" s="78">
         <v>100</v>
       </c>
-      <c r="J128" s="94"/>
-      <c r="K128" s="94"/>
-      <c r="L128" s="94" t="s">
+      <c r="J128" s="76"/>
+      <c r="K128" s="76"/>
+      <c r="L128" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M128" s="97"/>
-      <c r="N128" s="97"/>
+      <c r="M128" s="79"/>
+      <c r="N128" s="79"/>
     </row>
     <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="71">
         <v>121</v>
       </c>
-      <c r="B129" s="77"/>
-      <c r="C129" s="79" t="s">
+      <c r="B129" s="86"/>
+      <c r="C129" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -6565,14 +6562,14 @@
       <c r="A130" s="71">
         <v>122</v>
       </c>
-      <c r="B130" s="77"/>
-      <c r="C130" s="79"/>
+      <c r="B130" s="86"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E130" s="46"/>
       <c r="F130" s="46">
-        <v>2099</v>
+        <v>2063</v>
       </c>
       <c r="G130" s="17">
         <v>0</v>
@@ -6593,303 +6590,303 @@
       <c r="A131" s="71">
         <v>123</v>
       </c>
-      <c r="B131" s="77"/>
-      <c r="C131" s="79"/>
-      <c r="D131" s="94" t="s">
+      <c r="B131" s="86"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="E131" s="95"/>
-      <c r="F131" s="95">
-        <v>0</v>
-      </c>
-      <c r="G131" s="94">
-        <v>0</v>
-      </c>
-      <c r="H131" s="94"/>
-      <c r="I131" s="95">
-        <v>0</v>
-      </c>
-      <c r="J131" s="94"/>
-      <c r="K131" s="94"/>
-      <c r="L131" s="94" t="s">
+      <c r="E131" s="77"/>
+      <c r="F131" s="77">
+        <v>0</v>
+      </c>
+      <c r="G131" s="76">
+        <v>0</v>
+      </c>
+      <c r="H131" s="76"/>
+      <c r="I131" s="77">
+        <v>0</v>
+      </c>
+      <c r="J131" s="76"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M131" s="97"/>
-      <c r="N131" s="99"/>
+      <c r="M131" s="79"/>
+      <c r="N131" s="81"/>
     </row>
     <row r="132" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
         <v>124</v>
       </c>
-      <c r="B132" s="77"/>
-      <c r="C132" s="79"/>
-      <c r="D132" s="94" t="s">
+      <c r="B132" s="86"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="E132" s="95"/>
-      <c r="F132" s="95">
-        <v>0</v>
-      </c>
-      <c r="G132" s="94">
-        <v>0</v>
-      </c>
-      <c r="H132" s="94"/>
-      <c r="I132" s="95">
+      <c r="E132" s="77"/>
+      <c r="F132" s="77">
+        <v>0</v>
+      </c>
+      <c r="G132" s="76">
+        <v>0</v>
+      </c>
+      <c r="H132" s="76"/>
+      <c r="I132" s="77">
         <v>100</v>
       </c>
-      <c r="J132" s="94"/>
-      <c r="K132" s="94"/>
-      <c r="L132" s="94" t="s">
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
+      <c r="L132" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M132" s="97"/>
-      <c r="N132" s="99"/>
+      <c r="M132" s="79"/>
+      <c r="N132" s="81"/>
     </row>
     <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
         <v>125</v>
       </c>
-      <c r="B133" s="78"/>
+      <c r="B133" s="87"/>
       <c r="C133" s="74"/>
-      <c r="D133" s="80" t="s">
+      <c r="D133" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="E133" s="81"/>
-      <c r="F133" s="81"/>
-      <c r="G133" s="81"/>
-      <c r="H133" s="81"/>
-      <c r="I133" s="81"/>
-      <c r="J133" s="81"/>
-      <c r="K133" s="81"/>
-      <c r="L133" s="81"/>
-      <c r="M133" s="82"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
+      <c r="K133" s="92"/>
+      <c r="L133" s="92"/>
+      <c r="M133" s="93"/>
       <c r="N133" s="65">
         <f>SUM(F109:F132)</f>
-        <v>8567</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>126</v>
       </c>
-      <c r="B134" s="89" t="s">
+      <c r="B134" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="79" t="s">
+      <c r="C134" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="94" t="s">
+      <c r="D134" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E134" s="95"/>
-      <c r="F134" s="95">
-        <v>0</v>
-      </c>
-      <c r="G134" s="94">
-        <v>0</v>
-      </c>
-      <c r="H134" s="94" t="s">
+      <c r="E134" s="77"/>
+      <c r="F134" s="77">
+        <v>0</v>
+      </c>
+      <c r="G134" s="76">
+        <v>0</v>
+      </c>
+      <c r="H134" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I134" s="95">
+      <c r="I134" s="77">
         <v>2000</v>
       </c>
-      <c r="J134" s="94"/>
-      <c r="K134" s="94"/>
-      <c r="L134" s="94" t="s">
+      <c r="J134" s="76"/>
+      <c r="K134" s="76"/>
+      <c r="L134" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M134" s="98"/>
-      <c r="N134" s="97"/>
+      <c r="M134" s="80"/>
+      <c r="N134" s="79"/>
     </row>
     <row r="135" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
         <v>127</v>
       </c>
-      <c r="B135" s="77"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="94" t="s">
+      <c r="B135" s="86"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="95"/>
-      <c r="F135" s="95">
-        <v>0</v>
-      </c>
-      <c r="G135" s="94">
-        <v>0</v>
-      </c>
-      <c r="H135" s="94" t="s">
+      <c r="E135" s="77"/>
+      <c r="F135" s="77">
+        <v>0</v>
+      </c>
+      <c r="G135" s="76">
+        <v>0</v>
+      </c>
+      <c r="H135" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I135" s="95">
+      <c r="I135" s="77">
         <v>100</v>
       </c>
-      <c r="J135" s="94"/>
-      <c r="K135" s="94"/>
-      <c r="L135" s="94" t="s">
+      <c r="J135" s="76"/>
+      <c r="K135" s="76"/>
+      <c r="L135" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M135" s="98"/>
-      <c r="N135" s="97"/>
+      <c r="M135" s="80"/>
+      <c r="N135" s="79"/>
     </row>
     <row r="136" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
         <v>128</v>
       </c>
-      <c r="B136" s="77"/>
-      <c r="C136" s="79"/>
-      <c r="D136" s="94" t="s">
+      <c r="B136" s="86"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E136" s="95"/>
-      <c r="F136" s="95">
-        <v>0</v>
-      </c>
-      <c r="G136" s="94">
-        <v>0</v>
-      </c>
-      <c r="H136" s="94" t="s">
+      <c r="E136" s="77"/>
+      <c r="F136" s="77">
+        <v>0</v>
+      </c>
+      <c r="G136" s="76">
+        <v>0</v>
+      </c>
+      <c r="H136" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I136" s="95">
+      <c r="I136" s="77">
         <v>100</v>
       </c>
-      <c r="J136" s="94"/>
-      <c r="K136" s="94"/>
-      <c r="L136" s="94" t="s">
+      <c r="J136" s="76"/>
+      <c r="K136" s="76"/>
+      <c r="L136" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M136" s="98"/>
-      <c r="N136" s="97"/>
+      <c r="M136" s="80"/>
+      <c r="N136" s="79"/>
     </row>
     <row r="137" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
         <v>129</v>
       </c>
-      <c r="B137" s="77"/>
-      <c r="C137" s="79"/>
-      <c r="D137" s="94" t="s">
+      <c r="B137" s="86"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E137" s="95"/>
-      <c r="F137" s="95">
-        <v>0</v>
-      </c>
-      <c r="G137" s="94">
-        <v>0</v>
-      </c>
-      <c r="H137" s="94" t="s">
+      <c r="E137" s="77"/>
+      <c r="F137" s="77">
+        <v>0</v>
+      </c>
+      <c r="G137" s="76">
+        <v>0</v>
+      </c>
+      <c r="H137" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="95">
+      <c r="I137" s="77">
         <v>90</v>
       </c>
-      <c r="J137" s="94"/>
-      <c r="K137" s="94"/>
-      <c r="L137" s="94" t="s">
+      <c r="J137" s="76"/>
+      <c r="K137" s="76"/>
+      <c r="L137" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M137" s="98"/>
-      <c r="N137" s="97"/>
+      <c r="M137" s="80"/>
+      <c r="N137" s="79"/>
     </row>
     <row r="138" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
         <v>130</v>
       </c>
-      <c r="B138" s="77"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="94" t="s">
+      <c r="B138" s="86"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E138" s="95"/>
-      <c r="F138" s="95">
-        <v>0</v>
-      </c>
-      <c r="G138" s="94">
-        <v>0</v>
-      </c>
-      <c r="H138" s="94" t="s">
+      <c r="E138" s="77"/>
+      <c r="F138" s="77">
+        <v>0</v>
+      </c>
+      <c r="G138" s="76">
+        <v>0</v>
+      </c>
+      <c r="H138" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I138" s="95">
+      <c r="I138" s="77">
         <v>1000</v>
       </c>
-      <c r="J138" s="94"/>
-      <c r="K138" s="94"/>
-      <c r="L138" s="94" t="s">
+      <c r="J138" s="76"/>
+      <c r="K138" s="76"/>
+      <c r="L138" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M138" s="98"/>
-      <c r="N138" s="97"/>
+      <c r="M138" s="80"/>
+      <c r="N138" s="79"/>
     </row>
     <row r="139" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="71">
         <v>131</v>
       </c>
-      <c r="B139" s="77"/>
-      <c r="C139" s="79"/>
-      <c r="D139" s="94" t="s">
+      <c r="B139" s="86"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="E139" s="95"/>
-      <c r="F139" s="95">
-        <v>0</v>
-      </c>
-      <c r="G139" s="94">
-        <v>0</v>
-      </c>
-      <c r="H139" s="94" t="s">
+      <c r="E139" s="77"/>
+      <c r="F139" s="77">
+        <v>0</v>
+      </c>
+      <c r="G139" s="76">
+        <v>0</v>
+      </c>
+      <c r="H139" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I139" s="95">
+      <c r="I139" s="77">
         <v>400</v>
       </c>
-      <c r="J139" s="94"/>
-      <c r="K139" s="94"/>
-      <c r="L139" s="94" t="s">
+      <c r="J139" s="76"/>
+      <c r="K139" s="76"/>
+      <c r="L139" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M139" s="98"/>
-      <c r="N139" s="97"/>
+      <c r="M139" s="80"/>
+      <c r="N139" s="79"/>
     </row>
     <row r="140" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="71">
         <v>132</v>
       </c>
-      <c r="B140" s="77"/>
-      <c r="C140" s="76" t="s">
+      <c r="B140" s="86"/>
+      <c r="C140" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D140" s="94" t="s">
+      <c r="D140" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="E140" s="95"/>
-      <c r="F140" s="95">
-        <v>0</v>
-      </c>
-      <c r="G140" s="94">
-        <v>0</v>
-      </c>
-      <c r="H140" s="94" t="s">
+      <c r="E140" s="77"/>
+      <c r="F140" s="77">
+        <v>0</v>
+      </c>
+      <c r="G140" s="76">
+        <v>0</v>
+      </c>
+      <c r="H140" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I140" s="95">
+      <c r="I140" s="77">
         <v>2000</v>
       </c>
-      <c r="J140" s="94"/>
-      <c r="K140" s="94"/>
-      <c r="L140" s="94" t="s">
+      <c r="J140" s="76"/>
+      <c r="K140" s="76"/>
+      <c r="L140" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="M140" s="97"/>
-      <c r="N140" s="94"/>
+      <c r="M140" s="79"/>
+      <c r="N140" s="76"/>
     </row>
     <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="71">
         <v>133</v>
       </c>
-      <c r="B141" s="77"/>
-      <c r="C141" s="77"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="86"/>
       <c r="D141" s="17" t="s">
         <v>121</v>
       </c>
@@ -6918,8 +6915,8 @@
       <c r="A142" s="71">
         <v>134</v>
       </c>
-      <c r="B142" s="77"/>
-      <c r="C142" s="78"/>
+      <c r="B142" s="86"/>
+      <c r="C142" s="87"/>
       <c r="D142" s="17" t="s">
         <v>277</v>
       </c>
@@ -6948,7 +6945,7 @@
       <c r="A143" s="71">
         <v>135</v>
       </c>
-      <c r="B143" s="77"/>
+      <c r="B143" s="86"/>
       <c r="C143" s="70" t="s">
         <v>44</v>
       </c>
@@ -6980,8 +6977,8 @@
       <c r="A144" s="71">
         <v>136</v>
       </c>
-      <c r="B144" s="77"/>
-      <c r="C144" s="79" t="s">
+      <c r="B144" s="86"/>
+      <c r="C144" s="89" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -7012,8 +7009,8 @@
       <c r="A145" s="71">
         <v>137</v>
       </c>
-      <c r="B145" s="77"/>
-      <c r="C145" s="79"/>
+      <c r="B145" s="86"/>
+      <c r="C145" s="89"/>
       <c r="D145" s="17" t="s">
         <v>124</v>
       </c>
@@ -7042,8 +7039,8 @@
       <c r="A146" s="71">
         <v>138</v>
       </c>
-      <c r="B146" s="77"/>
-      <c r="C146" s="79"/>
+      <c r="B146" s="86"/>
+      <c r="C146" s="89"/>
       <c r="D146" s="17" t="s">
         <v>126</v>
       </c>
@@ -7072,20 +7069,20 @@
       <c r="A147" s="71">
         <v>139</v>
       </c>
-      <c r="B147" s="78"/>
+      <c r="B147" s="87"/>
       <c r="C147" s="60"/>
-      <c r="D147" s="83" t="s">
+      <c r="D147" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="E147" s="84"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="81"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="81"/>
-      <c r="K147" s="81"/>
-      <c r="L147" s="81"/>
-      <c r="M147" s="82"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="92"/>
+      <c r="G147" s="92"/>
+      <c r="H147" s="92"/>
+      <c r="I147" s="92"/>
+      <c r="J147" s="92"/>
+      <c r="K147" s="92"/>
+      <c r="L147" s="92"/>
+      <c r="M147" s="93"/>
       <c r="N147" s="65">
         <f>SUM(F134:F146)</f>
         <v>1500</v>
@@ -7095,10 +7092,10 @@
       <c r="A148" s="71">
         <v>140</v>
       </c>
-      <c r="B148" s="89" t="s">
+      <c r="B148" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="C148" s="79" t="s">
+      <c r="C148" s="89" t="s">
         <v>127</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -7129,8 +7126,8 @@
       <c r="A149" s="75">
         <v>141</v>
       </c>
-      <c r="B149" s="93"/>
-      <c r="C149" s="79"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="89"/>
       <c r="D149" s="75" t="s">
         <v>266</v>
       </c>
@@ -7159,8 +7156,8 @@
       <c r="A150" s="75">
         <v>142</v>
       </c>
-      <c r="B150" s="77"/>
-      <c r="C150" s="79"/>
+      <c r="B150" s="86"/>
+      <c r="C150" s="89"/>
       <c r="D150" s="12" t="s">
         <v>129</v>
       </c>
@@ -7189,8 +7186,8 @@
       <c r="A151" s="75">
         <v>143</v>
       </c>
-      <c r="B151" s="77"/>
-      <c r="C151" s="79"/>
+      <c r="B151" s="86"/>
+      <c r="C151" s="89"/>
       <c r="D151" s="12" t="s">
         <v>130</v>
       </c>
@@ -7219,8 +7216,8 @@
       <c r="A152" s="75">
         <v>144</v>
       </c>
-      <c r="B152" s="77"/>
-      <c r="C152" s="79"/>
+      <c r="B152" s="86"/>
+      <c r="C152" s="89"/>
       <c r="D152" s="12" t="s">
         <v>131</v>
       </c>
@@ -7249,20 +7246,20 @@
       <c r="A153" s="75">
         <v>145</v>
       </c>
-      <c r="B153" s="77"/>
+      <c r="B153" s="86"/>
       <c r="C153" s="60"/>
-      <c r="D153" s="80" t="s">
+      <c r="D153" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="81"/>
-      <c r="F153" s="81"/>
-      <c r="G153" s="81"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="81"/>
-      <c r="J153" s="81"/>
-      <c r="K153" s="81"/>
-      <c r="L153" s="81"/>
-      <c r="M153" s="82"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="92"/>
+      <c r="I153" s="92"/>
+      <c r="J153" s="92"/>
+      <c r="K153" s="92"/>
+      <c r="L153" s="92"/>
+      <c r="M153" s="93"/>
       <c r="N153" s="65">
         <f>SUM(F148:F152)</f>
         <v>125</v>
@@ -7272,8 +7269,8 @@
       <c r="A154" s="75">
         <v>146</v>
       </c>
-      <c r="B154" s="77"/>
-      <c r="C154" s="79" t="s">
+      <c r="B154" s="86"/>
+      <c r="C154" s="89" t="s">
         <v>133</v>
       </c>
       <c r="D154" s="12" t="s">
@@ -7304,8 +7301,8 @@
       <c r="A155" s="75">
         <v>147</v>
       </c>
-      <c r="B155" s="77"/>
-      <c r="C155" s="79"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="89"/>
       <c r="D155" s="75" t="s">
         <v>268</v>
       </c>
@@ -7334,8 +7331,8 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="77"/>
-      <c r="C156" s="79"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="89"/>
       <c r="D156" s="12" t="s">
         <v>135</v>
       </c>
@@ -7364,8 +7361,8 @@
       <c r="A157" s="75">
         <v>149</v>
       </c>
-      <c r="B157" s="77"/>
-      <c r="C157" s="79"/>
+      <c r="B157" s="86"/>
+      <c r="C157" s="89"/>
       <c r="D157" s="12" t="s">
         <v>136</v>
       </c>
@@ -7394,8 +7391,8 @@
       <c r="A158" s="75">
         <v>150</v>
       </c>
-      <c r="B158" s="77"/>
-      <c r="C158" s="79"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="89"/>
       <c r="D158" s="12" t="s">
         <v>137</v>
       </c>
@@ -7424,190 +7421,190 @@
       <c r="A159" s="75">
         <v>151</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="87"/>
       <c r="C159" s="11"/>
-      <c r="D159" s="83" t="s">
+      <c r="D159" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="E159" s="84"/>
-      <c r="F159" s="81"/>
-      <c r="G159" s="81"/>
-      <c r="H159" s="81"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="81"/>
-      <c r="K159" s="81"/>
-      <c r="L159" s="81"/>
-      <c r="M159" s="82"/>
+      <c r="E159" s="98"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="92"/>
+      <c r="H159" s="92"/>
+      <c r="I159" s="92"/>
+      <c r="J159" s="92"/>
+      <c r="K159" s="92"/>
+      <c r="L159" s="92"/>
+      <c r="M159" s="93"/>
       <c r="N159" s="73">
         <f>SUM(F148:F158)</f>
         <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:14" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L160" s="102"/>
+      <c r="L160" s="84"/>
     </row>
     <row r="161" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="85" t="s">
+      <c r="A161" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="86"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="86"/>
-      <c r="G161" s="86"/>
-      <c r="H161" s="86"/>
-      <c r="I161" s="86"/>
-      <c r="J161" s="86"/>
-      <c r="K161" s="86"/>
-      <c r="L161" s="86"/>
-      <c r="M161" s="87"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="95"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="95"/>
+      <c r="H161" s="95"/>
+      <c r="I161" s="95"/>
+      <c r="J161" s="95"/>
+      <c r="K161" s="95"/>
+      <c r="L161" s="95"/>
+      <c r="M161" s="96"/>
       <c r="N161" s="58">
         <f>N34+N55+N108+N133+N147+N153+N159</f>
-        <v>54004</v>
+        <v>54111</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="85" t="s">
+      <c r="A162" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="B162" s="86"/>
-      <c r="C162" s="86"/>
-      <c r="D162" s="86"/>
-      <c r="E162" s="86"/>
-      <c r="F162" s="86"/>
-      <c r="G162" s="86"/>
-      <c r="H162" s="86"/>
-      <c r="I162" s="86"/>
-      <c r="J162" s="86"/>
-      <c r="K162" s="86"/>
-      <c r="L162" s="86"/>
-      <c r="M162" s="87"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="95"/>
+      <c r="D162" s="95"/>
+      <c r="E162" s="95"/>
+      <c r="F162" s="95"/>
+      <c r="G162" s="95"/>
+      <c r="H162" s="95"/>
+      <c r="I162" s="95"/>
+      <c r="J162" s="95"/>
+      <c r="K162" s="95"/>
+      <c r="L162" s="95"/>
+      <c r="M162" s="96"/>
       <c r="N162" s="58">
         <f>SUM(F2:F13)+F33+SUM(F35:F39)+SUM(F91:F96)+SUM(F109:F124)+SUM(F134:F139)</f>
         <v>5600</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="85" t="s">
+      <c r="A163" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="B163" s="86"/>
-      <c r="C163" s="86"/>
-      <c r="D163" s="86"/>
-      <c r="E163" s="86"/>
-      <c r="F163" s="86"/>
-      <c r="G163" s="86"/>
-      <c r="H163" s="86"/>
-      <c r="I163" s="86"/>
-      <c r="J163" s="86"/>
-      <c r="K163" s="86"/>
-      <c r="L163" s="86"/>
-      <c r="M163" s="87"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="95"/>
+      <c r="E163" s="95"/>
+      <c r="F163" s="95"/>
+      <c r="G163" s="95"/>
+      <c r="H163" s="95"/>
+      <c r="I163" s="95"/>
+      <c r="J163" s="95"/>
+      <c r="K163" s="95"/>
+      <c r="L163" s="95"/>
+      <c r="M163" s="96"/>
       <c r="N163" s="58">
         <f>SUM(F140:F142,F42:F47,F17:F23)</f>
         <v>18500</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="85" t="s">
+      <c r="A164" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="86"/>
-      <c r="C164" s="86"/>
-      <c r="D164" s="86"/>
-      <c r="E164" s="86"/>
-      <c r="F164" s="86"/>
-      <c r="G164" s="86"/>
-      <c r="H164" s="86"/>
-      <c r="I164" s="86"/>
-      <c r="J164" s="86"/>
-      <c r="K164" s="86"/>
-      <c r="L164" s="86"/>
-      <c r="M164" s="87"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="95"/>
+      <c r="E164" s="95"/>
+      <c r="F164" s="95"/>
+      <c r="G164" s="95"/>
+      <c r="H164" s="95"/>
+      <c r="I164" s="95"/>
+      <c r="J164" s="95"/>
+      <c r="K164" s="95"/>
+      <c r="L164" s="95"/>
+      <c r="M164" s="96"/>
       <c r="N164" s="58">
         <f>SUM(F102:F107,F129:F132,F143:F143,F48:F50,F24:F29)</f>
-        <v>29354</v>
+        <v>29461</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="85" t="s">
+      <c r="A165" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B165" s="86"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="86"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="86"/>
-      <c r="G165" s="86"/>
-      <c r="H165" s="86"/>
-      <c r="I165" s="86"/>
-      <c r="J165" s="86"/>
-      <c r="K165" s="86"/>
-      <c r="L165" s="86"/>
-      <c r="M165" s="87"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="95"/>
+      <c r="D165" s="95"/>
+      <c r="E165" s="95"/>
+      <c r="F165" s="95"/>
+      <c r="G165" s="95"/>
+      <c r="H165" s="95"/>
+      <c r="I165" s="95"/>
+      <c r="J165" s="95"/>
+      <c r="K165" s="95"/>
+      <c r="L165" s="95"/>
+      <c r="M165" s="96"/>
       <c r="N165" s="58">
         <f>SUM(F144:F146,F52:F54,F30:F32,F99:F101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="85" t="s">
+      <c r="A166" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="B166" s="86"/>
-      <c r="C166" s="86"/>
-      <c r="D166" s="86"/>
-      <c r="E166" s="86"/>
-      <c r="F166" s="86"/>
-      <c r="G166" s="86"/>
-      <c r="H166" s="86"/>
-      <c r="I166" s="86"/>
-      <c r="J166" s="86"/>
-      <c r="K166" s="86"/>
-      <c r="L166" s="86"/>
-      <c r="M166" s="87"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
+      <c r="I166" s="95"/>
+      <c r="J166" s="95"/>
+      <c r="K166" s="95"/>
+      <c r="L166" s="95"/>
+      <c r="M166" s="96"/>
       <c r="N166" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="85" t="s">
+      <c r="A167" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
-      <c r="F167" s="86"/>
-      <c r="G167" s="86"/>
-      <c r="H167" s="86"/>
-      <c r="I167" s="86"/>
-      <c r="J167" s="86"/>
-      <c r="K167" s="86"/>
-      <c r="L167" s="86"/>
-      <c r="M167" s="87"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="95"/>
+      <c r="G167" s="95"/>
+      <c r="H167" s="95"/>
+      <c r="I167" s="95"/>
+      <c r="J167" s="95"/>
+      <c r="K167" s="95"/>
+      <c r="L167" s="95"/>
+      <c r="M167" s="96"/>
       <c r="N167" s="58">
         <f>SUM(F40:F41,F14:F16,F97:F98,F126:F128)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="88" t="s">
+      <c r="A168" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="B168" s="86"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="86"/>
-      <c r="F168" s="86"/>
-      <c r="G168" s="86"/>
-      <c r="H168" s="86"/>
-      <c r="I168" s="86"/>
-      <c r="J168" s="86"/>
-      <c r="K168" s="86"/>
-      <c r="L168" s="86"/>
-      <c r="M168" s="87"/>
+      <c r="B168" s="95"/>
+      <c r="C168" s="95"/>
+      <c r="D168" s="95"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="95"/>
+      <c r="G168" s="95"/>
+      <c r="H168" s="95"/>
+      <c r="I168" s="95"/>
+      <c r="J168" s="95"/>
+      <c r="K168" s="95"/>
+      <c r="L168" s="95"/>
+      <c r="M168" s="96"/>
       <c r="N168" s="58">
         <f>SUM(N153:N158)</f>
         <v>125</v>
@@ -7616,12 +7613,54 @@
   </sheetData>
   <autoFilter ref="A1:R159">
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="自购"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D133:M133"/>
+    <mergeCell ref="D147:M147"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A165:M165"/>
+    <mergeCell ref="A166:M166"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="B91:B108"/>
+    <mergeCell ref="B109:B133"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="A161:M161"/>
+    <mergeCell ref="A162:M162"/>
+    <mergeCell ref="A163:M163"/>
+    <mergeCell ref="A164:M164"/>
+    <mergeCell ref="D159:M159"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C109:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="P2:P14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="B2:B34"/>
     <mergeCell ref="B35:B55"/>
     <mergeCell ref="C2:C13"/>
@@ -7638,48 +7677,6 @@
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C109:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="P2:P14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="A165:M165"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="B91:B108"/>
-    <mergeCell ref="B109:B133"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="A161:M161"/>
-    <mergeCell ref="A162:M162"/>
-    <mergeCell ref="A163:M163"/>
-    <mergeCell ref="A164:M164"/>
-    <mergeCell ref="D159:M159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D133:M133"/>
-    <mergeCell ref="D147:M147"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C97:C98"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8178,7 +8175,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="92"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8213,7 +8210,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="92"/>
+      <c r="M14" s="102"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11728,167 +11725,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="85" t="s">
+      <c r="A120" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="91"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="86"/>
-      <c r="J120" s="86"/>
-      <c r="K120" s="86"/>
-      <c r="L120" s="86"/>
-      <c r="M120" s="87"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="95"/>
+      <c r="G120" s="95"/>
+      <c r="H120" s="95"/>
+      <c r="I120" s="95"/>
+      <c r="J120" s="95"/>
+      <c r="K120" s="95"/>
+      <c r="L120" s="95"/>
+      <c r="M120" s="96"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="86"/>
-      <c r="J121" s="86"/>
-      <c r="K121" s="86"/>
-      <c r="L121" s="86"/>
-      <c r="M121" s="87"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="95"/>
+      <c r="E121" s="101"/>
+      <c r="F121" s="95"/>
+      <c r="G121" s="95"/>
+      <c r="H121" s="95"/>
+      <c r="I121" s="95"/>
+      <c r="J121" s="95"/>
+      <c r="K121" s="95"/>
+      <c r="L121" s="95"/>
+      <c r="M121" s="96"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="85" t="s">
+      <c r="A122" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="91"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="86"/>
-      <c r="J122" s="86"/>
-      <c r="K122" s="86"/>
-      <c r="L122" s="86"/>
-      <c r="M122" s="87"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="95"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="95"/>
+      <c r="G122" s="95"/>
+      <c r="H122" s="95"/>
+      <c r="I122" s="95"/>
+      <c r="J122" s="95"/>
+      <c r="K122" s="95"/>
+      <c r="L122" s="95"/>
+      <c r="M122" s="96"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
-      <c r="K123" s="86"/>
-      <c r="L123" s="86"/>
-      <c r="M123" s="87"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="101"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95"/>
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="95"/>
+      <c r="K123" s="95"/>
+      <c r="L123" s="95"/>
+      <c r="M123" s="96"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="85" t="s">
+      <c r="A124" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
-      <c r="D124" s="86"/>
-      <c r="E124" s="91"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
-      <c r="J124" s="86"/>
-      <c r="K124" s="86"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="87"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="95"/>
+      <c r="J124" s="95"/>
+      <c r="K124" s="95"/>
+      <c r="L124" s="95"/>
+      <c r="M124" s="96"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="86"/>
-      <c r="G125" s="86"/>
-      <c r="H125" s="86"/>
-      <c r="I125" s="86"/>
-      <c r="J125" s="86"/>
-      <c r="K125" s="86"/>
-      <c r="L125" s="86"/>
-      <c r="M125" s="87"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="95"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
+      <c r="K125" s="95"/>
+      <c r="L125" s="95"/>
+      <c r="M125" s="96"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="85" t="s">
+      <c r="A126" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
-      <c r="D126" s="86"/>
-      <c r="E126" s="91"/>
-      <c r="F126" s="86"/>
-      <c r="G126" s="86"/>
-      <c r="H126" s="86"/>
-      <c r="I126" s="86"/>
-      <c r="J126" s="86"/>
-      <c r="K126" s="86"/>
-      <c r="L126" s="86"/>
-      <c r="M126" s="87"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="95"/>
+      <c r="L126" s="95"/>
+      <c r="M126" s="96"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="85" t="s">
+      <c r="A127" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
-      <c r="D127" s="86"/>
-      <c r="E127" s="91"/>
-      <c r="F127" s="86"/>
-      <c r="G127" s="86"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="86"/>
-      <c r="J127" s="86"/>
-      <c r="K127" s="86"/>
-      <c r="L127" s="86"/>
-      <c r="M127" s="87"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="95"/>
+      <c r="D127" s="95"/>
+      <c r="E127" s="101"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="95"/>
+      <c r="H127" s="95"/>
+      <c r="I127" s="95"/>
+      <c r="J127" s="95"/>
+      <c r="K127" s="95"/>
+      <c r="L127" s="95"/>
+      <c r="M127" s="96"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$R$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$R$164</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="296">
   <si>
     <t>序号</t>
   </si>
@@ -434,13 +434,7 @@
     <t>物业押金或鉴定费</t>
   </si>
   <si>
-    <t>搬运及垃圾清理</t>
-  </si>
-  <si>
     <t>甲醛吸收植物或活性炭</t>
-  </si>
-  <si>
-    <t>运输费（汽油或打车）</t>
   </si>
   <si>
     <t>总价</t>
@@ -928,6 +922,58 @@
   </si>
   <si>
     <t>飘窗榻榻米</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材费用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础装修费用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>定做柜子</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项费</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景墙</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动优惠</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础退款</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材退款</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器安装</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1302,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1504,6 +1550,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,24 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1543,14 +1592,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1713,7 +1762,9 @@
             <c:separator>,</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1936,6 +1987,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2139,11 +2191,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="374913216"/>
-        <c:axId val="374913776"/>
+        <c:axId val="216745184"/>
+        <c:axId val="216745744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="374913216"/>
+        <c:axId val="216745184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374913776"/>
+        <c:crossAx val="216745744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2188,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374913776"/>
+        <c:axId val="216745744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2285,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374913216"/>
+        <c:crossAx val="216745184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,13 +2732,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:R168"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2722,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>4</v>
@@ -2756,7 +2808,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="92" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="89" t="s">
@@ -2781,17 +2833,17 @@
       <c r="J2" s="76"/>
       <c r="K2" s="76"/>
       <c r="L2" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M2" s="80"/>
       <c r="N2" s="79"/>
-      <c r="P2" s="90"/>
+      <c r="P2" s="101"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="89"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
@@ -2812,17 +2864,17 @@
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
       <c r="L3" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M3" s="80"/>
       <c r="N3" s="79"/>
-      <c r="P3" s="90"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="89"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
@@ -2843,17 +2895,17 @@
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
       <c r="L4" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="79"/>
-      <c r="P4" s="90"/>
+      <c r="P4" s="101"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="89"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
@@ -2872,17 +2924,17 @@
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M5" s="80"/>
       <c r="N5" s="79"/>
-      <c r="P5" s="90"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="86"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="89"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
@@ -2901,24 +2953,24 @@
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="79"/>
-      <c r="P6" s="90"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="101"/>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="89"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <v>1500</v>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77">
+        <v>0</v>
       </c>
       <c r="G7" s="17">
         <v>0</v>
@@ -2928,24 +2980,24 @@
         <v>800</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="40"/>
-      <c r="P7" s="90"/>
-    </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="80"/>
+      <c r="N7" s="79"/>
+      <c r="P7" s="101"/>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="89"/>
-      <c r="D8" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46">
-        <v>1000</v>
+      <c r="D8" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77">
+        <v>0</v>
       </c>
       <c r="G8" s="17">
         <v>0</v>
@@ -2953,19 +3005,19 @@
       <c r="H8" s="17"/>
       <c r="I8" s="51"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="40"/>
-      <c r="P8" s="90"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M8" s="80"/>
+      <c r="N8" s="79"/>
+      <c r="P8" s="101"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="89"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
@@ -2984,17 +3036,17 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="L9" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="81"/>
-      <c r="P9" s="90"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="89"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
@@ -3013,17 +3065,17 @@
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
       <c r="L10" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="81"/>
-      <c r="P10" s="90"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="89"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
@@ -3042,17 +3094,17 @@
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
       <c r="L11" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="81"/>
-      <c r="P11" s="90"/>
+      <c r="P11" s="101"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="89"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
@@ -3071,17 +3123,17 @@
       <c r="J12" s="76"/>
       <c r="K12" s="76"/>
       <c r="L12" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="79"/>
-      <c r="P12" s="90"/>
+      <c r="P12" s="101"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="89"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
@@ -3102,17 +3154,17 @@
       <c r="J13" s="76"/>
       <c r="K13" s="76"/>
       <c r="L13" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="81"/>
-      <c r="P13" s="90"/>
+      <c r="P13" s="101"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="89" t="s">
         <v>29</v>
       </c>
@@ -3135,18 +3187,18 @@
       <c r="J14" s="76"/>
       <c r="K14" s="76"/>
       <c r="L14" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="83"/>
-      <c r="P14" s="90"/>
+      <c r="P14" s="101"/>
       <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="89"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
@@ -3167,7 +3219,7 @@
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
       <c r="L15" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M15" s="79"/>
       <c r="N15" s="81"/>
@@ -3176,7 +3228,7 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="89"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
@@ -3197,7 +3249,7 @@
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
       <c r="L16" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M16" s="79"/>
       <c r="N16" s="81"/>
@@ -3206,8 +3258,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3229,7 +3281,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="17"/>
@@ -3238,8 +3290,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3259,7 +3311,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="17"/>
@@ -3268,8 +3320,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3289,7 +3341,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17"/>
@@ -3298,8 +3350,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3319,7 +3371,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="17"/>
@@ -3328,10 +3380,10 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46">
@@ -3349,7 +3401,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="17"/>
@@ -3359,8 +3411,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3380,7 +3432,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="17"/>
@@ -3389,10 +3441,10 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
@@ -3410,7 +3462,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
@@ -3419,7 +3471,7 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="89" t="s">
         <v>44</v>
       </c>
@@ -3442,7 +3494,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
@@ -3451,14 +3503,14 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="89"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G25" s="17">
         <v>0</v>
@@ -3472,7 +3524,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
@@ -3481,7 +3533,7 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="89"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
@@ -3502,17 +3554,17 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="86"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="89"/>
       <c r="D27" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46">
@@ -3522,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I27" s="51">
         <v>300</v>
@@ -3530,14 +3582,14 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="89"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
@@ -3556,7 +3608,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
@@ -3565,10 +3617,10 @@
       <c r="A29" s="71">
         <v>25</v>
       </c>
-      <c r="B29" s="86"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="89"/>
       <c r="D29" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46">
@@ -3586,7 +3638,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="39"/>
@@ -3595,7 +3647,7 @@
       <c r="A30" s="71">
         <v>26</v>
       </c>
-      <c r="B30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="89" t="s">
         <v>51</v>
       </c>
@@ -3618,7 +3670,7 @@
       <c r="J30" s="69"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="39"/>
@@ -3627,14 +3679,14 @@
       <c r="A31" s="71">
         <v>27</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="89"/>
       <c r="D31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -3648,7 +3700,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="39"/>
@@ -3657,7 +3709,7 @@
       <c r="A32" s="71">
         <v>28</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="89"/>
       <c r="D32" s="17" t="s">
         <v>55</v>
@@ -3678,7 +3730,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M32" s="40"/>
       <c r="N32" s="39"/>
@@ -3687,7 +3739,7 @@
       <c r="A33" s="71">
         <v>29</v>
       </c>
-      <c r="B33" s="86"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
@@ -3710,7 +3762,7 @@
       <c r="J33" s="76"/>
       <c r="K33" s="76"/>
       <c r="L33" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M33" s="79"/>
       <c r="N33" s="81"/>
@@ -3719,31 +3771,31 @@
       <c r="A34" s="71">
         <v>30</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="61"/>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="93"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
       <c r="N34" s="62">
         <f>SUM(F2:F33)</f>
-        <v>25200</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="71">
         <v>31</v>
       </c>
-      <c r="B35" s="88" t="s">
-        <v>238</v>
+      <c r="B35" s="99" t="s">
+        <v>236</v>
       </c>
       <c r="C35" s="89" t="s">
         <v>13</v>
@@ -3767,7 +3819,7 @@
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M35" s="80"/>
       <c r="N35" s="79"/>
@@ -3776,7 +3828,7 @@
       <c r="A36" s="71">
         <v>32</v>
       </c>
-      <c r="B36" s="86"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="89"/>
       <c r="D36" s="76" t="s">
         <v>18</v>
@@ -3797,7 +3849,7 @@
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M36" s="80"/>
       <c r="N36" s="79"/>
@@ -3806,7 +3858,7 @@
       <c r="A37" s="71">
         <v>33</v>
       </c>
-      <c r="B37" s="86"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="89"/>
       <c r="D37" s="76" t="s">
         <v>60</v>
@@ -3827,7 +3879,7 @@
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
       <c r="L37" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M37" s="80"/>
       <c r="N37" s="79"/>
@@ -3836,7 +3888,7 @@
       <c r="A38" s="71">
         <v>34</v>
       </c>
-      <c r="B38" s="86"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="89"/>
       <c r="D38" s="76" t="s">
         <v>61</v>
@@ -3857,7 +3909,7 @@
       <c r="J38" s="76"/>
       <c r="K38" s="76"/>
       <c r="L38" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M38" s="80"/>
       <c r="N38" s="79"/>
@@ -3866,7 +3918,7 @@
       <c r="A39" s="71">
         <v>35</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="89"/>
       <c r="D39" s="76" t="s">
         <v>62</v>
@@ -3887,7 +3939,7 @@
       <c r="J39" s="76"/>
       <c r="K39" s="76"/>
       <c r="L39" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M39" s="80"/>
       <c r="N39" s="79"/>
@@ -3896,7 +3948,7 @@
       <c r="A40" s="71">
         <v>36</v>
       </c>
-      <c r="B40" s="86"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="89" t="s">
         <v>29</v>
       </c>
@@ -3919,7 +3971,7 @@
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
       <c r="L40" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M40" s="80"/>
       <c r="N40" s="79"/>
@@ -3928,7 +3980,7 @@
       <c r="A41" s="71">
         <v>37</v>
       </c>
-      <c r="B41" s="86"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="89"/>
       <c r="D41" s="76" t="s">
         <v>64</v>
@@ -3949,7 +4001,7 @@
       <c r="J41" s="76"/>
       <c r="K41" s="76"/>
       <c r="L41" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M41" s="79"/>
       <c r="N41" s="79"/>
@@ -3958,8 +4010,8 @@
       <c r="A42" s="71">
         <v>38</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -3967,7 +4019,7 @@
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G42" s="71">
         <v>0</v>
@@ -3981,7 +4033,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M42" s="24"/>
       <c r="N42" s="12"/>
@@ -3990,14 +4042,14 @@
       <c r="A43" s="71">
         <v>39</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G43" s="71">
         <v>0</v>
@@ -4011,7 +4063,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="12"/>
@@ -4020,8 +4072,8 @@
       <c r="A44" s="71">
         <v>40</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="12" t="s">
         <v>68</v>
       </c>
@@ -4041,21 +4093,21 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M44" s="24"/>
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="75"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="75"/>
@@ -4063,7 +4115,7 @@
       <c r="J45" s="75"/>
       <c r="K45" s="75"/>
       <c r="L45" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="75"/>
@@ -4072,8 +4124,8 @@
       <c r="A46" s="71">
         <v>41</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="12" t="s">
         <v>69</v>
       </c>
@@ -4093,7 +4145,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M46" s="24"/>
       <c r="N46" s="12"/>
@@ -4102,10 +4154,10 @@
       <c r="A47" s="71">
         <v>42</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32">
@@ -4123,7 +4175,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="44"/>
@@ -4132,7 +4184,7 @@
       <c r="A48" s="71">
         <v>43</v>
       </c>
-      <c r="B48" s="86"/>
+      <c r="B48" s="93"/>
       <c r="C48" s="89" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4207,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M48" s="24"/>
       <c r="N48" s="44"/>
@@ -4164,7 +4216,7 @@
       <c r="A49" s="71">
         <v>44</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="89"/>
       <c r="D49" s="12" t="s">
         <v>72</v>
@@ -4185,7 +4237,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M49" s="24"/>
       <c r="N49" s="44"/>
@@ -4194,10 +4246,10 @@
       <c r="A50" s="71">
         <v>45</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="89"/>
       <c r="D50" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32">
@@ -4215,7 +4267,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="44"/>
@@ -4224,7 +4276,7 @@
       <c r="A51" s="71">
         <v>46</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="89" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4299,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="44"/>
@@ -4256,7 +4308,7 @@
       <c r="A52" s="71">
         <v>47</v>
       </c>
-      <c r="B52" s="86"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="89"/>
       <c r="D52" s="12" t="s">
         <v>53</v>
@@ -4277,7 +4329,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="44"/>
@@ -4286,7 +4338,7 @@
       <c r="A53" s="71">
         <v>48</v>
       </c>
-      <c r="B53" s="86"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="89"/>
       <c r="D53" s="12" t="s">
         <v>75</v>
@@ -4307,7 +4359,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="44"/>
@@ -4316,7 +4368,7 @@
       <c r="A54" s="71">
         <v>49</v>
       </c>
-      <c r="B54" s="86"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="89"/>
       <c r="D54" s="12" t="s">
         <v>76</v>
@@ -4335,7 +4387,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M54" s="24"/>
       <c r="N54" s="44"/>
@@ -4344,31 +4396,31 @@
       <c r="A55" s="71">
         <v>50</v>
       </c>
-      <c r="B55" s="87"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="61"/>
-      <c r="D55" s="100" t="s">
+      <c r="D55" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="93"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="88"/>
       <c r="N55" s="62">
         <f>SUM(F35:F54)</f>
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="71">
         <v>51</v>
       </c>
-      <c r="B56" s="88" t="s">
-        <v>239</v>
+      <c r="B56" s="99" t="s">
+        <v>237</v>
       </c>
       <c r="C56" s="89" t="s">
         <v>13</v>
@@ -4392,7 +4444,7 @@
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M56" s="80"/>
       <c r="N56" s="79"/>
@@ -4401,7 +4453,7 @@
       <c r="A57" s="71">
         <v>52</v>
       </c>
-      <c r="B57" s="86"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="89"/>
       <c r="D57" s="76" t="s">
         <v>18</v>
@@ -4422,7 +4474,7 @@
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
       <c r="L57" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M57" s="80"/>
       <c r="N57" s="79"/>
@@ -4431,7 +4483,7 @@
       <c r="A58" s="71">
         <v>53</v>
       </c>
-      <c r="B58" s="86"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="89"/>
       <c r="D58" s="76" t="s">
         <v>60</v>
@@ -4452,7 +4504,7 @@
       <c r="J58" s="76"/>
       <c r="K58" s="76"/>
       <c r="L58" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M58" s="80"/>
       <c r="N58" s="79"/>
@@ -4461,7 +4513,7 @@
       <c r="A59" s="71">
         <v>54</v>
       </c>
-      <c r="B59" s="86"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="89"/>
       <c r="D59" s="76" t="s">
         <v>61</v>
@@ -4482,7 +4534,7 @@
       <c r="J59" s="76"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M59" s="80"/>
       <c r="N59" s="79"/>
@@ -4491,7 +4543,7 @@
       <c r="A60" s="71">
         <v>55</v>
       </c>
-      <c r="B60" s="86"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="89"/>
       <c r="D60" s="76" t="s">
         <v>62</v>
@@ -4512,7 +4564,7 @@
       <c r="J60" s="76"/>
       <c r="K60" s="76"/>
       <c r="L60" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M60" s="80"/>
       <c r="N60" s="79"/>
@@ -4521,7 +4573,7 @@
       <c r="A61" s="71">
         <v>56</v>
       </c>
-      <c r="B61" s="86"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="89" t="s">
         <v>29</v>
       </c>
@@ -4544,7 +4596,7 @@
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M61" s="80"/>
       <c r="N61" s="79"/>
@@ -4553,7 +4605,7 @@
       <c r="A62" s="71">
         <v>57</v>
       </c>
-      <c r="B62" s="86"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="89"/>
       <c r="D62" s="76" t="s">
         <v>64</v>
@@ -4574,7 +4626,7 @@
       <c r="J62" s="76"/>
       <c r="K62" s="76"/>
       <c r="L62" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M62" s="79"/>
       <c r="N62" s="79"/>
@@ -4583,8 +4635,8 @@
       <c r="A63" s="71">
         <v>58</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="85" t="s">
+      <c r="B63" s="93"/>
+      <c r="C63" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -4592,7 +4644,7 @@
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G63" s="71">
         <v>0</v>
@@ -4606,7 +4658,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="12"/>
@@ -4615,8 +4667,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4636,7 +4688,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M64" s="24"/>
       <c r="N64" s="12"/>
@@ -4645,8 +4697,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4666,7 +4718,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="12"/>
@@ -4675,8 +4727,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4696,7 +4748,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="12"/>
@@ -4705,8 +4757,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="87"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -4726,7 +4778,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="44"/>
@@ -4735,7 +4787,7 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="86"/>
+      <c r="B68" s="93"/>
       <c r="C68" s="89" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +4810,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="44"/>
@@ -4767,7 +4819,7 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="86"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="89"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
@@ -4788,7 +4840,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="44"/>
@@ -4797,7 +4849,7 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="86"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="89"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
@@ -4818,7 +4870,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="44"/>
@@ -4827,7 +4879,7 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="86"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="89" t="s">
         <v>51</v>
       </c>
@@ -4850,7 +4902,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="44"/>
@@ -4859,7 +4911,7 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="86"/>
+      <c r="B72" s="93"/>
       <c r="C72" s="89"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
@@ -4880,7 +4932,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="44"/>
@@ -4889,7 +4941,7 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="86"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="89"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
@@ -4908,7 +4960,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="44"/>
@@ -4917,31 +4969,31 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="87"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="93"/>
+      <c r="D74" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="88"/>
       <c r="N74" s="62">
         <f>SUM(F56:F73)</f>
-        <v>300</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="88" t="s">
-        <v>240</v>
+      <c r="B75" s="99" t="s">
+        <v>238</v>
       </c>
       <c r="C75" s="89" t="s">
         <v>13</v>
@@ -4965,7 +5017,7 @@
       <c r="J75" s="76"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="79"/>
@@ -4974,7 +5026,7 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="86"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="89"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
@@ -4995,7 +5047,7 @@
       <c r="J76" s="76"/>
       <c r="K76" s="76"/>
       <c r="L76" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M76" s="80"/>
       <c r="N76" s="79"/>
@@ -5004,7 +5056,7 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="86"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="89"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
@@ -5025,7 +5077,7 @@
       <c r="J77" s="76"/>
       <c r="K77" s="76"/>
       <c r="L77" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M77" s="80"/>
       <c r="N77" s="79"/>
@@ -5034,7 +5086,7 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="86"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="89"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
@@ -5055,7 +5107,7 @@
       <c r="J78" s="76"/>
       <c r="K78" s="76"/>
       <c r="L78" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M78" s="80"/>
       <c r="N78" s="79"/>
@@ -5064,7 +5116,7 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="86"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="89"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
@@ -5085,7 +5137,7 @@
       <c r="J79" s="76"/>
       <c r="K79" s="76"/>
       <c r="L79" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M79" s="80"/>
       <c r="N79" s="79"/>
@@ -5094,7 +5146,7 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="86"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="89" t="s">
         <v>29</v>
       </c>
@@ -5117,7 +5169,7 @@
       <c r="J80" s="76"/>
       <c r="K80" s="76"/>
       <c r="L80" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M80" s="80"/>
       <c r="N80" s="79"/>
@@ -5126,7 +5178,7 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="86"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="89"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
@@ -5147,7 +5199,7 @@
       <c r="J81" s="76"/>
       <c r="K81" s="76"/>
       <c r="L81" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M81" s="79"/>
       <c r="N81" s="79"/>
@@ -5156,16 +5208,16 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="85" t="s">
+      <c r="B82" s="93"/>
+      <c r="C82" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G82" s="71">
         <v>0</v>
@@ -5179,7 +5231,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="12"/>
@@ -5188,14 +5240,14 @@
       <c r="A83" s="71">
         <v>79</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
       <c r="D83" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="71">
         <v>0</v>
@@ -5209,7 +5261,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="12"/>
@@ -5218,14 +5270,14 @@
       <c r="A84" s="71">
         <v>80</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
       <c r="D84" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G84" s="71">
         <v>0</v>
@@ -5239,7 +5291,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="12"/>
@@ -5248,10 +5300,10 @@
       <c r="A85" s="71">
         <v>81</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="87"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="94"/>
       <c r="D85" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32">
@@ -5269,7 +5321,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M85" s="24"/>
       <c r="N85" s="44"/>
@@ -5278,7 +5330,7 @@
       <c r="A86" s="71">
         <v>82</v>
       </c>
-      <c r="B86" s="86"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="89" t="s">
         <v>44</v>
       </c>
@@ -5301,7 +5353,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="44"/>
@@ -5310,10 +5362,10 @@
       <c r="A87" s="71">
         <v>83</v>
       </c>
-      <c r="B87" s="86"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="89"/>
       <c r="D87" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32">
@@ -5331,7 +5383,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="44"/>
@@ -5340,12 +5392,12 @@
       <c r="A88" s="71">
         <v>84</v>
       </c>
-      <c r="B88" s="86"/>
-      <c r="C88" s="85" t="s">
+      <c r="B88" s="93"/>
+      <c r="C88" s="92" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="72" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="32">
@@ -5363,7 +5415,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M88" s="24"/>
       <c r="N88" s="44"/>
@@ -5372,10 +5424,10 @@
       <c r="A89" s="71">
         <v>85</v>
       </c>
-      <c r="B89" s="86"/>
-      <c r="C89" s="87"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="32">
@@ -5393,7 +5445,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="44"/>
@@ -5402,30 +5454,30 @@
       <c r="A90" s="71">
         <v>86</v>
       </c>
-      <c r="B90" s="87"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="61"/>
-      <c r="D90" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="92"/>
-      <c r="K90" s="92"/>
-      <c r="L90" s="92"/>
-      <c r="M90" s="93"/>
+      <c r="D90" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="87"/>
+      <c r="H90" s="87"/>
+      <c r="I90" s="87"/>
+      <c r="J90" s="87"/>
+      <c r="K90" s="87"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="88"/>
       <c r="N90" s="62">
         <f>SUM(F75:F89)</f>
-        <v>300</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="71">
         <v>87</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="92" t="s">
         <v>78</v>
       </c>
       <c r="C91" s="89" t="s">
@@ -5450,7 +5502,7 @@
       <c r="J91" s="76"/>
       <c r="K91" s="79"/>
       <c r="L91" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M91" s="80"/>
       <c r="N91" s="79"/>
@@ -5459,7 +5511,7 @@
       <c r="A92" s="71">
         <v>88</v>
       </c>
-      <c r="B92" s="86"/>
+      <c r="B92" s="93"/>
       <c r="C92" s="89"/>
       <c r="D92" s="76" t="s">
         <v>81</v>
@@ -5480,7 +5532,7 @@
       <c r="J92" s="76"/>
       <c r="K92" s="79"/>
       <c r="L92" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M92" s="80"/>
       <c r="N92" s="79"/>
@@ -5489,7 +5541,7 @@
       <c r="A93" s="71">
         <v>89</v>
       </c>
-      <c r="B93" s="86"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="89"/>
       <c r="D93" s="76" t="s">
         <v>82</v>
@@ -5510,7 +5562,7 @@
       <c r="J93" s="76"/>
       <c r="K93" s="79"/>
       <c r="L93" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M93" s="80"/>
       <c r="N93" s="79"/>
@@ -5519,7 +5571,7 @@
       <c r="A94" s="71">
         <v>90</v>
       </c>
-      <c r="B94" s="86"/>
+      <c r="B94" s="93"/>
       <c r="C94" s="89"/>
       <c r="D94" s="76" t="s">
         <v>60</v>
@@ -5540,7 +5592,7 @@
       <c r="J94" s="76"/>
       <c r="K94" s="79"/>
       <c r="L94" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M94" s="80"/>
       <c r="N94" s="79"/>
@@ -5549,7 +5601,7 @@
       <c r="A95" s="71">
         <v>91</v>
       </c>
-      <c r="B95" s="86"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="89"/>
       <c r="D95" s="76" t="s">
         <v>83</v>
@@ -5570,7 +5622,7 @@
       <c r="J95" s="76"/>
       <c r="K95" s="79"/>
       <c r="L95" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M95" s="80"/>
       <c r="N95" s="79"/>
@@ -5579,7 +5631,7 @@
       <c r="A96" s="71">
         <v>92</v>
       </c>
-      <c r="B96" s="86"/>
+      <c r="B96" s="93"/>
       <c r="C96" s="89"/>
       <c r="D96" s="76" t="s">
         <v>84</v>
@@ -5600,7 +5652,7 @@
       <c r="J96" s="76"/>
       <c r="K96" s="79"/>
       <c r="L96" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M96" s="80"/>
       <c r="N96" s="79"/>
@@ -5609,7 +5661,7 @@
       <c r="A97" s="71">
         <v>93</v>
       </c>
-      <c r="B97" s="86"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="89" t="s">
         <v>29</v>
       </c>
@@ -5632,7 +5684,7 @@
       <c r="J97" s="76"/>
       <c r="K97" s="79"/>
       <c r="L97" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M97" s="80"/>
       <c r="N97" s="79"/>
@@ -5641,7 +5693,7 @@
       <c r="A98" s="71">
         <v>94</v>
       </c>
-      <c r="B98" s="86"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="89"/>
       <c r="D98" s="76" t="s">
         <v>86</v>
@@ -5660,7 +5712,7 @@
       <c r="J98" s="76"/>
       <c r="K98" s="79"/>
       <c r="L98" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M98" s="79"/>
       <c r="N98" s="79"/>
@@ -5669,8 +5721,8 @@
       <c r="A99" s="71">
         <v>95</v>
       </c>
-      <c r="B99" s="86"/>
-      <c r="C99" s="85" t="s">
+      <c r="B99" s="93"/>
+      <c r="C99" s="92" t="s">
         <v>87</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -5692,7 +5744,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="40"/>
       <c r="L99" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M99" s="40"/>
       <c r="N99" s="17"/>
@@ -5701,8 +5753,8 @@
       <c r="A100" s="71">
         <v>96</v>
       </c>
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
       <c r="D100" s="17" t="s">
         <v>89</v>
       </c>
@@ -5722,7 +5774,7 @@
       <c r="J100" s="17"/>
       <c r="K100" s="40"/>
       <c r="L100" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="17"/>
@@ -5731,8 +5783,8 @@
       <c r="A101" s="71">
         <v>97</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="69" t="s">
         <v>90</v>
       </c>
@@ -5752,7 +5804,7 @@
       <c r="J101" s="17"/>
       <c r="K101" s="40"/>
       <c r="L101" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M101" s="40"/>
       <c r="N101" s="39"/>
@@ -5761,7 +5813,7 @@
       <c r="A102" s="71">
         <v>98</v>
       </c>
-      <c r="B102" s="86"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="89" t="s">
         <v>44</v>
       </c>
@@ -5784,7 +5836,7 @@
       <c r="J102" s="17"/>
       <c r="K102" s="40"/>
       <c r="L102" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="39"/>
@@ -5793,7 +5845,7 @@
       <c r="A103" s="71">
         <v>99</v>
       </c>
-      <c r="B103" s="86"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="89"/>
       <c r="D103" s="17" t="s">
         <v>92</v>
@@ -5814,7 +5866,7 @@
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M103" s="40"/>
       <c r="N103" s="39"/>
@@ -5823,7 +5875,7 @@
       <c r="A104" s="71">
         <v>100</v>
       </c>
-      <c r="B104" s="86"/>
+      <c r="B104" s="93"/>
       <c r="C104" s="89"/>
       <c r="D104" s="17" t="s">
         <v>93</v>
@@ -5844,7 +5896,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="39"/>
@@ -5853,10 +5905,10 @@
       <c r="A105" s="71">
         <v>101</v>
       </c>
-      <c r="B105" s="86"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="89"/>
       <c r="D105" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E105" s="46"/>
       <c r="F105" s="46">
@@ -5874,7 +5926,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="39"/>
@@ -5883,10 +5935,10 @@
       <c r="A106" s="71">
         <v>102</v>
       </c>
-      <c r="B106" s="86"/>
+      <c r="B106" s="93"/>
       <c r="C106" s="89"/>
       <c r="D106" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E106" s="46"/>
       <c r="F106" s="46">
@@ -5904,16 +5956,16 @@
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M106" s="40"/>
       <c r="N106" s="39"/>
     </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="71">
         <v>103</v>
       </c>
-      <c r="B107" s="86"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="89"/>
       <c r="D107" s="82" t="s">
         <v>96</v>
@@ -5933,7 +5985,9 @@
       </c>
       <c r="J107" s="82"/>
       <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
+      <c r="L107" s="76" t="s">
+        <v>288</v>
+      </c>
       <c r="M107" s="79"/>
       <c r="N107" s="81"/>
     </row>
@@ -5941,20 +5995,20 @@
       <c r="A108" s="71">
         <v>104</v>
       </c>
-      <c r="B108" s="87"/>
+      <c r="B108" s="94"/>
       <c r="C108" s="61"/>
-      <c r="D108" s="100" t="s">
+      <c r="D108" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="92"/>
-      <c r="L108" s="92"/>
-      <c r="M108" s="93"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="87"/>
+      <c r="J108" s="87"/>
+      <c r="K108" s="87"/>
+      <c r="L108" s="87"/>
+      <c r="M108" s="88"/>
       <c r="N108" s="62">
         <f>SUM(F91:F107)</f>
         <v>10830</v>
@@ -5964,7 +6018,7 @@
       <c r="A109" s="71">
         <v>105</v>
       </c>
-      <c r="B109" s="85" t="s">
+      <c r="B109" s="92" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="89" t="s">
@@ -5989,7 +6043,7 @@
       <c r="J109" s="76"/>
       <c r="K109" s="76"/>
       <c r="L109" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M109" s="80"/>
       <c r="N109" s="79"/>
@@ -5998,7 +6052,7 @@
       <c r="A110" s="71">
         <v>106</v>
       </c>
-      <c r="B110" s="86"/>
+      <c r="B110" s="93"/>
       <c r="C110" s="89"/>
       <c r="D110" s="76" t="s">
         <v>81</v>
@@ -6019,7 +6073,7 @@
       <c r="J110" s="76"/>
       <c r="K110" s="76"/>
       <c r="L110" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M110" s="80"/>
       <c r="N110" s="79"/>
@@ -6028,7 +6082,7 @@
       <c r="A111" s="71">
         <v>107</v>
       </c>
-      <c r="B111" s="86"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="89"/>
       <c r="D111" s="76" t="s">
         <v>99</v>
@@ -6047,7 +6101,7 @@
       <c r="J111" s="76"/>
       <c r="K111" s="76"/>
       <c r="L111" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M111" s="80"/>
       <c r="N111" s="79"/>
@@ -6056,7 +6110,7 @@
       <c r="A112" s="71">
         <v>108</v>
       </c>
-      <c r="B112" s="86"/>
+      <c r="B112" s="93"/>
       <c r="C112" s="89"/>
       <c r="D112" s="76" t="s">
         <v>60</v>
@@ -6077,7 +6131,7 @@
       <c r="J112" s="76"/>
       <c r="K112" s="76"/>
       <c r="L112" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M112" s="80"/>
       <c r="N112" s="79"/>
@@ -6086,7 +6140,7 @@
       <c r="A113" s="71">
         <v>109</v>
       </c>
-      <c r="B113" s="86"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="89"/>
       <c r="D113" s="76" t="s">
         <v>101</v>
@@ -6107,7 +6161,7 @@
       <c r="J113" s="76"/>
       <c r="K113" s="76"/>
       <c r="L113" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M113" s="80"/>
       <c r="N113" s="79"/>
@@ -6116,7 +6170,7 @@
       <c r="A114" s="71">
         <v>110</v>
       </c>
-      <c r="B114" s="86"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="89"/>
       <c r="D114" s="76" t="s">
         <v>102</v>
@@ -6137,7 +6191,7 @@
       <c r="J114" s="76"/>
       <c r="K114" s="76"/>
       <c r="L114" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M114" s="80"/>
       <c r="N114" s="79"/>
@@ -6146,7 +6200,7 @@
       <c r="A115" s="71">
         <v>111</v>
       </c>
-      <c r="B115" s="86"/>
+      <c r="B115" s="93"/>
       <c r="C115" s="89"/>
       <c r="D115" s="76" t="s">
         <v>103</v>
@@ -6167,65 +6221,65 @@
       <c r="J115" s="76"/>
       <c r="K115" s="76"/>
       <c r="L115" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M115" s="80"/>
       <c r="N115" s="79"/>
     </row>
-    <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="86"/>
+      <c r="B116" s="93"/>
       <c r="C116" s="89"/>
-      <c r="D116" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46">
-        <v>500</v>
+      <c r="D116" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77">
+        <v>0</v>
       </c>
       <c r="G116" s="17">
         <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I116" s="51"/>
       <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M116" s="52"/>
-      <c r="N116" s="40"/>
-    </row>
-    <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="76"/>
+      <c r="L116" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M116" s="80"/>
+      <c r="N116" s="79"/>
+    </row>
+    <row r="117" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="86"/>
+      <c r="B117" s="93"/>
       <c r="C117" s="89"/>
-      <c r="D117" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46">
-        <v>800</v>
+      <c r="D117" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77">
+        <v>0</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="51"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M117" s="52"/>
-      <c r="N117" s="40"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M117" s="80"/>
+      <c r="N117" s="79"/>
     </row>
     <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="75"/>
-      <c r="B118" s="86"/>
+      <c r="B118" s="93"/>
       <c r="C118" s="89"/>
       <c r="D118" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E118" s="46"/>
       <c r="F118" s="46">
@@ -6237,45 +6291,45 @@
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M118" s="52"/>
       <c r="N118" s="40"/>
     </row>
-    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="75"/>
-      <c r="B119" s="86"/>
+      <c r="B119" s="93"/>
       <c r="C119" s="89"/>
-      <c r="D119" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46">
-        <v>500</v>
+      <c r="D119" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77">
+        <v>0</v>
       </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="51"/>
       <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M119" s="52"/>
-      <c r="N119" s="40"/>
-    </row>
-    <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K119" s="76"/>
+      <c r="L119" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M119" s="80"/>
+      <c r="N119" s="79"/>
+    </row>
+    <row r="120" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="71">
         <v>112</v>
       </c>
-      <c r="B120" s="86"/>
+      <c r="B120" s="93"/>
       <c r="C120" s="89"/>
-      <c r="D120" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46">
-        <v>1000</v>
+      <c r="D120" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77">
+        <v>0</v>
       </c>
       <c r="G120" s="17">
         <v>0</v>
@@ -6287,18 +6341,18 @@
         <v>2500</v>
       </c>
       <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M120" s="11"/>
-      <c r="N120" s="24"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="M120" s="80"/>
+      <c r="N120" s="79"/>
     </row>
     <row r="121" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="71">
         <v>113</v>
       </c>
-      <c r="B121" s="86"/>
+      <c r="B121" s="93"/>
       <c r="C121" s="89"/>
       <c r="D121" s="76" t="s">
         <v>105</v>
@@ -6319,7 +6373,7 @@
       <c r="J121" s="76"/>
       <c r="K121" s="76"/>
       <c r="L121" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M121" s="80"/>
       <c r="N121" s="79"/>
@@ -6328,7 +6382,7 @@
       <c r="A122" s="71">
         <v>114</v>
       </c>
-      <c r="B122" s="86"/>
+      <c r="B122" s="93"/>
       <c r="C122" s="89"/>
       <c r="D122" s="76" t="s">
         <v>106</v>
@@ -6349,7 +6403,7 @@
       <c r="J122" s="76"/>
       <c r="K122" s="76"/>
       <c r="L122" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M122" s="80"/>
       <c r="N122" s="79"/>
@@ -6358,7 +6412,7 @@
       <c r="A123" s="71">
         <v>115</v>
       </c>
-      <c r="B123" s="86"/>
+      <c r="B123" s="93"/>
       <c r="C123" s="89"/>
       <c r="D123" s="76" t="s">
         <v>107</v>
@@ -6379,7 +6433,7 @@
       <c r="J123" s="76"/>
       <c r="K123" s="76"/>
       <c r="L123" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M123" s="80"/>
       <c r="N123" s="79"/>
@@ -6388,7 +6442,7 @@
       <c r="A124" s="71">
         <v>116</v>
       </c>
-      <c r="B124" s="86"/>
+      <c r="B124" s="93"/>
       <c r="C124" s="89"/>
       <c r="D124" s="76" t="s">
         <v>109</v>
@@ -6409,7 +6463,7 @@
       <c r="J124" s="76"/>
       <c r="K124" s="76"/>
       <c r="L124" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M124" s="80"/>
       <c r="N124" s="79"/>
@@ -6418,8 +6472,8 @@
       <c r="A125" s="71">
         <v>117</v>
       </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="85" t="s">
+      <c r="B125" s="93"/>
+      <c r="C125" s="92" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="76" t="s">
@@ -6439,7 +6493,7 @@
       <c r="J125" s="76"/>
       <c r="K125" s="76"/>
       <c r="L125" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M125" s="80"/>
       <c r="N125" s="79"/>
@@ -6448,8 +6502,8 @@
       <c r="A126" s="71">
         <v>118</v>
       </c>
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="76" t="s">
         <v>111</v>
       </c>
@@ -6467,7 +6521,7 @@
       <c r="J126" s="76"/>
       <c r="K126" s="76"/>
       <c r="L126" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M126" s="80"/>
       <c r="N126" s="79"/>
@@ -6476,8 +6530,8 @@
       <c r="A127" s="71">
         <v>119</v>
       </c>
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="76" t="s">
         <v>112</v>
       </c>
@@ -6495,7 +6549,7 @@
       <c r="J127" s="76"/>
       <c r="K127" s="76"/>
       <c r="L127" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M127" s="79"/>
       <c r="N127" s="79"/>
@@ -6504,8 +6558,8 @@
       <c r="A128" s="71">
         <v>120</v>
       </c>
-      <c r="B128" s="86"/>
-      <c r="C128" s="87"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="94"/>
       <c r="D128" s="76" t="s">
         <v>113</v>
       </c>
@@ -6523,7 +6577,7 @@
       <c r="J128" s="76"/>
       <c r="K128" s="76"/>
       <c r="L128" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M128" s="79"/>
       <c r="N128" s="79"/>
@@ -6532,12 +6586,12 @@
       <c r="A129" s="71">
         <v>121</v>
       </c>
-      <c r="B129" s="86"/>
+      <c r="B129" s="93"/>
       <c r="C129" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E129" s="46"/>
       <c r="F129" s="46">
@@ -6553,7 +6607,7 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
       <c r="L129" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M129" s="24"/>
       <c r="N129" s="44"/>
@@ -6562,10 +6616,10 @@
       <c r="A130" s="71">
         <v>122</v>
       </c>
-      <c r="B130" s="86"/>
+      <c r="B130" s="93"/>
       <c r="C130" s="89"/>
       <c r="D130" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E130" s="46"/>
       <c r="F130" s="46">
@@ -6581,7 +6635,7 @@
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
       <c r="L130" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M130" s="24"/>
       <c r="N130" s="44"/>
@@ -6590,10 +6644,10 @@
       <c r="A131" s="71">
         <v>123</v>
       </c>
-      <c r="B131" s="86"/>
+      <c r="B131" s="93"/>
       <c r="C131" s="89"/>
       <c r="D131" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E131" s="77"/>
       <c r="F131" s="77">
@@ -6609,7 +6663,7 @@
       <c r="J131" s="76"/>
       <c r="K131" s="76"/>
       <c r="L131" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M131" s="79"/>
       <c r="N131" s="81"/>
@@ -6618,10 +6672,10 @@
       <c r="A132" s="71">
         <v>124</v>
       </c>
-      <c r="B132" s="86"/>
+      <c r="B132" s="93"/>
       <c r="C132" s="89"/>
       <c r="D132" s="76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E132" s="77"/>
       <c r="F132" s="77">
@@ -6637,7 +6691,7 @@
       <c r="J132" s="76"/>
       <c r="K132" s="76"/>
       <c r="L132" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M132" s="79"/>
       <c r="N132" s="81"/>
@@ -6646,31 +6700,31 @@
       <c r="A133" s="71">
         <v>125</v>
       </c>
-      <c r="B133" s="87"/>
+      <c r="B133" s="94"/>
       <c r="C133" s="74"/>
-      <c r="D133" s="100" t="s">
+      <c r="D133" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="E133" s="92"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
-      <c r="K133" s="92"/>
-      <c r="L133" s="92"/>
-      <c r="M133" s="93"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="87"/>
+      <c r="G133" s="87"/>
+      <c r="H133" s="87"/>
+      <c r="I133" s="87"/>
+      <c r="J133" s="87"/>
+      <c r="K133" s="87"/>
+      <c r="L133" s="87"/>
+      <c r="M133" s="88"/>
       <c r="N133" s="65">
         <f>SUM(F109:F132)</f>
-        <v>8531</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>126</v>
       </c>
-      <c r="B134" s="88" t="s">
-        <v>241</v>
+      <c r="B134" s="99" t="s">
+        <v>239</v>
       </c>
       <c r="C134" s="89" t="s">
         <v>13</v>
@@ -6694,7 +6748,7 @@
       <c r="J134" s="76"/>
       <c r="K134" s="76"/>
       <c r="L134" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M134" s="80"/>
       <c r="N134" s="79"/>
@@ -6703,7 +6757,7 @@
       <c r="A135" s="71">
         <v>127</v>
       </c>
-      <c r="B135" s="86"/>
+      <c r="B135" s="93"/>
       <c r="C135" s="89"/>
       <c r="D135" s="76" t="s">
         <v>116</v>
@@ -6724,7 +6778,7 @@
       <c r="J135" s="76"/>
       <c r="K135" s="76"/>
       <c r="L135" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M135" s="80"/>
       <c r="N135" s="79"/>
@@ -6733,7 +6787,7 @@
       <c r="A136" s="71">
         <v>128</v>
       </c>
-      <c r="B136" s="86"/>
+      <c r="B136" s="93"/>
       <c r="C136" s="89"/>
       <c r="D136" s="76" t="s">
         <v>117</v>
@@ -6754,7 +6808,7 @@
       <c r="J136" s="76"/>
       <c r="K136" s="76"/>
       <c r="L136" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M136" s="80"/>
       <c r="N136" s="79"/>
@@ -6763,7 +6817,7 @@
       <c r="A137" s="71">
         <v>129</v>
       </c>
-      <c r="B137" s="86"/>
+      <c r="B137" s="93"/>
       <c r="C137" s="89"/>
       <c r="D137" s="76" t="s">
         <v>16</v>
@@ -6784,7 +6838,7 @@
       <c r="J137" s="76"/>
       <c r="K137" s="76"/>
       <c r="L137" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M137" s="80"/>
       <c r="N137" s="79"/>
@@ -6793,7 +6847,7 @@
       <c r="A138" s="71">
         <v>130</v>
       </c>
-      <c r="B138" s="86"/>
+      <c r="B138" s="93"/>
       <c r="C138" s="89"/>
       <c r="D138" s="76" t="s">
         <v>118</v>
@@ -6814,7 +6868,7 @@
       <c r="J138" s="76"/>
       <c r="K138" s="76"/>
       <c r="L138" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M138" s="80"/>
       <c r="N138" s="79"/>
@@ -6823,7 +6877,7 @@
       <c r="A139" s="71">
         <v>131</v>
       </c>
-      <c r="B139" s="86"/>
+      <c r="B139" s="93"/>
       <c r="C139" s="89"/>
       <c r="D139" s="76" t="s">
         <v>119</v>
@@ -6844,7 +6898,7 @@
       <c r="J139" s="76"/>
       <c r="K139" s="76"/>
       <c r="L139" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M139" s="80"/>
       <c r="N139" s="79"/>
@@ -6853,8 +6907,8 @@
       <c r="A140" s="71">
         <v>132</v>
       </c>
-      <c r="B140" s="86"/>
-      <c r="C140" s="85" t="s">
+      <c r="B140" s="93"/>
+      <c r="C140" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D140" s="76" t="s">
@@ -6876,7 +6930,7 @@
       <c r="J140" s="76"/>
       <c r="K140" s="76"/>
       <c r="L140" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M140" s="79"/>
       <c r="N140" s="76"/>
@@ -6885,8 +6939,8 @@
       <c r="A141" s="71">
         <v>133</v>
       </c>
-      <c r="B141" s="86"/>
-      <c r="C141" s="86"/>
+      <c r="B141" s="93"/>
+      <c r="C141" s="93"/>
       <c r="D141" s="17" t="s">
         <v>121</v>
       </c>
@@ -6906,7 +6960,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M141" s="24"/>
       <c r="N141" s="12"/>
@@ -6915,10 +6969,10 @@
       <c r="A142" s="71">
         <v>134</v>
       </c>
-      <c r="B142" s="86"/>
-      <c r="C142" s="87"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="94"/>
       <c r="D142" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E142" s="46"/>
       <c r="F142" s="46">
@@ -6936,7 +6990,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M142" s="24"/>
       <c r="N142" s="44"/>
@@ -6945,12 +6999,12 @@
       <c r="A143" s="71">
         <v>135</v>
       </c>
-      <c r="B143" s="86"/>
+      <c r="B143" s="93"/>
       <c r="C143" s="70" t="s">
         <v>44</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E143" s="46"/>
       <c r="F143" s="46">
@@ -6968,7 +7022,7 @@
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M143" s="24"/>
       <c r="N143" s="44"/>
@@ -6977,7 +7031,7 @@
       <c r="A144" s="71">
         <v>136</v>
       </c>
-      <c r="B144" s="86"/>
+      <c r="B144" s="93"/>
       <c r="C144" s="89" t="s">
         <v>51</v>
       </c>
@@ -7000,7 +7054,7 @@
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M144" s="24"/>
       <c r="N144" s="44"/>
@@ -7009,7 +7063,7 @@
       <c r="A145" s="71">
         <v>137</v>
       </c>
-      <c r="B145" s="86"/>
+      <c r="B145" s="93"/>
       <c r="C145" s="89"/>
       <c r="D145" s="17" t="s">
         <v>124</v>
@@ -7030,7 +7084,7 @@
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M145" s="24"/>
       <c r="N145" s="44"/>
@@ -7039,7 +7093,7 @@
       <c r="A146" s="71">
         <v>138</v>
       </c>
-      <c r="B146" s="86"/>
+      <c r="B146" s="93"/>
       <c r="C146" s="89"/>
       <c r="D146" s="17" t="s">
         <v>126</v>
@@ -7060,7 +7114,7 @@
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M146" s="24"/>
       <c r="N146" s="44"/>
@@ -7069,20 +7123,20 @@
       <c r="A147" s="71">
         <v>139</v>
       </c>
-      <c r="B147" s="87"/>
+      <c r="B147" s="94"/>
       <c r="C147" s="60"/>
-      <c r="D147" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="E147" s="98"/>
-      <c r="F147" s="92"/>
-      <c r="G147" s="92"/>
-      <c r="H147" s="92"/>
-      <c r="I147" s="92"/>
-      <c r="J147" s="92"/>
-      <c r="K147" s="92"/>
-      <c r="L147" s="92"/>
-      <c r="M147" s="93"/>
+      <c r="D147" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="E147" s="91"/>
+      <c r="F147" s="87"/>
+      <c r="G147" s="87"/>
+      <c r="H147" s="87"/>
+      <c r="I147" s="87"/>
+      <c r="J147" s="87"/>
+      <c r="K147" s="87"/>
+      <c r="L147" s="87"/>
+      <c r="M147" s="88"/>
       <c r="N147" s="65">
         <f>SUM(F134:F146)</f>
         <v>1500</v>
@@ -7092,14 +7146,14 @@
       <c r="A148" s="71">
         <v>140</v>
       </c>
-      <c r="B148" s="88" t="s">
-        <v>244</v>
+      <c r="B148" s="99" t="s">
+        <v>242</v>
       </c>
       <c r="C148" s="89" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="46">
@@ -7109,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I148" s="46">
         <v>65</v>
@@ -7117,7 +7171,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
       <c r="L148" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M148" s="24"/>
       <c r="N148" s="55"/>
@@ -7126,10 +7180,10 @@
       <c r="A149" s="75">
         <v>141</v>
       </c>
-      <c r="B149" s="99"/>
+      <c r="B149" s="100"/>
       <c r="C149" s="89"/>
       <c r="D149" s="75" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="46">
@@ -7147,49 +7201,41 @@
       <c r="J149" s="75"/>
       <c r="K149" s="75"/>
       <c r="L149" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M149" s="24"/>
       <c r="N149" s="55"/>
     </row>
     <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="75">
-        <v>142</v>
-      </c>
-      <c r="B150" s="86"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="100"/>
       <c r="C150" s="89"/>
-      <c r="D150" s="12" t="s">
-        <v>129</v>
+      <c r="D150" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="46">
         <v>0</v>
       </c>
-      <c r="G150" s="17">
-        <v>0</v>
-      </c>
-      <c r="H150" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I150" s="46">
-        <v>0</v>
-      </c>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="75" t="s">
-        <v>279</v>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="85"/>
+      <c r="K150" s="85"/>
+      <c r="L150" s="85" t="s">
+        <v>289</v>
       </c>
       <c r="M150" s="24"/>
       <c r="N150" s="55"/>
     </row>
     <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
-        <v>143</v>
-      </c>
-      <c r="B151" s="86"/>
+        <v>142</v>
+      </c>
+      <c r="B151" s="93"/>
       <c r="C151" s="89"/>
       <c r="D151" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="46">
@@ -7207,19 +7253,19 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M151" s="24"/>
       <c r="N151" s="55"/>
     </row>
     <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="75">
-        <v>144</v>
-      </c>
-      <c r="B152" s="86"/>
+        <v>143</v>
+      </c>
+      <c r="B152" s="93"/>
       <c r="C152" s="89"/>
       <c r="D152" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="46">
@@ -7237,138 +7283,138 @@
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
       <c r="L152" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M152" s="24"/>
       <c r="N152" s="55"/>
     </row>
     <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="75">
-        <v>145</v>
-      </c>
-      <c r="B153" s="86"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" s="92"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="92"/>
-      <c r="H153" s="92"/>
-      <c r="I153" s="92"/>
-      <c r="J153" s="92"/>
-      <c r="K153" s="92"/>
-      <c r="L153" s="92"/>
-      <c r="M153" s="93"/>
-      <c r="N153" s="65">
-        <f>SUM(F148:F152)</f>
-        <v>125</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B153" s="93"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E153" s="24"/>
+      <c r="F153" s="46">
+        <v>0</v>
+      </c>
+      <c r="G153" s="17">
+        <v>0</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I153" s="46">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="M153" s="24"/>
+      <c r="N153" s="55"/>
     </row>
     <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="75">
-        <v>146</v>
-      </c>
-      <c r="B154" s="86"/>
-      <c r="C154" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="46">
-        <v>0</v>
-      </c>
-      <c r="G154" s="17">
-        <v>0</v>
-      </c>
-      <c r="H154" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I154" s="46">
-        <v>0</v>
-      </c>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="M154" s="24"/>
-      <c r="N154" s="38"/>
+        <v>145</v>
+      </c>
+      <c r="B154" s="93"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="87"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="87"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="87"/>
+      <c r="K154" s="87"/>
+      <c r="L154" s="87"/>
+      <c r="M154" s="88"/>
+      <c r="N154" s="65">
+        <f>SUM(F148:F153)</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="75">
-        <v>147</v>
-      </c>
-      <c r="B155" s="86"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="75" t="s">
-        <v>268</v>
+        <v>146</v>
+      </c>
+      <c r="B155" s="93"/>
+      <c r="C155" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
-        <v>300</v>
-      </c>
-      <c r="G155" s="75">
-        <v>1</v>
-      </c>
-      <c r="H155" s="75" t="s">
-        <v>269</v>
+        <v>28239</v>
+      </c>
+      <c r="G155" s="17">
+        <v>0</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I155" s="46">
-        <v>300</v>
-      </c>
-      <c r="J155" s="75"/>
-      <c r="K155" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
       <c r="L155" s="75" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M155" s="24"/>
       <c r="N155" s="38"/>
     </row>
     <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="75">
-        <v>148</v>
-      </c>
-      <c r="B156" s="86"/>
+        <v>147</v>
+      </c>
+      <c r="B156" s="93"/>
       <c r="C156" s="89"/>
-      <c r="D156" s="12" t="s">
-        <v>135</v>
+      <c r="D156" s="75" t="s">
+        <v>284</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="46">
-        <v>0</v>
-      </c>
-      <c r="G156" s="17">
-        <v>0</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>39</v>
+        <v>39714</v>
+      </c>
+      <c r="G156" s="75">
+        <v>1</v>
+      </c>
+      <c r="H156" s="75" t="s">
+        <v>267</v>
       </c>
       <c r="I156" s="46">
-        <v>0</v>
-      </c>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="J156" s="75"/>
+      <c r="K156" s="75"/>
       <c r="L156" s="75" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M156" s="24"/>
       <c r="N156" s="38"/>
     </row>
     <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="75">
-        <v>149</v>
-      </c>
-      <c r="B157" s="86"/>
+        <v>148</v>
+      </c>
+      <c r="B157" s="93"/>
       <c r="C157" s="89"/>
-      <c r="D157" s="12" t="s">
-        <v>136</v>
+      <c r="D157" s="85" t="s">
+        <v>266</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="46">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G157" s="17">
         <v>0</v>
@@ -7382,285 +7428,367 @@
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
       <c r="L157" s="75" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M157" s="24"/>
       <c r="N157" s="38"/>
     </row>
     <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="75">
-        <v>150</v>
-      </c>
-      <c r="B158" s="86"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="93"/>
       <c r="C158" s="89"/>
-      <c r="D158" s="12" t="s">
-        <v>137</v>
+      <c r="D158" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
-        <v>0</v>
-      </c>
-      <c r="G158" s="17">
-        <v>0</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I158" s="46">
-        <v>0</v>
-      </c>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="75" t="s">
-        <v>279</v>
+        <v>2000</v>
+      </c>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="46"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85" t="s">
+        <v>289</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="38"/>
     </row>
-    <row r="159" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="75">
+        <v>149</v>
+      </c>
+      <c r="B159" s="93"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E159" s="24"/>
+      <c r="F159" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G159" s="17">
+        <v>0</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I159" s="46">
+        <v>0</v>
+      </c>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="M159" s="24"/>
+      <c r="N159" s="38"/>
+    </row>
+    <row r="160" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="85"/>
+      <c r="B160" s="93"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="46">
+        <v>950</v>
+      </c>
+      <c r="G160" s="17">
+        <v>0</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I160" s="46">
+        <v>0</v>
+      </c>
+      <c r="J160" s="85"/>
+      <c r="K160" s="85"/>
+      <c r="L160" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="M160" s="24"/>
+      <c r="N160" s="38"/>
+    </row>
+    <row r="161" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="85"/>
+      <c r="B161" s="93"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="E161" s="24"/>
+      <c r="F161" s="46">
+        <v>-1110</v>
+      </c>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="85"/>
+      <c r="K161" s="85"/>
+      <c r="L161" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="M161" s="24"/>
+      <c r="N161" s="38"/>
+    </row>
+    <row r="162" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="85"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="E162" s="24"/>
+      <c r="F162" s="46">
+        <v>-1330</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="46"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="M162" s="24"/>
+      <c r="N162" s="38"/>
+    </row>
+    <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="75">
+        <v>150</v>
+      </c>
+      <c r="B163" s="93"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G163" s="17">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" s="46">
+        <v>0</v>
+      </c>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="M163" s="24"/>
+      <c r="N163" s="38"/>
+    </row>
+    <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="75">
         <v>151</v>
       </c>
-      <c r="B159" s="87"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="92"/>
-      <c r="G159" s="92"/>
-      <c r="H159" s="92"/>
-      <c r="I159" s="92"/>
-      <c r="J159" s="92"/>
-      <c r="K159" s="92"/>
-      <c r="L159" s="92"/>
-      <c r="M159" s="93"/>
-      <c r="N159" s="73">
-        <f>SUM(F148:F158)</f>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L160" s="84"/>
-    </row>
-    <row r="161" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="94" t="s">
+      <c r="B164" s="94"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="E164" s="91"/>
+      <c r="F164" s="87"/>
+      <c r="G164" s="87"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="87"/>
+      <c r="J164" s="87"/>
+      <c r="K164" s="87"/>
+      <c r="L164" s="87"/>
+      <c r="M164" s="88"/>
+      <c r="N164" s="73">
+        <f>SUM(F155:F163)</f>
+        <v>73763</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L165" s="84"/>
+    </row>
+    <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B166" s="96"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="96"/>
+      <c r="F166" s="96"/>
+      <c r="G166" s="96"/>
+      <c r="H166" s="96"/>
+      <c r="I166" s="96"/>
+      <c r="J166" s="96"/>
+      <c r="K166" s="96"/>
+      <c r="L166" s="96"/>
+      <c r="M166" s="97"/>
+      <c r="N166" s="58">
+        <f>N34+N55+N74+N90+N108+N133+N147+N154+N164</f>
+        <v>122949</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="96"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="96"/>
+      <c r="F167" s="96"/>
+      <c r="G167" s="96"/>
+      <c r="H167" s="96"/>
+      <c r="I167" s="96"/>
+      <c r="J167" s="96"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="96"/>
+      <c r="M167" s="97"/>
+      <c r="N167" s="58">
+        <f>SUM(F2:F13)+F33+SUM(F35:F39)+SUM(F91:F96)+SUM(F109:F124)+SUM(F134:F139)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="95"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="95"/>
-      <c r="E161" s="95"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="95"/>
-      <c r="H161" s="95"/>
-      <c r="I161" s="95"/>
-      <c r="J161" s="95"/>
-      <c r="K161" s="95"/>
-      <c r="L161" s="95"/>
-      <c r="M161" s="96"/>
-      <c r="N161" s="58">
-        <f>N34+N55+N108+N133+N147+N153+N159</f>
-        <v>54111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="94" t="s">
+      <c r="B168" s="96"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="96"/>
+      <c r="F168" s="96"/>
+      <c r="G168" s="96"/>
+      <c r="H168" s="96"/>
+      <c r="I168" s="96"/>
+      <c r="J168" s="96"/>
+      <c r="K168" s="96"/>
+      <c r="L168" s="96"/>
+      <c r="M168" s="97"/>
+      <c r="N168" s="58">
+        <f>SUM(F140:F142,F42:F47,F17:F23)</f>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95"/>
-      <c r="D162" s="95"/>
-      <c r="E162" s="95"/>
-      <c r="F162" s="95"/>
-      <c r="G162" s="95"/>
-      <c r="H162" s="95"/>
-      <c r="I162" s="95"/>
-      <c r="J162" s="95"/>
-      <c r="K162" s="95"/>
-      <c r="L162" s="95"/>
-      <c r="M162" s="96"/>
-      <c r="N162" s="58">
-        <f>SUM(F2:F13)+F33+SUM(F35:F39)+SUM(F91:F96)+SUM(F109:F124)+SUM(F134:F139)</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="94" t="s">
+      <c r="B169" s="96"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="96"/>
+      <c r="G169" s="96"/>
+      <c r="H169" s="96"/>
+      <c r="I169" s="96"/>
+      <c r="J169" s="96"/>
+      <c r="K169" s="96"/>
+      <c r="L169" s="96"/>
+      <c r="M169" s="97"/>
+      <c r="N169" s="58">
+        <f>SUM(F102:F107,F129:F132,F143:F143,F48:F50,F24:F29)</f>
+        <v>24461</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="95"/>
-      <c r="E163" s="95"/>
-      <c r="F163" s="95"/>
-      <c r="G163" s="95"/>
-      <c r="H163" s="95"/>
-      <c r="I163" s="95"/>
-      <c r="J163" s="95"/>
-      <c r="K163" s="95"/>
-      <c r="L163" s="95"/>
-      <c r="M163" s="96"/>
-      <c r="N163" s="58">
-        <f>SUM(F140:F142,F42:F47,F17:F23)</f>
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="94" t="s">
+      <c r="B170" s="96"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="96"/>
+      <c r="E170" s="96"/>
+      <c r="F170" s="96"/>
+      <c r="G170" s="96"/>
+      <c r="H170" s="96"/>
+      <c r="I170" s="96"/>
+      <c r="J170" s="96"/>
+      <c r="K170" s="96"/>
+      <c r="L170" s="96"/>
+      <c r="M170" s="97"/>
+      <c r="N170" s="58">
+        <f>SUM(F144:F146,F52:F54,F30:F32,F99:F101)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="95"/>
-      <c r="C164" s="95"/>
-      <c r="D164" s="95"/>
-      <c r="E164" s="95"/>
-      <c r="F164" s="95"/>
-      <c r="G164" s="95"/>
-      <c r="H164" s="95"/>
-      <c r="I164" s="95"/>
-      <c r="J164" s="95"/>
-      <c r="K164" s="95"/>
-      <c r="L164" s="95"/>
-      <c r="M164" s="96"/>
-      <c r="N164" s="58">
-        <f>SUM(F102:F107,F129:F132,F143:F143,F48:F50,F24:F29)</f>
-        <v>29461</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="94" t="s">
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96"/>
+      <c r="F171" s="96"/>
+      <c r="G171" s="96"/>
+      <c r="H171" s="96"/>
+      <c r="I171" s="96"/>
+      <c r="J171" s="96"/>
+      <c r="K171" s="96"/>
+      <c r="L171" s="96"/>
+      <c r="M171" s="97"/>
+      <c r="N171" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="B165" s="95"/>
-      <c r="C165" s="95"/>
-      <c r="D165" s="95"/>
-      <c r="E165" s="95"/>
-      <c r="F165" s="95"/>
-      <c r="G165" s="95"/>
-      <c r="H165" s="95"/>
-      <c r="I165" s="95"/>
-      <c r="J165" s="95"/>
-      <c r="K165" s="95"/>
-      <c r="L165" s="95"/>
-      <c r="M165" s="96"/>
-      <c r="N165" s="58">
-        <f>SUM(F144:F146,F52:F54,F30:F32,F99:F101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="B166" s="95"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
-      <c r="G166" s="95"/>
-      <c r="H166" s="95"/>
-      <c r="I166" s="95"/>
-      <c r="J166" s="95"/>
-      <c r="K166" s="95"/>
-      <c r="L166" s="95"/>
-      <c r="M166" s="96"/>
-      <c r="N166" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="B167" s="95"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95"/>
-      <c r="F167" s="95"/>
-      <c r="G167" s="95"/>
-      <c r="H167" s="95"/>
-      <c r="I167" s="95"/>
-      <c r="J167" s="95"/>
-      <c r="K167" s="95"/>
-      <c r="L167" s="95"/>
-      <c r="M167" s="96"/>
-      <c r="N167" s="58">
+      <c r="B172" s="96"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="96"/>
+      <c r="G172" s="96"/>
+      <c r="H172" s="96"/>
+      <c r="I172" s="96"/>
+      <c r="J172" s="96"/>
+      <c r="K172" s="96"/>
+      <c r="L172" s="96"/>
+      <c r="M172" s="97"/>
+      <c r="N172" s="58">
         <f>SUM(F40:F41,F14:F16,F97:F98,F126:F128)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="B168" s="95"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95"/>
-      <c r="E168" s="95"/>
-      <c r="F168" s="95"/>
-      <c r="G168" s="95"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="95"/>
-      <c r="J168" s="95"/>
-      <c r="K168" s="95"/>
-      <c r="L168" s="95"/>
-      <c r="M168" s="96"/>
-      <c r="N168" s="58">
-        <f>SUM(N153:N158)</f>
+    <row r="173" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B173" s="96"/>
+      <c r="C173" s="96"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="96"/>
+      <c r="G173" s="96"/>
+      <c r="H173" s="96"/>
+      <c r="I173" s="96"/>
+      <c r="J173" s="96"/>
+      <c r="K173" s="96"/>
+      <c r="L173" s="96"/>
+      <c r="M173" s="97"/>
+      <c r="N173" s="58">
+        <f>SUM(N154:N163)</f>
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R159">
+  <autoFilter ref="A1:R164">
     <filterColumn colId="11">
-      <filters>
+      <filters blank="1">
         <filter val="自购"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D133:M133"/>
-    <mergeCell ref="D147:M147"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A165:M165"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="B91:B108"/>
-    <mergeCell ref="B109:B133"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="A161:M161"/>
-    <mergeCell ref="A162:M162"/>
-    <mergeCell ref="A163:M163"/>
-    <mergeCell ref="A164:M164"/>
-    <mergeCell ref="D159:M159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C109:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="P2:P14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C35:C39"/>
     <mergeCell ref="B2:B34"/>
     <mergeCell ref="B35:B55"/>
     <mergeCell ref="C2:C13"/>
@@ -7677,6 +7805,48 @@
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
+    <mergeCell ref="P2:P14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="B91:B108"/>
+    <mergeCell ref="B109:B133"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="A166:M166"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="D164:M164"/>
+    <mergeCell ref="B148:B164"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="D154:M154"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D133:M133"/>
+    <mergeCell ref="D147:M147"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C109:C124"/>
+    <mergeCell ref="C125:C128"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -7734,10 +7904,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>4</v>
@@ -7749,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>8</v>
@@ -7769,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
@@ -7802,13 +7972,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="31">
         <v>749</v>
@@ -7835,13 +8005,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="31">
         <v>248</v>
@@ -7868,13 +8038,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" s="31">
         <v>223</v>
@@ -7887,7 +8057,7 @@
         <v>2.79</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="38">
         <v>80</v>
@@ -7903,13 +8073,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="31">
         <v>770</v>
@@ -7938,13 +8108,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="31">
         <v>400</v>
@@ -7957,7 +8127,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="38">
         <v>100</v>
@@ -7973,13 +8143,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="31">
         <v>16</v>
@@ -7992,7 +8162,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I8" s="38">
         <v>0.4</v>
@@ -8008,13 +8178,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="31">
         <v>2823</v>
@@ -8043,13 +8213,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="31">
         <v>427</v>
@@ -8078,13 +8248,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="33">
         <v>2937</v>
@@ -8113,13 +8283,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" s="31">
         <v>1500</v>
@@ -8148,13 +8318,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="31">
         <v>200</v>
@@ -8175,7 +8345,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="102"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8183,13 +8353,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="31">
         <v>0</v>
@@ -8202,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" s="38">
         <v>0</v>
@@ -8210,7 +8380,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="102"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8218,13 +8388,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="31">
         <v>1050</v>
@@ -8253,13 +8423,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="31">
         <v>80</v>
@@ -8288,13 +8458,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="31">
         <v>3500</v>
@@ -8323,13 +8493,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="31">
         <v>2000</v>
@@ -8377,7 +8547,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I19" s="38">
         <v>28</v>
@@ -8640,7 +8810,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E27" s="33">
         <v>1100</v>
@@ -8692,7 +8862,7 @@
         <v>3000</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
@@ -8727,7 +8897,7 @@
         <v>2500</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -8745,7 +8915,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E30" s="33">
         <v>129</v>
@@ -8918,7 +9088,7 @@
         <v>51</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="33">
         <v>69</v>
@@ -8970,7 +9140,7 @@
         <v>400</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
@@ -9161,7 +9331,7 @@
         <v>29</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="33">
         <v>126</v>
@@ -9530,7 +9700,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E53" s="33">
         <v>49</v>
@@ -9609,7 +9779,7 @@
         <v>220</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I55" s="32">
         <v>8</v>
@@ -9631,7 +9801,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E56" s="31">
         <v>150</v>
@@ -9644,7 +9814,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I56" s="32">
         <v>40</v>
@@ -9679,7 +9849,7 @@
         <v>81</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I57" s="32">
         <v>5</v>
@@ -9701,7 +9871,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E58" s="31">
         <v>1080</v>
@@ -9736,7 +9906,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E59" s="31">
         <v>50</v>
@@ -9771,7 +9941,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E60" s="31">
         <v>105</v>
@@ -9806,7 +9976,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="31">
         <v>0</v>
@@ -9876,7 +10046,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E63" s="31">
         <v>1925</v>
@@ -9946,7 +10116,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" s="31">
         <v>106</v>
@@ -10014,7 +10184,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67" s="31">
         <v>0</v>
@@ -10044,7 +10214,7 @@
         <v>87</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="31">
         <v>0</v>
@@ -10091,7 +10261,7 @@
         <v>300</v>
       </c>
       <c r="J69" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -10126,7 +10296,7 @@
         <v>3000</v>
       </c>
       <c r="J70" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -10266,7 +10436,7 @@
         <v>600</v>
       </c>
       <c r="J74" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
@@ -10332,7 +10502,7 @@
         <v>157</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I76" s="38">
         <v>8</v>
@@ -10367,7 +10537,7 @@
         <v>42</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I77" s="38">
         <v>5</v>
@@ -10389,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="31">
         <v>126</v>
@@ -10402,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I78" s="38">
         <v>14</v>
@@ -10459,7 +10629,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E80" s="31">
         <v>75</v>
@@ -10494,7 +10664,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E81" s="31">
         <v>1000</v>
@@ -10529,7 +10699,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E82" s="31">
         <v>420</v>
@@ -10552,7 +10722,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="90"/>
+      <c r="P82" s="101"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -10565,7 +10735,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E83" s="31">
         <v>124</v>
@@ -10588,7 +10758,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="90"/>
+      <c r="P83" s="101"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -10624,7 +10794,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="90"/>
+      <c r="P84" s="101"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -10660,7 +10830,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="90"/>
+      <c r="P85" s="101"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -10696,7 +10866,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="90"/>
+      <c r="P86" s="101"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -10732,7 +10902,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="90"/>
+      <c r="P87" s="101"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -10745,7 +10915,7 @@
         <v>51</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E88" s="31">
         <v>90</v>
@@ -10768,7 +10938,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="90"/>
+      <c r="P88" s="101"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -10781,7 +10951,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E89" s="31">
         <v>588</v>
@@ -10804,7 +10974,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="90"/>
+      <c r="P89" s="101"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -10817,7 +10987,7 @@
         <v>51</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E90" s="31">
         <v>18</v>
@@ -10840,7 +11010,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="90"/>
+      <c r="P90" s="101"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -10850,7 +11020,7 @@
         <v>98</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>96</v>
@@ -10874,20 +11044,20 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="90"/>
+      <c r="P91" s="101"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E92" s="31">
         <v>1500</v>
@@ -10911,14 +11081,14 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="90"/>
+      <c r="P92" s="101"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>13</v>
@@ -10941,26 +11111,26 @@
         <v>100</v>
       </c>
       <c r="J93" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="90"/>
+      <c r="P93" s="101"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E94" s="31">
         <v>876</v>
@@ -10973,7 +11143,7 @@
         <v>146</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I94" s="32">
         <v>6</v>
@@ -10989,13 +11159,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E95" s="31">
         <v>30</v>
@@ -11008,7 +11178,7 @@
         <v>2</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I95" s="32">
         <v>15</v>
@@ -11024,13 +11194,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E96" s="31">
         <v>54</v>
@@ -11057,13 +11227,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E97" s="31">
         <v>730</v>
@@ -11092,7 +11262,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>13</v>
@@ -11127,7 +11297,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>44</v>
@@ -11150,7 +11320,7 @@
         <v>2500</v>
       </c>
       <c r="J99" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K99" s="34"/>
       <c r="L99" s="34"/>
@@ -11162,7 +11332,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>44</v>
@@ -11197,7 +11367,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>51</v>
@@ -11230,7 +11400,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>51</v>
@@ -11366,10 +11536,10 @@
         <v>56</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E107" s="33">
         <v>200</v>
@@ -11423,7 +11593,7 @@
         <v>133</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E109" s="33">
         <v>100</v>
@@ -11436,7 +11606,7 @@
         <v>4</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I109" s="32">
         <v>25</v>
@@ -11458,7 +11628,7 @@
         <v>133</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="43">
@@ -11507,7 +11677,7 @@
         <v>133</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E112" s="33">
         <v>80</v>
@@ -11533,7 +11703,7 @@
         <v>133</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E113" s="33">
         <v>80</v>
@@ -11559,10 +11729,10 @@
         <v>56</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E114" s="33">
         <v>15</v>
@@ -11594,10 +11764,10 @@
         <v>56</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E115" s="33">
         <v>10</v>
@@ -11620,10 +11790,10 @@
         <v>56</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E116" s="33">
         <v>15</v>
@@ -11646,10 +11816,10 @@
         <v>56</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E117" s="33">
         <v>220</v>
@@ -11681,10 +11851,10 @@
         <v>56</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E118" s="33">
         <v>2000</v>
@@ -11725,167 +11895,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="B120" s="95"/>
-      <c r="C120" s="95"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="101"/>
-      <c r="F120" s="95"/>
-      <c r="G120" s="95"/>
-      <c r="H120" s="95"/>
-      <c r="I120" s="95"/>
-      <c r="J120" s="95"/>
-      <c r="K120" s="95"/>
-      <c r="L120" s="95"/>
-      <c r="M120" s="96"/>
+      <c r="A120" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="96"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="102"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+      <c r="J120" s="96"/>
+      <c r="K120" s="96"/>
+      <c r="L120" s="96"/>
+      <c r="M120" s="97"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="101"/>
-      <c r="F121" s="95"/>
-      <c r="G121" s="95"/>
-      <c r="H121" s="95"/>
-      <c r="I121" s="95"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="95"/>
-      <c r="L121" s="95"/>
-      <c r="M121" s="96"/>
+      <c r="A121" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="96"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="102"/>
+      <c r="F121" s="96"/>
+      <c r="G121" s="96"/>
+      <c r="H121" s="96"/>
+      <c r="I121" s="96"/>
+      <c r="J121" s="96"/>
+      <c r="K121" s="96"/>
+      <c r="L121" s="96"/>
+      <c r="M121" s="97"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" s="95"/>
-      <c r="C122" s="95"/>
-      <c r="D122" s="95"/>
-      <c r="E122" s="101"/>
-      <c r="F122" s="95"/>
-      <c r="G122" s="95"/>
-      <c r="H122" s="95"/>
-      <c r="I122" s="95"/>
-      <c r="J122" s="95"/>
-      <c r="K122" s="95"/>
-      <c r="L122" s="95"/>
-      <c r="M122" s="96"/>
+      <c r="A122" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="96"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="102"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="96"/>
+      <c r="H122" s="96"/>
+      <c r="I122" s="96"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="96"/>
+      <c r="L122" s="96"/>
+      <c r="M122" s="97"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
-      <c r="J123" s="95"/>
-      <c r="K123" s="95"/>
-      <c r="L123" s="95"/>
-      <c r="M123" s="96"/>
+      <c r="A123" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="102"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="96"/>
+      <c r="L123" s="96"/>
+      <c r="M123" s="97"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B124" s="95"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="95"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="95"/>
-      <c r="G124" s="95"/>
-      <c r="H124" s="95"/>
-      <c r="I124" s="95"/>
-      <c r="J124" s="95"/>
-      <c r="K124" s="95"/>
-      <c r="L124" s="95"/>
-      <c r="M124" s="96"/>
+      <c r="A124" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="96"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="96"/>
+      <c r="G124" s="96"/>
+      <c r="H124" s="96"/>
+      <c r="I124" s="96"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="96"/>
+      <c r="L124" s="96"/>
+      <c r="M124" s="97"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" s="95"/>
-      <c r="C125" s="95"/>
-      <c r="D125" s="95"/>
-      <c r="E125" s="101"/>
-      <c r="F125" s="95"/>
-      <c r="G125" s="95"/>
-      <c r="H125" s="95"/>
-      <c r="I125" s="95"/>
-      <c r="J125" s="95"/>
-      <c r="K125" s="95"/>
-      <c r="L125" s="95"/>
-      <c r="M125" s="96"/>
+      <c r="A125" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="96"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="102"/>
+      <c r="F125" s="96"/>
+      <c r="G125" s="96"/>
+      <c r="H125" s="96"/>
+      <c r="I125" s="96"/>
+      <c r="J125" s="96"/>
+      <c r="K125" s="96"/>
+      <c r="L125" s="96"/>
+      <c r="M125" s="97"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126" s="95"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="95"/>
-      <c r="E126" s="101"/>
-      <c r="F126" s="95"/>
-      <c r="G126" s="95"/>
-      <c r="H126" s="95"/>
-      <c r="I126" s="95"/>
-      <c r="J126" s="95"/>
-      <c r="K126" s="95"/>
-      <c r="L126" s="95"/>
-      <c r="M126" s="96"/>
+      <c r="A126" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="97"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" s="95"/>
-      <c r="C127" s="95"/>
-      <c r="D127" s="95"/>
-      <c r="E127" s="101"/>
-      <c r="F127" s="95"/>
-      <c r="G127" s="95"/>
-      <c r="H127" s="95"/>
-      <c r="I127" s="95"/>
-      <c r="J127" s="95"/>
-      <c r="K127" s="95"/>
-      <c r="L127" s="95"/>
-      <c r="M127" s="96"/>
+      <c r="A127" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="96"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="102"/>
+      <c r="F127" s="96"/>
+      <c r="G127" s="96"/>
+      <c r="H127" s="96"/>
+      <c r="I127" s="96"/>
+      <c r="J127" s="96"/>
+      <c r="K127" s="96"/>
+      <c r="L127" s="96"/>
+      <c r="M127" s="97"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -11893,18 +12063,18 @@
     </row>
     <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="129" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E129" s="21">
         <v>11</v>
@@ -11929,30 +12099,30 @@
     </row>
     <row r="134" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G134" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="H134" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="I134" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H134" s="22" t="s">
+      <c r="J134" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="I134" s="26" t="s">
+      <c r="K134" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="J134" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="K134" s="22" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="135" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F135" s="21">
         <v>4.5</v>
@@ -11990,7 +12160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -12009,7 +12179,7 @@
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12017,19 +12187,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="90"/>
+        <v>144</v>
+      </c>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5">
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="90"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12039,7 +12209,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="90"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12049,7 +12219,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12059,7 +12229,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="90"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12069,17 +12239,17 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5">
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12089,40 +12259,40 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="90"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="90"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="90"/>
+        <v>230</v>
+      </c>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M15" s="21"/>
     </row>
@@ -12167,7 +12337,7 @@
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="5">
         <f>房子装修决算!N125</f>
@@ -12177,7 +12347,7 @@
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5">
         <f>房子装修决算!N126</f>
@@ -12195,7 +12365,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C23" s="6">
         <f>SUM(C16:C22)</f>
@@ -12204,7 +12374,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12215,10 +12385,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12237,10 +12407,10 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D29" s="16">
         <v>2937</v>
@@ -12251,10 +12421,10 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" s="13">
         <v>2823</v>
@@ -12296,7 +12466,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" s="13">
         <v>1925</v>
@@ -12349,10 +12519,10 @@
     </row>
     <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D37" s="16">
         <v>1500</v>
@@ -12380,7 +12550,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="13">
         <v>1080</v>
@@ -12394,7 +12564,7 @@
         <v>98</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" s="13">
         <v>1000</v>
@@ -12405,7 +12575,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="18">
@@ -12419,7 +12589,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -1553,24 +1553,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1579,6 +1561,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1592,14 +1592,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1762,9 +1762,7 @@
             <c:separator>,</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1987,7 +1985,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,11 +2188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216745184"/>
-        <c:axId val="216745744"/>
+        <c:axId val="376530016"/>
+        <c:axId val="376530576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216745184"/>
+        <c:axId val="376530016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2227,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216745744"/>
+        <c:crossAx val="376530576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216745744"/>
+        <c:axId val="376530576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216745184"/>
+        <c:crossAx val="376530016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2735,10 +2732,10 @@
   <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2808,10 +2805,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2837,14 +2834,14 @@
       </c>
       <c r="M2" s="80"/>
       <c r="N2" s="79"/>
-      <c r="P2" s="101"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -2868,14 +2865,14 @@
       </c>
       <c r="M3" s="80"/>
       <c r="N3" s="79"/>
-      <c r="P3" s="101"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -2899,14 +2896,14 @@
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="79"/>
-      <c r="P4" s="101"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -2928,14 +2925,14 @@
       </c>
       <c r="M5" s="80"/>
       <c r="N5" s="79"/>
-      <c r="P5" s="101"/>
+      <c r="P5" s="91"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -2957,14 +2954,14 @@
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="79"/>
-      <c r="P6" s="101"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="89"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -2986,12 +2983,12 @@
       </c>
       <c r="M7" s="80"/>
       <c r="N7" s="79"/>
-      <c r="P7" s="101"/>
+      <c r="P7" s="91"/>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="76" t="s">
         <v>278</v>
       </c>
@@ -3011,14 +3008,14 @@
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="79"/>
-      <c r="P8" s="101"/>
+      <c r="P8" s="91"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3040,14 +3037,14 @@
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="81"/>
-      <c r="P9" s="101"/>
+      <c r="P9" s="91"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3069,14 +3066,14 @@
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="81"/>
-      <c r="P10" s="101"/>
+      <c r="P10" s="91"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3098,14 +3095,14 @@
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="81"/>
-      <c r="P11" s="101"/>
+      <c r="P11" s="91"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3127,14 +3124,14 @@
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="79"/>
-      <c r="P12" s="101"/>
+      <c r="P12" s="91"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3158,14 +3155,14 @@
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="81"/>
-      <c r="P13" s="101"/>
+      <c r="P13" s="91"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3191,15 +3188,15 @@
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="83"/>
-      <c r="P14" s="101"/>
+      <c r="P14" s="91"/>
       <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3225,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3258,8 +3255,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="92" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3290,8 +3287,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3320,8 +3317,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3350,8 +3347,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3380,8 +3377,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="17" t="s">
         <v>253</v>
       </c>
@@ -3411,8 +3408,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3441,8 +3438,8 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="69" t="s">
         <v>254</v>
       </c>
@@ -3471,8 +3468,8 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3503,8 +3500,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3533,8 +3530,8 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3561,8 +3558,8 @@
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="17" t="s">
         <v>269</v>
       </c>
@@ -3589,8 +3586,8 @@
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="89"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3617,8 +3614,8 @@
       <c r="A29" s="71">
         <v>25</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="89"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="17" t="s">
         <v>271</v>
       </c>
@@ -3647,8 +3644,8 @@
       <c r="A30" s="71">
         <v>26</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="89" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -3679,8 +3676,8 @@
       <c r="A31" s="71">
         <v>27</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="17" t="s">
         <v>53</v>
       </c>
@@ -3709,8 +3706,8 @@
       <c r="A32" s="71">
         <v>28</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="89"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
@@ -3739,7 +3736,7 @@
       <c r="A33" s="71">
         <v>29</v>
       </c>
-      <c r="B33" s="93"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
@@ -3771,20 +3768,20 @@
       <c r="A34" s="71">
         <v>30</v>
       </c>
-      <c r="B34" s="94"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="61"/>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
       <c r="N34" s="62">
         <f>SUM(F2:F33)</f>
         <v>20700</v>
@@ -3794,10 +3791,10 @@
       <c r="A35" s="71">
         <v>31</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="76" t="s">
@@ -3828,8 +3825,8 @@
       <c r="A36" s="71">
         <v>32</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="89"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="76" t="s">
         <v>18</v>
       </c>
@@ -3858,8 +3855,8 @@
       <c r="A37" s="71">
         <v>33</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="76" t="s">
         <v>60</v>
       </c>
@@ -3888,8 +3885,8 @@
       <c r="A38" s="71">
         <v>34</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="89"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="76" t="s">
         <v>61</v>
       </c>
@@ -3918,8 +3915,8 @@
       <c r="A39" s="71">
         <v>35</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="89"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="76" t="s">
         <v>62</v>
       </c>
@@ -3948,8 +3945,8 @@
       <c r="A40" s="71">
         <v>36</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="76" t="s">
@@ -3980,8 +3977,8 @@
       <c r="A41" s="71">
         <v>37</v>
       </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="89"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="76" t="s">
         <v>64</v>
       </c>
@@ -4010,8 +4007,8 @@
       <c r="A42" s="71">
         <v>38</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="92" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -4042,8 +4039,8 @@
       <c r="A43" s="71">
         <v>39</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="12" t="s">
         <v>67</v>
       </c>
@@ -4072,8 +4069,8 @@
       <c r="A44" s="71">
         <v>40</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
       <c r="D44" s="12" t="s">
         <v>68</v>
       </c>
@@ -4100,8 +4097,8 @@
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="75"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="75" t="s">
         <v>282</v>
       </c>
@@ -4124,8 +4121,8 @@
       <c r="A46" s="71">
         <v>41</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
       <c r="D46" s="12" t="s">
         <v>69</v>
       </c>
@@ -4154,8 +4151,8 @@
       <c r="A47" s="71">
         <v>42</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="12" t="s">
         <v>255</v>
       </c>
@@ -4184,8 +4181,8 @@
       <c r="A48" s="71">
         <v>43</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="89" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -4216,8 +4213,8 @@
       <c r="A49" s="71">
         <v>44</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="89"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="12" t="s">
         <v>72</v>
       </c>
@@ -4246,8 +4243,8 @@
       <c r="A50" s="71">
         <v>45</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="89"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="12" t="s">
         <v>256</v>
       </c>
@@ -4276,8 +4273,8 @@
       <c r="A51" s="71">
         <v>46</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="89" t="s">
+      <c r="B51" s="87"/>
+      <c r="C51" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -4308,8 +4305,8 @@
       <c r="A52" s="71">
         <v>47</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="89"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="12" t="s">
         <v>53</v>
       </c>
@@ -4338,8 +4335,8 @@
       <c r="A53" s="71">
         <v>48</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="89"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="12" t="s">
         <v>75</v>
       </c>
@@ -4368,8 +4365,8 @@
       <c r="A54" s="71">
         <v>49</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="89"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="12" t="s">
         <v>76</v>
       </c>
@@ -4396,20 +4393,20 @@
       <c r="A55" s="71">
         <v>50</v>
       </c>
-      <c r="B55" s="94"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="61"/>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="88"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="94"/>
       <c r="N55" s="62">
         <f>SUM(F35:F54)</f>
         <v>4500</v>
@@ -4419,10 +4416,10 @@
       <c r="A56" s="71">
         <v>51</v>
       </c>
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="76" t="s">
@@ -4453,8 +4450,8 @@
       <c r="A57" s="71">
         <v>52</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="76" t="s">
         <v>18</v>
       </c>
@@ -4483,8 +4480,8 @@
       <c r="A58" s="71">
         <v>53</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="89"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="76" t="s">
         <v>60</v>
       </c>
@@ -4513,8 +4510,8 @@
       <c r="A59" s="71">
         <v>54</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="89"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="76" t="s">
         <v>61</v>
       </c>
@@ -4543,8 +4540,8 @@
       <c r="A60" s="71">
         <v>55</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="89"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="76" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4570,8 @@
       <c r="A61" s="71">
         <v>56</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="89" t="s">
+      <c r="B61" s="87"/>
+      <c r="C61" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="76" t="s">
@@ -4605,8 +4602,8 @@
       <c r="A62" s="71">
         <v>57</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="89"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="76" t="s">
         <v>64</v>
       </c>
@@ -4635,8 +4632,8 @@
       <c r="A63" s="71">
         <v>58</v>
       </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="92" t="s">
+      <c r="B63" s="87"/>
+      <c r="C63" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -4667,8 +4664,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="93"/>
-      <c r="C64" s="93"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4697,8 +4694,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4727,8 +4724,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4757,8 +4754,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -4787,8 +4784,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="93"/>
-      <c r="C68" s="89" t="s">
+      <c r="B68" s="87"/>
+      <c r="C68" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -4819,8 +4816,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="89"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -4849,8 +4846,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="89"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -4879,8 +4876,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="89" t="s">
+      <c r="B71" s="87"/>
+      <c r="C71" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -4911,8 +4908,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="93"/>
-      <c r="C72" s="89"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -4941,8 +4938,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="89"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -4969,20 +4966,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="94"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="88"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="93"/>
+      <c r="M74" s="94"/>
       <c r="N74" s="62">
         <f>SUM(F56:F73)</f>
         <v>2300</v>
@@ -4992,10 +4989,10 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="99" t="s">
+      <c r="B75" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="89" t="s">
+      <c r="C75" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="76" t="s">
@@ -5026,8 +5023,8 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="93"/>
-      <c r="C76" s="89"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
@@ -5056,8 +5053,8 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="93"/>
-      <c r="C77" s="89"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
@@ -5086,8 +5083,8 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="89"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
@@ -5116,8 +5113,8 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="89"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
@@ -5146,8 +5143,8 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="93"/>
-      <c r="C80" s="89" t="s">
+      <c r="B80" s="87"/>
+      <c r="C80" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="76" t="s">
@@ -5178,8 +5175,8 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="93"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
@@ -5208,8 +5205,8 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="93"/>
-      <c r="C82" s="92" t="s">
+      <c r="B82" s="87"/>
+      <c r="C82" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="72" t="s">
@@ -5240,8 +5237,8 @@
       <c r="A83" s="71">
         <v>79</v>
       </c>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
       <c r="D83" s="72" t="s">
         <v>246</v>
       </c>
@@ -5270,8 +5267,8 @@
       <c r="A84" s="71">
         <v>80</v>
       </c>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
       <c r="D84" s="72" t="s">
         <v>247</v>
       </c>
@@ -5300,8 +5297,8 @@
       <c r="A85" s="71">
         <v>81</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="94"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
       <c r="D85" s="12" t="s">
         <v>257</v>
       </c>
@@ -5330,8 +5327,8 @@
       <c r="A86" s="71">
         <v>82</v>
       </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="89" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="12" t="s">
@@ -5362,8 +5359,8 @@
       <c r="A87" s="71">
         <v>83</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="89"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="72" t="s">
         <v>248</v>
       </c>
@@ -5392,8 +5389,8 @@
       <c r="A88" s="71">
         <v>84</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="92" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="86" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="72" t="s">
@@ -5424,8 +5421,8 @@
       <c r="A89" s="71">
         <v>85</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="94"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="88"/>
       <c r="D89" s="72" t="s">
         <v>250</v>
       </c>
@@ -5454,20 +5451,20 @@
       <c r="A90" s="71">
         <v>86</v>
       </c>
-      <c r="B90" s="94"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="61"/>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="87"/>
-      <c r="M90" s="88"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="93"/>
+      <c r="J90" s="93"/>
+      <c r="K90" s="93"/>
+      <c r="L90" s="93"/>
+      <c r="M90" s="94"/>
       <c r="N90" s="62">
         <f>SUM(F75:F89)</f>
         <v>3500</v>
@@ -5477,10 +5474,10 @@
       <c r="A91" s="71">
         <v>87</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="89" t="s">
+      <c r="C91" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="76" t="s">
@@ -5511,8 +5508,8 @@
       <c r="A92" s="71">
         <v>88</v>
       </c>
-      <c r="B92" s="93"/>
-      <c r="C92" s="89"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="76" t="s">
         <v>81</v>
       </c>
@@ -5541,8 +5538,8 @@
       <c r="A93" s="71">
         <v>89</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="89"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="76" t="s">
         <v>82</v>
       </c>
@@ -5571,8 +5568,8 @@
       <c r="A94" s="71">
         <v>90</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="89"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="76" t="s">
         <v>60</v>
       </c>
@@ -5601,8 +5598,8 @@
       <c r="A95" s="71">
         <v>91</v>
       </c>
-      <c r="B95" s="93"/>
-      <c r="C95" s="89"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="76" t="s">
         <v>83</v>
       </c>
@@ -5631,8 +5628,8 @@
       <c r="A96" s="71">
         <v>92</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="89"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="76" t="s">
         <v>84</v>
       </c>
@@ -5661,8 +5658,8 @@
       <c r="A97" s="71">
         <v>93</v>
       </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="89" t="s">
+      <c r="B97" s="87"/>
+      <c r="C97" s="90" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="76" t="s">
@@ -5693,8 +5690,8 @@
       <c r="A98" s="71">
         <v>94</v>
       </c>
-      <c r="B98" s="93"/>
-      <c r="C98" s="89"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="76" t="s">
         <v>86</v>
       </c>
@@ -5721,8 +5718,8 @@
       <c r="A99" s="71">
         <v>95</v>
       </c>
-      <c r="B99" s="93"/>
-      <c r="C99" s="92" t="s">
+      <c r="B99" s="87"/>
+      <c r="C99" s="86" t="s">
         <v>87</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -5753,8 +5750,8 @@
       <c r="A100" s="71">
         <v>96</v>
       </c>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="87"/>
       <c r="D100" s="17" t="s">
         <v>89</v>
       </c>
@@ -5783,8 +5780,8 @@
       <c r="A101" s="71">
         <v>97</v>
       </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="94"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
       <c r="D101" s="69" t="s">
         <v>90</v>
       </c>
@@ -5813,8 +5810,8 @@
       <c r="A102" s="71">
         <v>98</v>
       </c>
-      <c r="B102" s="93"/>
-      <c r="C102" s="89" t="s">
+      <c r="B102" s="87"/>
+      <c r="C102" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -5845,8 +5842,8 @@
       <c r="A103" s="71">
         <v>99</v>
       </c>
-      <c r="B103" s="93"/>
-      <c r="C103" s="89"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="17" t="s">
         <v>92</v>
       </c>
@@ -5875,8 +5872,8 @@
       <c r="A104" s="71">
         <v>100</v>
       </c>
-      <c r="B104" s="93"/>
-      <c r="C104" s="89"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="17" t="s">
         <v>93</v>
       </c>
@@ -5905,8 +5902,8 @@
       <c r="A105" s="71">
         <v>101</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="89"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="17" t="s">
         <v>263</v>
       </c>
@@ -5935,8 +5932,8 @@
       <c r="A106" s="71">
         <v>102</v>
       </c>
-      <c r="B106" s="93"/>
-      <c r="C106" s="89"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="17" t="s">
         <v>262</v>
       </c>
@@ -5965,8 +5962,8 @@
       <c r="A107" s="71">
         <v>103</v>
       </c>
-      <c r="B107" s="93"/>
-      <c r="C107" s="89"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="82" t="s">
         <v>96</v>
       </c>
@@ -5995,20 +5992,20 @@
       <c r="A108" s="71">
         <v>104</v>
       </c>
-      <c r="B108" s="94"/>
+      <c r="B108" s="88"/>
       <c r="C108" s="61"/>
-      <c r="D108" s="86" t="s">
+      <c r="D108" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="87"/>
-      <c r="F108" s="87"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="87"/>
-      <c r="I108" s="87"/>
-      <c r="J108" s="87"/>
-      <c r="K108" s="87"/>
-      <c r="L108" s="87"/>
-      <c r="M108" s="88"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="93"/>
+      <c r="J108" s="93"/>
+      <c r="K108" s="93"/>
+      <c r="L108" s="93"/>
+      <c r="M108" s="94"/>
       <c r="N108" s="62">
         <f>SUM(F91:F107)</f>
         <v>10830</v>
@@ -6018,10 +6015,10 @@
       <c r="A109" s="71">
         <v>105</v>
       </c>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="89" t="s">
+      <c r="C109" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="76" t="s">
@@ -6052,8 +6049,8 @@
       <c r="A110" s="71">
         <v>106</v>
       </c>
-      <c r="B110" s="93"/>
-      <c r="C110" s="89"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="76" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6079,8 @@
       <c r="A111" s="71">
         <v>107</v>
       </c>
-      <c r="B111" s="93"/>
-      <c r="C111" s="89"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="76" t="s">
         <v>99</v>
       </c>
@@ -6110,8 +6107,8 @@
       <c r="A112" s="71">
         <v>108</v>
       </c>
-      <c r="B112" s="93"/>
-      <c r="C112" s="89"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="76" t="s">
         <v>60</v>
       </c>
@@ -6140,8 +6137,8 @@
       <c r="A113" s="71">
         <v>109</v>
       </c>
-      <c r="B113" s="93"/>
-      <c r="C113" s="89"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="76" t="s">
         <v>101</v>
       </c>
@@ -6170,8 +6167,8 @@
       <c r="A114" s="71">
         <v>110</v>
       </c>
-      <c r="B114" s="93"/>
-      <c r="C114" s="89"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="76" t="s">
         <v>102</v>
       </c>
@@ -6200,8 +6197,8 @@
       <c r="A115" s="71">
         <v>111</v>
       </c>
-      <c r="B115" s="93"/>
-      <c r="C115" s="89"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="76" t="s">
         <v>103</v>
       </c>
@@ -6228,8 +6225,8 @@
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="89"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="76" t="s">
         <v>272</v>
       </c>
@@ -6254,8 +6251,8 @@
     </row>
     <row r="117" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="89"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="76" t="s">
         <v>280</v>
       </c>
@@ -6276,8 +6273,8 @@
     </row>
     <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="75"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="89"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="17" t="s">
         <v>281</v>
       </c>
@@ -6298,8 +6295,8 @@
     </row>
     <row r="119" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="75"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="89"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="76" t="s">
         <v>279</v>
       </c>
@@ -6322,8 +6319,8 @@
       <c r="A120" s="71">
         <v>112</v>
       </c>
-      <c r="B120" s="93"/>
-      <c r="C120" s="89"/>
+      <c r="B120" s="87"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="76" t="s">
         <v>274</v>
       </c>
@@ -6352,8 +6349,8 @@
       <c r="A121" s="71">
         <v>113</v>
       </c>
-      <c r="B121" s="93"/>
-      <c r="C121" s="89"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="76" t="s">
         <v>105</v>
       </c>
@@ -6382,8 +6379,8 @@
       <c r="A122" s="71">
         <v>114</v>
       </c>
-      <c r="B122" s="93"/>
-      <c r="C122" s="89"/>
+      <c r="B122" s="87"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="76" t="s">
         <v>106</v>
       </c>
@@ -6412,8 +6409,8 @@
       <c r="A123" s="71">
         <v>115</v>
       </c>
-      <c r="B123" s="93"/>
-      <c r="C123" s="89"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="76" t="s">
         <v>107</v>
       </c>
@@ -6442,8 +6439,8 @@
       <c r="A124" s="71">
         <v>116</v>
       </c>
-      <c r="B124" s="93"/>
-      <c r="C124" s="89"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="76" t="s">
         <v>109</v>
       </c>
@@ -6472,8 +6469,8 @@
       <c r="A125" s="71">
         <v>117</v>
       </c>
-      <c r="B125" s="93"/>
-      <c r="C125" s="92" t="s">
+      <c r="B125" s="87"/>
+      <c r="C125" s="86" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="76" t="s">
@@ -6502,8 +6499,8 @@
       <c r="A126" s="71">
         <v>118</v>
       </c>
-      <c r="B126" s="93"/>
-      <c r="C126" s="93"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="87"/>
       <c r="D126" s="76" t="s">
         <v>111</v>
       </c>
@@ -6530,8 +6527,8 @@
       <c r="A127" s="71">
         <v>119</v>
       </c>
-      <c r="B127" s="93"/>
-      <c r="C127" s="93"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="87"/>
       <c r="D127" s="76" t="s">
         <v>112</v>
       </c>
@@ -6558,8 +6555,8 @@
       <c r="A128" s="71">
         <v>120</v>
       </c>
-      <c r="B128" s="93"/>
-      <c r="C128" s="94"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="88"/>
       <c r="D128" s="76" t="s">
         <v>113</v>
       </c>
@@ -6586,8 +6583,8 @@
       <c r="A129" s="71">
         <v>121</v>
       </c>
-      <c r="B129" s="93"/>
-      <c r="C129" s="89" t="s">
+      <c r="B129" s="87"/>
+      <c r="C129" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -6595,7 +6592,7 @@
       </c>
       <c r="E129" s="46"/>
       <c r="F129" s="46">
-        <v>3368</v>
+        <v>3449</v>
       </c>
       <c r="G129" s="17">
         <v>0</v>
@@ -6616,8 +6613,8 @@
       <c r="A130" s="71">
         <v>122</v>
       </c>
-      <c r="B130" s="93"/>
-      <c r="C130" s="89"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="17" t="s">
         <v>259</v>
       </c>
@@ -6644,8 +6641,8 @@
       <c r="A131" s="71">
         <v>123</v>
       </c>
-      <c r="B131" s="93"/>
-      <c r="C131" s="89"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="76" t="s">
         <v>261</v>
       </c>
@@ -6672,8 +6669,8 @@
       <c r="A132" s="71">
         <v>124</v>
       </c>
-      <c r="B132" s="93"/>
-      <c r="C132" s="89"/>
+      <c r="B132" s="87"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="76" t="s">
         <v>260</v>
       </c>
@@ -6700,33 +6697,33 @@
       <c r="A133" s="71">
         <v>125</v>
       </c>
-      <c r="B133" s="94"/>
+      <c r="B133" s="88"/>
       <c r="C133" s="74"/>
-      <c r="D133" s="86" t="s">
+      <c r="D133" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="E133" s="87"/>
-      <c r="F133" s="87"/>
-      <c r="G133" s="87"/>
-      <c r="H133" s="87"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="87"/>
-      <c r="K133" s="87"/>
-      <c r="L133" s="87"/>
-      <c r="M133" s="88"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="93"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="93"/>
+      <c r="J133" s="93"/>
+      <c r="K133" s="93"/>
+      <c r="L133" s="93"/>
+      <c r="M133" s="94"/>
       <c r="N133" s="65">
         <f>SUM(F109:F132)</f>
-        <v>5731</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>126</v>
       </c>
-      <c r="B134" s="99" t="s">
+      <c r="B134" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="89" t="s">
+      <c r="C134" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="76" t="s">
@@ -6757,8 +6754,8 @@
       <c r="A135" s="71">
         <v>127</v>
       </c>
-      <c r="B135" s="93"/>
-      <c r="C135" s="89"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="90"/>
       <c r="D135" s="76" t="s">
         <v>116</v>
       </c>
@@ -6787,8 +6784,8 @@
       <c r="A136" s="71">
         <v>128</v>
       </c>
-      <c r="B136" s="93"/>
-      <c r="C136" s="89"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="90"/>
       <c r="D136" s="76" t="s">
         <v>117</v>
       </c>
@@ -6817,8 +6814,8 @@
       <c r="A137" s="71">
         <v>129</v>
       </c>
-      <c r="B137" s="93"/>
-      <c r="C137" s="89"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="90"/>
       <c r="D137" s="76" t="s">
         <v>16</v>
       </c>
@@ -6847,8 +6844,8 @@
       <c r="A138" s="71">
         <v>130</v>
       </c>
-      <c r="B138" s="93"/>
-      <c r="C138" s="89"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="90"/>
       <c r="D138" s="76" t="s">
         <v>118</v>
       </c>
@@ -6877,8 +6874,8 @@
       <c r="A139" s="71">
         <v>131</v>
       </c>
-      <c r="B139" s="93"/>
-      <c r="C139" s="89"/>
+      <c r="B139" s="87"/>
+      <c r="C139" s="90"/>
       <c r="D139" s="76" t="s">
         <v>119</v>
       </c>
@@ -6907,8 +6904,8 @@
       <c r="A140" s="71">
         <v>132</v>
       </c>
-      <c r="B140" s="93"/>
-      <c r="C140" s="92" t="s">
+      <c r="B140" s="87"/>
+      <c r="C140" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D140" s="76" t="s">
@@ -6939,8 +6936,8 @@
       <c r="A141" s="71">
         <v>133</v>
       </c>
-      <c r="B141" s="93"/>
-      <c r="C141" s="93"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="87"/>
       <c r="D141" s="17" t="s">
         <v>121</v>
       </c>
@@ -6969,14 +6966,14 @@
       <c r="A142" s="71">
         <v>134</v>
       </c>
-      <c r="B142" s="93"/>
-      <c r="C142" s="94"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="88"/>
       <c r="D142" s="17" t="s">
         <v>275</v>
       </c>
       <c r="E142" s="46"/>
       <c r="F142" s="46">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G142" s="17">
         <v>0</v>
@@ -6999,7 +6996,7 @@
       <c r="A143" s="71">
         <v>135</v>
       </c>
-      <c r="B143" s="93"/>
+      <c r="B143" s="87"/>
       <c r="C143" s="70" t="s">
         <v>44</v>
       </c>
@@ -7031,8 +7028,8 @@
       <c r="A144" s="71">
         <v>136</v>
       </c>
-      <c r="B144" s="93"/>
-      <c r="C144" s="89" t="s">
+      <c r="B144" s="87"/>
+      <c r="C144" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -7063,8 +7060,8 @@
       <c r="A145" s="71">
         <v>137</v>
       </c>
-      <c r="B145" s="93"/>
-      <c r="C145" s="89"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="90"/>
       <c r="D145" s="17" t="s">
         <v>124</v>
       </c>
@@ -7093,8 +7090,8 @@
       <c r="A146" s="71">
         <v>138</v>
       </c>
-      <c r="B146" s="93"/>
-      <c r="C146" s="89"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="90"/>
       <c r="D146" s="17" t="s">
         <v>126</v>
       </c>
@@ -7123,33 +7120,33 @@
       <c r="A147" s="71">
         <v>139</v>
       </c>
-      <c r="B147" s="94"/>
+      <c r="B147" s="88"/>
       <c r="C147" s="60"/>
-      <c r="D147" s="90" t="s">
+      <c r="D147" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="E147" s="91"/>
-      <c r="F147" s="87"/>
-      <c r="G147" s="87"/>
-      <c r="H147" s="87"/>
-      <c r="I147" s="87"/>
-      <c r="J147" s="87"/>
-      <c r="K147" s="87"/>
-      <c r="L147" s="87"/>
-      <c r="M147" s="88"/>
+      <c r="E147" s="99"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="93"/>
+      <c r="I147" s="93"/>
+      <c r="J147" s="93"/>
+      <c r="K147" s="93"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="94"/>
       <c r="N147" s="65">
         <f>SUM(F134:F146)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="71">
         <v>140</v>
       </c>
-      <c r="B148" s="99" t="s">
+      <c r="B148" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="89" t="s">
+      <c r="C148" s="90" t="s">
         <v>294</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -7181,7 +7178,7 @@
         <v>141</v>
       </c>
       <c r="B149" s="100"/>
-      <c r="C149" s="89"/>
+      <c r="C149" s="90"/>
       <c r="D149" s="75" t="s">
         <v>264</v>
       </c>
@@ -7209,13 +7206,13 @@
     <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="85"/>
       <c r="B150" s="100"/>
-      <c r="C150" s="89"/>
+      <c r="C150" s="90"/>
       <c r="D150" s="85" t="s">
         <v>295</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="46">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
@@ -7232,8 +7229,8 @@
       <c r="A151" s="75">
         <v>142</v>
       </c>
-      <c r="B151" s="93"/>
-      <c r="C151" s="89"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="90"/>
       <c r="D151" s="12" t="s">
         <v>129</v>
       </c>
@@ -7262,8 +7259,8 @@
       <c r="A152" s="75">
         <v>143</v>
       </c>
-      <c r="B152" s="93"/>
-      <c r="C152" s="89"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="90"/>
       <c r="D152" s="12" t="s">
         <v>130</v>
       </c>
@@ -7292,8 +7289,8 @@
       <c r="A153" s="75">
         <v>144</v>
       </c>
-      <c r="B153" s="93"/>
-      <c r="C153" s="89"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="90"/>
       <c r="D153" s="12" t="s">
         <v>131</v>
       </c>
@@ -7322,31 +7319,31 @@
       <c r="A154" s="75">
         <v>145</v>
       </c>
-      <c r="B154" s="93"/>
+      <c r="B154" s="87"/>
       <c r="C154" s="60"/>
-      <c r="D154" s="86" t="s">
+      <c r="D154" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="87"/>
-      <c r="H154" s="87"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="87"/>
-      <c r="K154" s="87"/>
-      <c r="L154" s="87"/>
-      <c r="M154" s="88"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="93"/>
+      <c r="H154" s="93"/>
+      <c r="I154" s="93"/>
+      <c r="J154" s="93"/>
+      <c r="K154" s="93"/>
+      <c r="L154" s="93"/>
+      <c r="M154" s="94"/>
       <c r="N154" s="65">
         <f>SUM(F148:F153)</f>
-        <v>125</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="75">
         <v>146</v>
       </c>
-      <c r="B155" s="93"/>
-      <c r="C155" s="89" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="90" t="s">
         <v>283</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -7377,8 +7374,8 @@
       <c r="A156" s="75">
         <v>147</v>
       </c>
-      <c r="B156" s="93"/>
-      <c r="C156" s="89"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="90"/>
       <c r="D156" s="75" t="s">
         <v>284</v>
       </c>
@@ -7407,8 +7404,8 @@
       <c r="A157" s="75">
         <v>148</v>
       </c>
-      <c r="B157" s="93"/>
-      <c r="C157" s="89"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="90"/>
       <c r="D157" s="85" t="s">
         <v>266</v>
       </c>
@@ -7435,8 +7432,8 @@
     </row>
     <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="85"/>
-      <c r="B158" s="93"/>
-      <c r="C158" s="89"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="90"/>
       <c r="D158" s="85" t="s">
         <v>290</v>
       </c>
@@ -7459,8 +7456,8 @@
       <c r="A159" s="75">
         <v>149</v>
       </c>
-      <c r="B159" s="93"/>
-      <c r="C159" s="89"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="90"/>
       <c r="D159" s="12" t="s">
         <v>286</v>
       </c>
@@ -7487,8 +7484,8 @@
     </row>
     <row r="160" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="85"/>
-      <c r="B160" s="93"/>
-      <c r="C160" s="89"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="90"/>
       <c r="D160" s="85" t="s">
         <v>287</v>
       </c>
@@ -7515,8 +7512,8 @@
     </row>
     <row r="161" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="85"/>
-      <c r="B161" s="93"/>
-      <c r="C161" s="89"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="90"/>
       <c r="D161" s="85" t="s">
         <v>292</v>
       </c>
@@ -7537,8 +7534,8 @@
     </row>
     <row r="162" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="85"/>
-      <c r="B162" s="93"/>
-      <c r="C162" s="89"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="90"/>
       <c r="D162" s="85" t="s">
         <v>293</v>
       </c>
@@ -7561,8 +7558,8 @@
       <c r="A163" s="75">
         <v>150</v>
       </c>
-      <c r="B163" s="93"/>
-      <c r="C163" s="89"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="90"/>
       <c r="D163" s="12" t="s">
         <v>291</v>
       </c>
@@ -7591,20 +7588,20 @@
       <c r="A164" s="75">
         <v>151</v>
       </c>
-      <c r="B164" s="94"/>
+      <c r="B164" s="88"/>
       <c r="C164" s="11"/>
-      <c r="D164" s="90" t="s">
+      <c r="D164" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="91"/>
-      <c r="F164" s="87"/>
-      <c r="G164" s="87"/>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
-      <c r="K164" s="87"/>
-      <c r="L164" s="87"/>
-      <c r="M164" s="88"/>
+      <c r="E164" s="99"/>
+      <c r="F164" s="93"/>
+      <c r="G164" s="93"/>
+      <c r="H164" s="93"/>
+      <c r="I164" s="93"/>
+      <c r="J164" s="93"/>
+      <c r="K164" s="93"/>
+      <c r="L164" s="93"/>
+      <c r="M164" s="94"/>
       <c r="N164" s="73">
         <f>SUM(F155:F163)</f>
         <v>73763</v>
@@ -7631,7 +7628,7 @@
       <c r="M166" s="97"/>
       <c r="N166" s="58">
         <f>N34+N55+N74+N90+N108+N133+N147+N154+N164</f>
-        <v>122949</v>
+        <v>121985</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7673,7 +7670,7 @@
       <c r="M168" s="97"/>
       <c r="N168" s="58">
         <f>SUM(F140:F142,F42:F47,F17:F23)</f>
-        <v>15500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7694,7 +7691,7 @@
       <c r="M169" s="97"/>
       <c r="N169" s="58">
         <f>SUM(F102:F107,F129:F132,F143:F143,F48:F50,F24:F29)</f>
-        <v>24461</v>
+        <v>24542</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7777,18 +7774,60 @@
       <c r="M173" s="97"/>
       <c r="N173" s="58">
         <f>SUM(N154:N163)</f>
-        <v>125</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R164">
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="自购"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="D154:M154"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D133:M133"/>
+    <mergeCell ref="D147:M147"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C109:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="B91:B108"/>
+    <mergeCell ref="B109:B133"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="A166:M166"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="D164:M164"/>
+    <mergeCell ref="B148:B164"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="P2:P14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="B2:B34"/>
     <mergeCell ref="B35:B55"/>
     <mergeCell ref="C2:C13"/>
@@ -7805,48 +7844,6 @@
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="P2:P14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="B91:B108"/>
-    <mergeCell ref="B109:B133"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="D164:M164"/>
-    <mergeCell ref="B148:B164"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="D154:M154"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D133:M133"/>
-    <mergeCell ref="D147:M147"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C109:C124"/>
-    <mergeCell ref="C125:C128"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -10722,7 +10719,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="101"/>
+      <c r="P82" s="91"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -10758,7 +10755,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="101"/>
+      <c r="P83" s="91"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -10794,7 +10791,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="101"/>
+      <c r="P84" s="91"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -10830,7 +10827,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="101"/>
+      <c r="P85" s="91"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -10866,7 +10863,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="101"/>
+      <c r="P86" s="91"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -10902,7 +10899,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="101"/>
+      <c r="P87" s="91"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -10938,7 +10935,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="101"/>
+      <c r="P88" s="91"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -10974,7 +10971,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="101"/>
+      <c r="P89" s="91"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11010,7 +11007,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="101"/>
+      <c r="P90" s="91"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11044,7 +11041,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="101"/>
+      <c r="P91" s="91"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11081,7 +11078,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="101"/>
+      <c r="P92" s="91"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11117,7 +11114,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="101"/>
+      <c r="P93" s="91"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12189,7 +12186,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="101"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12199,7 +12196,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="101"/>
+      <c r="M4" s="91"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12209,7 +12206,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="101"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12219,7 +12216,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="91"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12229,7 +12226,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="101"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12239,7 +12236,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="101"/>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12249,7 +12246,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="101"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12259,7 +12256,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="101"/>
+      <c r="M10" s="91"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12269,23 +12266,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="101"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="101"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="101"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="101"/>
+      <c r="M14" s="91"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$R$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$166</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="306">
   <si>
     <t>序号</t>
   </si>
@@ -877,10 +877,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>全屋 筒灯+灯带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>镜子含框</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -974,6 +970,50 @@
   </si>
   <si>
     <t>燃气热水器安装</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>18rmb*13m</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>39rmb*15个</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1292,6 +1332,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1302,7 +1362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1553,6 +1613,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1561,24 +1648,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1592,19 +1661,34 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2188,11 +2272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="376530016"/>
-        <c:axId val="376530576"/>
+        <c:axId val="167430368"/>
+        <c:axId val="167430928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376530016"/>
+        <c:axId val="167430368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2311,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376530576"/>
+        <c:crossAx val="167430928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376530576"/>
+        <c:axId val="167430928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2366,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376530016"/>
+        <c:crossAx val="167430368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,13 +2813,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2751,13 +2835,14 @@
     <col min="11" max="11" width="10.75" style="22" customWidth="1"/>
     <col min="12" max="12" width="12.125" style="22" customWidth="1"/>
     <col min="13" max="13" width="11.875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="27" customWidth="1"/>
-    <col min="15" max="15" width="9" style="21"/>
-    <col min="16" max="16" width="23.75" style="21" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="21"/>
+    <col min="14" max="14" width="11.875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="27" customWidth="1"/>
+    <col min="16" max="16" width="9" style="21"/>
+    <col min="17" max="17" width="23.75" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2797,18 +2882,21 @@
       <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2830,18 +2918,19 @@
       <c r="J2" s="76"/>
       <c r="K2" s="76"/>
       <c r="L2" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M2" s="80"/>
-      <c r="N2" s="79"/>
-      <c r="P2" s="91"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="80"/>
+      <c r="O2" s="79"/>
+      <c r="Q2" s="104"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="90"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -2861,18 +2950,19 @@
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
       <c r="L3" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M3" s="80"/>
-      <c r="N3" s="79"/>
-      <c r="P3" s="91"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N3" s="80"/>
+      <c r="O3" s="79"/>
+      <c r="Q3" s="104"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -2892,18 +2982,19 @@
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
       <c r="L4" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M4" s="80"/>
-      <c r="N4" s="79"/>
-      <c r="P4" s="91"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="80"/>
+      <c r="O4" s="79"/>
+      <c r="Q4" s="104"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -2921,18 +3012,19 @@
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M5" s="80"/>
-      <c r="N5" s="79"/>
-      <c r="P5" s="91"/>
-    </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N5" s="80"/>
+      <c r="O5" s="79"/>
+      <c r="Q5" s="104"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="90"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -2950,18 +3042,19 @@
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M6" s="80"/>
-      <c r="N6" s="79"/>
-      <c r="P6" s="91"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N6" s="80"/>
+      <c r="O6" s="79"/>
+      <c r="Q6" s="104"/>
+    </row>
+    <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -2979,18 +3072,19 @@
       <c r="J7" s="17"/>
       <c r="K7" s="76"/>
       <c r="L7" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M7" s="80"/>
-      <c r="N7" s="79"/>
-      <c r="P7" s="91"/>
-    </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="80"/>
+      <c r="O7" s="79"/>
+      <c r="Q7" s="104"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="77">
@@ -3004,18 +3098,19 @@
       <c r="J8" s="17"/>
       <c r="K8" s="76"/>
       <c r="L8" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M8" s="80"/>
-      <c r="N8" s="79"/>
-      <c r="P8" s="91"/>
-    </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="80"/>
+      <c r="O8" s="79"/>
+      <c r="Q8" s="104"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3033,18 +3128,19 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="L9" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-      <c r="P9" s="91"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="80"/>
+      <c r="O9" s="81"/>
+      <c r="Q9" s="104"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3062,18 +3158,19 @@
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
       <c r="L10" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M10" s="80"/>
-      <c r="N10" s="81"/>
-      <c r="P10" s="91"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N10" s="80"/>
+      <c r="O10" s="81"/>
+      <c r="Q10" s="104"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3091,18 +3188,19 @@
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
       <c r="L11" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-      <c r="P11" s="91"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
+      <c r="Q11" s="104"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3120,18 +3218,19 @@
       <c r="J12" s="76"/>
       <c r="K12" s="76"/>
       <c r="L12" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M12" s="80"/>
-      <c r="N12" s="79"/>
-      <c r="P12" s="91"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N12" s="80"/>
+      <c r="O12" s="79"/>
+      <c r="Q12" s="104"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3151,18 +3250,19 @@
       <c r="J13" s="76"/>
       <c r="K13" s="76"/>
       <c r="L13" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
-      <c r="P13" s="91"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
+      <c r="Q13" s="104"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="92" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3184,19 +3284,20 @@
       <c r="J14" s="76"/>
       <c r="K14" s="76"/>
       <c r="L14" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" s="80"/>
-      <c r="N14" s="83"/>
-      <c r="P14" s="91"/>
-      <c r="R14" s="63"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N14" s="107"/>
+      <c r="O14" s="83"/>
+      <c r="Q14" s="104"/>
+      <c r="S14" s="63"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3216,17 +3317,18 @@
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
       <c r="L15" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M15" s="79"/>
-      <c r="N15" s="81"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N15" s="79"/>
+      <c r="O15" s="81"/>
+    </row>
+    <row r="16" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3246,17 +3348,18 @@
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
       <c r="L16" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" s="79"/>
-      <c r="N16" s="81"/>
-    </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="79"/>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="95" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3278,17 +3381,20 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M17" s="40"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N17" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3308,17 +3414,20 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M18" s="40"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N18" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3338,17 +3447,20 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M19" s="40"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N19" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3368,17 +3480,20 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M20" s="40"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N20" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="17" t="s">
         <v>253</v>
       </c>
@@ -3398,18 +3513,21 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M21" s="40"/>
-      <c r="N21" s="17"/>
-      <c r="R21" s="64"/>
-    </row>
-    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N21" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="S21" s="64"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3429,17 +3547,20 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M22" s="40"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N22" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="69" t="s">
         <v>254</v>
       </c>
@@ -3459,17 +3580,20 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M23" s="40"/>
-      <c r="N23" s="39"/>
-    </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N23" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="92" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3491,17 +3615,20 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M24" s="40"/>
-      <c r="N24" s="39"/>
-    </row>
-    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N24" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3521,17 +3648,20 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M25" s="40"/>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N25" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3551,15 +3681,18 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M26" s="40"/>
-      <c r="N26" s="39"/>
-    </row>
-    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N26" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="17" t="s">
         <v>269</v>
       </c>
@@ -3579,15 +3712,18 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M27" s="40"/>
-      <c r="N27" s="39"/>
-    </row>
-    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N27" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3605,85 +3741,94 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M28" s="40"/>
-      <c r="N28" s="39"/>
-    </row>
-    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N28" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="71">
-        <v>25</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="90"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="96"/>
+      <c r="C29" s="92" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="17" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="17">
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I29" s="51">
-        <v>200</v>
-      </c>
-      <c r="J29" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="J29" s="69"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M29" s="40"/>
-      <c r="N29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N29" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="71">
-        <v>26</v>
-      </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="90" t="s">
-        <v>51</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I30" s="51">
-        <v>250</v>
-      </c>
-      <c r="J30" s="69"/>
+        <v>1000</v>
+      </c>
+      <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M30" s="40"/>
-      <c r="N30" s="39"/>
-    </row>
-    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N30" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="71">
-        <v>27</v>
-      </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="90"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="96"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -3692,113 +3837,119 @@
         <v>54</v>
       </c>
       <c r="I31" s="51">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M31" s="40"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N31" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="1:19" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="71">
-        <v>28</v>
-      </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="51">
-        <v>400</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="39"/>
-    </row>
-    <row r="33" spans="1:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="96"/>
+      <c r="C32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77">
+        <v>0</v>
+      </c>
+      <c r="G32" s="76">
+        <v>0</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="78">
+        <v>20</v>
+      </c>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="71">
-        <v>29</v>
-      </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77">
-        <v>0</v>
-      </c>
-      <c r="G33" s="76">
-        <v>0</v>
-      </c>
-      <c r="H33" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="78">
-        <v>20</v>
-      </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M33" s="79"/>
-      <c r="N33" s="81"/>
-    </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="97"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="62">
+        <f>SUM(F2:F32)</f>
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
-        <v>30</v>
-      </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="62">
-        <f>SUM(F2:F33)</f>
-        <v>20700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77">
+        <v>0</v>
+      </c>
+      <c r="G34" s="76">
+        <v>0</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="78">
+        <v>90</v>
+      </c>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="79"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="71">
-        <v>31</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B35" s="96"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35" s="77"/>
       <c r="F35" s="77">
@@ -3808,27 +3959,28 @@
         <v>0</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I35" s="78">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M35" s="80"/>
-      <c r="N35" s="79"/>
-    </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N35" s="80"/>
+      <c r="O35" s="79"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="71">
-        <v>32</v>
-      </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="90"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="96"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="76" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E36" s="77"/>
       <c r="F36" s="77">
@@ -3838,27 +3990,28 @@
         <v>0</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I36" s="78">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M36" s="80"/>
-      <c r="N36" s="79"/>
-    </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N36" s="80"/>
+      <c r="O36" s="79"/>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="71">
-        <v>33</v>
-      </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="90"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="96"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E37" s="77"/>
       <c r="F37" s="77">
@@ -3868,27 +4021,28 @@
         <v>0</v>
       </c>
       <c r="H37" s="76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I37" s="78">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
       <c r="L37" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M37" s="80"/>
-      <c r="N37" s="79"/>
-    </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N37" s="80"/>
+      <c r="O37" s="79"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="71">
-        <v>34</v>
-      </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="96"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="77"/>
       <c r="F38" s="77">
@@ -3901,24 +4055,27 @@
         <v>31</v>
       </c>
       <c r="I38" s="78">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J38" s="76"/>
       <c r="K38" s="76"/>
       <c r="L38" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M38" s="80"/>
-      <c r="N38" s="79"/>
-    </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="80"/>
+      <c r="O38" s="79"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="71">
-        <v>35</v>
-      </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="90"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="96"/>
+      <c r="C39" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="77"/>
       <c r="F39" s="77">
@@ -3931,26 +4088,25 @@
         <v>31</v>
       </c>
       <c r="I39" s="78">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="J39" s="76"/>
       <c r="K39" s="76"/>
       <c r="L39" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M39" s="80"/>
-      <c r="N39" s="79"/>
-    </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N39" s="80"/>
+      <c r="O39" s="79"/>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="71">
-        <v>36</v>
-      </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="90" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B40" s="96"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40" s="77"/>
       <c r="F40" s="77">
@@ -3960,171 +4116,187 @@
         <v>0</v>
       </c>
       <c r="H40" s="76" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I40" s="78">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
       <c r="L40" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
+        <v>38</v>
+      </c>
+      <c r="B41" s="96"/>
+      <c r="C41" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
+        <v>0</v>
+      </c>
+      <c r="G41" s="71">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="38">
+        <v>3000</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="M40" s="80"/>
-      <c r="N40" s="79"/>
-    </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71">
-        <v>37</v>
-      </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77">
-        <v>0</v>
-      </c>
-      <c r="G41" s="76">
-        <v>0</v>
-      </c>
-      <c r="H41" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="78">
-        <v>50</v>
-      </c>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-    </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M41" s="24"/>
+      <c r="N41" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="71">
-        <v>38</v>
-      </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="86" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="71">
         <v>0</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I42" s="38">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M42" s="24"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N42" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="71">
-        <v>39</v>
-      </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G43" s="71">
         <v>0</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I43" s="38">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M43" s="24"/>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="71">
-        <v>40</v>
-      </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="12" t="s">
-        <v>68</v>
+      <c r="N43" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="75"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="75" t="s">
+        <v>281</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32">
         <v>0</v>
       </c>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="38">
-        <v>1500</v>
-      </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
       <c r="L44" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M44" s="24"/>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="75"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="75" t="s">
-        <v>282</v>
+      <c r="N44" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" s="75"/>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
+        <v>41</v>
+      </c>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32">
         <v>0</v>
       </c>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
+      <c r="G45" s="71">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="38">
+        <v>150</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M45" s="24"/>
-      <c r="N45" s="75"/>
-    </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N45" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="71">
-        <v>41</v>
-      </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="12" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32">
@@ -4134,89 +4306,98 @@
         <v>0</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I46" s="38">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M46" s="24"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N46" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" s="44"/>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
-        <v>42</v>
-      </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="96"/>
+      <c r="C47" s="92" t="s">
+        <v>44</v>
+      </c>
       <c r="D47" s="12" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G47" s="71">
         <v>0</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I47" s="38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M47" s="24"/>
-      <c r="N47" s="44"/>
-    </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N47" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O47" s="44"/>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="71">
-        <v>43</v>
-      </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="90" t="s">
         <v>44</v>
       </c>
+      <c r="B48" s="96"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="12" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G48" s="71">
         <v>0</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I48" s="38">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M48" s="24"/>
-      <c r="N48" s="44"/>
-    </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N48" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" s="44"/>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="71">
-        <v>44</v>
-      </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="90"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="96"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="12" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32">
@@ -4229,24 +4410,29 @@
         <v>39</v>
       </c>
       <c r="I49" s="38">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M49" s="24"/>
-      <c r="N49" s="44"/>
-    </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N49" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O49" s="44"/>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="71">
-        <v>45</v>
-      </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="90"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="96"/>
+      <c r="C50" s="92" t="s">
+        <v>51</v>
+      </c>
       <c r="D50" s="12" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32">
@@ -4256,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I50" s="38">
         <v>500</v>
@@ -4264,21 +4450,22 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M50" s="24"/>
-      <c r="N50" s="44"/>
-    </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N50" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O50" s="44"/>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="71">
-        <v>46</v>
-      </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="90" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B51" s="96"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32">
@@ -4291,24 +4478,27 @@
         <v>54</v>
       </c>
       <c r="I51" s="38">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M51" s="24"/>
-      <c r="N51" s="44"/>
-    </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N51" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O51" s="44"/>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="71">
-        <v>47</v>
-      </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="90"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="96"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="12" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32">
@@ -4318,27 +4508,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I52" s="38">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M52" s="24"/>
-      <c r="N52" s="44"/>
-    </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N52" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O52" s="44"/>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="71">
-        <v>48</v>
-      </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="96"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32">
@@ -4347,83 +4540,88 @@
       <c r="G53" s="71">
         <v>0</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="38">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M53" s="24"/>
-      <c r="N53" s="44"/>
-    </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N53" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O53" s="44"/>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="71">
-        <v>49</v>
-      </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32">
-        <v>0</v>
-      </c>
-      <c r="G54" s="71">
-        <v>0</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="38">
-        <v>400</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="44"/>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="B54" s="97"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="62">
+        <f>SUM(F34:F53)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
-        <v>50</v>
-      </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="93"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="62">
-        <f>SUM(F35:F54)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77">
+        <v>0</v>
+      </c>
+      <c r="G55" s="76">
+        <v>0</v>
+      </c>
+      <c r="H55" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="78">
+        <v>90</v>
+      </c>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="79"/>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="71">
-        <v>51</v>
-      </c>
-      <c r="B56" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B56" s="96"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="77"/>
       <c r="F56" s="77">
@@ -4433,27 +4631,28 @@
         <v>0</v>
       </c>
       <c r="H56" s="76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I56" s="78">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M56" s="80"/>
-      <c r="N56" s="79"/>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N56" s="80"/>
+      <c r="O56" s="79"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="71">
-        <v>52</v>
-      </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="90"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="96"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="76" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E57" s="77"/>
       <c r="F57" s="77">
@@ -4463,27 +4662,28 @@
         <v>0</v>
       </c>
       <c r="H57" s="76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I57" s="78">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
       <c r="L57" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M57" s="80"/>
-      <c r="N57" s="79"/>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N57" s="80"/>
+      <c r="O57" s="79"/>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="71">
-        <v>53</v>
-      </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="90"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="96"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" s="77"/>
       <c r="F58" s="77">
@@ -4493,27 +4693,28 @@
         <v>0</v>
       </c>
       <c r="H58" s="76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I58" s="78">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="J58" s="76"/>
       <c r="K58" s="76"/>
       <c r="L58" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M58" s="80"/>
-      <c r="N58" s="79"/>
-    </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N58" s="80"/>
+      <c r="O58" s="79"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="71">
-        <v>54</v>
-      </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="90"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="96"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" s="77"/>
       <c r="F59" s="77">
@@ -4526,24 +4727,27 @@
         <v>31</v>
       </c>
       <c r="I59" s="78">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J59" s="76"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M59" s="80"/>
-      <c r="N59" s="79"/>
-    </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N59" s="80"/>
+      <c r="O59" s="79"/>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="71">
-        <v>55</v>
-      </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="96"/>
+      <c r="C60" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="D60" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E60" s="77"/>
       <c r="F60" s="77">
@@ -4556,26 +4760,25 @@
         <v>31</v>
       </c>
       <c r="I60" s="78">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="J60" s="76"/>
       <c r="K60" s="76"/>
       <c r="L60" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M60" s="80"/>
-      <c r="N60" s="79"/>
-    </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N60" s="80"/>
+      <c r="O60" s="79"/>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="71">
-        <v>56</v>
-      </c>
-      <c r="B61" s="87"/>
-      <c r="C61" s="90" t="s">
-        <v>29</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B61" s="96"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61" s="77"/>
       <c r="F61" s="77">
@@ -4585,89 +4788,96 @@
         <v>0</v>
       </c>
       <c r="H61" s="76" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I61" s="78">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="71">
+        <v>58</v>
+      </c>
+      <c r="B62" s="96"/>
+      <c r="C62" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="71">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="38">
+        <v>3000</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="M61" s="80"/>
-      <c r="N61" s="79"/>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="71">
-        <v>57</v>
-      </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77">
-        <v>0</v>
-      </c>
-      <c r="G62" s="76">
-        <v>0</v>
-      </c>
-      <c r="H62" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="I62" s="78">
-        <v>50</v>
-      </c>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-    </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M62" s="24"/>
+      <c r="N62" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O62" s="12"/>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="71">
-        <v>58</v>
-      </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="86" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G63" s="71">
         <v>0</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I63" s="38">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M63" s="24"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N63" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="71">
-        <v>59</v>
-      </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="32">
@@ -4677,27 +4887,30 @@
         <v>0</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I64" s="38">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M64" s="24"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N64" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O64" s="12"/>
+    </row>
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="71">
-        <v>60</v>
-      </c>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
       <c r="D65" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32">
@@ -4707,27 +4920,30 @@
         <v>0</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I65" s="38">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M65" s="24"/>
-      <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N65" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O65" s="12"/>
+    </row>
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
-        <v>61</v>
-      </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97"/>
       <c r="D66" s="12" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32">
@@ -4737,89 +4953,98 @@
         <v>0</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I66" s="38">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M66" s="24"/>
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N66" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O66" s="44"/>
+    </row>
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
-        <v>62</v>
-      </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="96"/>
+      <c r="C67" s="92" t="s">
+        <v>44</v>
+      </c>
       <c r="D67" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G67" s="71">
         <v>0</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I67" s="38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M67" s="24"/>
-      <c r="N67" s="44"/>
-    </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N67" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O67" s="44"/>
+    </row>
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
-        <v>63</v>
-      </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="90" t="s">
-        <v>44</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B68" s="96"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="12" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G68" s="71">
         <v>0</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I68" s="38">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M68" s="24"/>
-      <c r="N68" s="44"/>
-    </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N68" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O68" s="44"/>
+    </row>
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
-        <v>64</v>
-      </c>
-      <c r="B69" s="87"/>
-      <c r="C69" s="90"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="96"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32">
@@ -4832,24 +5057,29 @@
         <v>39</v>
       </c>
       <c r="I69" s="38">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M69" s="24"/>
-      <c r="N69" s="44"/>
-    </row>
-    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N69" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
-        <v>65</v>
-      </c>
-      <c r="B70" s="87"/>
-      <c r="C70" s="90"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="96"/>
+      <c r="C70" s="92" t="s">
+        <v>51</v>
+      </c>
       <c r="D70" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32">
@@ -4859,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I70" s="38">
         <v>500</v>
@@ -4867,21 +5097,22 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M70" s="24"/>
-      <c r="N70" s="44"/>
-    </row>
-    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N70" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O70" s="44"/>
+    </row>
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
-        <v>66</v>
-      </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="90" t="s">
-        <v>51</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B71" s="96"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="32">
@@ -4894,109 +5125,117 @@
         <v>54</v>
       </c>
       <c r="I71" s="38">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M71" s="24"/>
-      <c r="N71" s="44"/>
-    </row>
-    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N71" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O71" s="44"/>
+    </row>
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
-        <v>67</v>
-      </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="90"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="96"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="12" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="32">
         <v>0</v>
       </c>
-      <c r="G72" s="71">
-        <v>0</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12"/>
       <c r="I72" s="38">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M72" s="24"/>
-      <c r="N72" s="44"/>
-    </row>
-    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N72" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O72" s="44"/>
+    </row>
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
-        <v>69</v>
-      </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32">
-        <v>0</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="38">
-        <v>400</v>
-      </c>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="44"/>
-    </row>
-    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="B73" s="97"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="62">
+        <f>SUM(F55:F72)</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
-        <v>70</v>
-      </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="93"/>
-      <c r="L74" s="93"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="62">
-        <f>SUM(F56:F73)</f>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="B74" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77">
+        <v>0</v>
+      </c>
+      <c r="G74" s="76">
+        <v>0</v>
+      </c>
+      <c r="H74" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="78">
+        <v>90</v>
+      </c>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="79"/>
+    </row>
+    <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
-        <v>71</v>
-      </c>
-      <c r="B75" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B75" s="96"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75" s="77"/>
       <c r="F75" s="77">
@@ -5006,27 +5245,28 @@
         <v>0</v>
       </c>
       <c r="H75" s="76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I75" s="78">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J75" s="76"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M75" s="80"/>
-      <c r="N75" s="79"/>
-    </row>
-    <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N75" s="80"/>
+      <c r="O75" s="79"/>
+    </row>
+    <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
-        <v>72</v>
-      </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="90"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="96"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="76" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E76" s="77"/>
       <c r="F76" s="77">
@@ -5036,27 +5276,28 @@
         <v>0</v>
       </c>
       <c r="H76" s="76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I76" s="78">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="J76" s="76"/>
       <c r="K76" s="76"/>
       <c r="L76" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M76" s="80"/>
-      <c r="N76" s="79"/>
-    </row>
-    <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N76" s="80"/>
+      <c r="O76" s="79"/>
+    </row>
+    <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="71">
-        <v>73</v>
-      </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="90"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="96"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E77" s="77"/>
       <c r="F77" s="77">
@@ -5066,27 +5307,28 @@
         <v>0</v>
       </c>
       <c r="H77" s="76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I77" s="78">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="J77" s="76"/>
       <c r="K77" s="76"/>
       <c r="L77" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M77" s="80"/>
-      <c r="N77" s="79"/>
-    </row>
-    <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N77" s="80"/>
+      <c r="O77" s="79"/>
+    </row>
+    <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="71">
-        <v>74</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="90"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="96"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E78" s="77"/>
       <c r="F78" s="77">
@@ -5099,24 +5341,27 @@
         <v>31</v>
       </c>
       <c r="I78" s="78">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J78" s="76"/>
       <c r="K78" s="76"/>
       <c r="L78" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M78" s="80"/>
-      <c r="N78" s="79"/>
-    </row>
-    <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N78" s="80"/>
+      <c r="O78" s="79"/>
+    </row>
+    <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="71">
-        <v>75</v>
-      </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="90"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="96"/>
+      <c r="C79" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="D79" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E79" s="77"/>
       <c r="F79" s="77">
@@ -5129,26 +5374,25 @@
         <v>31</v>
       </c>
       <c r="I79" s="78">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="J79" s="76"/>
       <c r="K79" s="76"/>
       <c r="L79" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M79" s="80"/>
-      <c r="N79" s="79"/>
-    </row>
-    <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N79" s="80"/>
+      <c r="O79" s="79"/>
+    </row>
+    <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="71">
-        <v>76</v>
-      </c>
-      <c r="B80" s="87"/>
-      <c r="C80" s="90" t="s">
-        <v>29</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B80" s="96"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E80" s="77"/>
       <c r="F80" s="77">
@@ -5158,211 +5402,232 @@
         <v>0</v>
       </c>
       <c r="H80" s="76" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I80" s="78">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J80" s="76"/>
       <c r="K80" s="76"/>
       <c r="L80" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="79"/>
+    </row>
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71">
+        <v>78</v>
+      </c>
+      <c r="B81" s="96"/>
+      <c r="C81" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32">
+        <v>2000</v>
+      </c>
+      <c r="G81" s="71">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" s="38">
+        <v>3000</v>
+      </c>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="M80" s="80"/>
-      <c r="N80" s="79"/>
-    </row>
-    <row r="81" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="71">
-        <v>77</v>
-      </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77">
-        <v>0</v>
-      </c>
-      <c r="G81" s="76">
-        <v>0</v>
-      </c>
-      <c r="H81" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="I81" s="78">
-        <v>50</v>
-      </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
-    </row>
-    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M81" s="24"/>
+      <c r="N81" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O81" s="12"/>
+    </row>
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="71">
-        <v>78</v>
-      </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="86" t="s">
-        <v>35</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="71">
         <v>0</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I82" s="38">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M82" s="24"/>
-      <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N82" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="71">
-        <v>79</v>
-      </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
       <c r="D83" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G83" s="71">
         <v>0</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I83" s="38">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M83" s="24"/>
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N83" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O83" s="12"/>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="71">
-        <v>80</v>
-      </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="72" t="s">
-        <v>247</v>
+        <v>81</v>
+      </c>
+      <c r="B84" s="96"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32">
+        <v>0</v>
+      </c>
+      <c r="G84" s="71">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" s="38">
         <v>200</v>
-      </c>
-      <c r="G84" s="71">
-        <v>0</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I84" s="38">
-        <v>1500</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M84" s="24"/>
-      <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N84" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O84" s="44"/>
+    </row>
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="71">
-        <v>81</v>
-      </c>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="96"/>
+      <c r="C85" s="92" t="s">
+        <v>44</v>
+      </c>
       <c r="D85" s="12" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G85" s="71">
         <v>0</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I85" s="38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M85" s="24"/>
-      <c r="N85" s="44"/>
-    </row>
-    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N85" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O85" s="44"/>
+    </row>
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="71">
-        <v>82</v>
-      </c>
-      <c r="B86" s="87"/>
-      <c r="C86" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G86" s="71">
         <v>0</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I86" s="38">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M86" s="24"/>
-      <c r="N86" s="44"/>
-    </row>
-    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N86" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O86" s="44"/>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="71">
-        <v>83</v>
-      </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="90"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="96"/>
+      <c r="C87" s="95" t="s">
+        <v>51</v>
+      </c>
       <c r="D87" s="72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32">
@@ -5372,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I87" s="38">
         <v>500</v>
@@ -5380,21 +5645,22 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M87" s="24"/>
-      <c r="N87" s="44"/>
-    </row>
-    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N87" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O87" s="44"/>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="71">
-        <v>84</v>
-      </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="86" t="s">
-        <v>51</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B88" s="96"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="32">
@@ -5407,81 +5673,86 @@
         <v>54</v>
       </c>
       <c r="I88" s="38">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M88" s="24"/>
-      <c r="N88" s="44"/>
-    </row>
-    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N88" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O88" s="44"/>
+    </row>
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="71">
-        <v>85</v>
-      </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32">
-        <v>0</v>
-      </c>
-      <c r="G89" s="71">
-        <v>0</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I89" s="38">
-        <v>600</v>
-      </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="44"/>
-    </row>
-    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="B89" s="97"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="108"/>
+      <c r="O89" s="62">
+        <f>SUM(F74:F88)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="71">
-        <v>86</v>
-      </c>
-      <c r="B90" s="88"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
-      <c r="I90" s="93"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="93"/>
-      <c r="L90" s="93"/>
-      <c r="M90" s="94"/>
-      <c r="N90" s="62">
-        <f>SUM(F75:F89)</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="B90" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77">
+        <v>0</v>
+      </c>
+      <c r="G90" s="76">
+        <v>0</v>
+      </c>
+      <c r="H90" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="77">
+        <v>100</v>
+      </c>
+      <c r="J90" s="76"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M90" s="80"/>
+      <c r="N90" s="80"/>
+      <c r="O90" s="79"/>
+    </row>
+    <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="71">
-        <v>87</v>
-      </c>
-      <c r="B91" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B91" s="96"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E91" s="77"/>
       <c r="F91" s="77">
@@ -5494,24 +5765,25 @@
         <v>80</v>
       </c>
       <c r="I91" s="77">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J91" s="76"/>
       <c r="K91" s="79"/>
       <c r="L91" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M91" s="80"/>
-      <c r="N91" s="79"/>
-    </row>
-    <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N91" s="80"/>
+      <c r="O91" s="79"/>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="71">
-        <v>88</v>
-      </c>
-      <c r="B92" s="87"/>
-      <c r="C92" s="90"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="96"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E92" s="77"/>
       <c r="F92" s="77">
@@ -5521,27 +5793,28 @@
         <v>0</v>
       </c>
       <c r="H92" s="76" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I92" s="77">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="J92" s="76"/>
       <c r="K92" s="79"/>
       <c r="L92" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M92" s="80"/>
-      <c r="N92" s="79"/>
-    </row>
-    <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N92" s="80"/>
+      <c r="O92" s="79"/>
+    </row>
+    <row r="93" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="71">
-        <v>89</v>
-      </c>
-      <c r="B93" s="87"/>
-      <c r="C93" s="90"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="96"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="76" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E93" s="77"/>
       <c r="F93" s="77">
@@ -5551,27 +5824,28 @@
         <v>0</v>
       </c>
       <c r="H93" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I93" s="77">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J93" s="76"/>
       <c r="K93" s="79"/>
       <c r="L93" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M93" s="80"/>
-      <c r="N93" s="79"/>
-    </row>
-    <row r="94" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N93" s="80"/>
+      <c r="O93" s="79"/>
+    </row>
+    <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="71">
-        <v>90</v>
-      </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="90"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="76" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E94" s="77"/>
       <c r="F94" s="77">
@@ -5581,27 +5855,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="76" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I94" s="77">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="J94" s="76"/>
       <c r="K94" s="79"/>
       <c r="L94" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M94" s="80"/>
-      <c r="N94" s="79"/>
-    </row>
-    <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N94" s="80"/>
+      <c r="O94" s="79"/>
+    </row>
+    <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="71">
-        <v>91</v>
-      </c>
-      <c r="B95" s="87"/>
-      <c r="C95" s="90"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="96"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E95" s="77"/>
       <c r="F95" s="77">
@@ -5611,27 +5886,30 @@
         <v>0</v>
       </c>
       <c r="H95" s="76" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I95" s="77">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="J95" s="76"/>
       <c r="K95" s="79"/>
       <c r="L95" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M95" s="80"/>
-      <c r="N95" s="79"/>
-    </row>
-    <row r="96" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N95" s="80"/>
+      <c r="O95" s="79"/>
+    </row>
+    <row r="96" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="71">
-        <v>92</v>
-      </c>
-      <c r="B96" s="87"/>
-      <c r="C96" s="90"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="96"/>
+      <c r="C96" s="92" t="s">
+        <v>29</v>
+      </c>
       <c r="D96" s="76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E96" s="77"/>
       <c r="F96" s="77">
@@ -5641,29 +5919,28 @@
         <v>0</v>
       </c>
       <c r="H96" s="76" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I96" s="77">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="J96" s="76"/>
       <c r="K96" s="79"/>
       <c r="L96" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M96" s="80"/>
-      <c r="N96" s="79"/>
-    </row>
-    <row r="97" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N96" s="80"/>
+      <c r="O96" s="79"/>
+    </row>
+    <row r="97" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="71">
-        <v>93</v>
-      </c>
-      <c r="B97" s="87"/>
-      <c r="C97" s="90" t="s">
-        <v>29</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B97" s="96"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E97" s="77"/>
       <c r="F97" s="77">
@@ -5672,58 +5949,62 @@
       <c r="G97" s="76">
         <v>0</v>
       </c>
-      <c r="H97" s="76" t="s">
-        <v>31</v>
-      </c>
+      <c r="H97" s="76"/>
       <c r="I97" s="77">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="J97" s="76"/>
       <c r="K97" s="79"/>
       <c r="L97" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+    </row>
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="71">
+        <v>95</v>
+      </c>
+      <c r="B98" s="96"/>
+      <c r="C98" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="17"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M97" s="80"/>
-      <c r="N97" s="79"/>
-    </row>
-    <row r="98" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="71">
-        <v>94</v>
-      </c>
-      <c r="B98" s="87"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77">
-        <v>0</v>
-      </c>
-      <c r="G98" s="76">
-        <v>0</v>
-      </c>
-      <c r="H98" s="76"/>
-      <c r="I98" s="77">
-        <v>300</v>
-      </c>
-      <c r="J98" s="76"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M98" s="79"/>
-      <c r="N98" s="79"/>
-    </row>
-    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M98" s="40"/>
+      <c r="N98" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="O98" s="17"/>
+    </row>
+    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="71">
-        <v>95</v>
-      </c>
-      <c r="B99" s="87"/>
-      <c r="C99" s="86" t="s">
-        <v>87</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E99" s="46"/>
       <c r="F99" s="46">
@@ -5736,24 +6017,27 @@
         <v>54</v>
       </c>
       <c r="I99" s="46">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J99" s="17"/>
       <c r="K99" s="40"/>
       <c r="L99" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M99" s="40"/>
-      <c r="N99" s="17"/>
-    </row>
-    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N99" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="O99" s="17"/>
+    </row>
+    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="71">
-        <v>96</v>
-      </c>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="17" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="B100" s="96"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="69" t="s">
+        <v>90</v>
       </c>
       <c r="E100" s="46"/>
       <c r="F100" s="46">
@@ -5766,60 +6050,66 @@
         <v>54</v>
       </c>
       <c r="I100" s="46">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="40"/>
       <c r="L100" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M100" s="40"/>
-      <c r="N100" s="17"/>
-    </row>
-    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N100" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="O100" s="39"/>
+    </row>
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="71">
-        <v>97</v>
-      </c>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="69" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="B101" s="96"/>
+      <c r="C101" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="46">
-        <v>0</v>
+        <v>3599</v>
       </c>
       <c r="G101" s="17">
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I101" s="46">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="17"/>
       <c r="K101" s="40"/>
       <c r="L101" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M101" s="40"/>
-      <c r="N101" s="39"/>
-    </row>
-    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N101" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O101" s="39"/>
+    </row>
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="71">
-        <v>98</v>
-      </c>
-      <c r="B102" s="87"/>
-      <c r="C102" s="90" t="s">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B102" s="96"/>
+      <c r="C102" s="92"/>
       <c r="D102" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="46">
-        <v>3599</v>
+        <v>3325</v>
       </c>
       <c r="G102" s="17">
         <v>0</v>
@@ -5828,28 +6118,31 @@
         <v>39</v>
       </c>
       <c r="I102" s="46">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="17"/>
-      <c r="K102" s="40"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M102" s="40"/>
-      <c r="N102" s="39"/>
-    </row>
-    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N102" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O102" s="39"/>
+    </row>
+    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="71">
-        <v>99</v>
-      </c>
-      <c r="B103" s="87"/>
-      <c r="C103" s="90"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="96"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="46">
-        <v>3325</v>
+        <v>1296</v>
       </c>
       <c r="G103" s="17">
         <v>0</v>
@@ -5858,28 +6151,31 @@
         <v>39</v>
       </c>
       <c r="I103" s="46">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M103" s="40"/>
-      <c r="N103" s="39"/>
-    </row>
-    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N103" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O103" s="39"/>
+    </row>
+    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="71">
-        <v>100</v>
-      </c>
-      <c r="B104" s="87"/>
-      <c r="C104" s="90"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="96"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="17" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="46">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="G104" s="17">
         <v>0</v>
@@ -5888,28 +6184,31 @@
         <v>39</v>
       </c>
       <c r="I104" s="46">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M104" s="40"/>
-      <c r="N104" s="39"/>
-    </row>
-    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N104" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O104" s="39"/>
+    </row>
+    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="71">
-        <v>101</v>
-      </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="90"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="96"/>
+      <c r="C105" s="92"/>
       <c r="D105" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" s="46"/>
       <c r="F105" s="46">
-        <v>0</v>
+        <v>2610</v>
       </c>
       <c r="G105" s="17">
         <v>0</v>
@@ -5923,106 +6222,112 @@
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M105" s="40"/>
-      <c r="N105" s="39"/>
-    </row>
-    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N105" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O105" s="39"/>
+    </row>
+    <row r="106" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="71">
-        <v>102</v>
-      </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46">
-        <v>2610</v>
-      </c>
-      <c r="G106" s="17">
-        <v>0</v>
-      </c>
-      <c r="H106" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="96"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77">
+        <v>0</v>
+      </c>
+      <c r="G106" s="76">
+        <v>0</v>
+      </c>
+      <c r="H106" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I106" s="46">
-        <v>600</v>
-      </c>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M106" s="40"/>
-      <c r="N106" s="39"/>
-    </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I106" s="77">
+        <v>150</v>
+      </c>
+      <c r="J106" s="82"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="81"/>
+    </row>
+    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="71">
-        <v>103</v>
-      </c>
-      <c r="B107" s="87"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77">
-        <v>0</v>
-      </c>
-      <c r="G107" s="76">
-        <v>0</v>
-      </c>
-      <c r="H107" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I107" s="77">
-        <v>150</v>
-      </c>
-      <c r="J107" s="82"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="M107" s="79"/>
-      <c r="N107" s="81"/>
-    </row>
-    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="B107" s="97"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="90"/>
+      <c r="J107" s="90"/>
+      <c r="K107" s="90"/>
+      <c r="L107" s="90"/>
+      <c r="M107" s="91"/>
+      <c r="N107" s="108"/>
+      <c r="O107" s="62">
+        <f>SUM(F90:F106)</f>
+        <v>10830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="71">
-        <v>104</v>
-      </c>
-      <c r="B108" s="88"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="93"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
-      <c r="H108" s="93"/>
-      <c r="I108" s="93"/>
-      <c r="J108" s="93"/>
-      <c r="K108" s="93"/>
-      <c r="L108" s="93"/>
-      <c r="M108" s="94"/>
-      <c r="N108" s="62">
-        <f>SUM(F91:F107)</f>
-        <v>10830</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B108" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77">
+        <v>0</v>
+      </c>
+      <c r="G108" s="76">
+        <v>0</v>
+      </c>
+      <c r="H108" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="78">
+        <v>100</v>
+      </c>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M108" s="80"/>
+      <c r="N108" s="80"/>
+      <c r="O108" s="79"/>
+    </row>
+    <row r="109" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="71">
-        <v>105</v>
-      </c>
-      <c r="B109" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B109" s="96"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E109" s="77"/>
       <c r="F109" s="77">
@@ -6035,24 +6340,25 @@
         <v>31</v>
       </c>
       <c r="I109" s="78">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J109" s="76"/>
       <c r="K109" s="76"/>
       <c r="L109" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M109" s="80"/>
-      <c r="N109" s="79"/>
-    </row>
-    <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N109" s="80"/>
+      <c r="O109" s="79"/>
+    </row>
+    <row r="110" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="71">
-        <v>106</v>
-      </c>
-      <c r="B110" s="87"/>
-      <c r="C110" s="90"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="96"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="76" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E110" s="77"/>
       <c r="F110" s="77">
@@ -6061,28 +6367,27 @@
       <c r="G110" s="76">
         <v>0</v>
       </c>
-      <c r="H110" s="76" t="s">
-        <v>31</v>
-      </c>
+      <c r="H110" s="76"/>
       <c r="I110" s="78">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J110" s="76"/>
       <c r="K110" s="76"/>
       <c r="L110" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M110" s="80"/>
-      <c r="N110" s="79"/>
-    </row>
-    <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N110" s="80"/>
+      <c r="O110" s="79"/>
+    </row>
+    <row r="111" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="71">
-        <v>107</v>
-      </c>
-      <c r="B111" s="87"/>
-      <c r="C111" s="90"/>
+        <v>108</v>
+      </c>
+      <c r="B111" s="96"/>
+      <c r="C111" s="92"/>
       <c r="D111" s="76" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E111" s="77"/>
       <c r="F111" s="77">
@@ -6091,26 +6396,29 @@
       <c r="G111" s="76">
         <v>0</v>
       </c>
-      <c r="H111" s="76"/>
+      <c r="H111" s="76" t="s">
+        <v>100</v>
+      </c>
       <c r="I111" s="78">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J111" s="76"/>
       <c r="K111" s="76"/>
       <c r="L111" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M111" s="80"/>
-      <c r="N111" s="79"/>
-    </row>
-    <row r="112" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N111" s="80"/>
+      <c r="O111" s="79"/>
+    </row>
+    <row r="112" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="71">
-        <v>108</v>
-      </c>
-      <c r="B112" s="87"/>
-      <c r="C112" s="90"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="96"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="76" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E112" s="77"/>
       <c r="F112" s="77">
@@ -6120,27 +6428,28 @@
         <v>0</v>
       </c>
       <c r="H112" s="76" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I112" s="78">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J112" s="76"/>
       <c r="K112" s="76"/>
       <c r="L112" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M112" s="80"/>
-      <c r="N112" s="79"/>
-    </row>
-    <row r="113" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N112" s="80"/>
+      <c r="O112" s="79"/>
+    </row>
+    <row r="113" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="71">
-        <v>109</v>
-      </c>
-      <c r="B113" s="87"/>
-      <c r="C113" s="90"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="96"/>
+      <c r="C113" s="92"/>
       <c r="D113" s="76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E113" s="77"/>
       <c r="F113" s="77">
@@ -6150,27 +6459,28 @@
         <v>0</v>
       </c>
       <c r="H113" s="76" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I113" s="78">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J113" s="76"/>
       <c r="K113" s="76"/>
       <c r="L113" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M113" s="80"/>
-      <c r="N113" s="79"/>
-    </row>
-    <row r="114" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N113" s="80"/>
+      <c r="O113" s="79"/>
+    </row>
+    <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="71">
-        <v>110</v>
-      </c>
-      <c r="B114" s="87"/>
-      <c r="C114" s="90"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="96"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" s="77"/>
       <c r="F114" s="77">
@@ -6183,176 +6493,185 @@
         <v>39</v>
       </c>
       <c r="I114" s="78">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="J114" s="76"/>
       <c r="K114" s="76"/>
       <c r="L114" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M114" s="80"/>
-      <c r="N114" s="79"/>
-    </row>
-    <row r="115" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="71">
-        <v>111</v>
-      </c>
-      <c r="B115" s="87"/>
-      <c r="C115" s="90"/>
+      <c r="N114" s="80"/>
+      <c r="O114" s="79"/>
+    </row>
+    <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="75"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="92"/>
       <c r="D115" s="76" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="E115" s="77"/>
       <c r="F115" s="77">
         <v>0</v>
       </c>
-      <c r="G115" s="76">
-        <v>0</v>
-      </c>
-      <c r="H115" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I115" s="78">
-        <v>1800</v>
-      </c>
-      <c r="J115" s="76"/>
+      <c r="G115" s="17">
+        <v>0</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I115" s="51"/>
+      <c r="J115" s="17"/>
       <c r="K115" s="76"/>
       <c r="L115" s="76" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M115" s="80"/>
-      <c r="N115" s="79"/>
-    </row>
-    <row r="116" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N115" s="80"/>
+      <c r="O115" s="79"/>
+    </row>
+    <row r="116" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="87"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="76" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E116" s="77"/>
       <c r="F116" s="77">
         <v>0</v>
       </c>
-      <c r="G116" s="17">
-        <v>0</v>
-      </c>
-      <c r="H116" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
       <c r="I116" s="51"/>
       <c r="J116" s="17"/>
       <c r="K116" s="76"/>
       <c r="L116" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M116" s="80"/>
-      <c r="N116" s="79"/>
-    </row>
-    <row r="117" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N116" s="80"/>
+      <c r="O116" s="79"/>
+    </row>
+    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="87"/>
-      <c r="C117" s="90"/>
-      <c r="D117" s="76" t="s">
+      <c r="B117" s="96"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77">
-        <v>0</v>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46">
+        <v>300</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="51"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="M117" s="80"/>
-      <c r="N117" s="79"/>
-    </row>
-    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="17"/>
+      <c r="L117" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="M117" s="52"/>
+      <c r="N117" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O117" s="40"/>
+    </row>
+    <row r="118" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="75"/>
-      <c r="B118" s="87"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E118" s="46"/>
-      <c r="F118" s="46">
-        <v>300</v>
+      <c r="B118" s="96"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77">
+        <v>0</v>
       </c>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
       <c r="I118" s="51"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M118" s="52"/>
-      <c r="N118" s="40"/>
-    </row>
-    <row r="119" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="75"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="90"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="M118" s="80"/>
+      <c r="N118" s="80"/>
+      <c r="O118" s="79"/>
+    </row>
+    <row r="119" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="71">
+        <v>112</v>
+      </c>
+      <c r="B119" s="96"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="76" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E119" s="77"/>
       <c r="F119" s="77">
         <v>0</v>
       </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="51"/>
+      <c r="G119" s="17">
+        <v>0</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" s="51">
+        <v>2500</v>
+      </c>
       <c r="J119" s="17"/>
       <c r="K119" s="76"/>
       <c r="L119" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M119" s="80"/>
-      <c r="N119" s="79"/>
-    </row>
-    <row r="120" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N119" s="80"/>
+      <c r="O119" s="79"/>
+    </row>
+    <row r="120" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="71">
-        <v>112</v>
-      </c>
-      <c r="B120" s="87"/>
-      <c r="C120" s="90"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="96"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="76" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="E120" s="77"/>
       <c r="F120" s="77">
         <v>0</v>
       </c>
-      <c r="G120" s="17">
-        <v>0</v>
-      </c>
-      <c r="H120" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I120" s="51">
-        <v>2500</v>
-      </c>
-      <c r="J120" s="17"/>
+      <c r="G120" s="76">
+        <v>0</v>
+      </c>
+      <c r="H120" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="78">
+        <v>20</v>
+      </c>
+      <c r="J120" s="76"/>
       <c r="K120" s="76"/>
       <c r="L120" s="76" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M120" s="80"/>
-      <c r="N120" s="79"/>
-    </row>
-    <row r="121" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N120" s="80"/>
+      <c r="O120" s="79"/>
+    </row>
+    <row r="121" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="71">
-        <v>113</v>
-      </c>
-      <c r="B121" s="87"/>
-      <c r="C121" s="90"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="96"/>
+      <c r="C121" s="92"/>
       <c r="D121" s="76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E121" s="77"/>
       <c r="F121" s="77">
@@ -6362,27 +6681,28 @@
         <v>0</v>
       </c>
       <c r="H121" s="76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I121" s="78">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J121" s="76"/>
       <c r="K121" s="76"/>
       <c r="L121" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M121" s="80"/>
-      <c r="N121" s="79"/>
-    </row>
-    <row r="122" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N121" s="80"/>
+      <c r="O121" s="79"/>
+    </row>
+    <row r="122" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="71">
-        <v>114</v>
-      </c>
-      <c r="B122" s="87"/>
-      <c r="C122" s="90"/>
+        <v>115</v>
+      </c>
+      <c r="B122" s="96"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E122" s="77"/>
       <c r="F122" s="77">
@@ -6392,27 +6712,28 @@
         <v>0</v>
       </c>
       <c r="H122" s="76" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I122" s="78">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="J122" s="76"/>
       <c r="K122" s="76"/>
       <c r="L122" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M122" s="80"/>
-      <c r="N122" s="79"/>
-    </row>
-    <row r="123" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N122" s="80"/>
+      <c r="O122" s="79"/>
+    </row>
+    <row r="123" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="71">
-        <v>115</v>
-      </c>
-      <c r="B123" s="87"/>
-      <c r="C123" s="90"/>
+        <v>116</v>
+      </c>
+      <c r="B123" s="96"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="77"/>
       <c r="F123" s="77">
@@ -6422,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="76" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="I123" s="78">
         <v>200</v>
@@ -6430,19 +6751,22 @@
       <c r="J123" s="76"/>
       <c r="K123" s="76"/>
       <c r="L123" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M123" s="80"/>
-      <c r="N123" s="79"/>
-    </row>
-    <row r="124" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N123" s="80"/>
+      <c r="O123" s="79"/>
+    </row>
+    <row r="124" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="71">
-        <v>116</v>
-      </c>
-      <c r="B124" s="87"/>
-      <c r="C124" s="90"/>
+        <v>117</v>
+      </c>
+      <c r="B124" s="96"/>
+      <c r="C124" s="95" t="s">
+        <v>29</v>
+      </c>
       <c r="D124" s="76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="77"/>
       <c r="F124" s="77">
@@ -6451,30 +6775,27 @@
       <c r="G124" s="76">
         <v>0</v>
       </c>
-      <c r="H124" s="76" t="s">
-        <v>19</v>
-      </c>
+      <c r="H124" s="76"/>
       <c r="I124" s="78">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J124" s="76"/>
       <c r="K124" s="76"/>
       <c r="L124" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M124" s="80"/>
-      <c r="N124" s="79"/>
-    </row>
-    <row r="125" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N124" s="80"/>
+      <c r="O124" s="79"/>
+    </row>
+    <row r="125" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="71">
-        <v>117</v>
-      </c>
-      <c r="B125" s="87"/>
-      <c r="C125" s="86" t="s">
-        <v>29</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B125" s="96"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E125" s="77"/>
       <c r="F125" s="77">
@@ -6485,24 +6806,25 @@
       </c>
       <c r="H125" s="76"/>
       <c r="I125" s="78">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J125" s="76"/>
       <c r="K125" s="76"/>
       <c r="L125" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M125" s="80"/>
-      <c r="N125" s="79"/>
-    </row>
-    <row r="126" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N125" s="80"/>
+      <c r="O125" s="79"/>
+    </row>
+    <row r="126" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="71">
-        <v>118</v>
-      </c>
-      <c r="B126" s="87"/>
-      <c r="C126" s="87"/>
+        <v>119</v>
+      </c>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E126" s="77"/>
       <c r="F126" s="77">
@@ -6513,24 +6835,25 @@
       </c>
       <c r="H126" s="76"/>
       <c r="I126" s="78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J126" s="76"/>
       <c r="K126" s="76"/>
       <c r="L126" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M126" s="80"/>
+        <v>275</v>
+      </c>
+      <c r="M126" s="79"/>
       <c r="N126" s="79"/>
-    </row>
-    <row r="127" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O126" s="79"/>
+    </row>
+    <row r="127" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
-        <v>119</v>
-      </c>
-      <c r="B127" s="87"/>
-      <c r="C127" s="87"/>
+        <v>120</v>
+      </c>
+      <c r="B127" s="96"/>
+      <c r="C127" s="97"/>
       <c r="D127" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E127" s="77"/>
       <c r="F127" s="77">
@@ -6546,53 +6869,57 @@
       <c r="J127" s="76"/>
       <c r="K127" s="76"/>
       <c r="L127" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M127" s="79"/>
       <c r="N127" s="79"/>
-    </row>
-    <row r="128" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O127" s="79"/>
+    </row>
+    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
-        <v>120</v>
-      </c>
-      <c r="B128" s="87"/>
-      <c r="C128" s="88"/>
-      <c r="D128" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E128" s="77"/>
-      <c r="F128" s="77">
-        <v>0</v>
-      </c>
-      <c r="G128" s="76">
-        <v>0</v>
-      </c>
-      <c r="H128" s="76"/>
-      <c r="I128" s="78">
-        <v>100</v>
-      </c>
-      <c r="J128" s="76"/>
-      <c r="K128" s="76"/>
-      <c r="L128" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B128" s="96"/>
+      <c r="C128" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46">
+        <v>3449</v>
+      </c>
+      <c r="G128" s="17">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17"/>
+      <c r="I128" s="46">
+        <v>0</v>
+      </c>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M128" s="79"/>
-      <c r="N128" s="79"/>
-    </row>
-    <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M128" s="24"/>
+      <c r="N128" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O128" s="44"/>
+    </row>
+    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="71">
-        <v>121</v>
-      </c>
-      <c r="B129" s="87"/>
-      <c r="C129" s="90" t="s">
-        <v>44</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B129" s="96"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E129" s="46"/>
       <c r="F129" s="46">
-        <v>3449</v>
+        <v>2063</v>
       </c>
       <c r="G129" s="17">
         <v>0</v>
@@ -6604,47 +6931,51 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
       <c r="L129" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M129" s="24"/>
-      <c r="N129" s="44"/>
-    </row>
-    <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N129" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O129" s="44"/>
+    </row>
+    <row r="130" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="71">
-        <v>122</v>
-      </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="90"/>
-      <c r="D130" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E130" s="46"/>
-      <c r="F130" s="46">
-        <v>2063</v>
-      </c>
-      <c r="G130" s="17">
-        <v>0</v>
-      </c>
-      <c r="H130" s="17"/>
-      <c r="I130" s="46">
-        <v>0</v>
-      </c>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M130" s="24"/>
-      <c r="N130" s="44"/>
-    </row>
-    <row r="131" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="B130" s="96"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77">
+        <v>0</v>
+      </c>
+      <c r="G130" s="76">
+        <v>0</v>
+      </c>
+      <c r="H130" s="76"/>
+      <c r="I130" s="77">
+        <v>0</v>
+      </c>
+      <c r="J130" s="76"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M130" s="79"/>
+      <c r="N130" s="79"/>
+      <c r="O130" s="81"/>
+    </row>
+    <row r="131" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="71">
-        <v>123</v>
-      </c>
-      <c r="B131" s="87"/>
-      <c r="C131" s="90"/>
+        <v>124</v>
+      </c>
+      <c r="B131" s="96"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E131" s="77"/>
       <c r="F131" s="77">
@@ -6655,79 +6986,84 @@
       </c>
       <c r="H131" s="76"/>
       <c r="I131" s="77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J131" s="76"/>
       <c r="K131" s="76"/>
       <c r="L131" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M131" s="79"/>
-      <c r="N131" s="81"/>
-    </row>
-    <row r="132" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N131" s="79"/>
+      <c r="O131" s="81"/>
+    </row>
+    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
-        <v>124</v>
-      </c>
-      <c r="B132" s="87"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77">
-        <v>0</v>
-      </c>
-      <c r="G132" s="76">
-        <v>0</v>
-      </c>
-      <c r="H132" s="76"/>
-      <c r="I132" s="77">
-        <v>100</v>
-      </c>
-      <c r="J132" s="76"/>
-      <c r="K132" s="76"/>
-      <c r="L132" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M132" s="79"/>
-      <c r="N132" s="81"/>
-    </row>
-    <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="B132" s="97"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+      <c r="J132" s="90"/>
+      <c r="K132" s="90"/>
+      <c r="L132" s="90"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="109"/>
+      <c r="O132" s="65">
+        <f>SUM(F108:F131)</f>
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
-        <v>125</v>
-      </c>
-      <c r="B133" s="88"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E133" s="93"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="93"/>
-      <c r="H133" s="93"/>
-      <c r="I133" s="93"/>
-      <c r="J133" s="93"/>
-      <c r="K133" s="93"/>
-      <c r="L133" s="93"/>
-      <c r="M133" s="94"/>
-      <c r="N133" s="65">
-        <f>SUM(F109:F132)</f>
-        <v>5812</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="B133" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77">
+        <v>0</v>
+      </c>
+      <c r="G133" s="76">
+        <v>0</v>
+      </c>
+      <c r="H133" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="I133" s="77">
+        <v>2000</v>
+      </c>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M133" s="80"/>
+      <c r="N133" s="80"/>
+      <c r="O133" s="79"/>
+    </row>
+    <row r="134" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
-        <v>126</v>
-      </c>
-      <c r="B134" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="90" t="s">
-        <v>13</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B134" s="96"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E134" s="77"/>
       <c r="F134" s="77">
@@ -6737,27 +7073,28 @@
         <v>0</v>
       </c>
       <c r="H134" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I134" s="77">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J134" s="76"/>
       <c r="K134" s="76"/>
       <c r="L134" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M134" s="80"/>
-      <c r="N134" s="79"/>
-    </row>
-    <row r="135" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N134" s="80"/>
+      <c r="O134" s="79"/>
+    </row>
+    <row r="135" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
-        <v>127</v>
-      </c>
-      <c r="B135" s="87"/>
-      <c r="C135" s="90"/>
+        <v>128</v>
+      </c>
+      <c r="B135" s="96"/>
+      <c r="C135" s="92"/>
       <c r="D135" s="76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E135" s="77"/>
       <c r="F135" s="77">
@@ -6767,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I135" s="77">
         <v>100</v>
@@ -6775,19 +7112,20 @@
       <c r="J135" s="76"/>
       <c r="K135" s="76"/>
       <c r="L135" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M135" s="80"/>
-      <c r="N135" s="79"/>
-    </row>
-    <row r="136" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N135" s="80"/>
+      <c r="O135" s="79"/>
+    </row>
+    <row r="136" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
-        <v>128</v>
-      </c>
-      <c r="B136" s="87"/>
-      <c r="C136" s="90"/>
+        <v>129</v>
+      </c>
+      <c r="B136" s="96"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="76" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="E136" s="77"/>
       <c r="F136" s="77">
@@ -6797,27 +7135,28 @@
         <v>0</v>
       </c>
       <c r="H136" s="76" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I136" s="77">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J136" s="76"/>
       <c r="K136" s="76"/>
       <c r="L136" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M136" s="80"/>
-      <c r="N136" s="79"/>
-    </row>
-    <row r="137" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N136" s="80"/>
+      <c r="O136" s="79"/>
+    </row>
+    <row r="137" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
-        <v>129</v>
-      </c>
-      <c r="B137" s="87"/>
-      <c r="C137" s="90"/>
+        <v>130</v>
+      </c>
+      <c r="B137" s="96"/>
+      <c r="C137" s="92"/>
       <c r="D137" s="76" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="E137" s="77"/>
       <c r="F137" s="77">
@@ -6827,27 +7166,28 @@
         <v>0</v>
       </c>
       <c r="H137" s="76" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I137" s="77">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="J137" s="76"/>
       <c r="K137" s="76"/>
       <c r="L137" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M137" s="80"/>
-      <c r="N137" s="79"/>
-    </row>
-    <row r="138" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N137" s="80"/>
+      <c r="O137" s="79"/>
+    </row>
+    <row r="138" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
-        <v>130</v>
-      </c>
-      <c r="B138" s="87"/>
-      <c r="C138" s="90"/>
+        <v>131</v>
+      </c>
+      <c r="B138" s="96"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E138" s="77"/>
       <c r="F138" s="77">
@@ -6857,27 +7197,30 @@
         <v>0</v>
       </c>
       <c r="H138" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I138" s="77">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J138" s="76"/>
       <c r="K138" s="76"/>
       <c r="L138" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M138" s="80"/>
-      <c r="N138" s="79"/>
-    </row>
-    <row r="139" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N138" s="80"/>
+      <c r="O138" s="79"/>
+    </row>
+    <row r="139" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="71">
-        <v>131</v>
-      </c>
-      <c r="B139" s="87"/>
-      <c r="C139" s="90"/>
+        <v>132</v>
+      </c>
+      <c r="B139" s="96"/>
+      <c r="C139" s="95" t="s">
+        <v>35</v>
+      </c>
       <c r="D139" s="76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E139" s="77"/>
       <c r="F139" s="77">
@@ -6890,56 +7233,58 @@
         <v>39</v>
       </c>
       <c r="I139" s="77">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="J139" s="76"/>
       <c r="K139" s="76"/>
       <c r="L139" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="M139" s="79"/>
+      <c r="N139" s="79"/>
+      <c r="O139" s="76"/>
+    </row>
+    <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="71">
+        <v>133</v>
+      </c>
+      <c r="B140" s="96"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46">
+        <v>0</v>
+      </c>
+      <c r="G140" s="17">
+        <v>0</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" s="46">
+        <v>200</v>
+      </c>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M139" s="80"/>
-      <c r="N139" s="79"/>
-    </row>
-    <row r="140" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="71">
-        <v>132</v>
-      </c>
-      <c r="B140" s="87"/>
-      <c r="C140" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77">
-        <v>0</v>
-      </c>
-      <c r="G140" s="76">
-        <v>0</v>
-      </c>
-      <c r="H140" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I140" s="77">
-        <v>2000</v>
-      </c>
-      <c r="J140" s="76"/>
-      <c r="K140" s="76"/>
-      <c r="L140" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="M140" s="79"/>
-      <c r="N140" s="76"/>
-    </row>
-    <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M140" s="24"/>
+      <c r="N140" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O140" s="12"/>
+    </row>
+    <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="71">
-        <v>133</v>
-      </c>
-      <c r="B141" s="87"/>
-      <c r="C141" s="87"/>
+        <v>134</v>
+      </c>
+      <c r="B141" s="96"/>
+      <c r="C141" s="97"/>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="E141" s="46"/>
       <c r="F141" s="46">
@@ -6949,27 +7294,32 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I141" s="46">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M141" s="24"/>
-      <c r="N141" s="12"/>
-    </row>
-    <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N141" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O141" s="44"/>
+    </row>
+    <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="71">
-        <v>134</v>
-      </c>
-      <c r="B142" s="87"/>
-      <c r="C142" s="88"/>
+        <v>135</v>
+      </c>
+      <c r="B142" s="96"/>
+      <c r="C142" s="70" t="s">
+        <v>44</v>
+      </c>
       <c r="D142" s="17" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E142" s="46"/>
       <c r="F142" s="46">
@@ -6979,29 +7329,32 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I142" s="46">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M142" s="24"/>
-      <c r="N142" s="44"/>
-    </row>
-    <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N142" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O142" s="44"/>
+    </row>
+    <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="71">
-        <v>135</v>
-      </c>
-      <c r="B143" s="87"/>
-      <c r="C143" s="70" t="s">
-        <v>44</v>
+        <v>136</v>
+      </c>
+      <c r="B143" s="96"/>
+      <c r="C143" s="92" t="s">
+        <v>51</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="E143" s="46"/>
       <c r="F143" s="46">
@@ -7011,29 +7364,30 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I143" s="46">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M143" s="24"/>
-      <c r="N143" s="44"/>
-    </row>
-    <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N143" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O143" s="44"/>
+    </row>
+    <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="71">
-        <v>136</v>
-      </c>
-      <c r="B144" s="87"/>
-      <c r="C144" s="90" t="s">
-        <v>51</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B144" s="96"/>
+      <c r="C144" s="92"/>
       <c r="D144" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E144" s="46"/>
       <c r="F144" s="46">
@@ -7043,27 +7397,30 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="I144" s="46">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M144" s="24"/>
-      <c r="N144" s="44"/>
-    </row>
-    <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N144" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O144" s="44"/>
+    </row>
+    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
-        <v>137</v>
-      </c>
-      <c r="B145" s="87"/>
-      <c r="C145" s="90"/>
+        <v>138</v>
+      </c>
+      <c r="B145" s="96"/>
+      <c r="C145" s="92"/>
       <c r="D145" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="46"/>
       <c r="F145" s="46">
@@ -7073,166 +7430,182 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="I145" s="46">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M145" s="24"/>
-      <c r="N145" s="44"/>
-    </row>
-    <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N145" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O145" s="44"/>
+    </row>
+    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
-        <v>138</v>
-      </c>
-      <c r="B146" s="87"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46">
-        <v>0</v>
-      </c>
-      <c r="G146" s="17">
-        <v>0</v>
-      </c>
-      <c r="H146" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I146" s="46">
-        <v>150</v>
-      </c>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M146" s="24"/>
-      <c r="N146" s="44"/>
-    </row>
-    <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="B146" s="97"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E146" s="94"/>
+      <c r="F146" s="90"/>
+      <c r="G146" s="90"/>
+      <c r="H146" s="90"/>
+      <c r="I146" s="90"/>
+      <c r="J146" s="90"/>
+      <c r="K146" s="90"/>
+      <c r="L146" s="90"/>
+      <c r="M146" s="91"/>
+      <c r="N146" s="109"/>
+      <c r="O146" s="65">
+        <f>SUM(F133:F145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="71">
-        <v>139</v>
-      </c>
-      <c r="B147" s="88"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="E147" s="99"/>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
-      <c r="H147" s="93"/>
-      <c r="I147" s="93"/>
-      <c r="J147" s="93"/>
-      <c r="K147" s="93"/>
-      <c r="L147" s="93"/>
-      <c r="M147" s="94"/>
-      <c r="N147" s="65">
-        <f>SUM(F134:F146)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="71">
         <v>140</v>
       </c>
-      <c r="B148" s="89" t="s">
+      <c r="B147" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="90" t="s">
-        <v>294</v>
-      </c>
-      <c r="D148" s="12" t="s">
+      <c r="C147" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>265</v>
+      </c>
+      <c r="E147" s="24"/>
+      <c r="F147" s="46">
+        <v>65</v>
+      </c>
+      <c r="G147" s="12">
+        <v>1</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I147" s="46">
+        <v>65</v>
+      </c>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="M147" s="24"/>
+      <c r="N147" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O147" s="55"/>
+    </row>
+    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="75">
+        <v>141</v>
+      </c>
+      <c r="B148" s="103"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="75" t="s">
+        <v>264</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="46">
-        <v>65</v>
-      </c>
-      <c r="G148" s="12">
-        <v>1</v>
-      </c>
-      <c r="H148" s="12" t="s">
-        <v>268</v>
+        <v>60</v>
+      </c>
+      <c r="G148" s="17">
+        <v>0</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I148" s="46">
-        <v>65</v>
-      </c>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="75"/>
+      <c r="K148" s="75"/>
       <c r="L148" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M148" s="24"/>
-      <c r="N148" s="55"/>
-    </row>
-    <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="75">
-        <v>141</v>
-      </c>
-      <c r="B149" s="100"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="75" t="s">
-        <v>264</v>
+      <c r="N148" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O148" s="55"/>
+    </row>
+    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="85"/>
+      <c r="B149" s="103"/>
+      <c r="C149" s="92"/>
+      <c r="D149" s="85" t="s">
+        <v>294</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="46">
-        <v>60</v>
-      </c>
-      <c r="G149" s="17">
-        <v>0</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I149" s="46">
-        <v>0</v>
-      </c>
-      <c r="J149" s="75"/>
-      <c r="K149" s="75"/>
-      <c r="L149" s="75" t="s">
-        <v>277</v>
+        <v>455</v>
+      </c>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="46"/>
+      <c r="J149" s="85"/>
+      <c r="K149" s="85"/>
+      <c r="L149" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="M149" s="24"/>
-      <c r="N149" s="55"/>
-    </row>
-    <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="85"/>
-      <c r="B150" s="100"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="85" t="s">
-        <v>295</v>
+      <c r="N149" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O149" s="55"/>
+    </row>
+    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="75">
+        <v>142</v>
+      </c>
+      <c r="B150" s="96"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="46">
-        <v>455</v>
-      </c>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="46"/>
-      <c r="J150" s="85"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="85" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="G150" s="17">
+        <v>0</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I150" s="46">
+        <v>0</v>
+      </c>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="75" t="s">
+        <v>276</v>
       </c>
       <c r="M150" s="24"/>
-      <c r="N150" s="55"/>
-    </row>
-    <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N150" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O150" s="55"/>
+    </row>
+    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
-        <v>142</v>
-      </c>
-      <c r="B151" s="87"/>
-      <c r="C151" s="90"/>
+        <v>143</v>
+      </c>
+      <c r="B151" s="96"/>
+      <c r="C151" s="92"/>
       <c r="D151" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="46">
@@ -7250,19 +7623,22 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M151" s="24"/>
-      <c r="N151" s="55"/>
-    </row>
-    <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N151" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O151" s="55"/>
+    </row>
+    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="75">
-        <v>143</v>
-      </c>
-      <c r="B152" s="87"/>
-      <c r="C152" s="90"/>
+        <v>144</v>
+      </c>
+      <c r="B152" s="96"/>
+      <c r="C152" s="92"/>
       <c r="D152" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="46">
@@ -7280,190 +7656,201 @@
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
       <c r="L152" s="75" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M152" s="24"/>
-      <c r="N152" s="55"/>
-    </row>
-    <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N152" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O152" s="55"/>
+    </row>
+    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="75">
-        <v>144</v>
-      </c>
-      <c r="B153" s="87"/>
-      <c r="C153" s="90"/>
-      <c r="D153" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="46">
-        <v>0</v>
-      </c>
-      <c r="G153" s="17">
-        <v>0</v>
-      </c>
-      <c r="H153" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="96"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="J153" s="90"/>
+      <c r="K153" s="90"/>
+      <c r="L153" s="90"/>
+      <c r="M153" s="91"/>
+      <c r="N153" s="109"/>
+      <c r="O153" s="65">
+        <f>SUM(F147:F152)</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="75">
+        <v>146</v>
+      </c>
+      <c r="B154" s="96"/>
+      <c r="C154" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E154" s="24"/>
+      <c r="F154" s="46">
+        <v>28239</v>
+      </c>
+      <c r="G154" s="17">
+        <v>0</v>
+      </c>
+      <c r="H154" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I153" s="46">
-        <v>0</v>
-      </c>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="M153" s="24"/>
-      <c r="N153" s="55"/>
-    </row>
-    <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="75">
-        <v>145</v>
-      </c>
-      <c r="B154" s="87"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="E154" s="93"/>
-      <c r="F154" s="93"/>
-      <c r="G154" s="93"/>
-      <c r="H154" s="93"/>
-      <c r="I154" s="93"/>
-      <c r="J154" s="93"/>
-      <c r="K154" s="93"/>
-      <c r="L154" s="93"/>
-      <c r="M154" s="94"/>
-      <c r="N154" s="65">
-        <f>SUM(F148:F153)</f>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I154" s="46">
+        <v>0</v>
+      </c>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="M154" s="24"/>
+      <c r="N154" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O154" s="38"/>
+    </row>
+    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="75">
-        <v>146</v>
-      </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="96"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="75" t="s">
         <v>283</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
-        <v>28239</v>
-      </c>
-      <c r="G155" s="17">
-        <v>0</v>
-      </c>
-      <c r="H155" s="17" t="s">
-        <v>39</v>
+        <v>39714</v>
+      </c>
+      <c r="G155" s="75">
+        <v>1</v>
+      </c>
+      <c r="H155" s="75" t="s">
+        <v>267</v>
       </c>
       <c r="I155" s="46">
-        <v>0</v>
-      </c>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="J155" s="75"/>
+      <c r="K155" s="75"/>
       <c r="L155" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M155" s="24"/>
-      <c r="N155" s="38"/>
-    </row>
-    <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N155" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O155" s="38"/>
+    </row>
+    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="75">
-        <v>147</v>
-      </c>
-      <c r="B156" s="87"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="75" t="s">
-        <v>284</v>
+        <v>148</v>
+      </c>
+      <c r="B156" s="96"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="85" t="s">
+        <v>266</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="46">
-        <v>39714</v>
-      </c>
-      <c r="G156" s="75">
-        <v>1</v>
-      </c>
-      <c r="H156" s="75" t="s">
-        <v>267</v>
+        <v>300</v>
+      </c>
+      <c r="G156" s="17">
+        <v>0</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I156" s="46">
-        <v>300</v>
-      </c>
-      <c r="J156" s="75"/>
-      <c r="K156" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
       <c r="L156" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="M156" s="24"/>
+      <c r="N156" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O156" s="38"/>
+    </row>
+    <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="85"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="85" t="s">
         <v>289</v>
-      </c>
-      <c r="M156" s="24"/>
-      <c r="N156" s="38"/>
-    </row>
-    <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="75">
-        <v>148</v>
-      </c>
-      <c r="B157" s="87"/>
-      <c r="C157" s="90"/>
-      <c r="D157" s="85" t="s">
-        <v>266</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="46">
-        <v>300</v>
-      </c>
-      <c r="G157" s="17">
-        <v>0</v>
-      </c>
-      <c r="H157" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I157" s="46">
-        <v>0</v>
-      </c>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="75" t="s">
-        <v>289</v>
+        <v>2000</v>
+      </c>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="46"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="M157" s="24"/>
-      <c r="N157" s="38"/>
-    </row>
-    <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="85"/>
-      <c r="B158" s="87"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="85" t="s">
-        <v>290</v>
+      <c r="N157" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O157" s="38"/>
+    </row>
+    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="88"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="88" t="s">
+        <v>295</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="46"/>
-      <c r="J158" s="85"/>
-      <c r="K158" s="85"/>
-      <c r="L158" s="85" t="s">
-        <v>289</v>
+      <c r="J158" s="88"/>
+      <c r="K158" s="88"/>
+      <c r="L158" s="88" t="s">
+        <v>296</v>
       </c>
       <c r="M158" s="24"/>
-      <c r="N158" s="38"/>
-    </row>
-    <row r="159" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N158" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O158" s="38"/>
+    </row>
+    <row r="159" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="75">
         <v>149</v>
       </c>
-      <c r="B159" s="87"/>
-      <c r="C159" s="90"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="92"/>
       <c r="D159" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
-        <v>6000</v>
+        <v>5278</v>
       </c>
       <c r="G159" s="17">
         <v>0</v>
@@ -7477,373 +7864,452 @@
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
       <c r="L159" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M159" s="24"/>
-      <c r="N159" s="38"/>
-    </row>
-    <row r="160" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="85"/>
-      <c r="B160" s="87"/>
-      <c r="C160" s="90"/>
-      <c r="D160" s="85" t="s">
-        <v>287</v>
+      <c r="N159" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O159" s="38"/>
+    </row>
+    <row r="160" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="88"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="88" t="s">
+        <v>297</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
-        <v>950</v>
-      </c>
-      <c r="G160" s="17">
-        <v>0</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I160" s="46">
-        <v>0</v>
-      </c>
-      <c r="J160" s="85"/>
-      <c r="K160" s="85"/>
-      <c r="L160" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="M160" s="24"/>
-      <c r="N160" s="38"/>
-    </row>
-    <row r="161" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="85"/>
-      <c r="B161" s="87"/>
-      <c r="C161" s="90"/>
-      <c r="D161" s="85" t="s">
-        <v>292</v>
+        <v>234</v>
+      </c>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="88"/>
+      <c r="K160" s="88"/>
+      <c r="L160" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="M160" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="N160" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O160" s="38"/>
+    </row>
+    <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="88"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
-        <v>-1110</v>
+        <v>585</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="46"/>
-      <c r="J161" s="85"/>
-      <c r="K161" s="85"/>
-      <c r="L161" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="M161" s="24"/>
-      <c r="N161" s="38"/>
-    </row>
-    <row r="162" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J161" s="88"/>
+      <c r="K161" s="88"/>
+      <c r="L161" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="M161" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="N161" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O161" s="38"/>
+    </row>
+    <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="85"/>
-      <c r="B162" s="87"/>
-      <c r="C162" s="90"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="92"/>
       <c r="D162" s="85" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>-1330</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G162" s="17">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I162" s="46">
+        <v>0</v>
+      </c>
       <c r="J162" s="85"/>
       <c r="K162" s="85"/>
       <c r="L162" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M162" s="24"/>
-      <c r="N162" s="38"/>
-    </row>
-    <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="75">
-        <v>150</v>
-      </c>
-      <c r="B163" s="87"/>
-      <c r="C163" s="90"/>
-      <c r="D163" s="12" t="s">
+      <c r="N162" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O162" s="38"/>
+    </row>
+    <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="85"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="92"/>
+      <c r="D163" s="85" t="s">
         <v>291</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
+        <v>-1110</v>
+      </c>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="46"/>
+      <c r="J163" s="85"/>
+      <c r="K163" s="85"/>
+      <c r="L163" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="M163" s="24"/>
+      <c r="N163" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O163" s="38"/>
+    </row>
+    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="85"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="92"/>
+      <c r="D164" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="46">
+        <v>-1330</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="46"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="M164" s="24"/>
+      <c r="N164" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="O164" s="38"/>
+    </row>
+    <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="75">
+        <v>150</v>
+      </c>
+      <c r="B165" s="96"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="46">
         <v>-1000</v>
       </c>
-      <c r="G163" s="17">
-        <v>0</v>
-      </c>
-      <c r="H163" s="17" t="s">
+      <c r="G165" s="17">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I163" s="46">
-        <v>0</v>
-      </c>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="M163" s="24"/>
-      <c r="N163" s="38"/>
-    </row>
-    <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="75">
+      <c r="I165" s="46">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="M165" s="24"/>
+      <c r="N165" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="O165" s="38"/>
+    </row>
+    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="75">
         <v>151</v>
       </c>
-      <c r="B164" s="88"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="92" t="s">
+      <c r="B166" s="97"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="99"/>
-      <c r="F164" s="93"/>
-      <c r="G164" s="93"/>
-      <c r="H164" s="93"/>
-      <c r="I164" s="93"/>
-      <c r="J164" s="93"/>
-      <c r="K164" s="93"/>
-      <c r="L164" s="93"/>
-      <c r="M164" s="94"/>
-      <c r="N164" s="73">
-        <f>SUM(F155:F163)</f>
-        <v>73763</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L165" s="84"/>
-    </row>
-    <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="95" t="s">
+      <c r="E166" s="94"/>
+      <c r="F166" s="90"/>
+      <c r="G166" s="90"/>
+      <c r="H166" s="90"/>
+      <c r="I166" s="90"/>
+      <c r="J166" s="90"/>
+      <c r="K166" s="90"/>
+      <c r="L166" s="90"/>
+      <c r="M166" s="91"/>
+      <c r="N166" s="110"/>
+      <c r="O166" s="73">
+        <f>SUM(F154:F165)</f>
+        <v>75660</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L167" s="84"/>
+      <c r="N167" s="84"/>
+    </row>
+    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="96"/>
-      <c r="C166" s="96"/>
-      <c r="D166" s="96"/>
-      <c r="E166" s="96"/>
-      <c r="F166" s="96"/>
-      <c r="G166" s="96"/>
-      <c r="H166" s="96"/>
-      <c r="I166" s="96"/>
-      <c r="J166" s="96"/>
-      <c r="K166" s="96"/>
-      <c r="L166" s="96"/>
-      <c r="M166" s="97"/>
-      <c r="N166" s="58">
-        <f>N34+N55+N74+N90+N108+N133+N147+N154+N164</f>
-        <v>121985</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="95" t="s">
+      <c r="B168" s="99"/>
+      <c r="C168" s="99"/>
+      <c r="D168" s="99"/>
+      <c r="E168" s="99"/>
+      <c r="F168" s="99"/>
+      <c r="G168" s="99"/>
+      <c r="H168" s="99"/>
+      <c r="I168" s="99"/>
+      <c r="J168" s="99"/>
+      <c r="K168" s="99"/>
+      <c r="L168" s="99"/>
+      <c r="M168" s="100"/>
+      <c r="N168" s="111"/>
+      <c r="O168" s="58">
+        <f>O33+O54+O73+O89+O107+O132+O146+O153+O166</f>
+        <v>123382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="96"/>
-      <c r="C167" s="96"/>
-      <c r="D167" s="96"/>
-      <c r="E167" s="96"/>
-      <c r="F167" s="96"/>
-      <c r="G167" s="96"/>
-      <c r="H167" s="96"/>
-      <c r="I167" s="96"/>
-      <c r="J167" s="96"/>
-      <c r="K167" s="96"/>
-      <c r="L167" s="96"/>
-      <c r="M167" s="97"/>
-      <c r="N167" s="58">
-        <f>SUM(F2:F13)+F33+SUM(F35:F39)+SUM(F91:F96)+SUM(F109:F124)+SUM(F134:F139)</f>
+      <c r="B169" s="99"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="99"/>
+      <c r="E169" s="99"/>
+      <c r="F169" s="99"/>
+      <c r="G169" s="99"/>
+      <c r="H169" s="99"/>
+      <c r="I169" s="99"/>
+      <c r="J169" s="99"/>
+      <c r="K169" s="99"/>
+      <c r="L169" s="99"/>
+      <c r="M169" s="100"/>
+      <c r="N169" s="87"/>
+      <c r="O169" s="58">
+        <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F90:F95)+SUM(F108:F123)+SUM(F133:F138)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="95" t="s">
+    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="B168" s="96"/>
-      <c r="C168" s="96"/>
-      <c r="D168" s="96"/>
-      <c r="E168" s="96"/>
-      <c r="F168" s="96"/>
-      <c r="G168" s="96"/>
-      <c r="H168" s="96"/>
-      <c r="I168" s="96"/>
-      <c r="J168" s="96"/>
-      <c r="K168" s="96"/>
-      <c r="L168" s="96"/>
-      <c r="M168" s="97"/>
-      <c r="N168" s="58">
-        <f>SUM(F140:F142,F42:F47,F17:F23)</f>
+      <c r="B170" s="99"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="99"/>
+      <c r="E170" s="99"/>
+      <c r="F170" s="99"/>
+      <c r="G170" s="99"/>
+      <c r="H170" s="99"/>
+      <c r="I170" s="99"/>
+      <c r="J170" s="99"/>
+      <c r="K170" s="99"/>
+      <c r="L170" s="99"/>
+      <c r="M170" s="100"/>
+      <c r="N170" s="87"/>
+      <c r="O170" s="58">
+        <f>SUM(F139:F141,F41:F46,F17:F23)</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="95" t="s">
+    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B169" s="96"/>
-      <c r="C169" s="96"/>
-      <c r="D169" s="96"/>
-      <c r="E169" s="96"/>
-      <c r="F169" s="96"/>
-      <c r="G169" s="96"/>
-      <c r="H169" s="96"/>
-      <c r="I169" s="96"/>
-      <c r="J169" s="96"/>
-      <c r="K169" s="96"/>
-      <c r="L169" s="96"/>
-      <c r="M169" s="97"/>
-      <c r="N169" s="58">
-        <f>SUM(F102:F107,F129:F132,F143:F143,F48:F50,F24:F29)</f>
-        <v>24542</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="95" t="s">
+      <c r="B171" s="99"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="99"/>
+      <c r="E171" s="99"/>
+      <c r="F171" s="99"/>
+      <c r="G171" s="99"/>
+      <c r="H171" s="99"/>
+      <c r="I171" s="99"/>
+      <c r="J171" s="99"/>
+      <c r="K171" s="99"/>
+      <c r="L171" s="99"/>
+      <c r="M171" s="100"/>
+      <c r="N171" s="87"/>
+      <c r="O171" s="58">
+        <f>SUM(F101:F106,F128:F131,F142:F142,F47:F49,F24:F28)</f>
+        <v>24042</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="B170" s="96"/>
-      <c r="C170" s="96"/>
-      <c r="D170" s="96"/>
-      <c r="E170" s="96"/>
-      <c r="F170" s="96"/>
-      <c r="G170" s="96"/>
-      <c r="H170" s="96"/>
-      <c r="I170" s="96"/>
-      <c r="J170" s="96"/>
-      <c r="K170" s="96"/>
-      <c r="L170" s="96"/>
-      <c r="M170" s="97"/>
-      <c r="N170" s="58">
-        <f>SUM(F144:F146,F52:F54,F30:F32,F99:F101)</f>
+      <c r="B172" s="99"/>
+      <c r="C172" s="99"/>
+      <c r="D172" s="99"/>
+      <c r="E172" s="99"/>
+      <c r="F172" s="99"/>
+      <c r="G172" s="99"/>
+      <c r="H172" s="99"/>
+      <c r="I172" s="99"/>
+      <c r="J172" s="99"/>
+      <c r="K172" s="99"/>
+      <c r="L172" s="99"/>
+      <c r="M172" s="100"/>
+      <c r="N172" s="87"/>
+      <c r="O172" s="58">
+        <f>SUM(F143:F145,F51:F53,F29:F31,F98:F100)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="95" t="s">
+    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="B171" s="96"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="96"/>
-      <c r="E171" s="96"/>
-      <c r="F171" s="96"/>
-      <c r="G171" s="96"/>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="96"/>
-      <c r="M171" s="97"/>
-      <c r="N171" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="95" t="s">
+      <c r="B173" s="99"/>
+      <c r="C173" s="99"/>
+      <c r="D173" s="99"/>
+      <c r="E173" s="99"/>
+      <c r="F173" s="99"/>
+      <c r="G173" s="99"/>
+      <c r="H173" s="99"/>
+      <c r="I173" s="99"/>
+      <c r="J173" s="99"/>
+      <c r="K173" s="99"/>
+      <c r="L173" s="99"/>
+      <c r="M173" s="100"/>
+      <c r="N173" s="87"/>
+      <c r="O173" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="B172" s="96"/>
-      <c r="C172" s="96"/>
-      <c r="D172" s="96"/>
-      <c r="E172" s="96"/>
-      <c r="F172" s="96"/>
-      <c r="G172" s="96"/>
-      <c r="H172" s="96"/>
-      <c r="I172" s="96"/>
-      <c r="J172" s="96"/>
-      <c r="K172" s="96"/>
-      <c r="L172" s="96"/>
-      <c r="M172" s="97"/>
-      <c r="N172" s="58">
-        <f>SUM(F40:F41,F14:F16,F97:F98,F126:F128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="98" t="s">
+      <c r="B174" s="99"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="99"/>
+      <c r="E174" s="99"/>
+      <c r="F174" s="99"/>
+      <c r="G174" s="99"/>
+      <c r="H174" s="99"/>
+      <c r="I174" s="99"/>
+      <c r="J174" s="99"/>
+      <c r="K174" s="99"/>
+      <c r="L174" s="99"/>
+      <c r="M174" s="100"/>
+      <c r="N174" s="87"/>
+      <c r="O174" s="58">
+        <f>SUM(F39:F40,F14:F16,F96:F97,F125:F127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="B173" s="96"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="96"/>
-      <c r="E173" s="96"/>
-      <c r="F173" s="96"/>
-      <c r="G173" s="96"/>
-      <c r="H173" s="96"/>
-      <c r="I173" s="96"/>
-      <c r="J173" s="96"/>
-      <c r="K173" s="96"/>
-      <c r="L173" s="96"/>
-      <c r="M173" s="97"/>
-      <c r="N173" s="58">
-        <f>SUM(N154:N163)</f>
+      <c r="B175" s="99"/>
+      <c r="C175" s="99"/>
+      <c r="D175" s="99"/>
+      <c r="E175" s="99"/>
+      <c r="F175" s="99"/>
+      <c r="G175" s="99"/>
+      <c r="H175" s="99"/>
+      <c r="I175" s="99"/>
+      <c r="J175" s="99"/>
+      <c r="K175" s="99"/>
+      <c r="L175" s="99"/>
+      <c r="M175" s="100"/>
+      <c r="N175" s="87"/>
+      <c r="O175" s="58">
+        <f>SUM(O153:O165)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R164">
+  <autoFilter ref="A1:S166">
     <filterColumn colId="11">
-      <filters>
+      <filters blank="1">
         <filter val="自购"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
-    <mergeCell ref="D154:M154"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D133:M133"/>
-    <mergeCell ref="D147:M147"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C109:C124"/>
-    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B74:B89"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B55:B73"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="B90:B107"/>
+    <mergeCell ref="B108:B132"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
     <mergeCell ref="A170:M170"/>
     <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="B91:B108"/>
-    <mergeCell ref="B109:B133"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="A166:M166"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="D164:M164"/>
-    <mergeCell ref="B148:B164"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="P2:P14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B2:B34"/>
-    <mergeCell ref="B35:B55"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B75:B90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B56:B74"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D166:M166"/>
+    <mergeCell ref="B147:B166"/>
+    <mergeCell ref="C154:C165"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="D132:M132"/>
+    <mergeCell ref="D146:M146"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C108:C123"/>
+    <mergeCell ref="C124:C127"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8342,7 +8808,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="103"/>
+      <c r="M13" s="106"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8377,7 +8843,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="103"/>
+      <c r="M14" s="106"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10719,7 +11185,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="91"/>
+      <c r="P82" s="104"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -10755,7 +11221,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="91"/>
+      <c r="P83" s="104"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -10791,7 +11257,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="91"/>
+      <c r="P84" s="104"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -10827,7 +11293,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="91"/>
+      <c r="P85" s="104"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -10863,7 +11329,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="91"/>
+      <c r="P86" s="104"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -10899,7 +11365,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="91"/>
+      <c r="P87" s="104"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -10935,7 +11401,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="91"/>
+      <c r="P88" s="104"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -10971,7 +11437,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="91"/>
+      <c r="P89" s="104"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11007,7 +11473,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="91"/>
+      <c r="P90" s="104"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11041,7 +11507,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="91"/>
+      <c r="P91" s="104"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11078,7 +11544,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="91"/>
+      <c r="P92" s="104"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11114,7 +11580,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="91"/>
+      <c r="P93" s="104"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -11892,167 +12358,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="95" t="s">
+      <c r="A120" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="96"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="102"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="96"/>
-      <c r="L120" s="96"/>
-      <c r="M120" s="97"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="99"/>
+      <c r="L120" s="99"/>
+      <c r="M120" s="100"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="95" t="s">
+      <c r="A121" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="96"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="96"/>
-      <c r="E121" s="102"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="96"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="96"/>
-      <c r="L121" s="96"/>
-      <c r="M121" s="97"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="99"/>
+      <c r="J121" s="99"/>
+      <c r="K121" s="99"/>
+      <c r="L121" s="99"/>
+      <c r="M121" s="100"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="95" t="s">
+      <c r="A122" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="96"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="96"/>
-      <c r="E122" s="102"/>
-      <c r="F122" s="96"/>
-      <c r="G122" s="96"/>
-      <c r="H122" s="96"/>
-      <c r="I122" s="96"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="96"/>
-      <c r="L122" s="96"/>
-      <c r="M122" s="97"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="99"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="99"/>
+      <c r="I122" s="99"/>
+      <c r="J122" s="99"/>
+      <c r="K122" s="99"/>
+      <c r="L122" s="99"/>
+      <c r="M122" s="100"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="95" t="s">
+      <c r="A123" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="96"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
-      <c r="E123" s="102"/>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="96"/>
-      <c r="L123" s="96"/>
-      <c r="M123" s="97"/>
+      <c r="B123" s="99"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="K123" s="99"/>
+      <c r="L123" s="99"/>
+      <c r="M123" s="100"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="95" t="s">
+      <c r="A124" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="96"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="96"/>
-      <c r="E124" s="102"/>
-      <c r="F124" s="96"/>
-      <c r="G124" s="96"/>
-      <c r="H124" s="96"/>
-      <c r="I124" s="96"/>
-      <c r="J124" s="96"/>
-      <c r="K124" s="96"/>
-      <c r="L124" s="96"/>
-      <c r="M124" s="97"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="99"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="99"/>
+      <c r="M124" s="100"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="95" t="s">
+      <c r="A125" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="96"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="96"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="96"/>
-      <c r="G125" s="96"/>
-      <c r="H125" s="96"/>
-      <c r="I125" s="96"/>
-      <c r="J125" s="96"/>
-      <c r="K125" s="96"/>
-      <c r="L125" s="96"/>
-      <c r="M125" s="97"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="99"/>
+      <c r="G125" s="99"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="99"/>
+      <c r="J125" s="99"/>
+      <c r="K125" s="99"/>
+      <c r="L125" s="99"/>
+      <c r="M125" s="100"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="95" t="s">
+      <c r="A126" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
-      <c r="E126" s="102"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="97"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="99"/>
+      <c r="L126" s="99"/>
+      <c r="M126" s="100"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="95" t="s">
+      <c r="A127" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="96"/>
-      <c r="C127" s="96"/>
-      <c r="D127" s="96"/>
-      <c r="E127" s="102"/>
-      <c r="F127" s="96"/>
-      <c r="G127" s="96"/>
-      <c r="H127" s="96"/>
-      <c r="I127" s="96"/>
-      <c r="J127" s="96"/>
-      <c r="K127" s="96"/>
-      <c r="L127" s="96"/>
-      <c r="M127" s="97"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="99"/>
+      <c r="L127" s="99"/>
+      <c r="M127" s="100"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12186,7 +12652,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="91"/>
+      <c r="M3" s="104"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12196,7 +12662,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12206,7 +12672,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="91"/>
+      <c r="M5" s="104"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12216,7 +12682,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="104"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12226,7 +12692,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="91"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12236,7 +12702,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12246,7 +12712,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="91"/>
+      <c r="M9" s="104"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12256,7 +12722,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="91"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12266,23 +12732,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="91"/>
+      <c r="M11" s="104"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="91"/>
+      <c r="M12" s="104"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="91"/>
+      <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$165</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="306">
   <si>
     <t>序号</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>书房</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>阳台</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -773,18 +769,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>书架</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>书桌</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>椅子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>台灯</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -981,22 +965,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>灯带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>筒灯</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>18rmb*13m</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>39rmb*15个</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>已支付</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1010,6 +982,34 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏用品</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑椅</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧电路位置修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带、射灯</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1362,7 +1362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1622,23 +1622,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1648,6 +1651,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1661,34 +1682,19 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2272,11 +2278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167430368"/>
-        <c:axId val="167430928"/>
+        <c:axId val="280631584"/>
+        <c:axId val="280631024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167430368"/>
+        <c:axId val="280631584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167430928"/>
+        <c:crossAx val="280631024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2321,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167430928"/>
+        <c:axId val="280631024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2372,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167430368"/>
+        <c:crossAx val="280631584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2813,13 +2819,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2856,10 +2862,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>243</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>244</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>4</v>
@@ -2883,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="86" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
@@ -2893,10 +2899,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2918,19 +2924,19 @@
       <c r="J2" s="76"/>
       <c r="K2" s="76"/>
       <c r="L2" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="104"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -2950,19 +2956,19 @@
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
       <c r="L3" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="104"/>
+      <c r="Q3" s="101"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -2982,19 +2988,19 @@
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
       <c r="L4" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="104"/>
+      <c r="Q4" s="101"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -3012,19 +3018,19 @@
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="104"/>
+      <c r="Q5" s="101"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -3042,19 +3048,19 @@
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="104"/>
+      <c r="Q6" s="101"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -3072,19 +3078,19 @@
       <c r="J7" s="17"/>
       <c r="K7" s="76"/>
       <c r="L7" s="76" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="104"/>
+      <c r="Q7" s="101"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="77">
@@ -3098,19 +3104,19 @@
       <c r="J8" s="17"/>
       <c r="K8" s="76"/>
       <c r="L8" s="76" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="104"/>
+      <c r="Q8" s="101"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3128,19 +3134,19 @@
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
       <c r="L9" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="104"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3158,19 +3164,19 @@
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
       <c r="L10" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="104"/>
+      <c r="Q10" s="101"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3188,19 +3194,19 @@
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
       <c r="L11" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="104"/>
+      <c r="Q11" s="101"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3218,19 +3224,19 @@
       <c r="J12" s="76"/>
       <c r="K12" s="76"/>
       <c r="L12" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="104"/>
+      <c r="Q12" s="101"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3250,19 +3256,19 @@
       <c r="J13" s="76"/>
       <c r="K13" s="76"/>
       <c r="L13" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="104"/>
+      <c r="Q13" s="101"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="92" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3284,20 +3290,20 @@
       <c r="J14" s="76"/>
       <c r="K14" s="76"/>
       <c r="L14" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M14" s="80"/>
-      <c r="N14" s="107"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="104"/>
+      <c r="Q14" s="101"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3317,7 +3323,7 @@
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
       <c r="L15" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
@@ -3327,8 +3333,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3348,7 +3354,7 @@
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
       <c r="L16" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M16" s="79"/>
       <c r="N16" s="79"/>
@@ -3358,8 +3364,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="95" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="96" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3367,7 +3373,7 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46">
-        <v>4000</v>
+        <v>4980</v>
       </c>
       <c r="G17" s="17">
         <v>0</v>
@@ -3381,11 +3387,11 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O17" s="17"/>
     </row>
@@ -3393,14 +3399,14 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G18" s="17">
         <v>0</v>
@@ -3414,11 +3420,11 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O18" s="17"/>
     </row>
@@ -3426,8 +3432,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3447,11 +3453,11 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O19" s="17"/>
     </row>
@@ -3459,8 +3465,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3480,11 +3486,11 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -3492,10 +3498,10 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46">
@@ -3513,11 +3519,11 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O21" s="17"/>
       <c r="S21" s="64"/>
@@ -3526,8 +3532,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3547,11 +3553,11 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O22" s="17"/>
     </row>
@@ -3559,14 +3565,14 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="69" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -3580,11 +3586,11 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O23" s="39"/>
     </row>
@@ -3592,8 +3598,8 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="92" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="100" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3615,11 +3621,11 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O24" s="39"/>
     </row>
@@ -3627,8 +3633,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3648,11 +3654,11 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O25" s="39"/>
     </row>
@@ -3660,14 +3666,14 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -3681,20 +3687,20 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46">
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I27" s="51">
         <v>300</v>
@@ -3712,18 +3718,18 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3741,11 +3747,11 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O28" s="39"/>
     </row>
@@ -3753,8 +3759,8 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="92" t="s">
+      <c r="B29" s="97"/>
+      <c r="C29" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3776,11 +3782,11 @@
       <c r="J29" s="69"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O29" s="39"/>
     </row>
@@ -3788,8 +3794,8 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="17" t="s">
         <v>53</v>
       </c>
@@ -3809,11 +3815,11 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O30" s="39"/>
     </row>
@@ -3821,8 +3827,8 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="92"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3842,11 +3848,11 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O31" s="39"/>
     </row>
@@ -3854,7 +3860,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3877,7 +3883,7 @@
       <c r="J32" s="76"/>
       <c r="K32" s="76"/>
       <c r="L32" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M32" s="79"/>
       <c r="N32" s="79"/>
@@ -3887,34 +3893,34 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="97"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="108"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
-        <v>20200</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -3936,7 +3942,7 @@
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
       <c r="L34" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M34" s="80"/>
       <c r="N34" s="80"/>
@@ -3946,8 +3952,8 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="92"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
       </c>
@@ -3967,7 +3973,7 @@
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M35" s="80"/>
       <c r="N35" s="80"/>
@@ -3977,8 +3983,8 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="92"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
       </c>
@@ -3998,7 +4004,7 @@
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M36" s="80"/>
       <c r="N36" s="80"/>
@@ -4008,8 +4014,8 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="92"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
       </c>
@@ -4029,7 +4035,7 @@
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
       <c r="L37" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M37" s="80"/>
       <c r="N37" s="80"/>
@@ -4039,8 +4045,8 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="92"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
       </c>
@@ -4060,7 +4066,7 @@
       <c r="J38" s="76"/>
       <c r="K38" s="76"/>
       <c r="L38" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M38" s="80"/>
       <c r="N38" s="80"/>
@@ -4070,8 +4076,8 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="92" t="s">
+      <c r="B39" s="97"/>
+      <c r="C39" s="100" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="76" t="s">
@@ -4093,7 +4099,7 @@
       <c r="J39" s="76"/>
       <c r="K39" s="76"/>
       <c r="L39" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M39" s="80"/>
       <c r="N39" s="80"/>
@@ -4103,8 +4109,8 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="92"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="100"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
       </c>
@@ -4124,7 +4130,7 @@
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
       <c r="L40" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M40" s="79"/>
       <c r="N40" s="79"/>
@@ -4134,8 +4140,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="96" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4157,11 +4163,11 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O41" s="12"/>
     </row>
@@ -4169,14 +4175,14 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G42" s="71">
         <v>0</v>
@@ -4190,11 +4196,11 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M42" s="24"/>
       <c r="N42" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O42" s="12"/>
     </row>
@@ -4202,8 +4208,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4223,20 +4229,20 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="75" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32">
@@ -4248,11 +4254,11 @@
       <c r="J44" s="75"/>
       <c r="K44" s="75"/>
       <c r="L44" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M44" s="24"/>
       <c r="N44" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O44" s="75"/>
     </row>
@@ -4260,8 +4266,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4281,11 +4287,11 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O45" s="12"/>
     </row>
@@ -4293,14 +4299,14 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G46" s="71">
         <v>0</v>
@@ -4314,11 +4320,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M46" s="24"/>
       <c r="N46" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O46" s="44"/>
     </row>
@@ -4326,8 +4332,8 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="92" t="s">
+      <c r="B47" s="97"/>
+      <c r="C47" s="100" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4349,11 +4355,11 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4361,8 +4367,8 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="92"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
@@ -4382,11 +4388,11 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M48" s="24"/>
       <c r="N48" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O48" s="44"/>
     </row>
@@ -4394,10 +4400,10 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="92"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32">
@@ -4415,11 +4421,11 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M49" s="24"/>
       <c r="N49" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O49" s="44"/>
     </row>
@@ -4427,8 +4433,8 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="92" t="s">
+      <c r="B50" s="97"/>
+      <c r="C50" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4450,11 +4456,11 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O50" s="44"/>
     </row>
@@ -4462,8 +4468,8 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="92"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
@@ -4483,11 +4489,11 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O51" s="44"/>
     </row>
@@ -4495,8 +4501,8 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
       </c>
@@ -4516,11 +4522,11 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O52" s="44"/>
     </row>
@@ -4528,8 +4534,8 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -4547,11 +4553,11 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O53" s="44"/>
     </row>
@@ -4559,34 +4565,34 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="97"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="89" t="s">
+      <c r="D54" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="108"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="76" t="s">
@@ -4608,7 +4614,7 @@
       <c r="J55" s="76"/>
       <c r="K55" s="76"/>
       <c r="L55" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M55" s="80"/>
       <c r="N55" s="80"/>
@@ -4618,8 +4624,8 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="96"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
       </c>
@@ -4639,7 +4645,7 @@
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M56" s="80"/>
       <c r="N56" s="80"/>
@@ -4649,8 +4655,8 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="92"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
       </c>
@@ -4670,7 +4676,7 @@
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
       <c r="L57" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M57" s="80"/>
       <c r="N57" s="80"/>
@@ -4680,8 +4686,8 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="96"/>
-      <c r="C58" s="92"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
       </c>
@@ -4701,7 +4707,7 @@
       <c r="J58" s="76"/>
       <c r="K58" s="76"/>
       <c r="L58" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M58" s="80"/>
       <c r="N58" s="80"/>
@@ -4711,8 +4717,8 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
       </c>
@@ -4732,7 +4738,7 @@
       <c r="J59" s="76"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M59" s="80"/>
       <c r="N59" s="80"/>
@@ -4742,8 +4748,8 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="96"/>
-      <c r="C60" s="92" t="s">
+      <c r="B60" s="97"/>
+      <c r="C60" s="100" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="76" t="s">
@@ -4765,7 +4771,7 @@
       <c r="J60" s="76"/>
       <c r="K60" s="76"/>
       <c r="L60" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M60" s="80"/>
       <c r="N60" s="80"/>
@@ -4775,8 +4781,8 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="92"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
       </c>
@@ -4796,7 +4802,7 @@
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M61" s="79"/>
       <c r="N61" s="79"/>
@@ -4806,8 +4812,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="95" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="96" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4815,7 +4821,7 @@
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="32">
-        <v>2000</v>
+        <v>4291</v>
       </c>
       <c r="G62" s="71">
         <v>0</v>
@@ -4829,55 +4835,47 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="71">
-        <v>59</v>
-      </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="12" t="s">
-        <v>67</v>
+      <c r="A63" s="94"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="94" t="s">
+        <v>301</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
-        <v>0</v>
-      </c>
-      <c r="G63" s="71">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="38">
-        <v>4000</v>
-      </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="75" t="s">
-        <v>276</v>
+        <v>500</v>
+      </c>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="95" t="s">
+        <v>272</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O63" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="O63" s="94"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="71">
-        <v>60</v>
-      </c>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
       <c r="D64" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="32">
@@ -4887,30 +4885,30 @@
         <v>0</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I64" s="38">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M64" s="24"/>
       <c r="N64" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O64" s="12"/>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="71">
-        <v>61</v>
-      </c>
-      <c r="B65" s="96"/>
-      <c r="C65" s="96"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32">
@@ -4920,30 +4918,30 @@
         <v>0</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I65" s="38">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
-        <v>62</v>
-      </c>
-      <c r="B66" s="96"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="97"/>
       <c r="C66" s="97"/>
       <c r="D66" s="12" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32">
@@ -4953,98 +4951,98 @@
         <v>0</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I66" s="38">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O66" s="44"/>
+        <v>296</v>
+      </c>
+      <c r="O66" s="12"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
-        <v>63</v>
-      </c>
-      <c r="B67" s="96"/>
-      <c r="C67" s="92" t="s">
-        <v>44</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B67" s="97"/>
+      <c r="C67" s="98"/>
       <c r="D67" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G67" s="71">
         <v>0</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I67" s="38">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O67" s="44"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
-        <v>64</v>
-      </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="92"/>
+        <v>63</v>
+      </c>
+      <c r="B68" s="97"/>
+      <c r="C68" s="100" t="s">
+        <v>44</v>
+      </c>
       <c r="D68" s="12" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G68" s="71">
         <v>0</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I68" s="38">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O68" s="44"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
-        <v>65</v>
-      </c>
-      <c r="B69" s="96"/>
-      <c r="C69" s="92"/>
+        <v>64</v>
+      </c>
+      <c r="B69" s="97"/>
+      <c r="C69" s="100"/>
       <c r="D69" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32">
@@ -5057,29 +5055,27 @@
         <v>39</v>
       </c>
       <c r="I69" s="38">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O69" s="44"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
-        <v>66</v>
-      </c>
-      <c r="B70" s="96"/>
-      <c r="C70" s="92" t="s">
-        <v>51</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B70" s="97"/>
+      <c r="C70" s="100"/>
       <c r="D70" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32">
@@ -5089,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I70" s="38">
         <v>500</v>
@@ -5097,22 +5093,24 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O70" s="44"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
-        <v>67</v>
-      </c>
-      <c r="B71" s="96"/>
-      <c r="C71" s="92"/>
+        <v>66</v>
+      </c>
+      <c r="B71" s="97"/>
+      <c r="C71" s="100" t="s">
+        <v>51</v>
+      </c>
       <c r="D71" s="12" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="32">
@@ -5125,117 +5123,119 @@
         <v>54</v>
       </c>
       <c r="I71" s="38">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O71" s="44"/>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
-        <v>69</v>
-      </c>
-      <c r="B72" s="96"/>
-      <c r="C72" s="92"/>
+        <v>67</v>
+      </c>
+      <c r="B72" s="97"/>
+      <c r="C72" s="100"/>
       <c r="D72" s="12" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="32">
         <v>0</v>
       </c>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-      <c r="H72" s="12"/>
+      <c r="G72" s="71">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="I72" s="38">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O72" s="44"/>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
+        <v>69</v>
+      </c>
+      <c r="B73" s="97"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="38">
+        <v>400</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="M73" s="24"/>
+      <c r="N73" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="O73" s="44"/>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="93" t="s">
-        <v>252</v>
-      </c>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="62">
-        <f>SUM(F55:F72)</f>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="71">
-        <v>71</v>
-      </c>
-      <c r="B74" s="102" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77">
-        <v>0</v>
-      </c>
-      <c r="G74" s="76">
-        <v>0</v>
-      </c>
-      <c r="H74" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="78">
-        <v>90</v>
-      </c>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="79"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="M74" s="104"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="62">
+        <f>SUM(F55:F73)</f>
+        <v>5091</v>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
-        <v>72</v>
-      </c>
-      <c r="B75" s="96"/>
-      <c r="C75" s="92"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="100" t="s">
+        <v>13</v>
+      </c>
       <c r="D75" s="76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75" s="77"/>
       <c r="F75" s="77">
@@ -5245,15 +5245,15 @@
         <v>0</v>
       </c>
       <c r="H75" s="76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I75" s="78">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J75" s="76"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M75" s="80"/>
       <c r="N75" s="80"/>
@@ -5261,12 +5261,12 @@
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
-        <v>73</v>
-      </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="92"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="97"/>
+      <c r="C76" s="100"/>
       <c r="D76" s="76" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E76" s="77"/>
       <c r="F76" s="77">
@@ -5276,15 +5276,15 @@
         <v>0</v>
       </c>
       <c r="H76" s="76" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I76" s="78">
-        <v>1800</v>
+        <v>20</v>
       </c>
       <c r="J76" s="76"/>
       <c r="K76" s="76"/>
       <c r="L76" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M76" s="80"/>
       <c r="N76" s="80"/>
@@ -5292,12 +5292,12 @@
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="71">
-        <v>74</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="92"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="97"/>
+      <c r="C77" s="100"/>
       <c r="D77" s="76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E77" s="77"/>
       <c r="F77" s="77">
@@ -5307,15 +5307,15 @@
         <v>0</v>
       </c>
       <c r="H77" s="76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I77" s="78">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="J77" s="76"/>
       <c r="K77" s="76"/>
       <c r="L77" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M77" s="80"/>
       <c r="N77" s="80"/>
@@ -5323,12 +5323,12 @@
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="71">
-        <v>75</v>
-      </c>
-      <c r="B78" s="96"/>
-      <c r="C78" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="97"/>
+      <c r="C78" s="100"/>
       <c r="D78" s="76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78" s="77"/>
       <c r="F78" s="77">
@@ -5341,12 +5341,12 @@
         <v>31</v>
       </c>
       <c r="I78" s="78">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J78" s="76"/>
       <c r="K78" s="76"/>
       <c r="L78" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M78" s="80"/>
       <c r="N78" s="80"/>
@@ -5354,14 +5354,12 @@
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="71">
-        <v>76</v>
-      </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="92" t="s">
-        <v>29</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B79" s="97"/>
+      <c r="C79" s="100"/>
       <c r="D79" s="76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E79" s="77"/>
       <c r="F79" s="77">
@@ -5374,12 +5372,12 @@
         <v>31</v>
       </c>
       <c r="I79" s="78">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J79" s="76"/>
       <c r="K79" s="76"/>
       <c r="L79" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M79" s="80"/>
       <c r="N79" s="80"/>
@@ -5387,12 +5385,14 @@
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="71">
-        <v>77</v>
-      </c>
-      <c r="B80" s="96"/>
-      <c r="C80" s="92"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="97"/>
+      <c r="C80" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="D80" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E80" s="77"/>
       <c r="F80" s="77">
@@ -5402,197 +5402,197 @@
         <v>0</v>
       </c>
       <c r="H80" s="76" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I80" s="78">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J80" s="76"/>
       <c r="K80" s="76"/>
       <c r="L80" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M80" s="79"/>
-      <c r="N80" s="79"/>
+        <v>271</v>
+      </c>
+      <c r="M80" s="80"/>
+      <c r="N80" s="80"/>
       <c r="O80" s="79"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="71">
-        <v>78</v>
-      </c>
-      <c r="B81" s="96"/>
-      <c r="C81" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32">
-        <v>2000</v>
-      </c>
-      <c r="G81" s="71">
-        <v>0</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I81" s="38">
-        <v>3000</v>
-      </c>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O81" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="97"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77">
+        <v>0</v>
+      </c>
+      <c r="G81" s="76">
+        <v>0</v>
+      </c>
+      <c r="H81" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="78">
+        <v>50</v>
+      </c>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="79"/>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="71">
-        <v>79</v>
-      </c>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="72" t="s">
-        <v>246</v>
+        <v>78</v>
+      </c>
+      <c r="B82" s="97"/>
+      <c r="C82" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="94" t="s">
+        <v>300</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G82" s="71">
         <v>0</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I82" s="38">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O82" s="12"/>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="71">
-        <v>80</v>
-      </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="72" t="s">
-        <v>247</v>
+        <v>81</v>
+      </c>
+      <c r="B83" s="97"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32">
+        <v>0</v>
+      </c>
+      <c r="G83" s="71">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" s="38">
         <v>200</v>
-      </c>
-      <c r="G83" s="71">
-        <v>0</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I83" s="38">
-        <v>1500</v>
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O83" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="O83" s="44"/>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="71">
-        <v>81</v>
-      </c>
-      <c r="B84" s="96"/>
-      <c r="C84" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="97"/>
+      <c r="C84" s="100" t="s">
+        <v>44</v>
+      </c>
       <c r="D84" s="12" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G84" s="71">
         <v>0</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I84" s="38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O84" s="44"/>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="71">
-        <v>82</v>
-      </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="B85" s="97"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="72" t="s">
+        <v>244</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G85" s="71">
         <v>0</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I85" s="38">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M85" s="24"/>
       <c r="N85" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O85" s="44"/>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="71">
-        <v>83</v>
-      </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="97"/>
+      <c r="C86" s="96" t="s">
+        <v>51</v>
+      </c>
       <c r="D86" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32">
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I86" s="38">
         <v>500</v>
@@ -5610,24 +5610,22 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O86" s="44"/>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="71">
-        <v>84</v>
-      </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="95" t="s">
-        <v>51</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B87" s="97"/>
+      <c r="C87" s="98"/>
       <c r="D87" s="72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32">
@@ -5640,88 +5638,86 @@
         <v>54</v>
       </c>
       <c r="I87" s="38">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O87" s="44"/>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="71">
-        <v>85</v>
-      </c>
-      <c r="B88" s="96"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32">
-        <v>0</v>
-      </c>
-      <c r="G88" s="71">
-        <v>0</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I88" s="38">
-        <v>600</v>
-      </c>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O88" s="44"/>
-    </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="B88" s="98"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="103"/>
+      <c r="M88" s="104"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="62">
+        <f>SUM(F75:F87)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="71">
-        <v>86</v>
-      </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="62">
-        <f>SUM(F74:F88)</f>
-        <v>3500</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B89" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77">
+        <v>0</v>
+      </c>
+      <c r="G89" s="76">
+        <v>0</v>
+      </c>
+      <c r="H89" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="77">
+        <v>100</v>
+      </c>
+      <c r="J89" s="76"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="79"/>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="71">
-        <v>87</v>
-      </c>
-      <c r="B90" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="92" t="s">
-        <v>13</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B90" s="97"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E90" s="77"/>
       <c r="F90" s="77">
@@ -5734,12 +5730,12 @@
         <v>80</v>
       </c>
       <c r="I90" s="77">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J90" s="76"/>
       <c r="K90" s="79"/>
       <c r="L90" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M90" s="80"/>
       <c r="N90" s="80"/>
@@ -5747,12 +5743,12 @@
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="71">
-        <v>88</v>
-      </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="92"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="97"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E91" s="77"/>
       <c r="F91" s="77">
@@ -5762,15 +5758,15 @@
         <v>0</v>
       </c>
       <c r="H91" s="76" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I91" s="77">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="J91" s="76"/>
       <c r="K91" s="79"/>
       <c r="L91" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M91" s="80"/>
       <c r="N91" s="80"/>
@@ -5778,12 +5774,12 @@
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="71">
-        <v>89</v>
-      </c>
-      <c r="B92" s="96"/>
-      <c r="C92" s="92"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="97"/>
+      <c r="C92" s="100"/>
       <c r="D92" s="76" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E92" s="77"/>
       <c r="F92" s="77">
@@ -5793,15 +5789,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I92" s="77">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J92" s="76"/>
       <c r="K92" s="79"/>
       <c r="L92" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M92" s="80"/>
       <c r="N92" s="80"/>
@@ -5809,12 +5805,12 @@
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="71">
-        <v>90</v>
-      </c>
-      <c r="B93" s="96"/>
-      <c r="C93" s="92"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="97"/>
+      <c r="C93" s="100"/>
       <c r="D93" s="76" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E93" s="77"/>
       <c r="F93" s="77">
@@ -5824,15 +5820,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="76" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I93" s="77">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="J93" s="76"/>
       <c r="K93" s="79"/>
       <c r="L93" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M93" s="80"/>
       <c r="N93" s="80"/>
@@ -5840,12 +5836,12 @@
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="71">
-        <v>91</v>
-      </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="92"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="97"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E94" s="77"/>
       <c r="F94" s="77">
@@ -5855,15 +5851,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="76" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I94" s="77">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="J94" s="76"/>
       <c r="K94" s="79"/>
       <c r="L94" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M94" s="80"/>
       <c r="N94" s="80"/>
@@ -5871,12 +5867,14 @@
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="71">
-        <v>92</v>
-      </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="92"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="97"/>
+      <c r="C95" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="D95" s="76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E95" s="77"/>
       <c r="F95" s="77">
@@ -5886,15 +5884,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="76" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I95" s="77">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="J95" s="76"/>
       <c r="K95" s="79"/>
       <c r="L95" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M95" s="80"/>
       <c r="N95" s="80"/>
@@ -5902,14 +5900,12 @@
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="71">
-        <v>93</v>
-      </c>
-      <c r="B96" s="96"/>
-      <c r="C96" s="92" t="s">
-        <v>29</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B96" s="97"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E96" s="77"/>
       <c r="F96" s="77">
@@ -5918,60 +5914,62 @@
       <c r="G96" s="76">
         <v>0</v>
       </c>
-      <c r="H96" s="76" t="s">
-        <v>31</v>
-      </c>
+      <c r="H96" s="76"/>
       <c r="I96" s="77">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="J96" s="76"/>
       <c r="K96" s="79"/>
       <c r="L96" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M96" s="80"/>
-      <c r="N96" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
       <c r="O96" s="79"/>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="71">
-        <v>94</v>
-      </c>
-      <c r="B97" s="96"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77">
-        <v>0</v>
-      </c>
-      <c r="G97" s="76">
-        <v>0</v>
-      </c>
-      <c r="H97" s="76"/>
-      <c r="I97" s="77">
-        <v>300</v>
-      </c>
-      <c r="J97" s="76"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M97" s="79"/>
-      <c r="N97" s="79"/>
-      <c r="O97" s="79"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="97"/>
+      <c r="C97" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46">
+        <v>0</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J97" s="17"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M97" s="40"/>
+      <c r="N97" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O97" s="17"/>
     </row>
     <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="71">
-        <v>95</v>
-      </c>
-      <c r="B98" s="96"/>
-      <c r="C98" s="95" t="s">
-        <v>87</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
       <c r="D98" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E98" s="46"/>
       <c r="F98" s="46">
@@ -5984,27 +5982,27 @@
         <v>54</v>
       </c>
       <c r="I98" s="46">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J98" s="17"/>
       <c r="K98" s="40"/>
       <c r="L98" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="71">
-        <v>96</v>
-      </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="17" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="B99" s="97"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="69" t="s">
+        <v>90</v>
       </c>
       <c r="E99" s="46"/>
       <c r="F99" s="46">
@@ -6017,66 +6015,66 @@
         <v>54</v>
       </c>
       <c r="I99" s="46">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J99" s="17"/>
       <c r="K99" s="40"/>
       <c r="L99" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M99" s="40"/>
       <c r="N99" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="O99" s="17"/>
+        <v>297</v>
+      </c>
+      <c r="O99" s="39"/>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="71">
-        <v>97</v>
-      </c>
-      <c r="B100" s="96"/>
-      <c r="C100" s="97"/>
-      <c r="D100" s="69" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="B100" s="97"/>
+      <c r="C100" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="E100" s="46"/>
       <c r="F100" s="46">
-        <v>0</v>
+        <v>3599</v>
       </c>
       <c r="G100" s="17">
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I100" s="46">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="40"/>
       <c r="L100" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O100" s="39"/>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="71">
-        <v>98</v>
-      </c>
-      <c r="B101" s="96"/>
-      <c r="C101" s="92" t="s">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B101" s="97"/>
+      <c r="C101" s="100"/>
       <c r="D101" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="46">
-        <v>3599</v>
+        <v>3325</v>
       </c>
       <c r="G101" s="17">
         <v>0</v>
@@ -6085,31 +6083,31 @@
         <v>39</v>
       </c>
       <c r="I101" s="46">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J101" s="17"/>
-      <c r="K101" s="40"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M101" s="40"/>
       <c r="N101" s="17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O101" s="39"/>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="71">
-        <v>99</v>
-      </c>
-      <c r="B102" s="96"/>
-      <c r="C102" s="92"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="97"/>
+      <c r="C102" s="100"/>
       <c r="D102" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="46">
-        <v>3325</v>
+        <v>1296</v>
       </c>
       <c r="G102" s="17">
         <v>0</v>
@@ -6118,31 +6116,31 @@
         <v>39</v>
       </c>
       <c r="I102" s="46">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O102" s="39"/>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="71">
-        <v>100</v>
-      </c>
-      <c r="B103" s="96"/>
-      <c r="C103" s="92"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="97"/>
+      <c r="C103" s="100"/>
       <c r="D103" s="17" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="46">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="G103" s="17">
         <v>0</v>
@@ -6151,31 +6149,31 @@
         <v>39</v>
       </c>
       <c r="I103" s="46">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M103" s="40"/>
       <c r="N103" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O103" s="39"/>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="71">
-        <v>101</v>
-      </c>
-      <c r="B104" s="96"/>
-      <c r="C104" s="92"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="97"/>
+      <c r="C104" s="100"/>
       <c r="D104" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="46">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G104" s="17">
         <v>0</v>
@@ -6189,114 +6187,112 @@
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O104" s="39"/>
     </row>
-    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="71">
-        <v>102</v>
-      </c>
-      <c r="B105" s="96"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46">
-        <v>2610</v>
-      </c>
-      <c r="G105" s="17">
-        <v>0</v>
-      </c>
-      <c r="H105" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="97"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77">
+        <v>0</v>
+      </c>
+      <c r="G105" s="76">
+        <v>0</v>
+      </c>
+      <c r="H105" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I105" s="46">
-        <v>600</v>
-      </c>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="M105" s="40"/>
-      <c r="N105" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O105" s="39"/>
-    </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I105" s="77">
+        <v>150</v>
+      </c>
+      <c r="J105" s="82"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="M105" s="79"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="81"/>
+    </row>
+    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="71">
-        <v>103</v>
-      </c>
-      <c r="B106" s="96"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77">
-        <v>0</v>
-      </c>
-      <c r="G106" s="76">
-        <v>0</v>
-      </c>
-      <c r="H106" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I106" s="77">
-        <v>150</v>
-      </c>
-      <c r="J106" s="82"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="81"/>
-    </row>
-    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="B106" s="98"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="90"/>
+      <c r="O106" s="62">
+        <f>SUM(F89:F105)</f>
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="71">
-        <v>104</v>
-      </c>
-      <c r="B107" s="97"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="90"/>
-      <c r="K107" s="90"/>
-      <c r="L107" s="90"/>
-      <c r="M107" s="91"/>
-      <c r="N107" s="108"/>
-      <c r="O107" s="62">
-        <f>SUM(F90:F106)</f>
-        <v>10830</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B107" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77">
+        <v>0</v>
+      </c>
+      <c r="G107" s="76">
+        <v>0</v>
+      </c>
+      <c r="H107" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="78">
+        <v>100</v>
+      </c>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="M107" s="80"/>
+      <c r="N107" s="80"/>
+      <c r="O107" s="79"/>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="71">
-        <v>105</v>
-      </c>
-      <c r="B108" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="92" t="s">
-        <v>13</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B108" s="97"/>
+      <c r="C108" s="100"/>
       <c r="D108" s="76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E108" s="77"/>
       <c r="F108" s="77">
@@ -6309,12 +6305,12 @@
         <v>31</v>
       </c>
       <c r="I108" s="78">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J108" s="76"/>
       <c r="K108" s="76"/>
       <c r="L108" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M108" s="80"/>
       <c r="N108" s="80"/>
@@ -6322,12 +6318,12 @@
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="71">
-        <v>106</v>
-      </c>
-      <c r="B109" s="96"/>
-      <c r="C109" s="92"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="97"/>
+      <c r="C109" s="100"/>
       <c r="D109" s="76" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E109" s="77"/>
       <c r="F109" s="77">
@@ -6336,16 +6332,14 @@
       <c r="G109" s="76">
         <v>0</v>
       </c>
-      <c r="H109" s="76" t="s">
-        <v>31</v>
-      </c>
+      <c r="H109" s="76"/>
       <c r="I109" s="78">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J109" s="76"/>
       <c r="K109" s="76"/>
       <c r="L109" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M109" s="80"/>
       <c r="N109" s="80"/>
@@ -6353,12 +6347,12 @@
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="71">
-        <v>107</v>
-      </c>
-      <c r="B110" s="96"/>
-      <c r="C110" s="92"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="97"/>
+      <c r="C110" s="100"/>
       <c r="D110" s="76" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E110" s="77"/>
       <c r="F110" s="77">
@@ -6367,14 +6361,16 @@
       <c r="G110" s="76">
         <v>0</v>
       </c>
-      <c r="H110" s="76"/>
+      <c r="H110" s="76" t="s">
+        <v>100</v>
+      </c>
       <c r="I110" s="78">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J110" s="76"/>
       <c r="K110" s="76"/>
       <c r="L110" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M110" s="80"/>
       <c r="N110" s="80"/>
@@ -6382,12 +6378,12 @@
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="71">
-        <v>108</v>
-      </c>
-      <c r="B111" s="96"/>
-      <c r="C111" s="92"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="97"/>
+      <c r="C111" s="100"/>
       <c r="D111" s="76" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E111" s="77"/>
       <c r="F111" s="77">
@@ -6397,15 +6393,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="76" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I111" s="78">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J111" s="76"/>
       <c r="K111" s="76"/>
       <c r="L111" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M111" s="80"/>
       <c r="N111" s="80"/>
@@ -6413,12 +6409,12 @@
     </row>
     <row r="112" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="71">
-        <v>109</v>
-      </c>
-      <c r="B112" s="96"/>
-      <c r="C112" s="92"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="97"/>
+      <c r="C112" s="100"/>
       <c r="D112" s="76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E112" s="77"/>
       <c r="F112" s="77">
@@ -6428,15 +6424,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="76" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I112" s="78">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J112" s="76"/>
       <c r="K112" s="76"/>
       <c r="L112" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M112" s="80"/>
       <c r="N112" s="80"/>
@@ -6444,12 +6440,12 @@
     </row>
     <row r="113" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="71">
-        <v>110</v>
-      </c>
-      <c r="B113" s="96"/>
-      <c r="C113" s="92"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="97"/>
+      <c r="C113" s="100"/>
       <c r="D113" s="76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E113" s="77"/>
       <c r="F113" s="77">
@@ -6462,43 +6458,39 @@
         <v>39</v>
       </c>
       <c r="I113" s="78">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="J113" s="76"/>
       <c r="K113" s="76"/>
       <c r="L113" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M113" s="80"/>
       <c r="N113" s="80"/>
       <c r="O113" s="79"/>
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="71">
-        <v>111</v>
-      </c>
-      <c r="B114" s="96"/>
-      <c r="C114" s="92"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="100"/>
       <c r="D114" s="76" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="E114" s="77"/>
       <c r="F114" s="77">
         <v>0</v>
       </c>
-      <c r="G114" s="76">
-        <v>0</v>
-      </c>
-      <c r="H114" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I114" s="78">
-        <v>1800</v>
-      </c>
-      <c r="J114" s="76"/>
+      <c r="G114" s="17">
+        <v>0</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="I114" s="51"/>
+      <c r="J114" s="17"/>
       <c r="K114" s="76"/>
       <c r="L114" s="76" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M114" s="80"/>
       <c r="N114" s="80"/>
@@ -6506,97 +6498,101 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="96"/>
-      <c r="C115" s="92"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="100"/>
       <c r="D115" s="76" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E115" s="77"/>
       <c r="F115" s="77">
         <v>0</v>
       </c>
-      <c r="G115" s="17">
-        <v>0</v>
-      </c>
-      <c r="H115" s="17" t="s">
-        <v>272</v>
-      </c>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
       <c r="I115" s="51"/>
       <c r="J115" s="17"/>
       <c r="K115" s="76"/>
       <c r="L115" s="76" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M115" s="80"/>
       <c r="N115" s="80"/>
       <c r="O115" s="79"/>
     </row>
-    <row r="116" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="96"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77">
-        <v>0</v>
+      <c r="B116" s="97"/>
+      <c r="C116" s="100"/>
+      <c r="D116" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46">
+        <v>300</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="51"/>
       <c r="J116" s="17"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="M116" s="80"/>
-      <c r="N116" s="80"/>
-      <c r="O116" s="79"/>
-    </row>
-    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="17"/>
+      <c r="L116" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M116" s="52"/>
+      <c r="N116" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="O116" s="40"/>
+    </row>
+    <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46">
-        <v>300</v>
+      <c r="B117" s="97"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77">
+        <v>0</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="51"/>
       <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="M117" s="52"/>
-      <c r="N117" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O117" s="40"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="M117" s="80"/>
+      <c r="N117" s="80"/>
+      <c r="O117" s="79"/>
     </row>
     <row r="118" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="75"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="92"/>
+      <c r="A118" s="71">
+        <v>112</v>
+      </c>
+      <c r="B118" s="97"/>
+      <c r="C118" s="100"/>
       <c r="D118" s="76" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E118" s="77"/>
       <c r="F118" s="77">
         <v>0</v>
       </c>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="51"/>
+      <c r="G118" s="17">
+        <v>0</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118" s="51">
+        <v>2500</v>
+      </c>
       <c r="J118" s="17"/>
       <c r="K118" s="76"/>
       <c r="L118" s="76" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M118" s="80"/>
       <c r="N118" s="80"/>
@@ -6604,30 +6600,30 @@
     </row>
     <row r="119" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="71">
-        <v>112</v>
-      </c>
-      <c r="B119" s="96"/>
-      <c r="C119" s="92"/>
+        <v>113</v>
+      </c>
+      <c r="B119" s="97"/>
+      <c r="C119" s="100"/>
       <c r="D119" s="76" t="s">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="E119" s="77"/>
       <c r="F119" s="77">
         <v>0</v>
       </c>
-      <c r="G119" s="17">
-        <v>0</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I119" s="51">
-        <v>2500</v>
-      </c>
-      <c r="J119" s="17"/>
+      <c r="G119" s="76">
+        <v>0</v>
+      </c>
+      <c r="H119" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="78">
+        <v>20</v>
+      </c>
+      <c r="J119" s="76"/>
       <c r="K119" s="76"/>
       <c r="L119" s="76" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="M119" s="80"/>
       <c r="N119" s="80"/>
@@ -6635,12 +6631,12 @@
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="71">
-        <v>113</v>
-      </c>
-      <c r="B120" s="96"/>
-      <c r="C120" s="92"/>
+        <v>114</v>
+      </c>
+      <c r="B120" s="97"/>
+      <c r="C120" s="100"/>
       <c r="D120" s="76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E120" s="77"/>
       <c r="F120" s="77">
@@ -6650,15 +6646,15 @@
         <v>0</v>
       </c>
       <c r="H120" s="76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I120" s="78">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J120" s="76"/>
       <c r="K120" s="76"/>
       <c r="L120" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M120" s="80"/>
       <c r="N120" s="80"/>
@@ -6666,12 +6662,12 @@
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="71">
-        <v>114</v>
-      </c>
-      <c r="B121" s="96"/>
-      <c r="C121" s="92"/>
+        <v>115</v>
+      </c>
+      <c r="B121" s="97"/>
+      <c r="C121" s="100"/>
       <c r="D121" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E121" s="77"/>
       <c r="F121" s="77">
@@ -6681,15 +6677,15 @@
         <v>0</v>
       </c>
       <c r="H121" s="76" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I121" s="78">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="J121" s="76"/>
       <c r="K121" s="76"/>
       <c r="L121" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M121" s="80"/>
       <c r="N121" s="80"/>
@@ -6697,12 +6693,12 @@
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="71">
-        <v>115</v>
-      </c>
-      <c r="B122" s="96"/>
-      <c r="C122" s="92"/>
+        <v>116</v>
+      </c>
+      <c r="B122" s="97"/>
+      <c r="C122" s="100"/>
       <c r="D122" s="76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="77"/>
       <c r="F122" s="77">
@@ -6712,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="76" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="I122" s="78">
         <v>200</v>
@@ -6720,7 +6716,7 @@
       <c r="J122" s="76"/>
       <c r="K122" s="76"/>
       <c r="L122" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M122" s="80"/>
       <c r="N122" s="80"/>
@@ -6728,12 +6724,14 @@
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="71">
-        <v>116</v>
-      </c>
-      <c r="B123" s="96"/>
-      <c r="C123" s="92"/>
+        <v>117</v>
+      </c>
+      <c r="B123" s="97"/>
+      <c r="C123" s="96" t="s">
+        <v>29</v>
+      </c>
       <c r="D123" s="76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="77"/>
       <c r="F123" s="77">
@@ -6742,16 +6740,14 @@
       <c r="G123" s="76">
         <v>0</v>
       </c>
-      <c r="H123" s="76" t="s">
-        <v>19</v>
-      </c>
+      <c r="H123" s="76"/>
       <c r="I123" s="78">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J123" s="76"/>
       <c r="K123" s="76"/>
       <c r="L123" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M123" s="80"/>
       <c r="N123" s="80"/>
@@ -6759,14 +6755,12 @@
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="71">
-        <v>117</v>
-      </c>
-      <c r="B124" s="96"/>
-      <c r="C124" s="95" t="s">
-        <v>29</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B124" s="97"/>
+      <c r="C124" s="97"/>
       <c r="D124" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E124" s="77"/>
       <c r="F124" s="77">
@@ -6777,12 +6771,12 @@
       </c>
       <c r="H124" s="76"/>
       <c r="I124" s="78">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J124" s="76"/>
       <c r="K124" s="76"/>
       <c r="L124" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M124" s="80"/>
       <c r="N124" s="80"/>
@@ -6790,12 +6784,12 @@
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="71">
-        <v>118</v>
-      </c>
-      <c r="B125" s="96"/>
-      <c r="C125" s="96"/>
+        <v>119</v>
+      </c>
+      <c r="B125" s="97"/>
+      <c r="C125" s="97"/>
       <c r="D125" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E125" s="77"/>
       <c r="F125" s="77">
@@ -6806,25 +6800,25 @@
       </c>
       <c r="H125" s="76"/>
       <c r="I125" s="78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J125" s="76"/>
       <c r="K125" s="76"/>
       <c r="L125" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M125" s="80"/>
-      <c r="N125" s="80"/>
+        <v>271</v>
+      </c>
+      <c r="M125" s="79"/>
+      <c r="N125" s="79"/>
       <c r="O125" s="79"/>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="71">
-        <v>119</v>
-      </c>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
+        <v>120</v>
+      </c>
+      <c r="B126" s="97"/>
+      <c r="C126" s="98"/>
       <c r="D126" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E126" s="77"/>
       <c r="F126" s="77">
@@ -6840,55 +6834,57 @@
       <c r="J126" s="76"/>
       <c r="K126" s="76"/>
       <c r="L126" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M126" s="79"/>
       <c r="N126" s="79"/>
       <c r="O126" s="79"/>
     </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
-        <v>120</v>
-      </c>
-      <c r="B127" s="96"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="77"/>
-      <c r="F127" s="77">
-        <v>0</v>
-      </c>
-      <c r="G127" s="76">
-        <v>0</v>
-      </c>
-      <c r="H127" s="76"/>
-      <c r="I127" s="78">
-        <v>100</v>
-      </c>
-      <c r="J127" s="76"/>
-      <c r="K127" s="76"/>
-      <c r="L127" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M127" s="79"/>
-      <c r="N127" s="79"/>
-      <c r="O127" s="79"/>
+        <v>121</v>
+      </c>
+      <c r="B127" s="97"/>
+      <c r="C127" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46">
+        <v>3449</v>
+      </c>
+      <c r="G127" s="17">
+        <v>0</v>
+      </c>
+      <c r="H127" s="17"/>
+      <c r="I127" s="46">
+        <v>0</v>
+      </c>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M127" s="24"/>
+      <c r="N127" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="O127" s="44"/>
     </row>
     <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
-        <v>121</v>
-      </c>
-      <c r="B128" s="96"/>
-      <c r="C128" s="92" t="s">
-        <v>44</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B128" s="97"/>
+      <c r="C128" s="100"/>
       <c r="D128" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E128" s="46"/>
       <c r="F128" s="46">
-        <v>3449</v>
+        <v>2063</v>
       </c>
       <c r="G128" s="17">
         <v>0</v>
@@ -6900,53 +6896,51 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
       <c r="L128" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M128" s="24"/>
       <c r="N128" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O128" s="44"/>
     </row>
-    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="71">
-        <v>122</v>
-      </c>
-      <c r="B129" s="96"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46">
-        <v>2063</v>
-      </c>
-      <c r="G129" s="17">
-        <v>0</v>
-      </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="46">
-        <v>0</v>
-      </c>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="M129" s="24"/>
-      <c r="N129" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="O129" s="44"/>
+        <v>123</v>
+      </c>
+      <c r="B129" s="97"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77">
+        <v>0</v>
+      </c>
+      <c r="G129" s="76">
+        <v>0</v>
+      </c>
+      <c r="H129" s="76"/>
+      <c r="I129" s="77">
+        <v>0</v>
+      </c>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="81"/>
     </row>
     <row r="130" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="71">
-        <v>123</v>
-      </c>
-      <c r="B130" s="96"/>
-      <c r="C130" s="92"/>
+        <v>124</v>
+      </c>
+      <c r="B130" s="97"/>
+      <c r="C130" s="100"/>
       <c r="D130" s="76" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E130" s="77"/>
       <c r="F130" s="77">
@@ -6957,82 +6951,84 @@
       </c>
       <c r="H130" s="76"/>
       <c r="I130" s="77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J130" s="76"/>
       <c r="K130" s="76"/>
       <c r="L130" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M130" s="79"/>
       <c r="N130" s="79"/>
       <c r="O130" s="81"/>
     </row>
-    <row r="131" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="71">
-        <v>124</v>
-      </c>
-      <c r="B131" s="96"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77">
-        <v>0</v>
-      </c>
-      <c r="G131" s="76">
-        <v>0</v>
-      </c>
-      <c r="H131" s="76"/>
-      <c r="I131" s="77">
-        <v>100</v>
-      </c>
-      <c r="J131" s="76"/>
-      <c r="K131" s="76"/>
-      <c r="L131" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M131" s="79"/>
-      <c r="N131" s="79"/>
-      <c r="O131" s="81"/>
-    </row>
-    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="B131" s="98"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="103"/>
+      <c r="F131" s="103"/>
+      <c r="G131" s="103"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="103"/>
+      <c r="J131" s="103"/>
+      <c r="K131" s="103"/>
+      <c r="L131" s="103"/>
+      <c r="M131" s="104"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="65">
+        <f>SUM(F107:F130)</f>
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
-        <v>125</v>
-      </c>
-      <c r="B132" s="97"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E132" s="90"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="90"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="90"/>
-      <c r="K132" s="90"/>
-      <c r="L132" s="90"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="109"/>
-      <c r="O132" s="65">
-        <f>SUM(F108:F131)</f>
-        <v>5812</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B132" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="77"/>
+      <c r="F132" s="77">
+        <v>0</v>
+      </c>
+      <c r="G132" s="76">
+        <v>0</v>
+      </c>
+      <c r="H132" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="I132" s="77">
+        <v>2000</v>
+      </c>
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
+      <c r="L132" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="M132" s="80"/>
+      <c r="N132" s="80"/>
+      <c r="O132" s="79"/>
     </row>
     <row r="133" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
-        <v>126</v>
-      </c>
-      <c r="B133" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C133" s="92" t="s">
-        <v>13</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B133" s="97"/>
+      <c r="C133" s="100"/>
       <c r="D133" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E133" s="77"/>
       <c r="F133" s="77">
@@ -7042,15 +7038,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I133" s="77">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J133" s="76"/>
       <c r="K133" s="76"/>
       <c r="L133" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M133" s="80"/>
       <c r="N133" s="80"/>
@@ -7058,12 +7054,12 @@
     </row>
     <row r="134" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
-        <v>127</v>
-      </c>
-      <c r="B134" s="96"/>
-      <c r="C134" s="92"/>
+        <v>128</v>
+      </c>
+      <c r="B134" s="97"/>
+      <c r="C134" s="100"/>
       <c r="D134" s="76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E134" s="77"/>
       <c r="F134" s="77">
@@ -7073,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I134" s="77">
         <v>100</v>
@@ -7081,7 +7077,7 @@
       <c r="J134" s="76"/>
       <c r="K134" s="76"/>
       <c r="L134" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M134" s="80"/>
       <c r="N134" s="80"/>
@@ -7089,12 +7085,12 @@
     </row>
     <row r="135" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
-        <v>128</v>
-      </c>
-      <c r="B135" s="96"/>
-      <c r="C135" s="92"/>
+        <v>129</v>
+      </c>
+      <c r="B135" s="97"/>
+      <c r="C135" s="100"/>
       <c r="D135" s="76" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="E135" s="77"/>
       <c r="F135" s="77">
@@ -7104,15 +7100,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="76" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I135" s="77">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J135" s="76"/>
       <c r="K135" s="76"/>
       <c r="L135" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M135" s="80"/>
       <c r="N135" s="80"/>
@@ -7120,12 +7116,12 @@
     </row>
     <row r="136" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
-        <v>129</v>
-      </c>
-      <c r="B136" s="96"/>
-      <c r="C136" s="92"/>
+        <v>130</v>
+      </c>
+      <c r="B136" s="97"/>
+      <c r="C136" s="100"/>
       <c r="D136" s="76" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="E136" s="77"/>
       <c r="F136" s="77">
@@ -7135,15 +7131,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="76" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I136" s="77">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="J136" s="76"/>
       <c r="K136" s="76"/>
       <c r="L136" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M136" s="80"/>
       <c r="N136" s="80"/>
@@ -7151,12 +7147,12 @@
     </row>
     <row r="137" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
-        <v>130</v>
-      </c>
-      <c r="B137" s="96"/>
-      <c r="C137" s="92"/>
+        <v>131</v>
+      </c>
+      <c r="B137" s="97"/>
+      <c r="C137" s="100"/>
       <c r="D137" s="76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E137" s="77"/>
       <c r="F137" s="77">
@@ -7166,15 +7162,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="76" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I137" s="77">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J137" s="76"/>
       <c r="K137" s="76"/>
       <c r="L137" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M137" s="80"/>
       <c r="N137" s="80"/>
@@ -7182,12 +7178,14 @@
     </row>
     <row r="138" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
-        <v>131</v>
-      </c>
-      <c r="B138" s="96"/>
-      <c r="C138" s="92"/>
+        <v>132</v>
+      </c>
+      <c r="B138" s="97"/>
+      <c r="C138" s="96" t="s">
+        <v>35</v>
+      </c>
       <c r="D138" s="76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E138" s="77"/>
       <c r="F138" s="77">
@@ -7200,58 +7198,58 @@
         <v>39</v>
       </c>
       <c r="I138" s="77">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="J138" s="76"/>
       <c r="K138" s="76"/>
       <c r="L138" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M138" s="80"/>
-      <c r="N138" s="80"/>
-      <c r="O138" s="79"/>
-    </row>
-    <row r="139" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="M138" s="79"/>
+      <c r="N138" s="79"/>
+      <c r="O138" s="76"/>
+    </row>
+    <row r="139" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="71">
-        <v>132</v>
-      </c>
-      <c r="B139" s="96"/>
-      <c r="C139" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D139" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77">
-        <v>0</v>
-      </c>
-      <c r="G139" s="76">
-        <v>0</v>
-      </c>
-      <c r="H139" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="97"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46">
+        <v>0</v>
+      </c>
+      <c r="G139" s="17">
+        <v>0</v>
+      </c>
+      <c r="H139" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I139" s="77">
-        <v>2000</v>
-      </c>
-      <c r="J139" s="76"/>
-      <c r="K139" s="76"/>
-      <c r="L139" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="M139" s="79"/>
-      <c r="N139" s="79"/>
-      <c r="O139" s="76"/>
+      <c r="I139" s="46">
+        <v>200</v>
+      </c>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M139" s="24"/>
+      <c r="N139" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="O139" s="12"/>
     </row>
     <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="71">
-        <v>133</v>
-      </c>
-      <c r="B140" s="96"/>
-      <c r="C140" s="96"/>
+        <v>134</v>
+      </c>
+      <c r="B140" s="97"/>
+      <c r="C140" s="98"/>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="E140" s="46"/>
       <c r="F140" s="46">
@@ -7261,30 +7259,32 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I140" s="46">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O140" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="O140" s="44"/>
     </row>
     <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="71">
-        <v>134</v>
-      </c>
-      <c r="B141" s="96"/>
-      <c r="C141" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="B141" s="97"/>
+      <c r="C141" s="70" t="s">
+        <v>44</v>
+      </c>
       <c r="D141" s="17" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E141" s="46"/>
       <c r="F141" s="46">
@@ -7294,32 +7294,32 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I141" s="46">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M141" s="24"/>
       <c r="N141" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O141" s="44"/>
     </row>
     <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="71">
-        <v>135</v>
-      </c>
-      <c r="B142" s="96"/>
-      <c r="C142" s="70" t="s">
-        <v>44</v>
+        <v>136</v>
+      </c>
+      <c r="B142" s="97"/>
+      <c r="C142" s="100" t="s">
+        <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="E142" s="46"/>
       <c r="F142" s="46">
@@ -7329,32 +7329,30 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I142" s="46">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M142" s="24"/>
       <c r="N142" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O142" s="44"/>
     </row>
     <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="71">
-        <v>136</v>
-      </c>
-      <c r="B143" s="96"/>
-      <c r="C143" s="92" t="s">
-        <v>51</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B143" s="97"/>
+      <c r="C143" s="100"/>
       <c r="D143" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E143" s="46"/>
       <c r="F143" s="46">
@@ -7364,30 +7362,30 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="I143" s="46">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M143" s="24"/>
       <c r="N143" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O143" s="44"/>
     </row>
     <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="71">
-        <v>137</v>
-      </c>
-      <c r="B144" s="96"/>
-      <c r="C144" s="92"/>
+        <v>138</v>
+      </c>
+      <c r="B144" s="97"/>
+      <c r="C144" s="100"/>
       <c r="D144" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="46"/>
       <c r="F144" s="46">
@@ -7397,182 +7395,182 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="I144" s="46">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M144" s="24"/>
       <c r="N144" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O144" s="44"/>
     </row>
     <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
-        <v>138</v>
-      </c>
-      <c r="B145" s="96"/>
-      <c r="C145" s="92"/>
-      <c r="D145" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46">
-        <v>0</v>
-      </c>
-      <c r="G145" s="17">
-        <v>0</v>
-      </c>
-      <c r="H145" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I145" s="46">
-        <v>150</v>
-      </c>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="M145" s="24"/>
-      <c r="N145" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="O145" s="44"/>
+        <v>139</v>
+      </c>
+      <c r="B145" s="98"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E145" s="109"/>
+      <c r="F145" s="103"/>
+      <c r="G145" s="103"/>
+      <c r="H145" s="103"/>
+      <c r="I145" s="103"/>
+      <c r="J145" s="103"/>
+      <c r="K145" s="103"/>
+      <c r="L145" s="103"/>
+      <c r="M145" s="104"/>
+      <c r="N145" s="91"/>
+      <c r="O145" s="65">
+        <f>SUM(F132:F144)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
-        <v>139</v>
-      </c>
-      <c r="B146" s="97"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="E146" s="94"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
-      <c r="H146" s="90"/>
-      <c r="I146" s="90"/>
-      <c r="J146" s="90"/>
-      <c r="K146" s="90"/>
-      <c r="L146" s="90"/>
-      <c r="M146" s="91"/>
-      <c r="N146" s="109"/>
-      <c r="O146" s="65">
-        <f>SUM(F133:F145)</f>
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B146" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="46">
+        <v>65</v>
+      </c>
+      <c r="G146" s="12">
+        <v>1</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I146" s="46">
+        <v>65</v>
+      </c>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="M146" s="24"/>
+      <c r="N146" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="O146" s="55"/>
     </row>
     <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="71">
-        <v>140</v>
-      </c>
-      <c r="B147" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="C147" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>265</v>
+      <c r="A147" s="75">
+        <v>141</v>
+      </c>
+      <c r="B147" s="110"/>
+      <c r="C147" s="100"/>
+      <c r="D147" s="75" t="s">
+        <v>260</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="46">
-        <v>65</v>
-      </c>
-      <c r="G147" s="12">
-        <v>1</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>268</v>
+        <v>60</v>
+      </c>
+      <c r="G147" s="17">
+        <v>0</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I147" s="46">
-        <v>65</v>
-      </c>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="75"/>
+      <c r="K147" s="75"/>
       <c r="L147" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M147" s="24"/>
       <c r="N147" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O147" s="55"/>
     </row>
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="75">
-        <v>141</v>
-      </c>
-      <c r="B148" s="103"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="75" t="s">
-        <v>264</v>
+      <c r="A148" s="85"/>
+      <c r="B148" s="110"/>
+      <c r="C148" s="100"/>
+      <c r="D148" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="46">
-        <v>60</v>
-      </c>
-      <c r="G148" s="17">
-        <v>0</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I148" s="46">
-        <v>0</v>
-      </c>
-      <c r="J148" s="75"/>
-      <c r="K148" s="75"/>
-      <c r="L148" s="75" t="s">
-        <v>276</v>
+        <v>455</v>
+      </c>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="85"/>
+      <c r="K148" s="85"/>
+      <c r="L148" s="85" t="s">
+        <v>284</v>
       </c>
       <c r="M148" s="24"/>
       <c r="N148" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O148" s="55"/>
     </row>
     <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="85"/>
-      <c r="B149" s="103"/>
-      <c r="C149" s="92"/>
-      <c r="D149" s="85" t="s">
-        <v>294</v>
+      <c r="A149" s="75">
+        <v>142</v>
+      </c>
+      <c r="B149" s="97"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="46">
-        <v>455</v>
-      </c>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="85"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="85" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="G149" s="17">
+        <v>0</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I149" s="46">
+        <v>0</v>
+      </c>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="75" t="s">
+        <v>272</v>
       </c>
       <c r="M149" s="24"/>
       <c r="N149" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O149" s="55"/>
     </row>
     <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="75">
-        <v>142</v>
-      </c>
-      <c r="B150" s="96"/>
-      <c r="C150" s="92"/>
+        <v>143</v>
+      </c>
+      <c r="B150" s="97"/>
+      <c r="C150" s="100"/>
       <c r="D150" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="46">
@@ -7590,22 +7588,22 @@
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
       <c r="L150" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M150" s="24"/>
       <c r="N150" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O150" s="55"/>
     </row>
     <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
-        <v>143</v>
-      </c>
-      <c r="B151" s="96"/>
-      <c r="C151" s="92"/>
+        <v>144</v>
+      </c>
+      <c r="B151" s="97"/>
+      <c r="C151" s="100"/>
       <c r="D151" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="46">
@@ -7623,136 +7621,128 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="75" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M151" s="24"/>
       <c r="N151" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O151" s="55"/>
     </row>
     <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="75">
-        <v>144</v>
-      </c>
-      <c r="B152" s="96"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="46">
-        <v>0</v>
-      </c>
-      <c r="G152" s="17">
-        <v>0</v>
-      </c>
-      <c r="H152" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I152" s="46">
-        <v>0</v>
-      </c>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="M152" s="24"/>
-      <c r="N152" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="O152" s="55"/>
+        <v>145</v>
+      </c>
+      <c r="B152" s="97"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="103"/>
+      <c r="F152" s="103"/>
+      <c r="G152" s="103"/>
+      <c r="H152" s="103"/>
+      <c r="I152" s="103"/>
+      <c r="J152" s="103"/>
+      <c r="K152" s="103"/>
+      <c r="L152" s="103"/>
+      <c r="M152" s="104"/>
+      <c r="N152" s="91"/>
+      <c r="O152" s="65">
+        <f>SUM(F146:F151)</f>
+        <v>580</v>
+      </c>
     </row>
     <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="75">
-        <v>145</v>
-      </c>
-      <c r="B153" s="96"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="J153" s="90"/>
-      <c r="K153" s="90"/>
-      <c r="L153" s="90"/>
-      <c r="M153" s="91"/>
-      <c r="N153" s="109"/>
-      <c r="O153" s="65">
-        <f>SUM(F147:F152)</f>
-        <v>580</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B153" s="97"/>
+      <c r="C153" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E153" s="24"/>
+      <c r="F153" s="46">
+        <v>28239</v>
+      </c>
+      <c r="G153" s="17">
+        <v>0</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I153" s="46">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M153" s="24"/>
+      <c r="N153" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="O153" s="38"/>
     </row>
     <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="75">
-        <v>146</v>
-      </c>
-      <c r="B154" s="96"/>
-      <c r="C154" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="B154" s="97"/>
+      <c r="C154" s="100"/>
+      <c r="D154" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="46">
-        <v>28239</v>
-      </c>
-      <c r="G154" s="17">
-        <v>0</v>
-      </c>
-      <c r="H154" s="17" t="s">
-        <v>39</v>
+        <v>39714</v>
+      </c>
+      <c r="G154" s="75">
+        <v>1</v>
+      </c>
+      <c r="H154" s="75" t="s">
+        <v>263</v>
       </c>
       <c r="I154" s="46">
-        <v>0</v>
-      </c>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="J154" s="75"/>
+      <c r="K154" s="75"/>
       <c r="L154" s="75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M154" s="24"/>
       <c r="N154" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="O154" s="38"/>
+    </row>
+    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="95"/>
+      <c r="B155" s="97"/>
+      <c r="C155" s="100"/>
+      <c r="D155" s="95" t="s">
         <v>302</v>
-      </c>
-      <c r="O154" s="38"/>
-    </row>
-    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="75">
-        <v>147</v>
-      </c>
-      <c r="B155" s="96"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="75" t="s">
-        <v>283</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
-        <v>39714</v>
-      </c>
-      <c r="G155" s="75">
-        <v>1</v>
-      </c>
-      <c r="H155" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="I155" s="46">
-        <v>300</v>
-      </c>
-      <c r="J155" s="75"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="75" t="s">
-        <v>288</v>
+        <v>260</v>
+      </c>
+      <c r="G155" s="95"/>
+      <c r="H155" s="95"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="95"/>
+      <c r="K155" s="95"/>
+      <c r="L155" s="95" t="s">
+        <v>272</v>
       </c>
       <c r="M155" s="24"/>
       <c r="N155" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O155" s="38"/>
     </row>
@@ -7760,10 +7750,10 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="96"/>
-      <c r="C156" s="92"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="100"/>
       <c r="D156" s="85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="46">
@@ -7781,20 +7771,20 @@
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
       <c r="L156" s="75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M156" s="24"/>
       <c r="N156" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O156" s="38"/>
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="96"/>
-      <c r="C157" s="92"/>
+      <c r="B157" s="97"/>
+      <c r="C157" s="100"/>
       <c r="D157" s="85" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="46">
@@ -7806,20 +7796,20 @@
       <c r="J157" s="85"/>
       <c r="K157" s="85"/>
       <c r="L157" s="85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M157" s="24"/>
       <c r="N157" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O157" s="38"/>
     </row>
     <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="88"/>
-      <c r="B158" s="96"/>
-      <c r="C158" s="92"/>
+      <c r="B158" s="97"/>
+      <c r="C158" s="100"/>
       <c r="D158" s="88" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
@@ -7831,11 +7821,11 @@
       <c r="J158" s="88"/>
       <c r="K158" s="88"/>
       <c r="L158" s="88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O158" s="38"/>
     </row>
@@ -7843,10 +7833,10 @@
       <c r="A159" s="75">
         <v>149</v>
       </c>
-      <c r="B159" s="96"/>
-      <c r="C159" s="92"/>
+      <c r="B159" s="97"/>
+      <c r="C159" s="100"/>
       <c r="D159" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
@@ -7864,24 +7854,24 @@
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
       <c r="L159" s="75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M159" s="24"/>
       <c r="N159" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O159" s="38"/>
     </row>
     <row r="160" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="88"/>
-      <c r="B160" s="96"/>
-      <c r="C160" s="92"/>
+      <c r="B160" s="97"/>
+      <c r="C160" s="100"/>
       <c r="D160" s="88" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
-        <v>234</v>
+        <v>811</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
@@ -7889,84 +7879,82 @@
       <c r="J160" s="88"/>
       <c r="K160" s="88"/>
       <c r="L160" s="88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M160" s="24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N160" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O160" s="38"/>
     </row>
     <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="88"/>
-      <c r="B161" s="96"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="88" t="s">
-        <v>298</v>
+      <c r="A161" s="85"/>
+      <c r="B161" s="97"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="85" t="s">
+        <v>282</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
-        <v>585</v>
-      </c>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="88"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="88" t="s">
+        <v>950</v>
+      </c>
+      <c r="G161" s="17">
+        <v>0</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I161" s="46">
+        <v>0</v>
+      </c>
+      <c r="J161" s="85"/>
+      <c r="K161" s="85"/>
+      <c r="L161" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="M161" s="24"/>
+      <c r="N161" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="M161" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="N161" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="O161" s="38"/>
     </row>
     <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="85"/>
-      <c r="B162" s="96"/>
-      <c r="C162" s="92"/>
+      <c r="B162" s="97"/>
+      <c r="C162" s="100"/>
       <c r="D162" s="85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>950</v>
-      </c>
-      <c r="G162" s="17">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I162" s="46">
-        <v>0</v>
-      </c>
+        <v>-1110</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="46"/>
       <c r="J162" s="85"/>
       <c r="K162" s="85"/>
       <c r="L162" s="85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M162" s="24"/>
       <c r="N162" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O162" s="38"/>
     </row>
     <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="85"/>
-      <c r="B163" s="96"/>
-      <c r="C163" s="92"/>
+      <c r="B163" s="97"/>
+      <c r="C163" s="100"/>
       <c r="D163" s="85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>-1110</v>
+        <v>-1330</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
@@ -7974,277 +7962,252 @@
       <c r="J163" s="85"/>
       <c r="K163" s="85"/>
       <c r="L163" s="85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M163" s="24"/>
       <c r="N163" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O163" s="38"/>
     </row>
-    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="85"/>
-      <c r="B164" s="96"/>
-      <c r="C164" s="92"/>
-      <c r="D164" s="85" t="s">
-        <v>292</v>
+    <row r="164" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="75">
+        <v>150</v>
+      </c>
+      <c r="B164" s="97"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>-1330</v>
-      </c>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="46"/>
-      <c r="J164" s="85"/>
-      <c r="K164" s="85"/>
-      <c r="L164" s="85" t="s">
-        <v>288</v>
+        <v>-1000</v>
+      </c>
+      <c r="G164" s="17">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I164" s="46">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="75" t="s">
+        <v>284</v>
       </c>
       <c r="M164" s="24"/>
       <c r="N164" s="17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O164" s="38"/>
     </row>
     <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="75">
-        <v>150</v>
-      </c>
-      <c r="B165" s="96"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G165" s="17">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I165" s="46">
-        <v>0</v>
-      </c>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="M165" s="24"/>
-      <c r="N165" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="O165" s="38"/>
-    </row>
-    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="75">
         <v>151</v>
       </c>
-      <c r="B166" s="97"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="E166" s="94"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="90"/>
-      <c r="I166" s="90"/>
-      <c r="J166" s="90"/>
-      <c r="K166" s="90"/>
-      <c r="L166" s="90"/>
-      <c r="M166" s="91"/>
-      <c r="N166" s="110"/>
-      <c r="O166" s="73">
-        <f>SUM(F154:F165)</f>
-        <v>75660</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L167" s="84"/>
-      <c r="N167" s="84"/>
-    </row>
-    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="98" t="s">
+      <c r="B165" s="98"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="E165" s="109"/>
+      <c r="F165" s="103"/>
+      <c r="G165" s="103"/>
+      <c r="H165" s="103"/>
+      <c r="I165" s="103"/>
+      <c r="J165" s="103"/>
+      <c r="K165" s="103"/>
+      <c r="L165" s="103"/>
+      <c r="M165" s="104"/>
+      <c r="N165" s="92"/>
+      <c r="O165" s="73">
+        <f>SUM(F153:F164)</f>
+        <v>75912</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L166" s="84"/>
+      <c r="N166" s="84"/>
+    </row>
+    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="99"/>
-      <c r="C168" s="99"/>
-      <c r="D168" s="99"/>
-      <c r="E168" s="99"/>
-      <c r="F168" s="99"/>
-      <c r="G168" s="99"/>
-      <c r="H168" s="99"/>
-      <c r="I168" s="99"/>
-      <c r="J168" s="99"/>
-      <c r="K168" s="99"/>
-      <c r="L168" s="99"/>
-      <c r="M168" s="100"/>
-      <c r="N168" s="111"/>
+      <c r="B167" s="106"/>
+      <c r="C167" s="106"/>
+      <c r="D167" s="106"/>
+      <c r="E167" s="106"/>
+      <c r="F167" s="106"/>
+      <c r="G167" s="106"/>
+      <c r="H167" s="106"/>
+      <c r="I167" s="106"/>
+      <c r="J167" s="106"/>
+      <c r="K167" s="106"/>
+      <c r="L167" s="106"/>
+      <c r="M167" s="107"/>
+      <c r="N167" s="93"/>
+      <c r="O167" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O152+O165</f>
+        <v>121395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="106"/>
+      <c r="C168" s="106"/>
+      <c r="D168" s="106"/>
+      <c r="E168" s="106"/>
+      <c r="F168" s="106"/>
+      <c r="G168" s="106"/>
+      <c r="H168" s="106"/>
+      <c r="I168" s="106"/>
+      <c r="J168" s="106"/>
+      <c r="K168" s="106"/>
+      <c r="L168" s="106"/>
+      <c r="M168" s="107"/>
+      <c r="N168" s="87"/>
       <c r="O168" s="58">
-        <f>O33+O54+O73+O89+O107+O132+O146+O153+O166</f>
-        <v>123382</v>
+        <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="B169" s="99"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="99"/>
-      <c r="E169" s="99"/>
-      <c r="F169" s="99"/>
-      <c r="G169" s="99"/>
-      <c r="H169" s="99"/>
-      <c r="I169" s="99"/>
-      <c r="J169" s="99"/>
-      <c r="K169" s="99"/>
-      <c r="L169" s="99"/>
-      <c r="M169" s="100"/>
+      <c r="A169" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="106"/>
+      <c r="C169" s="106"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="106"/>
+      <c r="F169" s="106"/>
+      <c r="G169" s="106"/>
+      <c r="H169" s="106"/>
+      <c r="I169" s="106"/>
+      <c r="J169" s="106"/>
+      <c r="K169" s="106"/>
+      <c r="L169" s="106"/>
+      <c r="M169" s="107"/>
       <c r="N169" s="87"/>
       <c r="O169" s="58">
-        <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F90:F95)+SUM(F108:F123)+SUM(F133:F138)</f>
-        <v>300</v>
+        <f>SUM(F138:F140,F41:F46,F17:F23)</f>
+        <v>12380</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="B170" s="99"/>
-      <c r="C170" s="99"/>
-      <c r="D170" s="99"/>
-      <c r="E170" s="99"/>
-      <c r="F170" s="99"/>
-      <c r="G170" s="99"/>
-      <c r="H170" s="99"/>
-      <c r="I170" s="99"/>
-      <c r="J170" s="99"/>
-      <c r="K170" s="99"/>
-      <c r="L170" s="99"/>
-      <c r="M170" s="100"/>
+      <c r="A170" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="106"/>
+      <c r="C170" s="106"/>
+      <c r="D170" s="106"/>
+      <c r="E170" s="106"/>
+      <c r="F170" s="106"/>
+      <c r="G170" s="106"/>
+      <c r="H170" s="106"/>
+      <c r="I170" s="106"/>
+      <c r="J170" s="106"/>
+      <c r="K170" s="106"/>
+      <c r="L170" s="106"/>
+      <c r="M170" s="107"/>
       <c r="N170" s="87"/>
       <c r="O170" s="58">
-        <f>SUM(F139:F141,F41:F46,F17:F23)</f>
-        <v>14000</v>
+        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
+        <v>23832</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="B171" s="99"/>
-      <c r="C171" s="99"/>
-      <c r="D171" s="99"/>
-      <c r="E171" s="99"/>
-      <c r="F171" s="99"/>
-      <c r="G171" s="99"/>
-      <c r="H171" s="99"/>
-      <c r="I171" s="99"/>
-      <c r="J171" s="99"/>
-      <c r="K171" s="99"/>
-      <c r="L171" s="99"/>
-      <c r="M171" s="100"/>
+      <c r="A171" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" s="106"/>
+      <c r="C171" s="106"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
+      <c r="F171" s="106"/>
+      <c r="G171" s="106"/>
+      <c r="H171" s="106"/>
+      <c r="I171" s="106"/>
+      <c r="J171" s="106"/>
+      <c r="K171" s="106"/>
+      <c r="L171" s="106"/>
+      <c r="M171" s="107"/>
       <c r="N171" s="87"/>
       <c r="O171" s="58">
-        <f>SUM(F101:F106,F128:F131,F142:F142,F47:F49,F24:F28)</f>
-        <v>24042</v>
+        <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="B172" s="99"/>
-      <c r="C172" s="99"/>
-      <c r="D172" s="99"/>
-      <c r="E172" s="99"/>
-      <c r="F172" s="99"/>
-      <c r="G172" s="99"/>
-      <c r="H172" s="99"/>
-      <c r="I172" s="99"/>
-      <c r="J172" s="99"/>
-      <c r="K172" s="99"/>
-      <c r="L172" s="99"/>
-      <c r="M172" s="100"/>
+      <c r="A172" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" s="106"/>
+      <c r="C172" s="106"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="106"/>
+      <c r="F172" s="106"/>
+      <c r="G172" s="106"/>
+      <c r="H172" s="106"/>
+      <c r="I172" s="106"/>
+      <c r="J172" s="106"/>
+      <c r="K172" s="106"/>
+      <c r="L172" s="106"/>
+      <c r="M172" s="107"/>
       <c r="N172" s="87"/>
       <c r="O172" s="58">
-        <f>SUM(F143:F145,F51:F53,F29:F31,F98:F100)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="B173" s="99"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="99"/>
-      <c r="E173" s="99"/>
-      <c r="F173" s="99"/>
-      <c r="G173" s="99"/>
-      <c r="H173" s="99"/>
-      <c r="I173" s="99"/>
-      <c r="J173" s="99"/>
-      <c r="K173" s="99"/>
-      <c r="L173" s="99"/>
-      <c r="M173" s="100"/>
+      <c r="A173" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="106"/>
+      <c r="C173" s="106"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="106"/>
+      <c r="G173" s="106"/>
+      <c r="H173" s="106"/>
+      <c r="I173" s="106"/>
+      <c r="J173" s="106"/>
+      <c r="K173" s="106"/>
+      <c r="L173" s="106"/>
+      <c r="M173" s="107"/>
       <c r="N173" s="87"/>
       <c r="O173" s="58">
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="99"/>
-      <c r="C174" s="99"/>
-      <c r="D174" s="99"/>
-      <c r="E174" s="99"/>
-      <c r="F174" s="99"/>
-      <c r="G174" s="99"/>
-      <c r="H174" s="99"/>
-      <c r="I174" s="99"/>
-      <c r="J174" s="99"/>
-      <c r="K174" s="99"/>
-      <c r="L174" s="99"/>
-      <c r="M174" s="100"/>
+      <c r="A174" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="B174" s="106"/>
+      <c r="C174" s="106"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="106"/>
+      <c r="F174" s="106"/>
+      <c r="G174" s="106"/>
+      <c r="H174" s="106"/>
+      <c r="I174" s="106"/>
+      <c r="J174" s="106"/>
+      <c r="K174" s="106"/>
+      <c r="L174" s="106"/>
+      <c r="M174" s="107"/>
       <c r="N174" s="87"/>
       <c r="O174" s="58">
-        <f>SUM(F39:F40,F14:F16,F96:F97,F125:F127)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="B175" s="99"/>
-      <c r="C175" s="99"/>
-      <c r="D175" s="99"/>
-      <c r="E175" s="99"/>
-      <c r="F175" s="99"/>
-      <c r="G175" s="99"/>
-      <c r="H175" s="99"/>
-      <c r="I175" s="99"/>
-      <c r="J175" s="99"/>
-      <c r="K175" s="99"/>
-      <c r="L175" s="99"/>
-      <c r="M175" s="100"/>
-      <c r="N175" s="87"/>
-      <c r="O175" s="58">
-        <f>SUM(O153:O165)</f>
+        <f>SUM(O152:O164)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S166">
+  <autoFilter ref="A1:S165">
     <filterColumn colId="11">
       <filters blank="1">
         <filter val="自购"/>
@@ -8252,24 +8215,40 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B54"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B74:B89"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B55:B73"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D152:M152"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A167:M167"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="D165:M165"/>
+    <mergeCell ref="B146:B165"/>
+    <mergeCell ref="C153:C164"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
     <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D74:M74"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C47:C49"/>
@@ -8278,38 +8257,22 @@
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="B90:B107"/>
-    <mergeCell ref="B108:B132"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="D166:M166"/>
-    <mergeCell ref="B147:B166"/>
-    <mergeCell ref="C154:C165"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="D132:M132"/>
-    <mergeCell ref="D146:M146"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C108:C123"/>
-    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B55:B74"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8808,7 +8771,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="106"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8843,7 +8806,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="106"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11185,7 +11148,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="104"/>
+      <c r="P82" s="101"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11221,7 +11184,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="104"/>
+      <c r="P83" s="101"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11257,7 +11220,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="104"/>
+      <c r="P84" s="101"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11293,7 +11256,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="104"/>
+      <c r="P85" s="101"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11329,7 +11292,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="104"/>
+      <c r="P86" s="101"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11365,7 +11328,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="104"/>
+      <c r="P87" s="101"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11401,7 +11364,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="104"/>
+      <c r="P88" s="101"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11437,7 +11400,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="104"/>
+      <c r="P89" s="101"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11473,7 +11436,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="104"/>
+      <c r="P90" s="101"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11507,7 +11470,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="104"/>
+      <c r="P91" s="101"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11544,7 +11507,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="104"/>
+      <c r="P92" s="101"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11580,7 +11543,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="104"/>
+      <c r="P93" s="101"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12358,167 +12321,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="98" t="s">
+      <c r="A120" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="99"/>
-      <c r="C120" s="99"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="99"/>
-      <c r="G120" s="99"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="99"/>
-      <c r="J120" s="99"/>
-      <c r="K120" s="99"/>
-      <c r="L120" s="99"/>
-      <c r="M120" s="100"/>
+      <c r="B120" s="106"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="106"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="106"/>
+      <c r="K120" s="106"/>
+      <c r="L120" s="106"/>
+      <c r="M120" s="107"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="98" t="s">
+      <c r="A121" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="99"/>
-      <c r="C121" s="99"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="99"/>
-      <c r="G121" s="99"/>
-      <c r="H121" s="99"/>
-      <c r="I121" s="99"/>
-      <c r="J121" s="99"/>
-      <c r="K121" s="99"/>
-      <c r="L121" s="99"/>
-      <c r="M121" s="100"/>
+      <c r="B121" s="106"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="112"/>
+      <c r="F121" s="106"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="106"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="106"/>
+      <c r="K121" s="106"/>
+      <c r="L121" s="106"/>
+      <c r="M121" s="107"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="98" t="s">
+      <c r="A122" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="99"/>
-      <c r="C122" s="99"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="99"/>
-      <c r="G122" s="99"/>
-      <c r="H122" s="99"/>
-      <c r="I122" s="99"/>
-      <c r="J122" s="99"/>
-      <c r="K122" s="99"/>
-      <c r="L122" s="99"/>
-      <c r="M122" s="100"/>
+      <c r="B122" s="106"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="112"/>
+      <c r="F122" s="106"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="106"/>
+      <c r="I122" s="106"/>
+      <c r="J122" s="106"/>
+      <c r="K122" s="106"/>
+      <c r="L122" s="106"/>
+      <c r="M122" s="107"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="98" t="s">
+      <c r="A123" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="99"/>
-      <c r="D123" s="99"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="99"/>
-      <c r="G123" s="99"/>
-      <c r="H123" s="99"/>
-      <c r="I123" s="99"/>
-      <c r="J123" s="99"/>
-      <c r="K123" s="99"/>
-      <c r="L123" s="99"/>
-      <c r="M123" s="100"/>
+      <c r="B123" s="106"/>
+      <c r="C123" s="106"/>
+      <c r="D123" s="106"/>
+      <c r="E123" s="112"/>
+      <c r="F123" s="106"/>
+      <c r="G123" s="106"/>
+      <c r="H123" s="106"/>
+      <c r="I123" s="106"/>
+      <c r="J123" s="106"/>
+      <c r="K123" s="106"/>
+      <c r="L123" s="106"/>
+      <c r="M123" s="107"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="98" t="s">
+      <c r="A124" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="99"/>
-      <c r="C124" s="99"/>
-      <c r="D124" s="99"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="99"/>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
-      <c r="L124" s="99"/>
-      <c r="M124" s="100"/>
+      <c r="B124" s="106"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="112"/>
+      <c r="F124" s="106"/>
+      <c r="G124" s="106"/>
+      <c r="H124" s="106"/>
+      <c r="I124" s="106"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
+      <c r="L124" s="106"/>
+      <c r="M124" s="107"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="98" t="s">
+      <c r="A125" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="99"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="99"/>
-      <c r="G125" s="99"/>
-      <c r="H125" s="99"/>
-      <c r="I125" s="99"/>
-      <c r="J125" s="99"/>
-      <c r="K125" s="99"/>
-      <c r="L125" s="99"/>
-      <c r="M125" s="100"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="106"/>
+      <c r="G125" s="106"/>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106"/>
+      <c r="L125" s="106"/>
+      <c r="M125" s="107"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="98" t="s">
+      <c r="A126" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="99"/>
-      <c r="L126" s="99"/>
-      <c r="M126" s="100"/>
+      <c r="B126" s="106"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="106"/>
+      <c r="G126" s="106"/>
+      <c r="H126" s="106"/>
+      <c r="I126" s="106"/>
+      <c r="J126" s="106"/>
+      <c r="K126" s="106"/>
+      <c r="L126" s="106"/>
+      <c r="M126" s="107"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="98" t="s">
+      <c r="A127" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="99"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="105"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="99"/>
-      <c r="K127" s="99"/>
-      <c r="L127" s="99"/>
-      <c r="M127" s="100"/>
+      <c r="B127" s="106"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="106"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="106"/>
+      <c r="G127" s="106"/>
+      <c r="H127" s="106"/>
+      <c r="I127" s="106"/>
+      <c r="J127" s="106"/>
+      <c r="K127" s="106"/>
+      <c r="L127" s="106"/>
+      <c r="M127" s="107"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12652,7 +12615,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="104"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12662,7 +12625,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="104"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12672,7 +12635,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="104"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12682,7 +12645,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="104"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12692,7 +12655,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12702,7 +12665,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12712,7 +12675,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12722,7 +12685,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="104"/>
+      <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12732,23 +12695,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="104"/>
+      <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="104"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="104"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$166</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="307">
   <si>
     <t>序号</t>
   </si>
@@ -957,10 +957,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>壁纸</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>自购</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1014,6 +1010,14 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>米素壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家壁纸</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1362,7 +1366,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1643,6 +1647,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1651,24 +1676,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1682,14 +1689,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2278,11 +2285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280631584"/>
-        <c:axId val="280631024"/>
+        <c:axId val="166882192"/>
+        <c:axId val="166882752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280631584"/>
+        <c:axId val="166882192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280631024"/>
+        <c:crossAx val="166882752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2327,7 +2334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280631024"/>
+        <c:axId val="166882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280631584"/>
+        <c:crossAx val="166882192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2819,13 +2826,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2889,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
@@ -2899,7 +2906,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="103" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="100" t="s">
@@ -2929,13 +2936,13 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="101"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="100"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
@@ -2961,13 +2968,13 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="101"/>
+      <c r="Q3" s="112"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="100"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
@@ -2993,13 +3000,13 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="101"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="100"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
@@ -3023,13 +3030,13 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="101"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="100"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
@@ -3053,13 +3060,13 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="101"/>
+      <c r="Q6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="100"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
@@ -3083,11 +3090,11 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="101"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="100"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
@@ -3109,13 +3116,13 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="101"/>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="100"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
@@ -3139,13 +3146,13 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="101"/>
+      <c r="Q9" s="112"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="100"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
@@ -3169,13 +3176,13 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="101"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="100"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
@@ -3199,13 +3206,13 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="101"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="100"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
@@ -3229,13 +3236,13 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="101"/>
+      <c r="Q12" s="112"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="100"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
@@ -3261,13 +3268,13 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="101"/>
+      <c r="Q13" s="112"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="100" t="s">
         <v>29</v>
       </c>
@@ -3295,14 +3302,14 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="101"/>
+      <c r="Q14" s="112"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="100"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
@@ -3333,7 +3340,7 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="100"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
@@ -3364,8 +3371,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3391,7 +3398,7 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O17" s="17"/>
     </row>
@@ -3399,8 +3406,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +3431,7 @@
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O18" s="17"/>
     </row>
@@ -3432,8 +3439,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3457,7 +3464,7 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O19" s="17"/>
     </row>
@@ -3465,8 +3472,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3490,7 +3497,7 @@
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -3498,8 +3505,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="17" t="s">
         <v>249</v>
       </c>
@@ -3523,7 +3530,7 @@
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O21" s="17"/>
       <c r="S21" s="64"/>
@@ -3532,8 +3539,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3557,7 +3564,7 @@
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O22" s="17"/>
     </row>
@@ -3565,8 +3572,8 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="69" t="s">
         <v>250</v>
       </c>
@@ -3590,7 +3597,7 @@
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O23" s="39"/>
     </row>
@@ -3598,7 +3605,7 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="97"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="100" t="s">
         <v>44</v>
       </c>
@@ -3625,7 +3632,7 @@
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O24" s="39"/>
     </row>
@@ -3633,7 +3640,7 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="97"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="100"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
@@ -3658,7 +3665,7 @@
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O25" s="39"/>
     </row>
@@ -3666,7 +3673,7 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="97"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="100"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
@@ -3691,13 +3698,13 @@
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="97"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="100"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
@@ -3722,13 +3729,13 @@
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="97"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="100"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
@@ -3751,7 +3758,7 @@
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O28" s="39"/>
     </row>
@@ -3759,7 +3766,7 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="97"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="100" t="s">
         <v>51</v>
       </c>
@@ -3786,7 +3793,7 @@
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O29" s="39"/>
     </row>
@@ -3794,7 +3801,7 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="97"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="100"/>
       <c r="D30" s="17" t="s">
         <v>53</v>
@@ -3819,7 +3826,7 @@
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O30" s="39"/>
     </row>
@@ -3827,7 +3834,7 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="97"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="100"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
@@ -3852,7 +3859,7 @@
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O31" s="39"/>
     </row>
@@ -3860,7 +3867,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="97"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3893,20 +3900,20 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="98"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="99"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
@@ -3917,7 +3924,7 @@
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="110" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="100" t="s">
@@ -3952,7 +3959,7 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="100"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
@@ -3983,7 +3990,7 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="97"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="100"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
@@ -4014,7 +4021,7 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="97"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="100"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
@@ -4045,7 +4052,7 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="100"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
@@ -4076,7 +4083,7 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="97"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="100" t="s">
         <v>29</v>
       </c>
@@ -4109,7 +4116,7 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="97"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="100"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
@@ -4140,8 +4147,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="96" t="s">
+      <c r="B41" s="104"/>
+      <c r="C41" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4167,7 +4174,7 @@
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O41" s="12"/>
     </row>
@@ -4175,8 +4182,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4200,7 +4207,7 @@
       </c>
       <c r="M42" s="24"/>
       <c r="N42" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O42" s="12"/>
     </row>
@@ -4208,8 +4215,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4233,14 +4240,14 @@
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4258,7 +4265,7 @@
       </c>
       <c r="M44" s="24"/>
       <c r="N44" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O44" s="75"/>
     </row>
@@ -4266,8 +4273,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4291,7 +4298,7 @@
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O45" s="12"/>
     </row>
@@ -4299,8 +4306,8 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="12" t="s">
         <v>251</v>
       </c>
@@ -4324,7 +4331,7 @@
       </c>
       <c r="M46" s="24"/>
       <c r="N46" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O46" s="44"/>
     </row>
@@ -4332,7 +4339,7 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="97"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="100" t="s">
         <v>44</v>
       </c>
@@ -4359,7 +4366,7 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4367,7 +4374,7 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="97"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="100"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
@@ -4392,7 +4399,7 @@
       </c>
       <c r="M48" s="24"/>
       <c r="N48" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O48" s="44"/>
     </row>
@@ -4400,7 +4407,7 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="100"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
@@ -4425,7 +4432,7 @@
       </c>
       <c r="M49" s="24"/>
       <c r="N49" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O49" s="44"/>
     </row>
@@ -4433,7 +4440,7 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="97"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="100" t="s">
         <v>51</v>
       </c>
@@ -4460,7 +4467,7 @@
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O50" s="44"/>
     </row>
@@ -4468,7 +4475,7 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="97"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="100"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
@@ -4493,7 +4500,7 @@
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O51" s="44"/>
     </row>
@@ -4501,7 +4508,7 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="97"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="100"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
@@ -4526,7 +4533,7 @@
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O52" s="44"/>
     </row>
@@ -4534,7 +4541,7 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="97"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="100"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
@@ -4557,7 +4564,7 @@
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O53" s="44"/>
     </row>
@@ -4565,20 +4572,20 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="98"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="104"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="99"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
@@ -4589,7 +4596,7 @@
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="110" t="s">
         <v>237</v>
       </c>
       <c r="C55" s="100" t="s">
@@ -4624,7 +4631,7 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="97"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="100"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
@@ -4655,7 +4662,7 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="97"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="100"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
@@ -4686,7 +4693,7 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="97"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="100"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
@@ -4717,7 +4724,7 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="97"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="100"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
@@ -4748,7 +4755,7 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="97"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="100" t="s">
         <v>29</v>
       </c>
@@ -4781,7 +4788,7 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="97"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="100"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
@@ -4812,8 +4819,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="96" t="s">
+      <c r="B62" s="104"/>
+      <c r="C62" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4839,16 +4846,16 @@
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
@@ -4864,7 +4871,7 @@
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O63" s="94"/>
     </row>
@@ -4872,8 +4879,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4897,7 +4904,7 @@
       </c>
       <c r="M64" s="24"/>
       <c r="N64" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O64" s="12"/>
     </row>
@@ -4905,8 +4912,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4930,7 +4937,7 @@
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O65" s="12"/>
     </row>
@@ -4938,8 +4945,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4963,7 +4970,7 @@
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O66" s="12"/>
     </row>
@@ -4971,8 +4978,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="105"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -4996,7 +5003,7 @@
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O67" s="44"/>
     </row>
@@ -5004,7 +5011,7 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="97"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="100" t="s">
         <v>44</v>
       </c>
@@ -5031,7 +5038,7 @@
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O68" s="44"/>
     </row>
@@ -5039,7 +5046,7 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="100"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
@@ -5064,7 +5071,7 @@
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O69" s="44"/>
     </row>
@@ -5072,7 +5079,7 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="97"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="100"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
@@ -5097,7 +5104,7 @@
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O70" s="44"/>
     </row>
@@ -5105,7 +5112,7 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="97"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="100" t="s">
         <v>51</v>
       </c>
@@ -5132,7 +5139,7 @@
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O71" s="44"/>
     </row>
@@ -5140,7 +5147,7 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="97"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="100"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
@@ -5165,7 +5172,7 @@
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O72" s="44"/>
     </row>
@@ -5173,7 +5180,7 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="97"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="100"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
@@ -5196,7 +5203,7 @@
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O73" s="44"/>
     </row>
@@ -5204,20 +5211,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="98"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="102" t="s">
+      <c r="D74" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="104"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="99"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
@@ -5228,8 +5235,8 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="96" t="s">
-        <v>299</v>
+      <c r="B75" s="103" t="s">
+        <v>298</v>
       </c>
       <c r="C75" s="100" t="s">
         <v>13</v>
@@ -5263,7 +5270,7 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="97"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="100"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
@@ -5294,7 +5301,7 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="97"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="100"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
@@ -5325,7 +5332,7 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="97"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="100"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
@@ -5356,7 +5363,7 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="97"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="100"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
@@ -5387,7 +5394,7 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="97"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="100" t="s">
         <v>29</v>
       </c>
@@ -5420,7 +5427,7 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="97"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="100"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
@@ -5451,12 +5458,12 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="96" t="s">
+      <c r="B82" s="104"/>
+      <c r="C82" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
@@ -5478,7 +5485,7 @@
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O82" s="12"/>
     </row>
@@ -5486,8 +5493,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="98"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5511,7 +5518,7 @@
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O83" s="44"/>
     </row>
@@ -5519,7 +5526,7 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="97"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="100" t="s">
         <v>44</v>
       </c>
@@ -5546,7 +5553,7 @@
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O84" s="44"/>
     </row>
@@ -5554,7 +5561,7 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="97"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="100"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
@@ -5579,7 +5586,7 @@
       </c>
       <c r="M85" s="24"/>
       <c r="N85" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O85" s="44"/>
     </row>
@@ -5587,8 +5594,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="96" t="s">
+      <c r="B86" s="104"/>
+      <c r="C86" s="103" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5614,7 +5621,7 @@
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O86" s="44"/>
     </row>
@@ -5622,8 +5629,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="98"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="105"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5647,7 +5654,7 @@
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O87" s="44"/>
     </row>
@@ -5655,20 +5662,20 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="98"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="102" t="s">
+      <c r="D88" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="104"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="99"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5679,7 +5686,7 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="96" t="s">
+      <c r="B89" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="100" t="s">
@@ -5714,7 +5721,7 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="97"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="100"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
@@ -5745,7 +5752,7 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="97"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="100"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
@@ -5776,7 +5783,7 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="97"/>
+      <c r="B92" s="104"/>
       <c r="C92" s="100"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
@@ -5807,7 +5814,7 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="97"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="100"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
@@ -5838,7 +5845,7 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="97"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="100"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
@@ -5869,7 +5876,7 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="97"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="100" t="s">
         <v>29</v>
       </c>
@@ -5902,7 +5909,7 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="97"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="100"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
@@ -5931,8 +5938,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="96" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="103" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -5958,7 +5965,7 @@
       </c>
       <c r="M97" s="40"/>
       <c r="N97" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O97" s="17"/>
     </row>
@@ -5966,8 +5973,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="104"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -5991,7 +5998,7 @@
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O98" s="17"/>
     </row>
@@ -5999,8 +6006,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="98"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="105"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6024,7 +6031,7 @@
       </c>
       <c r="M99" s="40"/>
       <c r="N99" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O99" s="39"/>
     </row>
@@ -6032,7 +6039,7 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="97"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="100" t="s">
         <v>44</v>
       </c>
@@ -6059,7 +6066,7 @@
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O100" s="39"/>
     </row>
@@ -6067,7 +6074,7 @@
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="97"/>
+      <c r="B101" s="104"/>
       <c r="C101" s="100"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
@@ -6092,7 +6099,7 @@
       </c>
       <c r="M101" s="40"/>
       <c r="N101" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O101" s="39"/>
     </row>
@@ -6100,7 +6107,7 @@
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="97"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="100"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
@@ -6125,7 +6132,7 @@
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="39"/>
     </row>
@@ -6133,7 +6140,7 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="97"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="100"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
@@ -6158,7 +6165,7 @@
       </c>
       <c r="M103" s="40"/>
       <c r="N103" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O103" s="39"/>
     </row>
@@ -6166,7 +6173,7 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="97"/>
+      <c r="B104" s="104"/>
       <c r="C104" s="100"/>
       <c r="D104" s="17" t="s">
         <v>258</v>
@@ -6191,7 +6198,7 @@
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O104" s="39"/>
     </row>
@@ -6199,7 +6206,7 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="97"/>
+      <c r="B105" s="104"/>
       <c r="C105" s="100"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
@@ -6230,20 +6237,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="98"/>
+      <c r="B106" s="105"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="111" t="s">
+      <c r="D106" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="104"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="98"/>
+      <c r="I106" s="98"/>
+      <c r="J106" s="98"/>
+      <c r="K106" s="98"/>
+      <c r="L106" s="98"/>
+      <c r="M106" s="99"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6254,7 +6261,7 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="96" t="s">
+      <c r="B107" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="100" t="s">
@@ -6289,7 +6296,7 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="97"/>
+      <c r="B108" s="104"/>
       <c r="C108" s="100"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
@@ -6320,7 +6327,7 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="97"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="100"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
@@ -6349,7 +6356,7 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="97"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="100"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
@@ -6380,7 +6387,7 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="97"/>
+      <c r="B111" s="104"/>
       <c r="C111" s="100"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
@@ -6411,7 +6418,7 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="97"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="100"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
@@ -6442,7 +6449,7 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="97"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="100"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
@@ -6471,7 +6478,7 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="97"/>
+      <c r="B114" s="104"/>
       <c r="C114" s="100"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
@@ -6498,7 +6505,7 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="97"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="100"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
@@ -6521,7 +6528,7 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="97"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="100"/>
       <c r="D116" s="17" t="s">
         <v>276</v>
@@ -6540,13 +6547,13 @@
       </c>
       <c r="M116" s="52"/>
       <c r="N116" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O116" s="40"/>
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="97"/>
+      <c r="B117" s="104"/>
       <c r="C117" s="100"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
@@ -6571,7 +6578,7 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="97"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="100"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
@@ -6602,7 +6609,7 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="97"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="100"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
@@ -6633,7 +6640,7 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="97"/>
+      <c r="B120" s="104"/>
       <c r="C120" s="100"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
@@ -6664,7 +6671,7 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="97"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="100"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
@@ -6695,7 +6702,7 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="97"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="100"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
@@ -6726,8 +6733,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="97"/>
-      <c r="C123" s="96" t="s">
+      <c r="B123" s="104"/>
+      <c r="C123" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6757,8 +6764,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6786,8 +6793,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6815,8 +6822,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="98"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="105"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6844,7 +6851,7 @@
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="97"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="100" t="s">
         <v>44</v>
       </c>
@@ -6869,7 +6876,7 @@
       </c>
       <c r="M127" s="24"/>
       <c r="N127" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O127" s="44"/>
     </row>
@@ -6877,7 +6884,7 @@
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="97"/>
+      <c r="B128" s="104"/>
       <c r="C128" s="100"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
@@ -6900,7 +6907,7 @@
       </c>
       <c r="M128" s="24"/>
       <c r="N128" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O128" s="44"/>
     </row>
@@ -6908,7 +6915,7 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="97"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="100"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
@@ -6937,7 +6944,7 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="97"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="100"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
@@ -6966,20 +6973,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="98"/>
+      <c r="B131" s="105"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="111" t="s">
+      <c r="D131" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="103"/>
-      <c r="F131" s="103"/>
-      <c r="G131" s="103"/>
-      <c r="H131" s="103"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="103"/>
-      <c r="K131" s="103"/>
-      <c r="L131" s="103"/>
-      <c r="M131" s="104"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="98"/>
+      <c r="I131" s="98"/>
+      <c r="J131" s="98"/>
+      <c r="K131" s="98"/>
+      <c r="L131" s="98"/>
+      <c r="M131" s="99"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -6990,7 +6997,7 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="99" t="s">
+      <c r="B132" s="110" t="s">
         <v>238</v>
       </c>
       <c r="C132" s="100" t="s">
@@ -7025,7 +7032,7 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="97"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="100"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
@@ -7056,7 +7063,7 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="97"/>
+      <c r="B134" s="104"/>
       <c r="C134" s="100"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
@@ -7087,7 +7094,7 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="97"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="100"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
@@ -7118,7 +7125,7 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="97"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="100"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
@@ -7149,7 +7156,7 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="97"/>
+      <c r="B137" s="104"/>
       <c r="C137" s="100"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
@@ -7180,8 +7187,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="97"/>
-      <c r="C138" s="96" t="s">
+      <c r="B138" s="104"/>
+      <c r="C138" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7213,8 +7220,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="97"/>
-      <c r="C139" s="97"/>
+      <c r="B139" s="104"/>
+      <c r="C139" s="104"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7238,7 +7245,7 @@
       </c>
       <c r="M139" s="24"/>
       <c r="N139" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O139" s="12"/>
     </row>
@@ -7246,8 +7253,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="97"/>
-      <c r="C140" s="98"/>
+      <c r="B140" s="104"/>
+      <c r="C140" s="105"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7271,7 +7278,7 @@
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O140" s="44"/>
     </row>
@@ -7279,7 +7286,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="97"/>
+      <c r="B141" s="104"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7306,7 +7313,7 @@
       </c>
       <c r="M141" s="24"/>
       <c r="N141" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O141" s="44"/>
     </row>
@@ -7314,7 +7321,7 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="97"/>
+      <c r="B142" s="104"/>
       <c r="C142" s="100" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7348,7 @@
       </c>
       <c r="M142" s="24"/>
       <c r="N142" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O142" s="44"/>
     </row>
@@ -7349,7 +7356,7 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="97"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="100"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
@@ -7374,7 +7381,7 @@
       </c>
       <c r="M143" s="24"/>
       <c r="N143" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O143" s="44"/>
     </row>
@@ -7382,7 +7389,7 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="97"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="100"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
@@ -7407,7 +7414,7 @@
       </c>
       <c r="M144" s="24"/>
       <c r="N144" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O144" s="44"/>
     </row>
@@ -7415,20 +7422,20 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="98"/>
+      <c r="B145" s="105"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="102" t="s">
+      <c r="D145" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="109"/>
-      <c r="F145" s="103"/>
-      <c r="G145" s="103"/>
-      <c r="H145" s="103"/>
-      <c r="I145" s="103"/>
-      <c r="J145" s="103"/>
-      <c r="K145" s="103"/>
-      <c r="L145" s="103"/>
-      <c r="M145" s="104"/>
+      <c r="E145" s="102"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="98"/>
+      <c r="I145" s="98"/>
+      <c r="J145" s="98"/>
+      <c r="K145" s="98"/>
+      <c r="L145" s="98"/>
+      <c r="M145" s="99"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
@@ -7439,7 +7446,7 @@
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="99" t="s">
+      <c r="B146" s="110" t="s">
         <v>241</v>
       </c>
       <c r="C146" s="100" t="s">
@@ -7468,7 +7475,7 @@
       </c>
       <c r="M146" s="24"/>
       <c r="N146" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O146" s="55"/>
     </row>
@@ -7476,7 +7483,7 @@
       <c r="A147" s="75">
         <v>141</v>
       </c>
-      <c r="B147" s="110"/>
+      <c r="B147" s="111"/>
       <c r="C147" s="100"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
@@ -7501,13 +7508,13 @@
       </c>
       <c r="M147" s="24"/>
       <c r="N147" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O147" s="55"/>
     </row>
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
-      <c r="B148" s="110"/>
+      <c r="B148" s="111"/>
       <c r="C148" s="100"/>
       <c r="D148" s="85" t="s">
         <v>290</v>
@@ -7526,7 +7533,7 @@
       </c>
       <c r="M148" s="24"/>
       <c r="N148" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O148" s="55"/>
     </row>
@@ -7534,7 +7541,7 @@
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="97"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="100"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
@@ -7559,7 +7566,7 @@
       </c>
       <c r="M149" s="24"/>
       <c r="N149" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O149" s="55"/>
     </row>
@@ -7567,7 +7574,7 @@
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="97"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="100"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
@@ -7592,7 +7599,7 @@
       </c>
       <c r="M150" s="24"/>
       <c r="N150" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O150" s="55"/>
     </row>
@@ -7600,7 +7607,7 @@
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="97"/>
+      <c r="B151" s="104"/>
       <c r="C151" s="100"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
@@ -7625,7 +7632,7 @@
       </c>
       <c r="M151" s="24"/>
       <c r="N151" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O151" s="55"/>
     </row>
@@ -7633,20 +7640,20 @@
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="97"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="111" t="s">
+      <c r="D152" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="103"/>
-      <c r="F152" s="103"/>
-      <c r="G152" s="103"/>
-      <c r="H152" s="103"/>
-      <c r="I152" s="103"/>
-      <c r="J152" s="103"/>
-      <c r="K152" s="103"/>
-      <c r="L152" s="103"/>
-      <c r="M152" s="104"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
+      <c r="J152" s="98"/>
+      <c r="K152" s="98"/>
+      <c r="L152" s="98"/>
+      <c r="M152" s="99"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
@@ -7657,7 +7664,7 @@
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="97"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="100" t="s">
         <v>278</v>
       </c>
@@ -7684,7 +7691,7 @@
       </c>
       <c r="M153" s="24"/>
       <c r="N153" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O153" s="38"/>
     </row>
@@ -7692,7 +7699,7 @@
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="97"/>
+      <c r="B154" s="104"/>
       <c r="C154" s="100"/>
       <c r="D154" s="75" t="s">
         <v>279</v>
@@ -7717,16 +7724,16 @@
       </c>
       <c r="M154" s="24"/>
       <c r="N154" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O154" s="38"/>
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="97"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="100"/>
       <c r="D155" s="95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
@@ -7742,7 +7749,7 @@
       </c>
       <c r="M155" s="24"/>
       <c r="N155" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O155" s="38"/>
     </row>
@@ -7750,7 +7757,7 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="97"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="100"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
@@ -7775,13 +7782,13 @@
       </c>
       <c r="M156" s="24"/>
       <c r="N156" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O156" s="38"/>
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="97"/>
+      <c r="B157" s="104"/>
       <c r="C157" s="100"/>
       <c r="D157" s="85" t="s">
         <v>285</v>
@@ -7800,16 +7807,16 @@
       </c>
       <c r="M157" s="24"/>
       <c r="N157" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O157" s="38"/>
     </row>
     <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="88"/>
-      <c r="B158" s="97"/>
+      <c r="B158" s="104"/>
       <c r="C158" s="100"/>
       <c r="D158" s="88" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
@@ -7821,119 +7828,119 @@
       <c r="J158" s="88"/>
       <c r="K158" s="88"/>
       <c r="L158" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O158" s="38"/>
     </row>
-    <row r="159" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="75">
-        <v>149</v>
-      </c>
-      <c r="B159" s="97"/>
+    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="96"/>
+      <c r="B159" s="104"/>
       <c r="C159" s="100"/>
-      <c r="D159" s="12" t="s">
-        <v>281</v>
+      <c r="D159" s="96" t="s">
+        <v>305</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
-        <v>5278</v>
-      </c>
-      <c r="G159" s="17">
-        <v>0</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I159" s="46">
-        <v>0</v>
-      </c>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="75" t="s">
-        <v>284</v>
+        <v>2047</v>
+      </c>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="46"/>
+      <c r="J159" s="96"/>
+      <c r="K159" s="96"/>
+      <c r="L159" s="96" t="s">
+        <v>291</v>
       </c>
       <c r="M159" s="24"/>
       <c r="N159" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O159" s="38"/>
     </row>
     <row r="160" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="88"/>
-      <c r="B160" s="97"/>
+      <c r="A160" s="75">
+        <v>149</v>
+      </c>
+      <c r="B160" s="104"/>
       <c r="C160" s="100"/>
-      <c r="D160" s="88" t="s">
-        <v>304</v>
+      <c r="D160" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
-        <v>811</v>
-      </c>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="46"/>
-      <c r="J160" s="88"/>
-      <c r="K160" s="88"/>
-      <c r="L160" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="M160" s="24" t="s">
-        <v>293</v>
-      </c>
+        <v>5278</v>
+      </c>
+      <c r="G160" s="17">
+        <v>0</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I160" s="46">
+        <v>0</v>
+      </c>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M160" s="24"/>
       <c r="N160" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O160" s="38"/>
     </row>
     <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="85"/>
-      <c r="B161" s="97"/>
+      <c r="A161" s="88"/>
+      <c r="B161" s="104"/>
       <c r="C161" s="100"/>
-      <c r="D161" s="85" t="s">
-        <v>282</v>
+      <c r="D161" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
-        <v>950</v>
-      </c>
-      <c r="G161" s="17">
-        <v>0</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I161" s="46">
-        <v>0</v>
-      </c>
-      <c r="J161" s="85"/>
-      <c r="K161" s="85"/>
-      <c r="L161" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M161" s="24"/>
+        <v>811</v>
+      </c>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="88"/>
+      <c r="K161" s="88"/>
+      <c r="L161" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="M161" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="N161" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O161" s="38"/>
     </row>
     <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="85"/>
-      <c r="B162" s="97"/>
+      <c r="B162" s="104"/>
       <c r="C162" s="100"/>
       <c r="D162" s="85" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>-1110</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G162" s="17">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I162" s="46">
+        <v>0</v>
+      </c>
       <c r="J162" s="85"/>
       <c r="K162" s="85"/>
       <c r="L162" s="85" t="s">
@@ -7941,20 +7948,20 @@
       </c>
       <c r="M162" s="24"/>
       <c r="N162" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O162" s="38"/>
     </row>
     <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="85"/>
-      <c r="B163" s="97"/>
+      <c r="B163" s="104"/>
       <c r="C163" s="100"/>
       <c r="D163" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>-1330</v>
+        <v>-1110</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
@@ -7966,255 +7973,322 @@
       </c>
       <c r="M163" s="24"/>
       <c r="N163" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O163" s="38"/>
     </row>
-    <row r="164" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="75">
-        <v>150</v>
-      </c>
-      <c r="B164" s="97"/>
+    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="85"/>
+      <c r="B164" s="104"/>
       <c r="C164" s="100"/>
-      <c r="D164" s="12" t="s">
-        <v>286</v>
+      <c r="D164" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G164" s="17">
-        <v>0</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I164" s="46">
-        <v>0</v>
-      </c>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="75" t="s">
+        <v>-1330</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="46"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="85" t="s">
         <v>284</v>
       </c>
       <c r="M164" s="24"/>
       <c r="N164" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O164" s="38"/>
     </row>
     <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="75">
+        <v>150</v>
+      </c>
+      <c r="B165" s="104"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G165" s="17">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I165" s="46">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M165" s="24"/>
+      <c r="N165" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="O165" s="38"/>
+    </row>
+    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="75">
         <v>151</v>
       </c>
-      <c r="B165" s="98"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="102" t="s">
+      <c r="B166" s="105"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="E165" s="109"/>
-      <c r="F165" s="103"/>
-      <c r="G165" s="103"/>
-      <c r="H165" s="103"/>
-      <c r="I165" s="103"/>
-      <c r="J165" s="103"/>
-      <c r="K165" s="103"/>
-      <c r="L165" s="103"/>
-      <c r="M165" s="104"/>
-      <c r="N165" s="92"/>
-      <c r="O165" s="73">
-        <f>SUM(F153:F164)</f>
-        <v>75912</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L166" s="84"/>
-      <c r="N166" s="84"/>
-    </row>
-    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="105" t="s">
+      <c r="E166" s="102"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="98"/>
+      <c r="K166" s="98"/>
+      <c r="L166" s="98"/>
+      <c r="M166" s="99"/>
+      <c r="N166" s="92"/>
+      <c r="O166" s="73">
+        <f>SUM(F153:F165)</f>
+        <v>77959</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L167" s="84"/>
+      <c r="N167" s="84"/>
+    </row>
+    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="106"/>
-      <c r="C167" s="106"/>
-      <c r="D167" s="106"/>
-      <c r="E167" s="106"/>
-      <c r="F167" s="106"/>
-      <c r="G167" s="106"/>
-      <c r="H167" s="106"/>
-      <c r="I167" s="106"/>
-      <c r="J167" s="106"/>
-      <c r="K167" s="106"/>
-      <c r="L167" s="106"/>
-      <c r="M167" s="107"/>
-      <c r="N167" s="93"/>
-      <c r="O167" s="58">
-        <f>O33+O54+O74+O88+O106+O131+O145+O152+O165</f>
-        <v>121395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="105" t="s">
+      <c r="B168" s="107"/>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
+      <c r="E168" s="107"/>
+      <c r="F168" s="107"/>
+      <c r="G168" s="107"/>
+      <c r="H168" s="107"/>
+      <c r="I168" s="107"/>
+      <c r="J168" s="107"/>
+      <c r="K168" s="107"/>
+      <c r="L168" s="107"/>
+      <c r="M168" s="108"/>
+      <c r="N168" s="93"/>
+      <c r="O168" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O152+O166</f>
+        <v>123442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="106"/>
-      <c r="C168" s="106"/>
-      <c r="D168" s="106"/>
-      <c r="E168" s="106"/>
-      <c r="F168" s="106"/>
-      <c r="G168" s="106"/>
-      <c r="H168" s="106"/>
-      <c r="I168" s="106"/>
-      <c r="J168" s="106"/>
-      <c r="K168" s="106"/>
-      <c r="L168" s="106"/>
-      <c r="M168" s="107"/>
-      <c r="N168" s="87"/>
-      <c r="O168" s="58">
+      <c r="B169" s="107"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="107"/>
+      <c r="G169" s="107"/>
+      <c r="H169" s="107"/>
+      <c r="I169" s="107"/>
+      <c r="J169" s="107"/>
+      <c r="K169" s="107"/>
+      <c r="L169" s="107"/>
+      <c r="M169" s="108"/>
+      <c r="N169" s="87"/>
+      <c r="O169" s="58">
         <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="105" t="s">
+    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="106"/>
-      <c r="C169" s="106"/>
-      <c r="D169" s="106"/>
-      <c r="E169" s="106"/>
-      <c r="F169" s="106"/>
-      <c r="G169" s="106"/>
-      <c r="H169" s="106"/>
-      <c r="I169" s="106"/>
-      <c r="J169" s="106"/>
-      <c r="K169" s="106"/>
-      <c r="L169" s="106"/>
-      <c r="M169" s="107"/>
-      <c r="N169" s="87"/>
-      <c r="O169" s="58">
+      <c r="B170" s="107"/>
+      <c r="C170" s="107"/>
+      <c r="D170" s="107"/>
+      <c r="E170" s="107"/>
+      <c r="F170" s="107"/>
+      <c r="G170" s="107"/>
+      <c r="H170" s="107"/>
+      <c r="I170" s="107"/>
+      <c r="J170" s="107"/>
+      <c r="K170" s="107"/>
+      <c r="L170" s="107"/>
+      <c r="M170" s="108"/>
+      <c r="N170" s="87"/>
+      <c r="O170" s="58">
         <f>SUM(F138:F140,F41:F46,F17:F23)</f>
         <v>12380</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="105" t="s">
+    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="106"/>
-      <c r="C170" s="106"/>
-      <c r="D170" s="106"/>
-      <c r="E170" s="106"/>
-      <c r="F170" s="106"/>
-      <c r="G170" s="106"/>
-      <c r="H170" s="106"/>
-      <c r="I170" s="106"/>
-      <c r="J170" s="106"/>
-      <c r="K170" s="106"/>
-      <c r="L170" s="106"/>
-      <c r="M170" s="107"/>
-      <c r="N170" s="87"/>
-      <c r="O170" s="58">
+      <c r="B171" s="107"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="107"/>
+      <c r="E171" s="107"/>
+      <c r="F171" s="107"/>
+      <c r="G171" s="107"/>
+      <c r="H171" s="107"/>
+      <c r="I171" s="107"/>
+      <c r="J171" s="107"/>
+      <c r="K171" s="107"/>
+      <c r="L171" s="107"/>
+      <c r="M171" s="108"/>
+      <c r="N171" s="87"/>
+      <c r="O171" s="58">
         <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
         <v>23832</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="105" t="s">
+    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="106"/>
-      <c r="C171" s="106"/>
-      <c r="D171" s="106"/>
-      <c r="E171" s="106"/>
-      <c r="F171" s="106"/>
-      <c r="G171" s="106"/>
-      <c r="H171" s="106"/>
-      <c r="I171" s="106"/>
-      <c r="J171" s="106"/>
-      <c r="K171" s="106"/>
-      <c r="L171" s="106"/>
-      <c r="M171" s="107"/>
-      <c r="N171" s="87"/>
-      <c r="O171" s="58">
+      <c r="B172" s="107"/>
+      <c r="C172" s="107"/>
+      <c r="D172" s="107"/>
+      <c r="E172" s="107"/>
+      <c r="F172" s="107"/>
+      <c r="G172" s="107"/>
+      <c r="H172" s="107"/>
+      <c r="I172" s="107"/>
+      <c r="J172" s="107"/>
+      <c r="K172" s="107"/>
+      <c r="L172" s="107"/>
+      <c r="M172" s="108"/>
+      <c r="N172" s="87"/>
+      <c r="O172" s="58">
         <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="105" t="s">
+    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="106"/>
-      <c r="C172" s="106"/>
-      <c r="D172" s="106"/>
-      <c r="E172" s="106"/>
-      <c r="F172" s="106"/>
-      <c r="G172" s="106"/>
-      <c r="H172" s="106"/>
-      <c r="I172" s="106"/>
-      <c r="J172" s="106"/>
-      <c r="K172" s="106"/>
-      <c r="L172" s="106"/>
-      <c r="M172" s="107"/>
-      <c r="N172" s="87"/>
-      <c r="O172" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="B173" s="106"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="106"/>
-      <c r="E173" s="106"/>
-      <c r="F173" s="106"/>
-      <c r="G173" s="106"/>
-      <c r="H173" s="106"/>
-      <c r="I173" s="106"/>
-      <c r="J173" s="106"/>
-      <c r="K173" s="106"/>
-      <c r="L173" s="106"/>
-      <c r="M173" s="107"/>
+      <c r="B173" s="107"/>
+      <c r="C173" s="107"/>
+      <c r="D173" s="107"/>
+      <c r="E173" s="107"/>
+      <c r="F173" s="107"/>
+      <c r="G173" s="107"/>
+      <c r="H173" s="107"/>
+      <c r="I173" s="107"/>
+      <c r="J173" s="107"/>
+      <c r="K173" s="107"/>
+      <c r="L173" s="107"/>
+      <c r="M173" s="108"/>
       <c r="N173" s="87"/>
       <c r="O173" s="58">
-        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" s="106"/>
-      <c r="C174" s="106"/>
-      <c r="D174" s="106"/>
-      <c r="E174" s="106"/>
-      <c r="F174" s="106"/>
-      <c r="G174" s="106"/>
-      <c r="H174" s="106"/>
-      <c r="I174" s="106"/>
-      <c r="J174" s="106"/>
-      <c r="K174" s="106"/>
-      <c r="L174" s="106"/>
-      <c r="M174" s="107"/>
+      <c r="A174" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="107"/>
+      <c r="C174" s="107"/>
+      <c r="D174" s="107"/>
+      <c r="E174" s="107"/>
+      <c r="F174" s="107"/>
+      <c r="G174" s="107"/>
+      <c r="H174" s="107"/>
+      <c r="I174" s="107"/>
+      <c r="J174" s="107"/>
+      <c r="K174" s="107"/>
+      <c r="L174" s="107"/>
+      <c r="M174" s="108"/>
       <c r="N174" s="87"/>
       <c r="O174" s="58">
-        <f>SUM(O152:O164)</f>
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B175" s="107"/>
+      <c r="C175" s="107"/>
+      <c r="D175" s="107"/>
+      <c r="E175" s="107"/>
+      <c r="F175" s="107"/>
+      <c r="G175" s="107"/>
+      <c r="H175" s="107"/>
+      <c r="I175" s="107"/>
+      <c r="J175" s="107"/>
+      <c r="K175" s="107"/>
+      <c r="L175" s="107"/>
+      <c r="M175" s="108"/>
+      <c r="N175" s="87"/>
+      <c r="O175" s="58">
+        <f>SUM(O152:O165)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S165">
+  <autoFilter ref="A1:S166">
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="自购"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B55:B74"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="D166:M166"/>
+    <mergeCell ref="B146:B166"/>
+    <mergeCell ref="C153:C165"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
     <mergeCell ref="D152:M152"/>
     <mergeCell ref="C146:C151"/>
     <mergeCell ref="D33:M33"/>
@@ -8231,48 +8305,6 @@
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C107:C122"/>
     <mergeCell ref="C123:C126"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A167:M167"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="D165:M165"/>
-    <mergeCell ref="B146:B165"/>
-    <mergeCell ref="C153:C164"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B54"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8771,7 +8803,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="113"/>
+      <c r="M13" s="114"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8806,7 +8838,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="113"/>
+      <c r="M14" s="114"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11148,7 +11180,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="101"/>
+      <c r="P82" s="112"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11184,7 +11216,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="101"/>
+      <c r="P83" s="112"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11220,7 +11252,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="101"/>
+      <c r="P84" s="112"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11256,7 +11288,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="101"/>
+      <c r="P85" s="112"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11292,7 +11324,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="101"/>
+      <c r="P86" s="112"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11328,7 +11360,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="101"/>
+      <c r="P87" s="112"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11364,7 +11396,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="101"/>
+      <c r="P88" s="112"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11400,7 +11432,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="101"/>
+      <c r="P89" s="112"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11436,7 +11468,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="101"/>
+      <c r="P90" s="112"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11470,7 +11502,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="101"/>
+      <c r="P91" s="112"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11507,7 +11539,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="101"/>
+      <c r="P92" s="112"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11543,7 +11575,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="101"/>
+      <c r="P93" s="112"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12321,167 +12353,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="105" t="s">
+      <c r="A120" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="106"/>
-      <c r="C120" s="106"/>
-      <c r="D120" s="106"/>
-      <c r="E120" s="112"/>
-      <c r="F120" s="106"/>
-      <c r="G120" s="106"/>
-      <c r="H120" s="106"/>
-      <c r="I120" s="106"/>
-      <c r="J120" s="106"/>
-      <c r="K120" s="106"/>
-      <c r="L120" s="106"/>
-      <c r="M120" s="107"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="107"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="107"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="108"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="105" t="s">
+      <c r="A121" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="106"/>
-      <c r="C121" s="106"/>
-      <c r="D121" s="106"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="106"/>
-      <c r="G121" s="106"/>
-      <c r="H121" s="106"/>
-      <c r="I121" s="106"/>
-      <c r="J121" s="106"/>
-      <c r="K121" s="106"/>
-      <c r="L121" s="106"/>
-      <c r="M121" s="107"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="107"/>
+      <c r="D121" s="107"/>
+      <c r="E121" s="113"/>
+      <c r="F121" s="107"/>
+      <c r="G121" s="107"/>
+      <c r="H121" s="107"/>
+      <c r="I121" s="107"/>
+      <c r="J121" s="107"/>
+      <c r="K121" s="107"/>
+      <c r="L121" s="107"/>
+      <c r="M121" s="108"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="105" t="s">
+      <c r="A122" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="106"/>
-      <c r="C122" s="106"/>
-      <c r="D122" s="106"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="106"/>
-      <c r="G122" s="106"/>
-      <c r="H122" s="106"/>
-      <c r="I122" s="106"/>
-      <c r="J122" s="106"/>
-      <c r="K122" s="106"/>
-      <c r="L122" s="106"/>
-      <c r="M122" s="107"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="113"/>
+      <c r="F122" s="107"/>
+      <c r="G122" s="107"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="107"/>
+      <c r="J122" s="107"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="108"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="105" t="s">
+      <c r="A123" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="106"/>
-      <c r="C123" s="106"/>
-      <c r="D123" s="106"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="106"/>
-      <c r="G123" s="106"/>
-      <c r="H123" s="106"/>
-      <c r="I123" s="106"/>
-      <c r="J123" s="106"/>
-      <c r="K123" s="106"/>
-      <c r="L123" s="106"/>
-      <c r="M123" s="107"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="113"/>
+      <c r="F123" s="107"/>
+      <c r="G123" s="107"/>
+      <c r="H123" s="107"/>
+      <c r="I123" s="107"/>
+      <c r="J123" s="107"/>
+      <c r="K123" s="107"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="108"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="105" t="s">
+      <c r="A124" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="106"/>
-      <c r="C124" s="106"/>
-      <c r="D124" s="106"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="106"/>
-      <c r="G124" s="106"/>
-      <c r="H124" s="106"/>
-      <c r="I124" s="106"/>
-      <c r="J124" s="106"/>
-      <c r="K124" s="106"/>
-      <c r="L124" s="106"/>
-      <c r="M124" s="107"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="113"/>
+      <c r="F124" s="107"/>
+      <c r="G124" s="107"/>
+      <c r="H124" s="107"/>
+      <c r="I124" s="107"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
+      <c r="M124" s="108"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="105" t="s">
+      <c r="A125" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="106"/>
-      <c r="C125" s="106"/>
-      <c r="D125" s="106"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="106"/>
-      <c r="G125" s="106"/>
-      <c r="H125" s="106"/>
-      <c r="I125" s="106"/>
-      <c r="J125" s="106"/>
-      <c r="K125" s="106"/>
-      <c r="L125" s="106"/>
-      <c r="M125" s="107"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="107"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
+      <c r="L125" s="107"/>
+      <c r="M125" s="108"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="105" t="s">
+      <c r="A126" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="106"/>
-      <c r="C126" s="106"/>
-      <c r="D126" s="106"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="106"/>
-      <c r="G126" s="106"/>
-      <c r="H126" s="106"/>
-      <c r="I126" s="106"/>
-      <c r="J126" s="106"/>
-      <c r="K126" s="106"/>
-      <c r="L126" s="106"/>
-      <c r="M126" s="107"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="113"/>
+      <c r="F126" s="107"/>
+      <c r="G126" s="107"/>
+      <c r="H126" s="107"/>
+      <c r="I126" s="107"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="108"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="105" t="s">
+      <c r="A127" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="106"/>
-      <c r="C127" s="106"/>
-      <c r="D127" s="106"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="106"/>
-      <c r="G127" s="106"/>
-      <c r="H127" s="106"/>
-      <c r="I127" s="106"/>
-      <c r="J127" s="106"/>
-      <c r="K127" s="106"/>
-      <c r="L127" s="106"/>
-      <c r="M127" s="107"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="107"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="107"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="107"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="107"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="107"/>
+      <c r="M127" s="108"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12615,7 +12647,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="101"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12625,7 +12657,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="101"/>
+      <c r="M4" s="112"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12635,7 +12667,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="101"/>
+      <c r="M5" s="112"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12645,7 +12677,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12655,7 +12687,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="101"/>
+      <c r="M7" s="112"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12665,7 +12697,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="101"/>
+      <c r="M8" s="112"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12675,7 +12707,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="101"/>
+      <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12685,7 +12717,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="101"/>
+      <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12695,23 +12727,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="101"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="101"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="101"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="101"/>
+      <c r="M14" s="112"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="310">
   <si>
     <t>序号</t>
   </si>
@@ -1018,6 +1018,19 @@
   </si>
   <si>
     <t>百家壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>退一卷壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>退100元角阀软管费用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>退人工费、一卷壁纸、一袋辅料；
+退卧室背景墙壁纸</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1650,24 +1663,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,6 +1671,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1689,14 +1702,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2285,11 +2298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="166882192"/>
-        <c:axId val="166882752"/>
+        <c:axId val="216361248"/>
+        <c:axId val="216361808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166882192"/>
+        <c:axId val="216361248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166882752"/>
+        <c:crossAx val="216361808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2334,7 +2347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166882752"/>
+        <c:axId val="216361808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166882192"/>
+        <c:crossAx val="216361248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,10 +2842,10 @@
   <dimension ref="A1:S175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F158" sqref="F158"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2906,10 +2919,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2936,14 +2949,14 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="112"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -2968,14 +2981,14 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="112"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="100"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -3000,14 +3013,14 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="112"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -3030,14 +3043,14 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="112"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="100"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -3060,14 +3073,14 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="112"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -3090,12 +3103,12 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="112"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
       </c>
@@ -3116,14 +3129,14 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="112"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3146,14 +3159,14 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="112"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3176,14 +3189,14 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="112"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3206,14 +3219,14 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="112"/>
+      <c r="Q11" s="102"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3236,14 +3249,14 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="112"/>
+      <c r="Q12" s="102"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3268,14 +3281,14 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="112"/>
+      <c r="Q13" s="102"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="100" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3302,15 +3315,15 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="112"/>
+      <c r="Q14" s="102"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3340,8 +3353,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="100"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3371,8 +3384,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="103" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3406,8 +3419,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3439,8 +3452,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3472,8 +3485,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3505,8 +3518,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="17" t="s">
         <v>249</v>
       </c>
@@ -3539,8 +3552,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3585,8 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="69" t="s">
         <v>250</v>
       </c>
@@ -3605,8 +3618,8 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="100" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3640,8 +3653,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3673,8 +3686,8 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3704,8 +3717,8 @@
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
       </c>
@@ -3735,8 +3748,8 @@
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3766,8 +3779,8 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="100" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="101" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3801,8 +3814,8 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="17" t="s">
         <v>53</v>
       </c>
@@ -3834,8 +3847,8 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3867,7 +3880,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3900,20 +3913,20 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="99"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
@@ -3924,10 +3937,10 @@
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -3959,8 +3972,8 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="100"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
       </c>
@@ -3990,8 +4003,8 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
       </c>
@@ -4021,8 +4034,8 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="100"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
       </c>
@@ -4052,8 +4065,8 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="100"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
       </c>
@@ -4083,8 +4096,8 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="100" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="76" t="s">
@@ -4116,8 +4129,8 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="104"/>
-      <c r="C40" s="100"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
       </c>
@@ -4147,8 +4160,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="103" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4182,8 +4195,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4215,8 +4228,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4246,8 +4259,8 @@
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4273,8 +4286,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4306,8 +4319,8 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="12" t="s">
         <v>251</v>
       </c>
@@ -4339,8 +4352,8 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="100" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4374,8 +4387,8 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="100"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
@@ -4407,8 +4420,8 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="104"/>
-      <c r="C49" s="100"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
       </c>
@@ -4440,8 +4453,8 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="100" t="s">
+      <c r="B50" s="98"/>
+      <c r="C50" s="101" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4475,8 +4488,8 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="100"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4521,8 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="100"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
       </c>
@@ -4541,8 +4554,8 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="100"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -4572,20 +4585,20 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="99"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="105"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
@@ -4596,10 +4609,10 @@
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="76" t="s">
@@ -4631,8 +4644,8 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
       </c>
@@ -4662,8 +4675,8 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="100"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
       </c>
@@ -4693,8 +4706,8 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="100"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
       </c>
@@ -4724,8 +4737,8 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
       </c>
@@ -4755,8 +4768,8 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="100" t="s">
+      <c r="B60" s="98"/>
+      <c r="C60" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="76" t="s">
@@ -4788,8 +4801,8 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="100"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
       </c>
@@ -4819,8 +4832,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="103" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4852,8 +4865,8 @@
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="94" t="s">
         <v>300</v>
       </c>
@@ -4879,8 +4892,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4912,8 +4925,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4945,8 +4958,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4978,8 +4991,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="105"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5011,8 +5024,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="104"/>
-      <c r="C68" s="100" t="s">
+      <c r="B68" s="98"/>
+      <c r="C68" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -5046,8 +5059,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -5079,8 +5092,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="100"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -5112,8 +5125,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="104"/>
-      <c r="C71" s="100" t="s">
+      <c r="B71" s="98"/>
+      <c r="C71" s="101" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -5147,8 +5160,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="104"/>
-      <c r="C72" s="100"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -5180,8 +5193,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="104"/>
-      <c r="C73" s="100"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -5211,20 +5224,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="105"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="101" t="s">
+      <c r="D74" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="99"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="104"/>
+      <c r="M74" s="105"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
@@ -5235,10 +5248,10 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="103" t="s">
+      <c r="B75" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="100" t="s">
+      <c r="C75" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="76" t="s">
@@ -5270,8 +5283,8 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="104"/>
-      <c r="C76" s="100"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
@@ -5301,8 +5314,8 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="104"/>
-      <c r="C77" s="100"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="101"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
@@ -5332,8 +5345,8 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="104"/>
-      <c r="C78" s="100"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
@@ -5363,8 +5376,8 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="104"/>
-      <c r="C79" s="100"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
@@ -5394,8 +5407,8 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="100" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="76" t="s">
@@ -5427,8 +5440,8 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="100"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
@@ -5458,8 +5471,8 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="104"/>
-      <c r="C82" s="103" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
@@ -5493,8 +5506,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="104"/>
-      <c r="C83" s="105"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5526,8 +5539,8 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="104"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="98"/>
+      <c r="C84" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D84" s="12" t="s">
@@ -5561,8 +5574,8 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="100"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="101"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
       </c>
@@ -5594,8 +5607,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="104"/>
-      <c r="C86" s="103" t="s">
+      <c r="B86" s="98"/>
+      <c r="C86" s="97" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5629,8 +5642,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="105"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="99"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5662,20 +5675,20 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="105"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="101" t="s">
+      <c r="D88" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
-      <c r="I88" s="98"/>
-      <c r="J88" s="98"/>
-      <c r="K88" s="98"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="99"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="104"/>
+      <c r="J88" s="104"/>
+      <c r="K88" s="104"/>
+      <c r="L88" s="104"/>
+      <c r="M88" s="105"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5686,10 +5699,10 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="103" t="s">
+      <c r="B89" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="100" t="s">
+      <c r="C89" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="76" t="s">
@@ -5721,8 +5734,8 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="104"/>
-      <c r="C90" s="100"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
       </c>
@@ -5752,8 +5765,8 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="104"/>
-      <c r="C91" s="100"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
       </c>
@@ -5783,8 +5796,8 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="100"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
       </c>
@@ -5814,8 +5827,8 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="100"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="101"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
       </c>
@@ -5845,8 +5858,8 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="100"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="101"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
       </c>
@@ -5876,8 +5889,8 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="100" t="s">
+      <c r="B95" s="98"/>
+      <c r="C95" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -5909,8 +5922,8 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="104"/>
-      <c r="C96" s="100"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
       </c>
@@ -5938,8 +5951,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="104"/>
-      <c r="C97" s="103" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="97" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -5973,8 +5986,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="104"/>
-      <c r="C98" s="104"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6006,8 +6019,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="105"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="99"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6039,8 +6052,8 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="104"/>
-      <c r="C100" s="100" t="s">
+      <c r="B100" s="98"/>
+      <c r="C100" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -6074,8 +6087,8 @@
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="100"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="101"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
       </c>
@@ -6107,8 +6120,8 @@
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="104"/>
-      <c r="C102" s="100"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="101"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
       </c>
@@ -6140,8 +6153,8 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="100"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="101"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
       </c>
@@ -6173,8 +6186,8 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="100"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="101"/>
       <c r="D104" s="17" t="s">
         <v>258</v>
       </c>
@@ -6206,8 +6219,8 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="100"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
       </c>
@@ -6237,20 +6250,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="105"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="97" t="s">
+      <c r="D106" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="98"/>
-      <c r="F106" s="98"/>
-      <c r="G106" s="98"/>
-      <c r="H106" s="98"/>
-      <c r="I106" s="98"/>
-      <c r="J106" s="98"/>
-      <c r="K106" s="98"/>
-      <c r="L106" s="98"/>
-      <c r="M106" s="99"/>
+      <c r="E106" s="104"/>
+      <c r="F106" s="104"/>
+      <c r="G106" s="104"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="104"/>
+      <c r="K106" s="104"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="105"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6261,10 +6274,10 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="100" t="s">
+      <c r="C107" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="76" t="s">
@@ -6296,8 +6309,8 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="104"/>
-      <c r="C108" s="100"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
       </c>
@@ -6327,8 +6340,8 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="104"/>
-      <c r="C109" s="100"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="101"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
       </c>
@@ -6356,8 +6369,8 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="104"/>
-      <c r="C110" s="100"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
       </c>
@@ -6387,8 +6400,8 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="104"/>
-      <c r="C111" s="100"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
       </c>
@@ -6418,8 +6431,8 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="100"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
       </c>
@@ -6449,8 +6462,8 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="104"/>
-      <c r="C113" s="100"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
       </c>
@@ -6478,8 +6491,8 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="100"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
       </c>
@@ -6505,8 +6518,8 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="100"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
       </c>
@@ -6528,8 +6541,8 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="100"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="17" t="s">
         <v>276</v>
       </c>
@@ -6553,8 +6566,8 @@
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="100"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="101"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
       </c>
@@ -6578,8 +6591,8 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="104"/>
-      <c r="C118" s="100"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="101"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
       </c>
@@ -6609,8 +6622,8 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="104"/>
-      <c r="C119" s="100"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="101"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
       </c>
@@ -6640,8 +6653,8 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="104"/>
-      <c r="C120" s="100"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="101"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
       </c>
@@ -6671,8 +6684,8 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="104"/>
-      <c r="C121" s="100"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="101"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
       </c>
@@ -6702,8 +6715,8 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="104"/>
-      <c r="C122" s="100"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
       </c>
@@ -6733,8 +6746,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="104"/>
-      <c r="C123" s="103" t="s">
+      <c r="B123" s="98"/>
+      <c r="C123" s="97" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6764,8 +6777,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="98"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6793,8 +6806,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="98"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6822,8 +6835,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="104"/>
-      <c r="C126" s="105"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="99"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6851,8 +6864,8 @@
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="104"/>
-      <c r="C127" s="100" t="s">
+      <c r="B127" s="98"/>
+      <c r="C127" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -6884,8 +6897,8 @@
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="100"/>
+      <c r="B128" s="98"/>
+      <c r="C128" s="101"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
       </c>
@@ -6915,8 +6928,8 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="104"/>
-      <c r="C129" s="100"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="101"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
       </c>
@@ -6944,8 +6957,8 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="104"/>
-      <c r="C130" s="100"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="101"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
       </c>
@@ -6973,20 +6986,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="97" t="s">
+      <c r="D131" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="98"/>
-      <c r="F131" s="98"/>
-      <c r="G131" s="98"/>
-      <c r="H131" s="98"/>
-      <c r="I131" s="98"/>
-      <c r="J131" s="98"/>
-      <c r="K131" s="98"/>
-      <c r="L131" s="98"/>
-      <c r="M131" s="99"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
+      <c r="H131" s="104"/>
+      <c r="I131" s="104"/>
+      <c r="J131" s="104"/>
+      <c r="K131" s="104"/>
+      <c r="L131" s="104"/>
+      <c r="M131" s="105"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -6997,10 +7010,10 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="100" t="s">
+      <c r="C132" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="76" t="s">
@@ -7032,8 +7045,8 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="104"/>
-      <c r="C133" s="100"/>
+      <c r="B133" s="98"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
       </c>
@@ -7063,8 +7076,8 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="104"/>
-      <c r="C134" s="100"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
       </c>
@@ -7094,8 +7107,8 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="104"/>
-      <c r="C135" s="100"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="101"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
       </c>
@@ -7125,8 +7138,8 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="100"/>
+      <c r="B136" s="98"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
       </c>
@@ -7156,8 +7169,8 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="104"/>
-      <c r="C137" s="100"/>
+      <c r="B137" s="98"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
       </c>
@@ -7187,8 +7200,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="104"/>
-      <c r="C138" s="103" t="s">
+      <c r="B138" s="98"/>
+      <c r="C138" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7220,8 +7233,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="104"/>
-      <c r="C139" s="104"/>
+      <c r="B139" s="98"/>
+      <c r="C139" s="98"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7253,8 +7266,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="104"/>
-      <c r="C140" s="105"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="99"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7286,7 +7299,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="104"/>
+      <c r="B141" s="98"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7321,8 +7334,8 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="104"/>
-      <c r="C142" s="100" t="s">
+      <c r="B142" s="98"/>
+      <c r="C142" s="101" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7356,8 +7369,8 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="104"/>
-      <c r="C143" s="100"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="101"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
       </c>
@@ -7389,8 +7402,8 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="104"/>
-      <c r="C144" s="100"/>
+      <c r="B144" s="98"/>
+      <c r="C144" s="101"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
       </c>
@@ -7422,20 +7435,20 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="105"/>
+      <c r="B145" s="99"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="101" t="s">
+      <c r="D145" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="102"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="98"/>
-      <c r="K145" s="98"/>
-      <c r="L145" s="98"/>
-      <c r="M145" s="99"/>
+      <c r="E145" s="110"/>
+      <c r="F145" s="104"/>
+      <c r="G145" s="104"/>
+      <c r="H145" s="104"/>
+      <c r="I145" s="104"/>
+      <c r="J145" s="104"/>
+      <c r="K145" s="104"/>
+      <c r="L145" s="104"/>
+      <c r="M145" s="105"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
@@ -7446,10 +7459,10 @@
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="110" t="s">
+      <c r="B146" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="101" t="s">
         <v>289</v>
       </c>
       <c r="D146" s="12" t="s">
@@ -7484,7 +7497,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="111"/>
-      <c r="C147" s="100"/>
+      <c r="C147" s="101"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
       </c>
@@ -7515,7 +7528,7 @@
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
       <c r="B148" s="111"/>
-      <c r="C148" s="100"/>
+      <c r="C148" s="101"/>
       <c r="D148" s="85" t="s">
         <v>290</v>
       </c>
@@ -7541,8 +7554,8 @@
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="104"/>
-      <c r="C149" s="100"/>
+      <c r="B149" s="98"/>
+      <c r="C149" s="101"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
       </c>
@@ -7574,8 +7587,8 @@
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="104"/>
-      <c r="C150" s="100"/>
+      <c r="B150" s="98"/>
+      <c r="C150" s="101"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
       </c>
@@ -7607,8 +7620,8 @@
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="104"/>
-      <c r="C151" s="100"/>
+      <c r="B151" s="98"/>
+      <c r="C151" s="101"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
       </c>
@@ -7640,20 +7653,20 @@
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="104"/>
+      <c r="B152" s="98"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="97" t="s">
+      <c r="D152" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="98"/>
-      <c r="F152" s="98"/>
-      <c r="G152" s="98"/>
-      <c r="H152" s="98"/>
-      <c r="I152" s="98"/>
-      <c r="J152" s="98"/>
-      <c r="K152" s="98"/>
-      <c r="L152" s="98"/>
-      <c r="M152" s="99"/>
+      <c r="E152" s="104"/>
+      <c r="F152" s="104"/>
+      <c r="G152" s="104"/>
+      <c r="H152" s="104"/>
+      <c r="I152" s="104"/>
+      <c r="J152" s="104"/>
+      <c r="K152" s="104"/>
+      <c r="L152" s="104"/>
+      <c r="M152" s="105"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
@@ -7664,8 +7677,8 @@
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="100" t="s">
+      <c r="B153" s="98"/>
+      <c r="C153" s="101" t="s">
         <v>278</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -7699,8 +7712,8 @@
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="104"/>
-      <c r="C154" s="100"/>
+      <c r="B154" s="98"/>
+      <c r="C154" s="101"/>
       <c r="D154" s="75" t="s">
         <v>279</v>
       </c>
@@ -7730,8 +7743,8 @@
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="100"/>
+      <c r="B155" s="98"/>
+      <c r="C155" s="101"/>
       <c r="D155" s="95" t="s">
         <v>301</v>
       </c>
@@ -7757,8 +7770,8 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="104"/>
-      <c r="C156" s="100"/>
+      <c r="B156" s="98"/>
+      <c r="C156" s="101"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
       </c>
@@ -7788,8 +7801,8 @@
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="100"/>
+      <c r="B157" s="98"/>
+      <c r="C157" s="101"/>
       <c r="D157" s="85" t="s">
         <v>285</v>
       </c>
@@ -7811,10 +7824,10 @@
       </c>
       <c r="O157" s="38"/>
     </row>
-    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A158" s="88"/>
-      <c r="B158" s="104"/>
-      <c r="C158" s="100"/>
+      <c r="B158" s="98"/>
+      <c r="C158" s="101"/>
       <c r="D158" s="88" t="s">
         <v>306</v>
       </c>
@@ -7834,12 +7847,14 @@
       <c r="N158" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="O158" s="38"/>
+      <c r="O158" s="38" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="96"/>
-      <c r="B159" s="104"/>
-      <c r="C159" s="100"/>
+      <c r="B159" s="98"/>
+      <c r="C159" s="101"/>
       <c r="D159" s="96" t="s">
         <v>305</v>
       </c>
@@ -7859,14 +7874,16 @@
       <c r="N159" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="O159" s="38"/>
+      <c r="O159" s="38" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="75">
         <v>149</v>
       </c>
-      <c r="B160" s="104"/>
-      <c r="C160" s="100"/>
+      <c r="B160" s="98"/>
+      <c r="C160" s="101"/>
       <c r="D160" s="12" t="s">
         <v>281</v>
       </c>
@@ -7896,8 +7913,8 @@
     </row>
     <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="88"/>
-      <c r="B161" s="104"/>
-      <c r="C161" s="100"/>
+      <c r="B161" s="98"/>
+      <c r="C161" s="101"/>
       <c r="D161" s="88" t="s">
         <v>303</v>
       </c>
@@ -7923,8 +7940,8 @@
     </row>
     <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="85"/>
-      <c r="B162" s="104"/>
-      <c r="C162" s="100"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="101"/>
       <c r="D162" s="85" t="s">
         <v>282</v>
       </c>
@@ -7954,8 +7971,8 @@
     </row>
     <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="85"/>
-      <c r="B163" s="104"/>
-      <c r="C163" s="100"/>
+      <c r="B163" s="98"/>
+      <c r="C163" s="101"/>
       <c r="D163" s="85" t="s">
         <v>287</v>
       </c>
@@ -7979,8 +7996,8 @@
     </row>
     <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="85"/>
-      <c r="B164" s="104"/>
-      <c r="C164" s="100"/>
+      <c r="B164" s="98"/>
+      <c r="C164" s="101"/>
       <c r="D164" s="85" t="s">
         <v>288</v>
       </c>
@@ -8000,14 +8017,16 @@
       <c r="N164" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="O164" s="38"/>
+      <c r="O164" s="38" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="75">
         <v>150</v>
       </c>
-      <c r="B165" s="104"/>
-      <c r="C165" s="100"/>
+      <c r="B165" s="98"/>
+      <c r="C165" s="101"/>
       <c r="D165" s="12" t="s">
         <v>286</v>
       </c>
@@ -8039,20 +8058,20 @@
       <c r="A166" s="75">
         <v>151</v>
       </c>
-      <c r="B166" s="105"/>
+      <c r="B166" s="99"/>
       <c r="C166" s="11"/>
-      <c r="D166" s="101" t="s">
+      <c r="D166" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="E166" s="102"/>
-      <c r="F166" s="98"/>
-      <c r="G166" s="98"/>
-      <c r="H166" s="98"/>
-      <c r="I166" s="98"/>
-      <c r="J166" s="98"/>
-      <c r="K166" s="98"/>
-      <c r="L166" s="98"/>
-      <c r="M166" s="99"/>
+      <c r="E166" s="110"/>
+      <c r="F166" s="104"/>
+      <c r="G166" s="104"/>
+      <c r="H166" s="104"/>
+      <c r="I166" s="104"/>
+      <c r="J166" s="104"/>
+      <c r="K166" s="104"/>
+      <c r="L166" s="104"/>
+      <c r="M166" s="105"/>
       <c r="N166" s="92"/>
       <c r="O166" s="73">
         <f>SUM(F153:F165)</f>
@@ -8247,6 +8266,48 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="D152:M152"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A168:M168"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="D166:M166"/>
+    <mergeCell ref="B146:B166"/>
+    <mergeCell ref="C153:C165"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="B34:B54"/>
     <mergeCell ref="C2:C13"/>
@@ -8263,48 +8324,6 @@
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="D166:M166"/>
-    <mergeCell ref="B146:B166"/>
-    <mergeCell ref="C153:C165"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D152:M152"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C107:C122"/>
-    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -11180,7 +11199,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="112"/>
+      <c r="P82" s="102"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11216,7 +11235,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="112"/>
+      <c r="P83" s="102"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11252,7 +11271,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="112"/>
+      <c r="P84" s="102"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11288,7 +11307,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="112"/>
+      <c r="P85" s="102"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11324,7 +11343,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="112"/>
+      <c r="P86" s="102"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11360,7 +11379,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="112"/>
+      <c r="P87" s="102"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11396,7 +11415,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="112"/>
+      <c r="P88" s="102"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11432,7 +11451,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="112"/>
+      <c r="P89" s="102"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11468,7 +11487,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="112"/>
+      <c r="P90" s="102"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11502,7 +11521,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="112"/>
+      <c r="P91" s="102"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11539,7 +11558,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="112"/>
+      <c r="P92" s="102"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11575,7 +11594,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="112"/>
+      <c r="P93" s="102"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12647,7 +12666,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12657,7 +12676,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="112"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12667,7 +12686,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="112"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12677,7 +12696,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="112"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12687,7 +12706,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="112"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12697,7 +12716,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="112"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12707,7 +12726,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="112"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12717,7 +12736,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="112"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12727,23 +12746,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="112"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="112"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="112"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="112"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$167</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="313">
   <si>
     <t>序号</t>
   </si>
@@ -1031,6 +1031,18 @@
   <si>
     <t>退人工费、一卷壁纸、一袋辅料；
 退卧室背景墙壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>主灯灯源</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>140-66</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1663,6 +1675,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,24 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1702,14 +1717,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2298,11 +2313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216361248"/>
-        <c:axId val="216361808"/>
+        <c:axId val="185857904"/>
+        <c:axId val="185858464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216361248"/>
+        <c:axId val="185857904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216361808"/>
+        <c:crossAx val="185858464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2347,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216361808"/>
+        <c:axId val="185858464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216361248"/>
+        <c:crossAx val="185857904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,13 +2854,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:S176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="O165" sqref="O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2919,7 +2934,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="101" t="s">
@@ -2949,13 +2964,13 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="113"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="101"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
@@ -2981,13 +2996,13 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="102"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="101"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
@@ -3013,13 +3028,13 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="102"/>
+      <c r="Q4" s="113"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="101"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
@@ -3043,13 +3058,13 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="102"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="101"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
@@ -3073,13 +3088,13 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="102"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="101"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
@@ -3103,11 +3118,11 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="102"/>
+      <c r="Q7" s="113"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="98"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="101"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
@@ -3129,13 +3144,13 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="102"/>
+      <c r="Q8" s="113"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="101"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
@@ -3159,13 +3174,13 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="102"/>
+      <c r="Q9" s="113"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="101"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
@@ -3189,13 +3204,13 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="102"/>
+      <c r="Q10" s="113"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="101"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
@@ -3219,13 +3234,13 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="102"/>
+      <c r="Q11" s="113"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="101"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
@@ -3249,13 +3264,13 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="102"/>
+      <c r="Q12" s="113"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="101"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
@@ -3281,13 +3296,13 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="102"/>
+      <c r="Q13" s="113"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="101" t="s">
         <v>29</v>
       </c>
@@ -3315,14 +3330,14 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="102"/>
+      <c r="Q14" s="113"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="101"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
@@ -3353,7 +3368,7 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="101"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
@@ -3384,8 +3399,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="105"/>
+      <c r="C17" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3419,8 +3434,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
@@ -3452,8 +3467,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3485,8 +3500,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3518,8 +3533,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="17" t="s">
         <v>249</v>
       </c>
@@ -3552,8 +3567,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3585,8 +3600,8 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="69" t="s">
         <v>250</v>
       </c>
@@ -3618,7 +3633,7 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="98"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="101" t="s">
         <v>44</v>
       </c>
@@ -3653,7 +3668,7 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="101"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
@@ -3686,14 +3701,14 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="101"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -3717,14 +3732,14 @@
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="98"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="101"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G27" s="17">
         <v>0</v>
@@ -3748,14 +3763,14 @@
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="98"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="101"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G28" s="17">
         <v>0</v>
@@ -3779,7 +3794,7 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="98"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="101" t="s">
         <v>51</v>
       </c>
@@ -3814,7 +3829,7 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="98"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="101"/>
       <c r="D30" s="17" t="s">
         <v>53</v>
@@ -3847,7 +3862,7 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="98"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="101"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
@@ -3880,7 +3895,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="98"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3913,31 +3928,31 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="100"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
-        <v>21480</v>
+        <v>20530</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="111" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="101" t="s">
@@ -3972,7 +3987,7 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="98"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="101"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
@@ -4003,7 +4018,7 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="98"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="101"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
@@ -4034,7 +4049,7 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="101"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
@@ -4065,7 +4080,7 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="98"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="101"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
@@ -4096,7 +4111,7 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="98"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="101" t="s">
         <v>29</v>
       </c>
@@ -4129,7 +4144,7 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="98"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="101"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
@@ -4160,8 +4175,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4195,8 +4210,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4228,8 +4243,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4259,8 +4274,8 @@
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4286,8 +4301,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4319,8 +4334,8 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="12" t="s">
         <v>251</v>
       </c>
@@ -4352,7 +4367,7 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="98"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="101" t="s">
         <v>44</v>
       </c>
@@ -4361,7 +4376,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G47" s="71">
         <v>0</v>
@@ -4387,7 +4402,7 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="98"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="101"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
@@ -4420,7 +4435,7 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="98"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="101"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
@@ -4453,7 +4468,7 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="98"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="101" t="s">
         <v>51</v>
       </c>
@@ -4488,7 +4503,7 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="98"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="101"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
@@ -4521,7 +4536,7 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="98"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="101"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
@@ -4554,7 +4569,7 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="98"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="101"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
@@ -4585,31 +4600,31 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="99"/>
+      <c r="B54" s="106"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="105"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="100"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
-        <v>2000</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="111" t="s">
         <v>237</v>
       </c>
       <c r="C55" s="101" t="s">
@@ -4644,7 +4659,7 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="98"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="101"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
@@ -4675,7 +4690,7 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="98"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="101"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
@@ -4706,7 +4721,7 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="98"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="101"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
@@ -4737,7 +4752,7 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="98"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="101"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
@@ -4768,7 +4783,7 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="98"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="101" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +4816,7 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="98"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="101"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
@@ -4832,8 +4847,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4865,8 +4880,8 @@
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
       <c r="D63" s="94" t="s">
         <v>300</v>
       </c>
@@ -4892,8 +4907,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4925,8 +4940,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4958,8 +4973,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -4991,8 +5006,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5024,7 +5039,7 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="98"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="101" t="s">
         <v>44</v>
       </c>
@@ -5033,7 +5048,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="32">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G68" s="71">
         <v>0</v>
@@ -5059,7 +5074,7 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="98"/>
+      <c r="B69" s="105"/>
       <c r="C69" s="101"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
@@ -5092,7 +5107,7 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="98"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="101"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
@@ -5125,7 +5140,7 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="98"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="101" t="s">
         <v>51</v>
       </c>
@@ -5160,7 +5175,7 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="98"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="101"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
@@ -5193,7 +5208,7 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="98"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="101"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
@@ -5224,31 +5239,31 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="99"/>
+      <c r="B74" s="106"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="103" t="s">
+      <c r="D74" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="105"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="100"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
-        <v>5091</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="97" t="s">
+      <c r="B75" s="104" t="s">
         <v>298</v>
       </c>
       <c r="C75" s="101" t="s">
@@ -5283,7 +5298,7 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="98"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="101"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
@@ -5314,7 +5329,7 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="98"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="101"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
@@ -5345,7 +5360,7 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="98"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="101"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
@@ -5376,7 +5391,7 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="98"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="101"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
@@ -5407,7 +5422,7 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="98"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="101" t="s">
         <v>29</v>
       </c>
@@ -5440,7 +5455,7 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="98"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="101"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
@@ -5471,8 +5486,8 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="98"/>
-      <c r="C82" s="97" t="s">
+      <c r="B82" s="105"/>
+      <c r="C82" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
@@ -5506,8 +5521,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="99"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="106"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5539,7 +5554,7 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="98"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="101" t="s">
         <v>44</v>
       </c>
@@ -5548,7 +5563,7 @@
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G84" s="71">
         <v>0</v>
@@ -5574,7 +5589,7 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="98"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="101"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
@@ -5607,8 +5622,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="98"/>
-      <c r="C86" s="97" t="s">
+      <c r="B86" s="105"/>
+      <c r="C86" s="104" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5642,8 +5657,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="98"/>
-      <c r="C87" s="99"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="106"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5675,31 +5690,31 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="99"/>
+      <c r="B88" s="106"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="103" t="s">
+      <c r="D88" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="104"/>
-      <c r="J88" s="104"/>
-      <c r="K88" s="104"/>
-      <c r="L88" s="104"/>
-      <c r="M88" s="105"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="100"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
-        <v>300</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="97" t="s">
+      <c r="B89" s="104" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="101" t="s">
@@ -5734,7 +5749,7 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="98"/>
+      <c r="B90" s="105"/>
       <c r="C90" s="101"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
@@ -5765,7 +5780,7 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="98"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="101"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
@@ -5796,7 +5811,7 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="98"/>
+      <c r="B92" s="105"/>
       <c r="C92" s="101"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
@@ -5827,7 +5842,7 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="98"/>
+      <c r="B93" s="105"/>
       <c r="C93" s="101"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
@@ -5858,7 +5873,7 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="98"/>
+      <c r="B94" s="105"/>
       <c r="C94" s="101"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
@@ -5889,7 +5904,7 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="98"/>
+      <c r="B95" s="105"/>
       <c r="C95" s="101" t="s">
         <v>29</v>
       </c>
@@ -5922,7 +5937,7 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="98"/>
+      <c r="B96" s="105"/>
       <c r="C96" s="101"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
@@ -5951,8 +5966,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="98"/>
-      <c r="C97" s="97" t="s">
+      <c r="B97" s="105"/>
+      <c r="C97" s="104" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -5986,8 +6001,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="105"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6019,8 +6034,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="98"/>
-      <c r="C99" s="99"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6052,7 +6067,7 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="98"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="101" t="s">
         <v>44</v>
       </c>
@@ -6087,7 +6102,7 @@
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="98"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="101"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
@@ -6120,7 +6135,7 @@
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="98"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="101"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
@@ -6153,7 +6168,7 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="98"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="101"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
@@ -6186,7 +6201,7 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="98"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="101"/>
       <c r="D104" s="17" t="s">
         <v>258</v>
@@ -6219,7 +6234,7 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="98"/>
+      <c r="B105" s="105"/>
       <c r="C105" s="101"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
@@ -6250,20 +6265,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="99"/>
+      <c r="B106" s="106"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="112" t="s">
+      <c r="D106" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="105"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="99"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="99"/>
+      <c r="M106" s="100"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6274,7 +6289,7 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="97" t="s">
+      <c r="B107" s="104" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="101" t="s">
@@ -6309,7 +6324,7 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="98"/>
+      <c r="B108" s="105"/>
       <c r="C108" s="101"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
@@ -6340,7 +6355,7 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="98"/>
+      <c r="B109" s="105"/>
       <c r="C109" s="101"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
@@ -6369,7 +6384,7 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="98"/>
+      <c r="B110" s="105"/>
       <c r="C110" s="101"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
@@ -6400,7 +6415,7 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="98"/>
+      <c r="B111" s="105"/>
       <c r="C111" s="101"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
@@ -6431,7 +6446,7 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="98"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="101"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
@@ -6462,7 +6477,7 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="98"/>
+      <c r="B113" s="105"/>
       <c r="C113" s="101"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
@@ -6491,7 +6506,7 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="98"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="101"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
@@ -6518,7 +6533,7 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="98"/>
+      <c r="B115" s="105"/>
       <c r="C115" s="101"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
@@ -6541,7 +6556,7 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="98"/>
+      <c r="B116" s="105"/>
       <c r="C116" s="101"/>
       <c r="D116" s="17" t="s">
         <v>276</v>
@@ -6566,7 +6581,7 @@
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="98"/>
+      <c r="B117" s="105"/>
       <c r="C117" s="101"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
@@ -6591,7 +6606,7 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="98"/>
+      <c r="B118" s="105"/>
       <c r="C118" s="101"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
@@ -6622,7 +6637,7 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="98"/>
+      <c r="B119" s="105"/>
       <c r="C119" s="101"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
@@ -6653,7 +6668,7 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="98"/>
+      <c r="B120" s="105"/>
       <c r="C120" s="101"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
@@ -6684,7 +6699,7 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="98"/>
+      <c r="B121" s="105"/>
       <c r="C121" s="101"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
@@ -6715,7 +6730,7 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="98"/>
+      <c r="B122" s="105"/>
       <c r="C122" s="101"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
@@ -6746,8 +6761,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="98"/>
-      <c r="C123" s="97" t="s">
+      <c r="B123" s="105"/>
+      <c r="C123" s="104" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6777,8 +6792,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="98"/>
-      <c r="C124" s="98"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6806,8 +6821,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="98"/>
-      <c r="C125" s="98"/>
+      <c r="B125" s="105"/>
+      <c r="C125" s="105"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6835,8 +6850,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="98"/>
-      <c r="C126" s="99"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="106"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6864,7 +6879,7 @@
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="98"/>
+      <c r="B127" s="105"/>
       <c r="C127" s="101" t="s">
         <v>44</v>
       </c>
@@ -6897,7 +6912,7 @@
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="98"/>
+      <c r="B128" s="105"/>
       <c r="C128" s="101"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
@@ -6928,7 +6943,7 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="98"/>
+      <c r="B129" s="105"/>
       <c r="C129" s="101"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
@@ -6957,7 +6972,7 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="98"/>
+      <c r="B130" s="105"/>
       <c r="C130" s="101"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
@@ -6986,20 +7001,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="99"/>
+      <c r="B131" s="106"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="112" t="s">
+      <c r="D131" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="104"/>
-      <c r="F131" s="104"/>
-      <c r="G131" s="104"/>
-      <c r="H131" s="104"/>
-      <c r="I131" s="104"/>
-      <c r="J131" s="104"/>
-      <c r="K131" s="104"/>
-      <c r="L131" s="104"/>
-      <c r="M131" s="105"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="99"/>
+      <c r="L131" s="99"/>
+      <c r="M131" s="100"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -7010,7 +7025,7 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="100" t="s">
+      <c r="B132" s="111" t="s">
         <v>238</v>
       </c>
       <c r="C132" s="101" t="s">
@@ -7045,7 +7060,7 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="98"/>
+      <c r="B133" s="105"/>
       <c r="C133" s="101"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
@@ -7076,7 +7091,7 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="98"/>
+      <c r="B134" s="105"/>
       <c r="C134" s="101"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
@@ -7107,7 +7122,7 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="98"/>
+      <c r="B135" s="105"/>
       <c r="C135" s="101"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
@@ -7138,7 +7153,7 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="98"/>
+      <c r="B136" s="105"/>
       <c r="C136" s="101"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
@@ -7169,7 +7184,7 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="98"/>
+      <c r="B137" s="105"/>
       <c r="C137" s="101"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
@@ -7200,8 +7215,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="98"/>
-      <c r="C138" s="97" t="s">
+      <c r="B138" s="105"/>
+      <c r="C138" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7233,8 +7248,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="98"/>
-      <c r="C139" s="98"/>
+      <c r="B139" s="105"/>
+      <c r="C139" s="105"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7266,8 +7281,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="98"/>
-      <c r="C140" s="99"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="106"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7299,7 +7314,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="98"/>
+      <c r="B141" s="105"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7334,7 +7349,7 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="98"/>
+      <c r="B142" s="105"/>
       <c r="C142" s="101" t="s">
         <v>51</v>
       </c>
@@ -7369,7 +7384,7 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="98"/>
+      <c r="B143" s="105"/>
       <c r="C143" s="101"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
@@ -7402,7 +7417,7 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="98"/>
+      <c r="B144" s="105"/>
       <c r="C144" s="101"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
@@ -7435,20 +7450,20 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="99"/>
+      <c r="B145" s="106"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="103" t="s">
+      <c r="D145" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="110"/>
-      <c r="F145" s="104"/>
-      <c r="G145" s="104"/>
-      <c r="H145" s="104"/>
-      <c r="I145" s="104"/>
-      <c r="J145" s="104"/>
-      <c r="K145" s="104"/>
-      <c r="L145" s="104"/>
-      <c r="M145" s="105"/>
+      <c r="E145" s="103"/>
+      <c r="F145" s="99"/>
+      <c r="G145" s="99"/>
+      <c r="H145" s="99"/>
+      <c r="I145" s="99"/>
+      <c r="J145" s="99"/>
+      <c r="K145" s="99"/>
+      <c r="L145" s="99"/>
+      <c r="M145" s="100"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
@@ -7459,7 +7474,7 @@
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="100" t="s">
+      <c r="B146" s="111" t="s">
         <v>241</v>
       </c>
       <c r="C146" s="101" t="s">
@@ -7496,7 +7511,7 @@
       <c r="A147" s="75">
         <v>141</v>
       </c>
-      <c r="B147" s="111"/>
+      <c r="B147" s="112"/>
       <c r="C147" s="101"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
@@ -7527,7 +7542,7 @@
     </row>
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
-      <c r="B148" s="111"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="101"/>
       <c r="D148" s="85" t="s">
         <v>290</v>
@@ -7554,7 +7569,7 @@
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="98"/>
+      <c r="B149" s="105"/>
       <c r="C149" s="101"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
@@ -7587,7 +7602,7 @@
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="98"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="101"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
@@ -7620,7 +7635,7 @@
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="98"/>
+      <c r="B151" s="105"/>
       <c r="C151" s="101"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
@@ -7653,20 +7668,20 @@
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="98"/>
+      <c r="B152" s="105"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="112" t="s">
+      <c r="D152" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="104"/>
-      <c r="F152" s="104"/>
-      <c r="G152" s="104"/>
-      <c r="H152" s="104"/>
-      <c r="I152" s="104"/>
-      <c r="J152" s="104"/>
-      <c r="K152" s="104"/>
-      <c r="L152" s="104"/>
-      <c r="M152" s="105"/>
+      <c r="E152" s="99"/>
+      <c r="F152" s="99"/>
+      <c r="G152" s="99"/>
+      <c r="H152" s="99"/>
+      <c r="I152" s="99"/>
+      <c r="J152" s="99"/>
+      <c r="K152" s="99"/>
+      <c r="L152" s="99"/>
+      <c r="M152" s="100"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
@@ -7677,7 +7692,7 @@
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="98"/>
+      <c r="B153" s="105"/>
       <c r="C153" s="101" t="s">
         <v>278</v>
       </c>
@@ -7712,7 +7727,7 @@
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="98"/>
+      <c r="B154" s="105"/>
       <c r="C154" s="101"/>
       <c r="D154" s="75" t="s">
         <v>279</v>
@@ -7743,7 +7758,7 @@
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="98"/>
+      <c r="B155" s="105"/>
       <c r="C155" s="101"/>
       <c r="D155" s="95" t="s">
         <v>301</v>
@@ -7770,7 +7785,7 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="98"/>
+      <c r="B156" s="105"/>
       <c r="C156" s="101"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
@@ -7801,7 +7816,7 @@
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="98"/>
+      <c r="B157" s="105"/>
       <c r="C157" s="101"/>
       <c r="D157" s="85" t="s">
         <v>285</v>
@@ -7826,7 +7841,7 @@
     </row>
     <row r="158" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A158" s="88"/>
-      <c r="B158" s="98"/>
+      <c r="B158" s="105"/>
       <c r="C158" s="101"/>
       <c r="D158" s="88" t="s">
         <v>306</v>
@@ -7853,7 +7868,7 @@
     </row>
     <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="96"/>
-      <c r="B159" s="98"/>
+      <c r="B159" s="105"/>
       <c r="C159" s="101"/>
       <c r="D159" s="96" t="s">
         <v>305</v>
@@ -7882,7 +7897,7 @@
       <c r="A160" s="75">
         <v>149</v>
       </c>
-      <c r="B160" s="98"/>
+      <c r="B160" s="105"/>
       <c r="C160" s="101"/>
       <c r="D160" s="12" t="s">
         <v>281</v>
@@ -7913,7 +7928,7 @@
     </row>
     <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="88"/>
-      <c r="B161" s="98"/>
+      <c r="B161" s="105"/>
       <c r="C161" s="101"/>
       <c r="D161" s="88" t="s">
         <v>303</v>
@@ -7939,50 +7954,52 @@
       <c r="O161" s="38"/>
     </row>
     <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="85"/>
-      <c r="B162" s="98"/>
+      <c r="A162" s="97"/>
+      <c r="B162" s="105"/>
       <c r="C162" s="101"/>
-      <c r="D162" s="85" t="s">
-        <v>282</v>
+      <c r="D162" s="97" t="s">
+        <v>310</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>950</v>
-      </c>
-      <c r="G162" s="17">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I162" s="46">
-        <v>0</v>
-      </c>
-      <c r="J162" s="85"/>
-      <c r="K162" s="85"/>
-      <c r="L162" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M162" s="24"/>
+        <v>206</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="46"/>
+      <c r="J162" s="97"/>
+      <c r="K162" s="97"/>
+      <c r="L162" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="M162" s="24" t="s">
+        <v>312</v>
+      </c>
       <c r="N162" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O162" s="38"/>
     </row>
     <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="85"/>
-      <c r="B163" s="98"/>
+      <c r="B163" s="105"/>
       <c r="C163" s="101"/>
       <c r="D163" s="85" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>-1110</v>
-      </c>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G163" s="17">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" s="46">
+        <v>0</v>
+      </c>
       <c r="J163" s="85"/>
       <c r="K163" s="85"/>
       <c r="L163" s="85" t="s">
@@ -7996,14 +8013,14 @@
     </row>
     <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="85"/>
-      <c r="B164" s="98"/>
+      <c r="B164" s="105"/>
       <c r="C164" s="101"/>
       <c r="D164" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>-1330</v>
+        <v>-1110</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
@@ -8015,250 +8032,275 @@
       </c>
       <c r="M164" s="24"/>
       <c r="N164" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="O164" s="38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="75">
-        <v>150</v>
-      </c>
-      <c r="B165" s="98"/>
+        <v>295</v>
+      </c>
+      <c r="O164" s="38"/>
+    </row>
+    <row r="165" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="85"/>
+      <c r="B165" s="105"/>
       <c r="C165" s="101"/>
-      <c r="D165" s="12" t="s">
-        <v>286</v>
+      <c r="D165" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G165" s="17">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I165" s="46">
-        <v>0</v>
-      </c>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="75" t="s">
+        <v>-1330</v>
+      </c>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="46"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="85"/>
+      <c r="L165" s="85" t="s">
         <v>284</v>
       </c>
       <c r="M165" s="24"/>
       <c r="N165" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="O165" s="38"/>
+        <v>297</v>
+      </c>
+      <c r="O165" s="38" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="75">
+        <v>150</v>
+      </c>
+      <c r="B166" s="105"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G166" s="17">
+        <v>0</v>
+      </c>
+      <c r="H166" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I166" s="46">
+        <v>0</v>
+      </c>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M166" s="24"/>
+      <c r="N166" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="O166" s="38"/>
+    </row>
+    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="75">
         <v>151</v>
       </c>
-      <c r="B166" s="99"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="103" t="s">
+      <c r="B167" s="106"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E166" s="110"/>
-      <c r="F166" s="104"/>
-      <c r="G166" s="104"/>
-      <c r="H166" s="104"/>
-      <c r="I166" s="104"/>
-      <c r="J166" s="104"/>
-      <c r="K166" s="104"/>
-      <c r="L166" s="104"/>
-      <c r="M166" s="105"/>
-      <c r="N166" s="92"/>
-      <c r="O166" s="73">
-        <f>SUM(F153:F165)</f>
-        <v>77959</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L167" s="84"/>
-      <c r="N167" s="84"/>
-    </row>
-    <row r="168" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="106" t="s">
+      <c r="E167" s="103"/>
+      <c r="F167" s="99"/>
+      <c r="G167" s="99"/>
+      <c r="H167" s="99"/>
+      <c r="I167" s="99"/>
+      <c r="J167" s="99"/>
+      <c r="K167" s="99"/>
+      <c r="L167" s="99"/>
+      <c r="M167" s="100"/>
+      <c r="N167" s="92"/>
+      <c r="O167" s="73">
+        <f>SUM(F153:F166)</f>
+        <v>78165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L168" s="84"/>
+      <c r="N168" s="84"/>
+    </row>
+    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="107"/>
-      <c r="C168" s="107"/>
-      <c r="D168" s="107"/>
-      <c r="E168" s="107"/>
-      <c r="F168" s="107"/>
-      <c r="G168" s="107"/>
-      <c r="H168" s="107"/>
-      <c r="I168" s="107"/>
-      <c r="J168" s="107"/>
-      <c r="K168" s="107"/>
-      <c r="L168" s="107"/>
-      <c r="M168" s="108"/>
-      <c r="N168" s="93"/>
-      <c r="O168" s="58">
-        <f>O33+O54+O74+O88+O106+O131+O145+O152+O166</f>
-        <v>123442</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="106" t="s">
+      <c r="B169" s="108"/>
+      <c r="C169" s="108"/>
+      <c r="D169" s="108"/>
+      <c r="E169" s="108"/>
+      <c r="F169" s="108"/>
+      <c r="G169" s="108"/>
+      <c r="H169" s="108"/>
+      <c r="I169" s="108"/>
+      <c r="J169" s="108"/>
+      <c r="K169" s="108"/>
+      <c r="L169" s="108"/>
+      <c r="M169" s="109"/>
+      <c r="N169" s="93"/>
+      <c r="O169" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O152+O167</f>
+        <v>122314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="107"/>
-      <c r="C169" s="107"/>
-      <c r="D169" s="107"/>
-      <c r="E169" s="107"/>
-      <c r="F169" s="107"/>
-      <c r="G169" s="107"/>
-      <c r="H169" s="107"/>
-      <c r="I169" s="107"/>
-      <c r="J169" s="107"/>
-      <c r="K169" s="107"/>
-      <c r="L169" s="107"/>
-      <c r="M169" s="108"/>
-      <c r="N169" s="87"/>
-      <c r="O169" s="58">
+      <c r="B170" s="108"/>
+      <c r="C170" s="108"/>
+      <c r="D170" s="108"/>
+      <c r="E170" s="108"/>
+      <c r="F170" s="108"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="108"/>
+      <c r="I170" s="108"/>
+      <c r="J170" s="108"/>
+      <c r="K170" s="108"/>
+      <c r="L170" s="108"/>
+      <c r="M170" s="109"/>
+      <c r="N170" s="87"/>
+      <c r="O170" s="58">
         <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="106" t="s">
+    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B170" s="107"/>
-      <c r="C170" s="107"/>
-      <c r="D170" s="107"/>
-      <c r="E170" s="107"/>
-      <c r="F170" s="107"/>
-      <c r="G170" s="107"/>
-      <c r="H170" s="107"/>
-      <c r="I170" s="107"/>
-      <c r="J170" s="107"/>
-      <c r="K170" s="107"/>
-      <c r="L170" s="107"/>
-      <c r="M170" s="108"/>
-      <c r="N170" s="87"/>
-      <c r="O170" s="58">
+      <c r="B171" s="108"/>
+      <c r="C171" s="108"/>
+      <c r="D171" s="108"/>
+      <c r="E171" s="108"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="108"/>
+      <c r="H171" s="108"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
+      <c r="L171" s="108"/>
+      <c r="M171" s="109"/>
+      <c r="N171" s="87"/>
+      <c r="O171" s="58">
         <f>SUM(F138:F140,F41:F46,F17:F23)</f>
         <v>12380</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="106" t="s">
+    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="107"/>
-      <c r="E171" s="107"/>
-      <c r="F171" s="107"/>
-      <c r="G171" s="107"/>
-      <c r="H171" s="107"/>
-      <c r="I171" s="107"/>
-      <c r="J171" s="107"/>
-      <c r="K171" s="107"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="108"/>
-      <c r="N171" s="87"/>
-      <c r="O171" s="58">
-        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
-        <v>23832</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="B172" s="107"/>
-      <c r="C172" s="107"/>
-      <c r="D172" s="107"/>
-      <c r="E172" s="107"/>
-      <c r="F172" s="107"/>
-      <c r="G172" s="107"/>
-      <c r="H172" s="107"/>
-      <c r="I172" s="107"/>
-      <c r="J172" s="107"/>
-      <c r="K172" s="107"/>
-      <c r="L172" s="107"/>
-      <c r="M172" s="108"/>
+      <c r="B172" s="108"/>
+      <c r="C172" s="108"/>
+      <c r="D172" s="108"/>
+      <c r="E172" s="108"/>
+      <c r="F172" s="108"/>
+      <c r="G172" s="108"/>
+      <c r="H172" s="108"/>
+      <c r="I172" s="108"/>
+      <c r="J172" s="108"/>
+      <c r="K172" s="108"/>
+      <c r="L172" s="108"/>
+      <c r="M172" s="109"/>
       <c r="N172" s="87"/>
       <c r="O172" s="58">
+        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
+        <v>22632</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B173" s="108"/>
+      <c r="C173" s="108"/>
+      <c r="D173" s="108"/>
+      <c r="E173" s="108"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="108"/>
+      <c r="H173" s="108"/>
+      <c r="I173" s="108"/>
+      <c r="J173" s="108"/>
+      <c r="K173" s="108"/>
+      <c r="L173" s="108"/>
+      <c r="M173" s="109"/>
+      <c r="N173" s="87"/>
+      <c r="O173" s="58">
         <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="106" t="s">
+    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="B173" s="107"/>
-      <c r="C173" s="107"/>
-      <c r="D173" s="107"/>
-      <c r="E173" s="107"/>
-      <c r="F173" s="107"/>
-      <c r="G173" s="107"/>
-      <c r="H173" s="107"/>
-      <c r="I173" s="107"/>
-      <c r="J173" s="107"/>
-      <c r="K173" s="107"/>
-      <c r="L173" s="107"/>
-      <c r="M173" s="108"/>
-      <c r="N173" s="87"/>
-      <c r="O173" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="107"/>
-      <c r="C174" s="107"/>
-      <c r="D174" s="107"/>
-      <c r="E174" s="107"/>
-      <c r="F174" s="107"/>
-      <c r="G174" s="107"/>
-      <c r="H174" s="107"/>
-      <c r="I174" s="107"/>
-      <c r="J174" s="107"/>
-      <c r="K174" s="107"/>
-      <c r="L174" s="107"/>
-      <c r="M174" s="108"/>
+      <c r="B174" s="108"/>
+      <c r="C174" s="108"/>
+      <c r="D174" s="108"/>
+      <c r="E174" s="108"/>
+      <c r="F174" s="108"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="108"/>
+      <c r="I174" s="108"/>
+      <c r="J174" s="108"/>
+      <c r="K174" s="108"/>
+      <c r="L174" s="108"/>
+      <c r="M174" s="109"/>
       <c r="N174" s="87"/>
       <c r="O174" s="58">
-        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B175" s="107"/>
-      <c r="C175" s="107"/>
-      <c r="D175" s="107"/>
-      <c r="E175" s="107"/>
-      <c r="F175" s="107"/>
-      <c r="G175" s="107"/>
-      <c r="H175" s="107"/>
-      <c r="I175" s="107"/>
-      <c r="J175" s="107"/>
-      <c r="K175" s="107"/>
-      <c r="L175" s="107"/>
-      <c r="M175" s="108"/>
+      <c r="A175" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="108"/>
+      <c r="C175" s="108"/>
+      <c r="D175" s="108"/>
+      <c r="E175" s="108"/>
+      <c r="F175" s="108"/>
+      <c r="G175" s="108"/>
+      <c r="H175" s="108"/>
+      <c r="I175" s="108"/>
+      <c r="J175" s="108"/>
+      <c r="K175" s="108"/>
+      <c r="L175" s="108"/>
+      <c r="M175" s="109"/>
       <c r="N175" s="87"/>
       <c r="O175" s="58">
-        <f>SUM(O152:O165)</f>
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="B176" s="108"/>
+      <c r="C176" s="108"/>
+      <c r="D176" s="108"/>
+      <c r="E176" s="108"/>
+      <c r="F176" s="108"/>
+      <c r="G176" s="108"/>
+      <c r="H176" s="108"/>
+      <c r="I176" s="108"/>
+      <c r="J176" s="108"/>
+      <c r="K176" s="108"/>
+      <c r="L176" s="108"/>
+      <c r="M176" s="109"/>
+      <c r="N176" s="87"/>
+      <c r="O176" s="58">
+        <f>SUM(O152:O166)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S166">
+  <autoFilter ref="A1:S167">
     <filterColumn colId="11">
       <filters>
         <filter val="自购"/>
@@ -8266,6 +8308,48 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B55:B74"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="D167:M167"/>
+    <mergeCell ref="B146:B167"/>
+    <mergeCell ref="C153:C166"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
     <mergeCell ref="D152:M152"/>
     <mergeCell ref="C146:C151"/>
     <mergeCell ref="D33:M33"/>
@@ -8282,48 +8366,6 @@
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C107:C122"/>
     <mergeCell ref="C123:C126"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A168:M168"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="D166:M166"/>
-    <mergeCell ref="B146:B166"/>
-    <mergeCell ref="C153:C165"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B54"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8822,7 +8864,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="114"/>
+      <c r="M13" s="115"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8857,7 +8899,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="114"/>
+      <c r="M14" s="115"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11199,7 +11241,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="102"/>
+      <c r="P82" s="113"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11235,7 +11277,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="102"/>
+      <c r="P83" s="113"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11271,7 +11313,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="102"/>
+      <c r="P84" s="113"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11307,7 +11349,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="102"/>
+      <c r="P85" s="113"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11343,7 +11385,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="102"/>
+      <c r="P86" s="113"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11379,7 +11421,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="102"/>
+      <c r="P87" s="113"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11415,7 +11457,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="102"/>
+      <c r="P88" s="113"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11451,7 +11493,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="102"/>
+      <c r="P89" s="113"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11487,7 +11529,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="102"/>
+      <c r="P90" s="113"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11521,7 +11563,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="102"/>
+      <c r="P91" s="113"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11558,7 +11600,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="102"/>
+      <c r="P92" s="113"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11594,7 +11636,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="102"/>
+      <c r="P93" s="113"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12372,167 +12414,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="106" t="s">
+      <c r="A120" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="107"/>
-      <c r="C120" s="107"/>
-      <c r="D120" s="107"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="107"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="107"/>
-      <c r="J120" s="107"/>
-      <c r="K120" s="107"/>
-      <c r="L120" s="107"/>
-      <c r="M120" s="108"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="108"/>
+      <c r="I120" s="108"/>
+      <c r="J120" s="108"/>
+      <c r="K120" s="108"/>
+      <c r="L120" s="108"/>
+      <c r="M120" s="109"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="106" t="s">
+      <c r="A121" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="107"/>
-      <c r="C121" s="107"/>
-      <c r="D121" s="107"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="107"/>
-      <c r="G121" s="107"/>
-      <c r="H121" s="107"/>
-      <c r="I121" s="107"/>
-      <c r="J121" s="107"/>
-      <c r="K121" s="107"/>
-      <c r="L121" s="107"/>
-      <c r="M121" s="108"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="108"/>
+      <c r="I121" s="108"/>
+      <c r="J121" s="108"/>
+      <c r="K121" s="108"/>
+      <c r="L121" s="108"/>
+      <c r="M121" s="109"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="106" t="s">
+      <c r="A122" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
-      <c r="D122" s="107"/>
-      <c r="E122" s="113"/>
-      <c r="F122" s="107"/>
-      <c r="G122" s="107"/>
-      <c r="H122" s="107"/>
-      <c r="I122" s="107"/>
-      <c r="J122" s="107"/>
-      <c r="K122" s="107"/>
-      <c r="L122" s="107"/>
-      <c r="M122" s="108"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="108"/>
+      <c r="J122" s="108"/>
+      <c r="K122" s="108"/>
+      <c r="L122" s="108"/>
+      <c r="M122" s="109"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="106" t="s">
+      <c r="A123" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="107"/>
-      <c r="D123" s="107"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="107"/>
-      <c r="G123" s="107"/>
-      <c r="H123" s="107"/>
-      <c r="I123" s="107"/>
-      <c r="J123" s="107"/>
-      <c r="K123" s="107"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="108"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="108"/>
+      <c r="G123" s="108"/>
+      <c r="H123" s="108"/>
+      <c r="I123" s="108"/>
+      <c r="J123" s="108"/>
+      <c r="K123" s="108"/>
+      <c r="L123" s="108"/>
+      <c r="M123" s="109"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="106" t="s">
+      <c r="A124" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="107"/>
-      <c r="G124" s="107"/>
-      <c r="H124" s="107"/>
-      <c r="I124" s="107"/>
-      <c r="J124" s="107"/>
-      <c r="K124" s="107"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="108"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="108"/>
+      <c r="L124" s="108"/>
+      <c r="M124" s="109"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="106" t="s">
+      <c r="A125" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="107"/>
-      <c r="C125" s="107"/>
-      <c r="D125" s="107"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="107"/>
-      <c r="G125" s="107"/>
-      <c r="H125" s="107"/>
-      <c r="I125" s="107"/>
-      <c r="J125" s="107"/>
-      <c r="K125" s="107"/>
-      <c r="L125" s="107"/>
-      <c r="M125" s="108"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108"/>
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="108"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="109"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="106" t="s">
+      <c r="A126" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="107"/>
-      <c r="C126" s="107"/>
-      <c r="D126" s="107"/>
-      <c r="E126" s="113"/>
-      <c r="F126" s="107"/>
-      <c r="G126" s="107"/>
-      <c r="H126" s="107"/>
-      <c r="I126" s="107"/>
-      <c r="J126" s="107"/>
-      <c r="K126" s="107"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="108"/>
+      <c r="B126" s="108"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="114"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="108"/>
+      <c r="H126" s="108"/>
+      <c r="I126" s="108"/>
+      <c r="J126" s="108"/>
+      <c r="K126" s="108"/>
+      <c r="L126" s="108"/>
+      <c r="M126" s="109"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="106" t="s">
+      <c r="A127" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="107"/>
-      <c r="C127" s="107"/>
-      <c r="D127" s="107"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="107"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="107"/>
-      <c r="J127" s="107"/>
-      <c r="K127" s="107"/>
-      <c r="L127" s="107"/>
-      <c r="M127" s="108"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="108"/>
+      <c r="H127" s="108"/>
+      <c r="I127" s="108"/>
+      <c r="J127" s="108"/>
+      <c r="K127" s="108"/>
+      <c r="L127" s="108"/>
+      <c r="M127" s="109"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12666,7 +12708,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12676,7 +12718,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12686,7 +12728,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12696,7 +12738,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12706,7 +12748,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12716,7 +12758,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="102"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12726,7 +12768,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="102"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12736,7 +12778,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="102"/>
+      <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12746,23 +12788,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="102"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="102"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="102"/>
+      <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="102"/>
+      <c r="M14" s="113"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="315">
   <si>
     <t>序号</t>
   </si>
@@ -1029,20 +1029,28 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>主灯灯源</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>140-66</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>退人工费、一卷壁纸、一袋辅料；
 退卧室背景墙壁纸</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>主灯灯源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>自购</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>140-66</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1183,6 +1191,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1391,7 +1406,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1678,24 +1693,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1704,6 +1701,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1717,19 +1732,28 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,11 +2337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185857904"/>
-        <c:axId val="185858464"/>
+        <c:axId val="111771056"/>
+        <c:axId val="111771616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185857904"/>
+        <c:axId val="111771056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185858464"/>
+        <c:crossAx val="111771616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185858464"/>
+        <c:axId val="111771616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185857904"/>
+        <c:crossAx val="111771056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2860,7 +2884,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O165" sqref="O165"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2934,10 +2958,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2964,14 +2988,14 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="113"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="101"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -2996,14 +3020,14 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="113"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -3028,14 +3052,14 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="113"/>
+      <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -3058,14 +3082,14 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="113"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="101"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -3088,14 +3112,14 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="113"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="101"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -3118,12 +3142,12 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="113"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="101"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
       </c>
@@ -3144,14 +3168,14 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="113"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3174,14 +3198,14 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="113"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3204,14 +3228,14 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="113"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3234,14 +3258,14 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="113"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3264,14 +3288,14 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="113"/>
+      <c r="Q12" s="103"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3296,14 +3320,14 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="113"/>
+      <c r="Q13" s="103"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="101" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3330,15 +3354,15 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="113"/>
+      <c r="Q14" s="103"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3368,8 +3392,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3399,8 +3423,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="104" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3434,9 +3458,9 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="116" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="46"/>
@@ -3467,9 +3491,9 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="116" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="46"/>
@@ -3500,9 +3524,9 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="116" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="46"/>
@@ -3533,9 +3557,9 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="116" t="s">
         <v>249</v>
       </c>
       <c r="E21" s="46"/>
@@ -3567,8 +3591,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3600,9 +3624,9 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="69" t="s">
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="117" t="s">
         <v>250</v>
       </c>
       <c r="E23" s="46"/>
@@ -3633,11 +3657,11 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="101" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="116" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="46"/>
@@ -3668,8 +3692,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3701,8 +3725,8 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3726,14 +3750,14 @@
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
       </c>
@@ -3757,14 +3781,14 @@
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3786,7 +3810,7 @@
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O28" s="39"/>
     </row>
@@ -3794,8 +3818,8 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="101" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="102" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3829,9 +3853,9 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="99"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="116" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="46"/>
@@ -3862,8 +3886,8 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3895,7 +3919,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3928,20 +3952,20 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="106"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
@@ -3952,10 +3976,10 @@
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -3987,8 +4011,8 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="101"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
       </c>
@@ -4018,8 +4042,8 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
       </c>
@@ -4049,8 +4073,8 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="101"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
       </c>
@@ -4080,8 +4104,8 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="101"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
       </c>
@@ -4111,8 +4135,8 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="101" t="s">
+      <c r="B39" s="99"/>
+      <c r="C39" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="76" t="s">
@@ -4144,8 +4168,8 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="101"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
       </c>
@@ -4175,8 +4199,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="104" t="s">
+      <c r="B41" s="99"/>
+      <c r="C41" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4210,8 +4234,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4243,8 +4267,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4274,8 +4298,8 @@
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4301,8 +4325,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4334,9 +4358,9 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="12" t="s">
+      <c r="B46" s="99"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="118" t="s">
         <v>251</v>
       </c>
       <c r="E46" s="32"/>
@@ -4367,8 +4391,8 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="101" t="s">
+      <c r="B47" s="99"/>
+      <c r="C47" s="102" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4394,7 +4418,7 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4402,8 +4426,8 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
@@ -4435,8 +4459,8 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
       </c>
@@ -4468,8 +4492,8 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="105"/>
-      <c r="C50" s="101" t="s">
+      <c r="B50" s="99"/>
+      <c r="C50" s="102" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4503,8 +4527,8 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="101"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
@@ -4536,8 +4560,8 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="105"/>
-      <c r="C52" s="101"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
       </c>
@@ -4569,8 +4593,8 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="101"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -4600,20 +4624,20 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="106"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="98" t="s">
+      <c r="D54" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="100"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
@@ -4624,10 +4648,10 @@
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="101" t="s">
+      <c r="C55" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="76" t="s">
@@ -4659,8 +4683,8 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="105"/>
-      <c r="C56" s="101"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
       </c>
@@ -4690,8 +4714,8 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="101"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
       </c>
@@ -4721,8 +4745,8 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="101"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
       </c>
@@ -4752,8 +4776,8 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="101"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
       </c>
@@ -4783,8 +4807,8 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="105"/>
-      <c r="C60" s="101" t="s">
+      <c r="B60" s="99"/>
+      <c r="C60" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="76" t="s">
@@ -4816,8 +4840,8 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="101"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
       </c>
@@ -4847,8 +4871,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="104" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4880,8 +4904,8 @@
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="94" t="s">
         <v>300</v>
       </c>
@@ -4907,8 +4931,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4940,8 +4964,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4973,8 +4997,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -5006,8 +5030,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5039,8 +5063,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="105"/>
-      <c r="C68" s="101" t="s">
+      <c r="B68" s="99"/>
+      <c r="C68" s="102" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -5074,8 +5098,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="105"/>
-      <c r="C69" s="101"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -5107,8 +5131,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="105"/>
-      <c r="C70" s="101"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -5140,8 +5164,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="105"/>
-      <c r="C71" s="101" t="s">
+      <c r="B71" s="99"/>
+      <c r="C71" s="102" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -5175,8 +5199,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="105"/>
-      <c r="C72" s="101"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -5208,8 +5232,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="105"/>
-      <c r="C73" s="101"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -5239,20 +5263,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="106"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="102" t="s">
+      <c r="D74" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="100"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="106"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
@@ -5263,10 +5287,10 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="101" t="s">
+      <c r="C75" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="76" t="s">
@@ -5298,8 +5322,8 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="105"/>
-      <c r="C76" s="101"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
@@ -5329,8 +5353,8 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="105"/>
-      <c r="C77" s="101"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="102"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
@@ -5360,8 +5384,8 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="105"/>
-      <c r="C78" s="101"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
@@ -5391,8 +5415,8 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="101"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
@@ -5422,8 +5446,8 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="101" t="s">
+      <c r="B80" s="99"/>
+      <c r="C80" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="76" t="s">
@@ -5455,8 +5479,8 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="105"/>
-      <c r="C81" s="101"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
@@ -5486,8 +5510,8 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="105"/>
-      <c r="C82" s="104" t="s">
+      <c r="B82" s="99"/>
+      <c r="C82" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
@@ -5521,8 +5545,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="106"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="100"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5554,8 +5578,8 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="105"/>
-      <c r="C84" s="101" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="102" t="s">
         <v>44</v>
       </c>
       <c r="D84" s="12" t="s">
@@ -5589,8 +5613,8 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="105"/>
-      <c r="C85" s="101"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
       </c>
@@ -5622,8 +5646,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="105"/>
-      <c r="C86" s="104" t="s">
+      <c r="B86" s="99"/>
+      <c r="C86" s="98" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5657,8 +5681,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="105"/>
-      <c r="C87" s="106"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5690,20 +5714,20 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="106"/>
+      <c r="B88" s="100"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="102" t="s">
+      <c r="D88" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="100"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="106"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5714,10 +5738,10 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="104" t="s">
+      <c r="B89" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="101" t="s">
+      <c r="C89" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="76" t="s">
@@ -5749,8 +5773,8 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="105"/>
-      <c r="C90" s="101"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
       </c>
@@ -5780,8 +5804,8 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="105"/>
-      <c r="C91" s="101"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
       </c>
@@ -5811,8 +5835,8 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="105"/>
-      <c r="C92" s="101"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="102"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
       </c>
@@ -5842,8 +5866,8 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="101"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
       </c>
@@ -5873,8 +5897,8 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="105"/>
-      <c r="C94" s="101"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
       </c>
@@ -5904,8 +5928,8 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="105"/>
-      <c r="C95" s="101" t="s">
+      <c r="B95" s="99"/>
+      <c r="C95" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -5937,8 +5961,8 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="105"/>
-      <c r="C96" s="101"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
       </c>
@@ -5966,8 +5990,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="104" t="s">
+      <c r="B97" s="99"/>
+      <c r="C97" s="98" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -6001,8 +6025,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="105"/>
-      <c r="C98" s="105"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6034,8 +6058,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="105"/>
-      <c r="C99" s="106"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6067,11 +6091,11 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="105"/>
-      <c r="C100" s="101" t="s">
+      <c r="B100" s="99"/>
+      <c r="C100" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="116" t="s">
         <v>91</v>
       </c>
       <c r="E100" s="46"/>
@@ -6102,8 +6126,8 @@
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="105"/>
-      <c r="C101" s="101"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
       </c>
@@ -6135,8 +6159,8 @@
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="105"/>
-      <c r="C102" s="101"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="102"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
       </c>
@@ -6168,8 +6192,8 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="101"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
       </c>
@@ -6201,9 +6225,9 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="17" t="s">
+      <c r="B104" s="99"/>
+      <c r="C104" s="102"/>
+      <c r="D104" s="116" t="s">
         <v>258</v>
       </c>
       <c r="E104" s="46"/>
@@ -6234,8 +6258,8 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="105"/>
-      <c r="C105" s="101"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
       </c>
@@ -6265,20 +6289,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="106"/>
+      <c r="B106" s="100"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="98" t="s">
+      <c r="D106" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="99"/>
-      <c r="H106" s="99"/>
-      <c r="I106" s="99"/>
-      <c r="J106" s="99"/>
-      <c r="K106" s="99"/>
-      <c r="L106" s="99"/>
-      <c r="M106" s="100"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
+      <c r="M106" s="106"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6289,10 +6313,10 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="104" t="s">
+      <c r="B107" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="101" t="s">
+      <c r="C107" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="76" t="s">
@@ -6324,8 +6348,8 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="105"/>
-      <c r="C108" s="101"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
       </c>
@@ -6355,8 +6379,8 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="105"/>
-      <c r="C109" s="101"/>
+      <c r="B109" s="99"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
       </c>
@@ -6384,8 +6408,8 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="105"/>
-      <c r="C110" s="101"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
       </c>
@@ -6415,8 +6439,8 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="105"/>
-      <c r="C111" s="101"/>
+      <c r="B111" s="99"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
       </c>
@@ -6446,8 +6470,8 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="105"/>
-      <c r="C112" s="101"/>
+      <c r="B112" s="99"/>
+      <c r="C112" s="102"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
       </c>
@@ -6477,8 +6501,8 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="105"/>
-      <c r="C113" s="101"/>
+      <c r="B113" s="99"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
       </c>
@@ -6506,8 +6530,8 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="105"/>
-      <c r="C114" s="101"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
       </c>
@@ -6533,8 +6557,8 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="101"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
       </c>
@@ -6556,9 +6580,9 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="101"/>
-      <c r="D116" s="17" t="s">
+      <c r="B116" s="99"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="116" t="s">
         <v>276</v>
       </c>
       <c r="E116" s="46"/>
@@ -6581,8 +6605,8 @@
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="105"/>
-      <c r="C117" s="101"/>
+      <c r="B117" s="99"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
       </c>
@@ -6606,8 +6630,8 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="105"/>
-      <c r="C118" s="101"/>
+      <c r="B118" s="99"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
       </c>
@@ -6637,8 +6661,8 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="105"/>
-      <c r="C119" s="101"/>
+      <c r="B119" s="99"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
       </c>
@@ -6668,8 +6692,8 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="105"/>
-      <c r="C120" s="101"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
       </c>
@@ -6699,8 +6723,8 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="105"/>
-      <c r="C121" s="101"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
       </c>
@@ -6730,8 +6754,8 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="105"/>
-      <c r="C122" s="101"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
       </c>
@@ -6761,8 +6785,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="105"/>
-      <c r="C123" s="104" t="s">
+      <c r="B123" s="99"/>
+      <c r="C123" s="98" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6792,8 +6816,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="99"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6821,8 +6845,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="105"/>
-      <c r="C125" s="105"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6850,8 +6874,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="106"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="100"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6879,8 +6903,8 @@
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="105"/>
-      <c r="C127" s="101" t="s">
+      <c r="B127" s="99"/>
+      <c r="C127" s="102" t="s">
         <v>44</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -6912,8 +6936,8 @@
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="105"/>
-      <c r="C128" s="101"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
       </c>
@@ -6943,8 +6967,8 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="105"/>
-      <c r="C129" s="101"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
       </c>
@@ -6972,8 +6996,8 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="105"/>
-      <c r="C130" s="101"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
       </c>
@@ -7001,20 +7025,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="106"/>
+      <c r="B131" s="100"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="98" t="s">
+      <c r="D131" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="99"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="99"/>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
-      <c r="J131" s="99"/>
-      <c r="K131" s="99"/>
-      <c r="L131" s="99"/>
-      <c r="M131" s="100"/>
+      <c r="E131" s="105"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="105"/>
+      <c r="H131" s="105"/>
+      <c r="I131" s="105"/>
+      <c r="J131" s="105"/>
+      <c r="K131" s="105"/>
+      <c r="L131" s="105"/>
+      <c r="M131" s="106"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -7025,10 +7049,10 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="111" t="s">
+      <c r="B132" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="101" t="s">
+      <c r="C132" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="76" t="s">
@@ -7060,8 +7084,8 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="105"/>
-      <c r="C133" s="101"/>
+      <c r="B133" s="99"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
       </c>
@@ -7091,8 +7115,8 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="105"/>
-      <c r="C134" s="101"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
       </c>
@@ -7122,8 +7146,8 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="105"/>
-      <c r="C135" s="101"/>
+      <c r="B135" s="99"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
       </c>
@@ -7153,8 +7177,8 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="105"/>
-      <c r="C136" s="101"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
       </c>
@@ -7184,8 +7208,8 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="105"/>
-      <c r="C137" s="101"/>
+      <c r="B137" s="99"/>
+      <c r="C137" s="102"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
       </c>
@@ -7215,8 +7239,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="105"/>
-      <c r="C138" s="104" t="s">
+      <c r="B138" s="99"/>
+      <c r="C138" s="98" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7248,8 +7272,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="105"/>
-      <c r="C139" s="105"/>
+      <c r="B139" s="99"/>
+      <c r="C139" s="99"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7281,8 +7305,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="105"/>
-      <c r="C140" s="106"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="100"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7314,7 +7338,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="105"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7349,8 +7373,8 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="105"/>
-      <c r="C142" s="101" t="s">
+      <c r="B142" s="99"/>
+      <c r="C142" s="102" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7384,8 +7408,8 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="105"/>
-      <c r="C143" s="101"/>
+      <c r="B143" s="99"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
       </c>
@@ -7417,8 +7441,8 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="105"/>
-      <c r="C144" s="101"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
       </c>
@@ -7450,20 +7474,20 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="106"/>
+      <c r="B145" s="100"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="102" t="s">
+      <c r="D145" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="103"/>
-      <c r="F145" s="99"/>
-      <c r="G145" s="99"/>
-      <c r="H145" s="99"/>
-      <c r="I145" s="99"/>
-      <c r="J145" s="99"/>
-      <c r="K145" s="99"/>
-      <c r="L145" s="99"/>
-      <c r="M145" s="100"/>
+      <c r="E145" s="111"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
+      <c r="K145" s="105"/>
+      <c r="L145" s="105"/>
+      <c r="M145" s="106"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
@@ -7474,10 +7498,10 @@
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="111" t="s">
+      <c r="B146" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="101" t="s">
+      <c r="C146" s="102" t="s">
         <v>289</v>
       </c>
       <c r="D146" s="12" t="s">
@@ -7512,7 +7536,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="112"/>
-      <c r="C147" s="101"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
       </c>
@@ -7543,7 +7567,7 @@
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
       <c r="B148" s="112"/>
-      <c r="C148" s="101"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="85" t="s">
         <v>290</v>
       </c>
@@ -7569,8 +7593,8 @@
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="105"/>
-      <c r="C149" s="101"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="102"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
       </c>
@@ -7602,8 +7626,8 @@
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="105"/>
-      <c r="C150" s="101"/>
+      <c r="B150" s="99"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
       </c>
@@ -7635,8 +7659,8 @@
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="105"/>
-      <c r="C151" s="101"/>
+      <c r="B151" s="99"/>
+      <c r="C151" s="102"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
       </c>
@@ -7668,20 +7692,20 @@
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="105"/>
+      <c r="B152" s="99"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="98" t="s">
+      <c r="D152" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="99"/>
-      <c r="F152" s="99"/>
-      <c r="G152" s="99"/>
-      <c r="H152" s="99"/>
-      <c r="I152" s="99"/>
-      <c r="J152" s="99"/>
-      <c r="K152" s="99"/>
-      <c r="L152" s="99"/>
-      <c r="M152" s="100"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
+      <c r="K152" s="105"/>
+      <c r="L152" s="105"/>
+      <c r="M152" s="106"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
@@ -7692,8 +7716,8 @@
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="105"/>
-      <c r="C153" s="101" t="s">
+      <c r="B153" s="99"/>
+      <c r="C153" s="102" t="s">
         <v>278</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -7727,8 +7751,8 @@
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="105"/>
-      <c r="C154" s="101"/>
+      <c r="B154" s="99"/>
+      <c r="C154" s="102"/>
       <c r="D154" s="75" t="s">
         <v>279</v>
       </c>
@@ -7758,8 +7782,8 @@
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="105"/>
-      <c r="C155" s="101"/>
+      <c r="B155" s="99"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="95" t="s">
         <v>301</v>
       </c>
@@ -7785,8 +7809,8 @@
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="105"/>
-      <c r="C156" s="101"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="102"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
       </c>
@@ -7816,8 +7840,8 @@
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="105"/>
-      <c r="C157" s="101"/>
+      <c r="B157" s="99"/>
+      <c r="C157" s="102"/>
       <c r="D157" s="85" t="s">
         <v>285</v>
       </c>
@@ -7841,8 +7865,8 @@
     </row>
     <row r="158" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A158" s="88"/>
-      <c r="B158" s="105"/>
-      <c r="C158" s="101"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="88" t="s">
         <v>306</v>
       </c>
@@ -7863,13 +7887,13 @@
         <v>294</v>
       </c>
       <c r="O158" s="38" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="96"/>
-      <c r="B159" s="105"/>
-      <c r="C159" s="101"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="102"/>
       <c r="D159" s="96" t="s">
         <v>305</v>
       </c>
@@ -7897,8 +7921,8 @@
       <c r="A160" s="75">
         <v>149</v>
       </c>
-      <c r="B160" s="105"/>
-      <c r="C160" s="101"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="12" t="s">
         <v>281</v>
       </c>
@@ -7928,8 +7952,8 @@
     </row>
     <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="88"/>
-      <c r="B161" s="105"/>
-      <c r="C161" s="101"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="102"/>
       <c r="D161" s="88" t="s">
         <v>303</v>
       </c>
@@ -7955,10 +7979,10 @@
     </row>
     <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="97"/>
-      <c r="B162" s="105"/>
-      <c r="C162" s="101"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
@@ -7970,10 +7994,10 @@
       <c r="J162" s="97"/>
       <c r="K162" s="97"/>
       <c r="L162" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="M162" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="M162" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="N162" s="17" t="s">
         <v>294</v>
@@ -7982,8 +8006,8 @@
     </row>
     <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="85"/>
-      <c r="B163" s="105"/>
-      <c r="C163" s="101"/>
+      <c r="B163" s="99"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="85" t="s">
         <v>282</v>
       </c>
@@ -8013,8 +8037,8 @@
     </row>
     <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="85"/>
-      <c r="B164" s="105"/>
-      <c r="C164" s="101"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="102"/>
       <c r="D164" s="85" t="s">
         <v>287</v>
       </c>
@@ -8038,8 +8062,8 @@
     </row>
     <row r="165" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="85"/>
-      <c r="B165" s="105"/>
-      <c r="C165" s="101"/>
+      <c r="B165" s="99"/>
+      <c r="C165" s="102"/>
       <c r="D165" s="85" t="s">
         <v>288</v>
       </c>
@@ -8067,8 +8091,8 @@
       <c r="A166" s="75">
         <v>150</v>
       </c>
-      <c r="B166" s="105"/>
-      <c r="C166" s="101"/>
+      <c r="B166" s="99"/>
+      <c r="C166" s="102"/>
       <c r="D166" s="12" t="s">
         <v>286</v>
       </c>
@@ -8100,20 +8124,20 @@
       <c r="A167" s="75">
         <v>151</v>
       </c>
-      <c r="B167" s="106"/>
+      <c r="B167" s="100"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="102" t="s">
+      <c r="D167" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="E167" s="103"/>
-      <c r="F167" s="99"/>
-      <c r="G167" s="99"/>
-      <c r="H167" s="99"/>
-      <c r="I167" s="99"/>
-      <c r="J167" s="99"/>
-      <c r="K167" s="99"/>
-      <c r="L167" s="99"/>
-      <c r="M167" s="100"/>
+      <c r="E167" s="111"/>
+      <c r="F167" s="105"/>
+      <c r="G167" s="105"/>
+      <c r="H167" s="105"/>
+      <c r="I167" s="105"/>
+      <c r="J167" s="105"/>
+      <c r="K167" s="105"/>
+      <c r="L167" s="105"/>
+      <c r="M167" s="106"/>
       <c r="N167" s="92"/>
       <c r="O167" s="73">
         <f>SUM(F153:F166)</f>
@@ -8308,6 +8332,48 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="D152:M152"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A169:M169"/>
+    <mergeCell ref="A170:M170"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="D167:M167"/>
+    <mergeCell ref="B146:B167"/>
+    <mergeCell ref="C153:C166"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="B34:B54"/>
     <mergeCell ref="C2:C13"/>
@@ -8324,48 +8390,6 @@
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="D167:M167"/>
-    <mergeCell ref="B146:B167"/>
-    <mergeCell ref="C153:C166"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D152:M152"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C107:C122"/>
-    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -11241,7 +11265,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="113"/>
+      <c r="P82" s="103"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11277,7 +11301,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="113"/>
+      <c r="P83" s="103"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11313,7 +11337,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="113"/>
+      <c r="P84" s="103"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11349,7 +11373,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="113"/>
+      <c r="P85" s="103"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11385,7 +11409,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="113"/>
+      <c r="P86" s="103"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11421,7 +11445,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="113"/>
+      <c r="P87" s="103"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11457,7 +11481,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="113"/>
+      <c r="P88" s="103"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11493,7 +11517,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="113"/>
+      <c r="P89" s="103"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11529,7 +11553,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="113"/>
+      <c r="P90" s="103"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11563,7 +11587,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="113"/>
+      <c r="P91" s="103"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11600,7 +11624,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="113"/>
+      <c r="P92" s="103"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11636,7 +11660,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="113"/>
+      <c r="P93" s="103"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12708,7 +12732,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12718,7 +12742,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12728,7 +12752,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="113"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12738,7 +12762,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12748,7 +12772,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="113"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12758,7 +12782,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="113"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12768,7 +12792,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="113"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12778,7 +12802,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="113"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12788,23 +12812,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="113"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="113"/>
+      <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="113"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="113"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$169</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="318">
   <si>
     <t>序号</t>
   </si>
@@ -1009,10 +1009,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>米素壁纸</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1051,6 +1047,22 @@
   <si>
     <t>退人工费、一卷壁纸、一袋辅料；
 退卧室背景墙壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱窗</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1418,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1693,6 +1705,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1701,24 +1743,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1732,28 +1756,19 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2337,11 +2352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="111771056"/>
-        <c:axId val="111771616"/>
+        <c:axId val="200714864"/>
+        <c:axId val="200715424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111771056"/>
+        <c:axId val="200714864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111771616"/>
+        <c:crossAx val="200715424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2386,7 +2401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111771616"/>
+        <c:axId val="200715424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111771056"/>
+        <c:crossAx val="200714864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2878,13 +2893,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S176"/>
+  <dimension ref="A1:S178"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2958,10 +2973,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -2988,14 +3003,14 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="117"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -3020,14 +3035,14 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="103"/>
+      <c r="Q3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -3052,14 +3067,14 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="103"/>
+      <c r="Q4" s="117"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -3082,14 +3097,14 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="103"/>
+      <c r="Q5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -3112,14 +3127,14 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="103"/>
+      <c r="Q6" s="117"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="102"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -3142,12 +3157,12 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="103"/>
+      <c r="Q7" s="117"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
       </c>
@@ -3168,14 +3183,14 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="103"/>
+      <c r="Q8" s="117"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3198,14 +3213,14 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="103"/>
+      <c r="Q9" s="117"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3228,14 +3243,14 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="103"/>
+      <c r="Q10" s="117"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3258,14 +3273,14 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="103"/>
+      <c r="Q11" s="117"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3288,14 +3303,14 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="103"/>
+      <c r="Q12" s="117"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3320,14 +3335,14 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="103"/>
+      <c r="Q13" s="117"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3354,15 +3369,15 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="103"/>
+      <c r="Q14" s="117"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3392,8 +3407,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3419,12 +3434,12 @@
       <c r="N16" s="79"/>
       <c r="O16" s="81"/>
     </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="98" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3450,7 +3465,7 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O17" s="17"/>
     </row>
@@ -3458,9 +3473,9 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="116" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="99" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="46"/>
@@ -3487,13 +3502,13 @@
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="116" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="99" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="46"/>
@@ -3516,17 +3531,17 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="116" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="99" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="46"/>
@@ -3549,7 +3564,7 @@
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -3557,9 +3572,9 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="116" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="99" t="s">
         <v>249</v>
       </c>
       <c r="E21" s="46"/>
@@ -3591,8 +3606,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3624,9 +3639,9 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="117" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="100" t="s">
         <v>250</v>
       </c>
       <c r="E23" s="46"/>
@@ -3657,11 +3672,11 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="102" t="s">
+      <c r="B24" s="109"/>
+      <c r="C24" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="99" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="46"/>
@@ -3692,8 +3707,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3721,12 +3736,12 @@
       </c>
       <c r="O25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="102"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3750,14 +3765,14 @@
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
       </c>
@@ -3781,14 +3796,14 @@
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3818,8 +3833,8 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="102" t="s">
+      <c r="B29" s="109"/>
+      <c r="C29" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3853,9 +3868,9 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="116" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="99" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="46"/>
@@ -3886,8 +3901,8 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3919,7 +3934,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3952,20 +3967,20 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="100"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="106"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="104"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
@@ -3976,10 +3991,10 @@
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -4011,8 +4026,8 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
       </c>
@@ -4042,8 +4057,8 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
       </c>
@@ -4073,8 +4088,8 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
       </c>
@@ -4104,8 +4119,8 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
       </c>
@@ -4135,8 +4150,8 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="102" t="s">
+      <c r="B39" s="109"/>
+      <c r="C39" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="76" t="s">
@@ -4168,8 +4183,8 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
       </c>
@@ -4199,8 +4214,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="98" t="s">
+      <c r="B41" s="109"/>
+      <c r="C41" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4234,8 +4249,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4267,8 +4282,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4298,8 +4313,8 @@
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4325,8 +4340,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4358,9 +4373,9 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="118" t="s">
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="101" t="s">
         <v>251</v>
       </c>
       <c r="E46" s="32"/>
@@ -4387,12 +4402,12 @@
       </c>
       <c r="O46" s="44"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="102" t="s">
+      <c r="B47" s="109"/>
+      <c r="C47" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4418,7 +4433,7 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4426,8 +4441,8 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="102"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="105"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
@@ -4459,8 +4474,8 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="105"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
       </c>
@@ -4492,8 +4507,8 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="102" t="s">
+      <c r="B50" s="109"/>
+      <c r="C50" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4527,8 +4542,8 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="105"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
@@ -4560,8 +4575,8 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="99"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
       </c>
@@ -4593,8 +4608,8 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -4624,20 +4639,20 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="100"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="113" t="s">
+      <c r="D54" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="106"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="104"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
@@ -4648,10 +4663,10 @@
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="76" t="s">
@@ -4683,8 +4698,8 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
       </c>
@@ -4714,8 +4729,8 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="99"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
       </c>
@@ -4745,8 +4760,8 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
       </c>
@@ -4776,8 +4791,8 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
       </c>
@@ -4807,8 +4822,8 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="102" t="s">
+      <c r="B60" s="109"/>
+      <c r="C60" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="76" t="s">
@@ -4840,8 +4855,8 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="102"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
       </c>
@@ -4867,12 +4882,12 @@
       <c r="N61" s="79"/>
       <c r="O61" s="79"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="98" t="s">
+      <c r="B62" s="109"/>
+      <c r="C62" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="94" t="s">
         <v>300</v>
       </c>
@@ -4931,8 +4946,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4964,8 +4979,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -4997,8 +5012,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -5030,8 +5045,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="100"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5063,8 +5078,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="102" t="s">
+      <c r="B68" s="109"/>
+      <c r="C68" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -5098,8 +5113,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="102"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="105"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -5131,8 +5146,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="99"/>
-      <c r="C70" s="102"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="105"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -5164,8 +5179,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="102" t="s">
+      <c r="B71" s="109"/>
+      <c r="C71" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -5199,8 +5214,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="99"/>
-      <c r="C72" s="102"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="105"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -5232,8 +5247,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="102"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="105"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -5263,20 +5278,20 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="100"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="104" t="s">
+      <c r="D74" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="106"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="M74" s="104"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
@@ -5287,10 +5302,10 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="98" t="s">
+      <c r="B75" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="76" t="s">
@@ -5322,8 +5337,8 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="102"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="105"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
@@ -5353,8 +5368,8 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="99"/>
-      <c r="C77" s="102"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="105"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
@@ -5384,8 +5399,8 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="99"/>
-      <c r="C78" s="102"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
@@ -5415,8 +5430,8 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="99"/>
-      <c r="C79" s="102"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="105"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
@@ -5446,8 +5461,8 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="99"/>
-      <c r="C80" s="102" t="s">
+      <c r="B80" s="109"/>
+      <c r="C80" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="76" t="s">
@@ -5479,8 +5494,8 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="99"/>
-      <c r="C81" s="102"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="105"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
@@ -5510,8 +5525,8 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="99"/>
-      <c r="C82" s="98" t="s">
+      <c r="B82" s="109"/>
+      <c r="C82" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
@@ -5545,8 +5560,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="99"/>
-      <c r="C83" s="100"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5578,8 +5593,8 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="102" t="s">
+      <c r="B84" s="109"/>
+      <c r="C84" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D84" s="12" t="s">
@@ -5613,8 +5628,8 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="99"/>
-      <c r="C85" s="102"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
       </c>
@@ -5646,8 +5661,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="99"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="109"/>
+      <c r="C86" s="108" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5681,8 +5696,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="100"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5714,20 +5729,20 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="100"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="104" t="s">
+      <c r="D88" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="105"/>
-      <c r="M88" s="106"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="103"/>
+      <c r="M88" s="104"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5738,10 +5753,10 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="76" t="s">
@@ -5773,8 +5788,8 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="102"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
       </c>
@@ -5804,8 +5819,8 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="99"/>
-      <c r="C91" s="102"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="105"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
       </c>
@@ -5835,8 +5850,8 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="102"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="105"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
       </c>
@@ -5866,8 +5881,8 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="99"/>
-      <c r="C93" s="102"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
       </c>
@@ -5897,8 +5912,8 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="102"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
       </c>
@@ -5928,8 +5943,8 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="99"/>
-      <c r="C95" s="102" t="s">
+      <c r="B95" s="109"/>
+      <c r="C95" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -5961,8 +5976,8 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="99"/>
-      <c r="C96" s="102"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
       </c>
@@ -5990,8 +6005,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="99"/>
-      <c r="C97" s="98" t="s">
+      <c r="B97" s="109"/>
+      <c r="C97" s="108" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -6025,8 +6040,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="109"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6058,8 +6073,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="99"/>
-      <c r="C99" s="100"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="110"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6091,11 +6106,11 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="99"/>
-      <c r="C100" s="102" t="s">
+      <c r="B100" s="109"/>
+      <c r="C100" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="116" t="s">
+      <c r="D100" s="99" t="s">
         <v>91</v>
       </c>
       <c r="E100" s="46"/>
@@ -6122,12 +6137,12 @@
       </c>
       <c r="O100" s="39"/>
     </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="99"/>
-      <c r="C101" s="102"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="105"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
       </c>
@@ -6155,12 +6170,12 @@
       </c>
       <c r="O101" s="39"/>
     </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="99"/>
-      <c r="C102" s="102"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
       </c>
@@ -6192,8 +6207,8 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="99"/>
-      <c r="C103" s="102"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="105"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
       </c>
@@ -6225,9 +6240,9 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="99"/>
-      <c r="C104" s="102"/>
-      <c r="D104" s="116" t="s">
+      <c r="B104" s="109"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="99" t="s">
         <v>258</v>
       </c>
       <c r="E104" s="46"/>
@@ -6258,8 +6273,8 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="99"/>
-      <c r="C105" s="102"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="105"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
       </c>
@@ -6289,20 +6304,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="100"/>
+      <c r="B106" s="110"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="113" t="s">
+      <c r="D106" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
-      <c r="M106" s="106"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="104"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6313,10 +6328,10 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="98" t="s">
+      <c r="B107" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="102" t="s">
+      <c r="C107" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="76" t="s">
@@ -6348,8 +6363,8 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="102"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="105"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
       </c>
@@ -6379,8 +6394,8 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="102"/>
+      <c r="B109" s="109"/>
+      <c r="C109" s="105"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
       </c>
@@ -6408,8 +6423,8 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="99"/>
-      <c r="C110" s="102"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="105"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
       </c>
@@ -6439,8 +6454,8 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="99"/>
-      <c r="C111" s="102"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="105"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
       </c>
@@ -6470,8 +6485,8 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="99"/>
-      <c r="C112" s="102"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="105"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
       </c>
@@ -6501,8 +6516,8 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="99"/>
-      <c r="C113" s="102"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="105"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
       </c>
@@ -6530,8 +6545,8 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="102"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
       </c>
@@ -6557,8 +6572,8 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="99"/>
-      <c r="C115" s="102"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="105"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
       </c>
@@ -6580,9 +6595,9 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="102"/>
-      <c r="D116" s="116" t="s">
+      <c r="B116" s="109"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="99" t="s">
         <v>276</v>
       </c>
       <c r="E116" s="46"/>
@@ -6605,8 +6620,8 @@
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="102"/>
+      <c r="B117" s="109"/>
+      <c r="C117" s="105"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
       </c>
@@ -6630,8 +6645,8 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="99"/>
-      <c r="C118" s="102"/>
+      <c r="B118" s="109"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
       </c>
@@ -6661,8 +6676,8 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="99"/>
-      <c r="C119" s="102"/>
+      <c r="B119" s="109"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
       </c>
@@ -6692,8 +6707,8 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="99"/>
-      <c r="C120" s="102"/>
+      <c r="B120" s="109"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
       </c>
@@ -6723,8 +6738,8 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="99"/>
-      <c r="C121" s="102"/>
+      <c r="B121" s="109"/>
+      <c r="C121" s="105"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
       </c>
@@ -6754,8 +6769,8 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="99"/>
-      <c r="C122" s="102"/>
+      <c r="B122" s="109"/>
+      <c r="C122" s="105"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
       </c>
@@ -6785,8 +6800,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="98" t="s">
+      <c r="B123" s="109"/>
+      <c r="C123" s="108" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6816,8 +6831,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="99"/>
-      <c r="C124" s="99"/>
+      <c r="B124" s="109"/>
+      <c r="C124" s="109"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6845,8 +6860,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6874,8 +6889,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="99"/>
-      <c r="C126" s="100"/>
+      <c r="B126" s="109"/>
+      <c r="C126" s="110"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6899,12 +6914,12 @@
       <c r="N126" s="79"/>
       <c r="O126" s="79"/>
     </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="99"/>
-      <c r="C127" s="102" t="s">
+      <c r="B127" s="109"/>
+      <c r="C127" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -6932,12 +6947,12 @@
       </c>
       <c r="O127" s="44"/>
     </row>
-    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="99"/>
-      <c r="C128" s="102"/>
+      <c r="B128" s="109"/>
+      <c r="C128" s="105"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
       </c>
@@ -6967,8 +6982,8 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="99"/>
-      <c r="C129" s="102"/>
+      <c r="B129" s="109"/>
+      <c r="C129" s="105"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
       </c>
@@ -6996,8 +7011,8 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="99"/>
-      <c r="C130" s="102"/>
+      <c r="B130" s="109"/>
+      <c r="C130" s="105"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
       </c>
@@ -7025,20 +7040,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="100"/>
+      <c r="B131" s="110"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="113" t="s">
+      <c r="D131" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="105"/>
-      <c r="F131" s="105"/>
-      <c r="G131" s="105"/>
-      <c r="H131" s="105"/>
-      <c r="I131" s="105"/>
-      <c r="J131" s="105"/>
-      <c r="K131" s="105"/>
-      <c r="L131" s="105"/>
-      <c r="M131" s="106"/>
+      <c r="E131" s="103"/>
+      <c r="F131" s="103"/>
+      <c r="G131" s="103"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="103"/>
+      <c r="J131" s="103"/>
+      <c r="K131" s="103"/>
+      <c r="L131" s="103"/>
+      <c r="M131" s="104"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -7049,10 +7064,10 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="101" t="s">
+      <c r="B132" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="102" t="s">
+      <c r="C132" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="76" t="s">
@@ -7084,8 +7099,8 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="99"/>
-      <c r="C133" s="102"/>
+      <c r="B133" s="109"/>
+      <c r="C133" s="105"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
       </c>
@@ -7115,8 +7130,8 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="99"/>
-      <c r="C134" s="102"/>
+      <c r="B134" s="109"/>
+      <c r="C134" s="105"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
       </c>
@@ -7146,8 +7161,8 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="99"/>
-      <c r="C135" s="102"/>
+      <c r="B135" s="109"/>
+      <c r="C135" s="105"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
       </c>
@@ -7177,8 +7192,8 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="99"/>
-      <c r="C136" s="102"/>
+      <c r="B136" s="109"/>
+      <c r="C136" s="105"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
       </c>
@@ -7208,8 +7223,8 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="99"/>
-      <c r="C137" s="102"/>
+      <c r="B137" s="109"/>
+      <c r="C137" s="105"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
       </c>
@@ -7239,8 +7254,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="99"/>
-      <c r="C138" s="98" t="s">
+      <c r="B138" s="109"/>
+      <c r="C138" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7272,8 +7287,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="99"/>
-      <c r="C139" s="99"/>
+      <c r="B139" s="109"/>
+      <c r="C139" s="109"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7305,8 +7320,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="99"/>
-      <c r="C140" s="100"/>
+      <c r="B140" s="109"/>
+      <c r="C140" s="110"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7338,7 +7353,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="99"/>
+      <c r="B141" s="109"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7373,8 +7388,8 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="99"/>
-      <c r="C142" s="102" t="s">
+      <c r="B142" s="109"/>
+      <c r="C142" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7408,8 +7423,8 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="99"/>
-      <c r="C143" s="102"/>
+      <c r="B143" s="109"/>
+      <c r="C143" s="105"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
       </c>
@@ -7441,8 +7456,8 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="99"/>
-      <c r="C144" s="102"/>
+      <c r="B144" s="109"/>
+      <c r="C144" s="105"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
       </c>
@@ -7474,34 +7489,34 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="100"/>
+      <c r="B145" s="110"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="104" t="s">
+      <c r="D145" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="111"/>
-      <c r="F145" s="105"/>
-      <c r="G145" s="105"/>
-      <c r="H145" s="105"/>
-      <c r="I145" s="105"/>
-      <c r="J145" s="105"/>
-      <c r="K145" s="105"/>
-      <c r="L145" s="105"/>
-      <c r="M145" s="106"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="103"/>
+      <c r="G145" s="103"/>
+      <c r="H145" s="103"/>
+      <c r="I145" s="103"/>
+      <c r="J145" s="103"/>
+      <c r="K145" s="103"/>
+      <c r="L145" s="103"/>
+      <c r="M145" s="104"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="101" t="s">
+      <c r="B146" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="102" t="s">
+      <c r="C146" s="105" t="s">
         <v>289</v>
       </c>
       <c r="D146" s="12" t="s">
@@ -7531,12 +7546,12 @@
       </c>
       <c r="O146" s="55"/>
     </row>
-    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="75">
         <v>141</v>
       </c>
-      <c r="B147" s="112"/>
-      <c r="C147" s="102"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="105"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
       </c>
@@ -7564,10 +7579,10 @@
       </c>
       <c r="O147" s="55"/>
     </row>
-    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
-      <c r="B148" s="112"/>
-      <c r="C148" s="102"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="105"/>
       <c r="D148" s="85" t="s">
         <v>290</v>
       </c>
@@ -7589,12 +7604,12 @@
       </c>
       <c r="O148" s="55"/>
     </row>
-    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="99"/>
-      <c r="C149" s="102"/>
+      <c r="B149" s="109"/>
+      <c r="C149" s="105"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
       </c>
@@ -7622,12 +7637,12 @@
       </c>
       <c r="O149" s="55"/>
     </row>
-    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="99"/>
-      <c r="C150" s="102"/>
+      <c r="B150" s="109"/>
+      <c r="C150" s="105"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
       </c>
@@ -7655,12 +7670,12 @@
       </c>
       <c r="O150" s="55"/>
     </row>
-    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="99"/>
-      <c r="C151" s="102"/>
+      <c r="B151" s="109"/>
+      <c r="C151" s="105"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
       </c>
@@ -7692,32 +7707,32 @@
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="99"/>
+      <c r="B152" s="109"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="113" t="s">
+      <c r="D152" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="105"/>
-      <c r="F152" s="105"/>
-      <c r="G152" s="105"/>
-      <c r="H152" s="105"/>
-      <c r="I152" s="105"/>
-      <c r="J152" s="105"/>
-      <c r="K152" s="105"/>
-      <c r="L152" s="105"/>
-      <c r="M152" s="106"/>
+      <c r="E152" s="103"/>
+      <c r="F152" s="103"/>
+      <c r="G152" s="103"/>
+      <c r="H152" s="103"/>
+      <c r="I152" s="103"/>
+      <c r="J152" s="103"/>
+      <c r="K152" s="103"/>
+      <c r="L152" s="103"/>
+      <c r="M152" s="104"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="99"/>
-      <c r="C153" s="102" t="s">
+      <c r="B153" s="109"/>
+      <c r="C153" s="105" t="s">
         <v>278</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -7747,12 +7762,12 @@
       </c>
       <c r="O153" s="38"/>
     </row>
-    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="99"/>
-      <c r="C154" s="102"/>
+      <c r="B154" s="109"/>
+      <c r="C154" s="105"/>
       <c r="D154" s="75" t="s">
         <v>279</v>
       </c>
@@ -7782,8 +7797,8 @@
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="99"/>
-      <c r="C155" s="102"/>
+      <c r="B155" s="109"/>
+      <c r="C155" s="105"/>
       <c r="D155" s="95" t="s">
         <v>301</v>
       </c>
@@ -7805,12 +7820,12 @@
       </c>
       <c r="O155" s="38"/>
     </row>
-    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="99"/>
-      <c r="C156" s="102"/>
+      <c r="B156" s="109"/>
+      <c r="C156" s="105"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
       </c>
@@ -7840,8 +7855,8 @@
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="99"/>
-      <c r="C157" s="102"/>
+      <c r="B157" s="109"/>
+      <c r="C157" s="105"/>
       <c r="D157" s="85" t="s">
         <v>285</v>
       </c>
@@ -7863,50 +7878,48 @@
       </c>
       <c r="O157" s="38"/>
     </row>
-    <row r="158" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A158" s="88"/>
-      <c r="B158" s="99"/>
-      <c r="C158" s="102"/>
-      <c r="D158" s="88" t="s">
-        <v>306</v>
+    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="98"/>
+      <c r="B158" s="109"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="98" t="s">
+        <v>317</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="46"/>
-      <c r="J158" s="88"/>
-      <c r="K158" s="88"/>
-      <c r="L158" s="88" t="s">
-        <v>291</v>
+      <c r="J158" s="98"/>
+      <c r="K158" s="98"/>
+      <c r="L158" s="98" t="s">
+        <v>315</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="O158" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="96"/>
-      <c r="B159" s="99"/>
-      <c r="C159" s="102"/>
-      <c r="D159" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="O158" s="38"/>
+    </row>
+    <row r="159" spans="1:15" ht="33.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="88"/>
+      <c r="B159" s="109"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="88" t="s">
         <v>305</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
-        <v>2047</v>
+        <v>1800</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="46"/>
-      <c r="J159" s="96"/>
-      <c r="K159" s="96"/>
-      <c r="L159" s="96" t="s">
+      <c r="J159" s="88"/>
+      <c r="K159" s="88"/>
+      <c r="L159" s="88" t="s">
         <v>291</v>
       </c>
       <c r="M159" s="24"/>
@@ -7914,35 +7927,27 @@
         <v>294</v>
       </c>
       <c r="O159" s="38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="75">
-        <v>149</v>
-      </c>
-      <c r="B160" s="99"/>
-      <c r="C160" s="102"/>
-      <c r="D160" s="12" t="s">
-        <v>281</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="98"/>
+      <c r="B160" s="109"/>
+      <c r="C160" s="105"/>
+      <c r="D160" s="98" t="s">
+        <v>314</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
-        <v>5278</v>
-      </c>
-      <c r="G160" s="17">
-        <v>0</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I160" s="46">
-        <v>0</v>
-      </c>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="75" t="s">
-        <v>284</v>
+        <v>1245</v>
+      </c>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="98"/>
+      <c r="K160" s="98"/>
+      <c r="L160" s="98" t="s">
+        <v>315</v>
       </c>
       <c r="M160" s="24"/>
       <c r="N160" s="17" t="s">
@@ -7950,130 +7955,140 @@
       </c>
       <c r="O160" s="38"/>
     </row>
-    <row r="161" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="88"/>
-      <c r="B161" s="99"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="88" t="s">
-        <v>303</v>
+    <row r="161" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="96"/>
+      <c r="B161" s="109"/>
+      <c r="C161" s="105"/>
+      <c r="D161" s="96" t="s">
+        <v>304</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
-        <v>811</v>
+        <v>2047</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="46"/>
-      <c r="J161" s="88"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="88" t="s">
+      <c r="J161" s="96"/>
+      <c r="K161" s="96"/>
+      <c r="L161" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="M161" s="24" t="s">
-        <v>292</v>
-      </c>
+      <c r="M161" s="24"/>
       <c r="N161" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="O161" s="38"/>
-    </row>
-    <row r="162" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="97"/>
-      <c r="B162" s="99"/>
-      <c r="C162" s="102"/>
-      <c r="D162" s="97" t="s">
-        <v>309</v>
+      <c r="O161" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="75">
+        <v>149</v>
+      </c>
+      <c r="B162" s="109"/>
+      <c r="C162" s="105"/>
+      <c r="D162" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>206</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="46"/>
-      <c r="J162" s="97"/>
-      <c r="K162" s="97"/>
-      <c r="L162" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="M162" s="24" t="s">
-        <v>311</v>
-      </c>
+        <v>5278</v>
+      </c>
+      <c r="G162" s="17">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I162" s="46">
+        <v>0</v>
+      </c>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M162" s="24"/>
       <c r="N162" s="17" t="s">
         <v>294</v>
       </c>
       <c r="O162" s="38"/>
     </row>
-    <row r="163" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="85"/>
-      <c r="B163" s="99"/>
-      <c r="C163" s="102"/>
-      <c r="D163" s="85" t="s">
-        <v>282</v>
+    <row r="163" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="88"/>
+      <c r="B163" s="109"/>
+      <c r="C163" s="105"/>
+      <c r="D163" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>950</v>
-      </c>
-      <c r="G163" s="17">
-        <v>0</v>
-      </c>
-      <c r="H163" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I163" s="46">
-        <v>0</v>
-      </c>
-      <c r="J163" s="85"/>
-      <c r="K163" s="85"/>
-      <c r="L163" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M163" s="24"/>
+        <v>811</v>
+      </c>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="46"/>
+      <c r="J163" s="88"/>
+      <c r="K163" s="88"/>
+      <c r="L163" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="M163" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="N163" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O163" s="38"/>
     </row>
-    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="85"/>
-      <c r="B164" s="99"/>
-      <c r="C164" s="102"/>
-      <c r="D164" s="85" t="s">
-        <v>287</v>
+    <row r="164" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="97"/>
+      <c r="B164" s="109"/>
+      <c r="C164" s="105"/>
+      <c r="D164" s="97" t="s">
+        <v>308</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>-1110</v>
+        <v>206</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="46"/>
-      <c r="J164" s="85"/>
-      <c r="K164" s="85"/>
-      <c r="L164" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M164" s="24"/>
+      <c r="J164" s="97"/>
+      <c r="K164" s="97"/>
+      <c r="L164" s="97" t="s">
+        <v>309</v>
+      </c>
+      <c r="M164" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="N164" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O164" s="38"/>
     </row>
     <row r="165" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="85"/>
-      <c r="B165" s="99"/>
-      <c r="C165" s="102"/>
+      <c r="B165" s="109"/>
+      <c r="C165" s="105"/>
       <c r="D165" s="85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="46">
-        <v>-1330</v>
-      </c>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G165" s="17">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I165" s="46">
+        <v>0</v>
+      </c>
       <c r="J165" s="85"/>
       <c r="K165" s="85"/>
       <c r="L165" s="85" t="s">
@@ -8081,257 +8096,354 @@
       </c>
       <c r="M165" s="24"/>
       <c r="N165" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="O165" s="38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="75">
-        <v>150</v>
-      </c>
-      <c r="B166" s="99"/>
-      <c r="C166" s="102"/>
-      <c r="D166" s="12" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+      <c r="O165" s="38"/>
+    </row>
+    <row r="166" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="85"/>
+      <c r="B166" s="109"/>
+      <c r="C166" s="105"/>
+      <c r="D166" s="85" t="s">
+        <v>287</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G166" s="17">
-        <v>0</v>
-      </c>
-      <c r="H166" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I166" s="46">
-        <v>0</v>
-      </c>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="75" t="s">
+        <v>-1110</v>
+      </c>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="46"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="85"/>
+      <c r="L166" s="85" t="s">
         <v>284</v>
       </c>
       <c r="M166" s="24"/>
       <c r="N166" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="O166" s="38"/>
+    </row>
+    <row r="167" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="85"/>
+      <c r="B167" s="109"/>
+      <c r="C167" s="105"/>
+      <c r="D167" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="46">
+        <v>-1330</v>
+      </c>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="46"/>
+      <c r="J167" s="85"/>
+      <c r="K167" s="85"/>
+      <c r="L167" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="M167" s="24"/>
+      <c r="N167" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O167" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="75">
+        <v>150</v>
+      </c>
+      <c r="B168" s="109"/>
+      <c r="C168" s="105"/>
+      <c r="D168" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E168" s="24"/>
+      <c r="F168" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G168" s="17">
+        <v>0</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I168" s="46">
+        <v>0</v>
+      </c>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="M168" s="24"/>
+      <c r="N168" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="O166" s="38"/>
-    </row>
-    <row r="167" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="75">
+      <c r="O168" s="38"/>
+    </row>
+    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="75">
         <v>151</v>
       </c>
-      <c r="B167" s="100"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="104" t="s">
+      <c r="B169" s="110"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="E167" s="111"/>
-      <c r="F167" s="105"/>
-      <c r="G167" s="105"/>
-      <c r="H167" s="105"/>
-      <c r="I167" s="105"/>
-      <c r="J167" s="105"/>
-      <c r="K167" s="105"/>
-      <c r="L167" s="105"/>
-      <c r="M167" s="106"/>
-      <c r="N167" s="92"/>
-      <c r="O167" s="73">
-        <f>SUM(F153:F166)</f>
-        <v>78165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L168" s="84"/>
-      <c r="N168" s="84"/>
-    </row>
-    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="107" t="s">
+      <c r="E169" s="107"/>
+      <c r="F169" s="103"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="103"/>
+      <c r="I169" s="103"/>
+      <c r="J169" s="103"/>
+      <c r="K169" s="103"/>
+      <c r="L169" s="103"/>
+      <c r="M169" s="104"/>
+      <c r="N169" s="92"/>
+      <c r="O169" s="73">
+        <f>SUM(F153:F168)</f>
+        <v>80110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L170" s="84"/>
+      <c r="N170" s="84"/>
+    </row>
+    <row r="171" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="108"/>
-      <c r="C169" s="108"/>
-      <c r="D169" s="108"/>
-      <c r="E169" s="108"/>
-      <c r="F169" s="108"/>
-      <c r="G169" s="108"/>
-      <c r="H169" s="108"/>
-      <c r="I169" s="108"/>
-      <c r="J169" s="108"/>
-      <c r="K169" s="108"/>
-      <c r="L169" s="108"/>
-      <c r="M169" s="109"/>
-      <c r="N169" s="93"/>
-      <c r="O169" s="58">
-        <f>O33+O54+O74+O88+O106+O131+O145+O152+O167</f>
-        <v>122314</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="107" t="s">
+      <c r="B171" s="112"/>
+      <c r="C171" s="112"/>
+      <c r="D171" s="112"/>
+      <c r="E171" s="112"/>
+      <c r="F171" s="112"/>
+      <c r="G171" s="112"/>
+      <c r="H171" s="112"/>
+      <c r="I171" s="112"/>
+      <c r="J171" s="112"/>
+      <c r="K171" s="112"/>
+      <c r="L171" s="112"/>
+      <c r="M171" s="113"/>
+      <c r="N171" s="93"/>
+      <c r="O171" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O152+O169</f>
+        <v>124259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="108"/>
-      <c r="C170" s="108"/>
-      <c r="D170" s="108"/>
-      <c r="E170" s="108"/>
-      <c r="F170" s="108"/>
-      <c r="G170" s="108"/>
-      <c r="H170" s="108"/>
-      <c r="I170" s="108"/>
-      <c r="J170" s="108"/>
-      <c r="K170" s="108"/>
-      <c r="L170" s="108"/>
-      <c r="M170" s="109"/>
-      <c r="N170" s="87"/>
-      <c r="O170" s="58">
+      <c r="B172" s="112"/>
+      <c r="C172" s="112"/>
+      <c r="D172" s="112"/>
+      <c r="E172" s="112"/>
+      <c r="F172" s="112"/>
+      <c r="G172" s="112"/>
+      <c r="H172" s="112"/>
+      <c r="I172" s="112"/>
+      <c r="J172" s="112"/>
+      <c r="K172" s="112"/>
+      <c r="L172" s="112"/>
+      <c r="M172" s="113"/>
+      <c r="N172" s="87"/>
+      <c r="O172" s="58">
         <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="107" t="s">
+    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="108"/>
-      <c r="C171" s="108"/>
-      <c r="D171" s="108"/>
-      <c r="E171" s="108"/>
-      <c r="F171" s="108"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="108"/>
-      <c r="I171" s="108"/>
-      <c r="J171" s="108"/>
-      <c r="K171" s="108"/>
-      <c r="L171" s="108"/>
-      <c r="M171" s="109"/>
-      <c r="N171" s="87"/>
-      <c r="O171" s="58">
+      <c r="B173" s="112"/>
+      <c r="C173" s="112"/>
+      <c r="D173" s="112"/>
+      <c r="E173" s="112"/>
+      <c r="F173" s="112"/>
+      <c r="G173" s="112"/>
+      <c r="H173" s="112"/>
+      <c r="I173" s="112"/>
+      <c r="J173" s="112"/>
+      <c r="K173" s="112"/>
+      <c r="L173" s="112"/>
+      <c r="M173" s="113"/>
+      <c r="N173" s="87"/>
+      <c r="O173" s="58">
         <f>SUM(F138:F140,F41:F46,F17:F23)</f>
         <v>12380</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="107" t="s">
+    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B172" s="108"/>
-      <c r="C172" s="108"/>
-      <c r="D172" s="108"/>
-      <c r="E172" s="108"/>
-      <c r="F172" s="108"/>
-      <c r="G172" s="108"/>
-      <c r="H172" s="108"/>
-      <c r="I172" s="108"/>
-      <c r="J172" s="108"/>
-      <c r="K172" s="108"/>
-      <c r="L172" s="108"/>
-      <c r="M172" s="109"/>
-      <c r="N172" s="87"/>
-      <c r="O172" s="58">
+      <c r="B174" s="112"/>
+      <c r="C174" s="112"/>
+      <c r="D174" s="112"/>
+      <c r="E174" s="112"/>
+      <c r="F174" s="112"/>
+      <c r="G174" s="112"/>
+      <c r="H174" s="112"/>
+      <c r="I174" s="112"/>
+      <c r="J174" s="112"/>
+      <c r="K174" s="112"/>
+      <c r="L174" s="112"/>
+      <c r="M174" s="113"/>
+      <c r="N174" s="87"/>
+      <c r="O174" s="58">
         <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
         <v>22632</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="107" t="s">
+    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="B173" s="108"/>
-      <c r="C173" s="108"/>
-      <c r="D173" s="108"/>
-      <c r="E173" s="108"/>
-      <c r="F173" s="108"/>
-      <c r="G173" s="108"/>
-      <c r="H173" s="108"/>
-      <c r="I173" s="108"/>
-      <c r="J173" s="108"/>
-      <c r="K173" s="108"/>
-      <c r="L173" s="108"/>
-      <c r="M173" s="109"/>
-      <c r="N173" s="87"/>
-      <c r="O173" s="58">
+      <c r="B175" s="112"/>
+      <c r="C175" s="112"/>
+      <c r="D175" s="112"/>
+      <c r="E175" s="112"/>
+      <c r="F175" s="112"/>
+      <c r="G175" s="112"/>
+      <c r="H175" s="112"/>
+      <c r="I175" s="112"/>
+      <c r="J175" s="112"/>
+      <c r="K175" s="112"/>
+      <c r="L175" s="112"/>
+      <c r="M175" s="113"/>
+      <c r="N175" s="87"/>
+      <c r="O175" s="58">
         <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="107" t="s">
+    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="108"/>
-      <c r="C174" s="108"/>
-      <c r="D174" s="108"/>
-      <c r="E174" s="108"/>
-      <c r="F174" s="108"/>
-      <c r="G174" s="108"/>
-      <c r="H174" s="108"/>
-      <c r="I174" s="108"/>
-      <c r="J174" s="108"/>
-      <c r="K174" s="108"/>
-      <c r="L174" s="108"/>
-      <c r="M174" s="109"/>
-      <c r="N174" s="87"/>
-      <c r="O174" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="B175" s="108"/>
-      <c r="C175" s="108"/>
-      <c r="D175" s="108"/>
-      <c r="E175" s="108"/>
-      <c r="F175" s="108"/>
-      <c r="G175" s="108"/>
-      <c r="H175" s="108"/>
-      <c r="I175" s="108"/>
-      <c r="J175" s="108"/>
-      <c r="K175" s="108"/>
-      <c r="L175" s="108"/>
-      <c r="M175" s="109"/>
-      <c r="N175" s="87"/>
-      <c r="O175" s="58">
-        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="110" t="s">
-        <v>241</v>
-      </c>
-      <c r="B176" s="108"/>
-      <c r="C176" s="108"/>
-      <c r="D176" s="108"/>
-      <c r="E176" s="108"/>
-      <c r="F176" s="108"/>
-      <c r="G176" s="108"/>
-      <c r="H176" s="108"/>
-      <c r="I176" s="108"/>
-      <c r="J176" s="108"/>
-      <c r="K176" s="108"/>
-      <c r="L176" s="108"/>
-      <c r="M176" s="109"/>
+      <c r="B176" s="112"/>
+      <c r="C176" s="112"/>
+      <c r="D176" s="112"/>
+      <c r="E176" s="112"/>
+      <c r="F176" s="112"/>
+      <c r="G176" s="112"/>
+      <c r="H176" s="112"/>
+      <c r="I176" s="112"/>
+      <c r="J176" s="112"/>
+      <c r="K176" s="112"/>
+      <c r="L176" s="112"/>
+      <c r="M176" s="113"/>
       <c r="N176" s="87"/>
       <c r="O176" s="58">
-        <f>SUM(O152:O166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="112"/>
+      <c r="C177" s="112"/>
+      <c r="D177" s="112"/>
+      <c r="E177" s="112"/>
+      <c r="F177" s="112"/>
+      <c r="G177" s="112"/>
+      <c r="H177" s="112"/>
+      <c r="I177" s="112"/>
+      <c r="J177" s="112"/>
+      <c r="K177" s="112"/>
+      <c r="L177" s="112"/>
+      <c r="M177" s="113"/>
+      <c r="N177" s="87"/>
+      <c r="O177" s="58">
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B178" s="112"/>
+      <c r="C178" s="112"/>
+      <c r="D178" s="112"/>
+      <c r="E178" s="112"/>
+      <c r="F178" s="112"/>
+      <c r="G178" s="112"/>
+      <c r="H178" s="112"/>
+      <c r="I178" s="112"/>
+      <c r="J178" s="112"/>
+      <c r="K178" s="112"/>
+      <c r="L178" s="112"/>
+      <c r="M178" s="113"/>
+      <c r="N178" s="87"/>
+      <c r="O178" s="58">
+        <f>SUM(O152:O168)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S167">
+  <autoFilter ref="A1:S169">
     <filterColumn colId="11">
       <filters>
         <filter val="自购"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="13">
+      <filters blank="1">
+        <filter val="否"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B55:B74"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="A177:M177"/>
+    <mergeCell ref="A178:M178"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A171:M171"/>
+    <mergeCell ref="A172:M172"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="D169:M169"/>
+    <mergeCell ref="B146:B169"/>
+    <mergeCell ref="C153:C168"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
     <mergeCell ref="D152:M152"/>
     <mergeCell ref="C146:C151"/>
     <mergeCell ref="D33:M33"/>
@@ -8348,48 +8460,6 @@
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="C107:C122"/>
     <mergeCell ref="C123:C126"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A169:M169"/>
-    <mergeCell ref="A170:M170"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="D167:M167"/>
-    <mergeCell ref="B146:B167"/>
-    <mergeCell ref="C153:C166"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B54"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8888,7 +8958,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="115"/>
+      <c r="M13" s="119"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8923,7 +8993,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="115"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11265,7 +11335,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="103"/>
+      <c r="P82" s="117"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11301,7 +11371,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="103"/>
+      <c r="P83" s="117"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11337,7 +11407,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="103"/>
+      <c r="P84" s="117"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11373,7 +11443,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="103"/>
+      <c r="P85" s="117"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11409,7 +11479,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="103"/>
+      <c r="P86" s="117"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11445,7 +11515,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="103"/>
+      <c r="P87" s="117"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11481,7 +11551,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="103"/>
+      <c r="P88" s="117"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11517,7 +11587,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="103"/>
+      <c r="P89" s="117"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11553,7 +11623,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="103"/>
+      <c r="P90" s="117"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11587,7 +11657,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="103"/>
+      <c r="P91" s="117"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11624,7 +11694,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="103"/>
+      <c r="P92" s="117"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11660,7 +11730,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="103"/>
+      <c r="P93" s="117"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12438,167 +12508,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="107" t="s">
+      <c r="A120" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="108"/>
-      <c r="H120" s="108"/>
-      <c r="I120" s="108"/>
-      <c r="J120" s="108"/>
-      <c r="K120" s="108"/>
-      <c r="L120" s="108"/>
-      <c r="M120" s="109"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="118"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="113"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="107" t="s">
+      <c r="A121" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="108"/>
-      <c r="C121" s="108"/>
-      <c r="D121" s="108"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="108"/>
-      <c r="G121" s="108"/>
-      <c r="H121" s="108"/>
-      <c r="I121" s="108"/>
-      <c r="J121" s="108"/>
-      <c r="K121" s="108"/>
-      <c r="L121" s="108"/>
-      <c r="M121" s="109"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="112"/>
+      <c r="G121" s="112"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="112"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="113"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="107" t="s">
+      <c r="A122" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="108"/>
-      <c r="C122" s="108"/>
-      <c r="D122" s="108"/>
-      <c r="E122" s="114"/>
-      <c r="F122" s="108"/>
-      <c r="G122" s="108"/>
-      <c r="H122" s="108"/>
-      <c r="I122" s="108"/>
-      <c r="J122" s="108"/>
-      <c r="K122" s="108"/>
-      <c r="L122" s="108"/>
-      <c r="M122" s="109"/>
+      <c r="B122" s="112"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="112"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="112"/>
+      <c r="I122" s="112"/>
+      <c r="J122" s="112"/>
+      <c r="K122" s="112"/>
+      <c r="L122" s="112"/>
+      <c r="M122" s="113"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="107" t="s">
+      <c r="A123" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="108"/>
-      <c r="C123" s="108"/>
-      <c r="D123" s="108"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="108"/>
-      <c r="G123" s="108"/>
-      <c r="H123" s="108"/>
-      <c r="I123" s="108"/>
-      <c r="J123" s="108"/>
-      <c r="K123" s="108"/>
-      <c r="L123" s="108"/>
-      <c r="M123" s="109"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="112"/>
+      <c r="G123" s="112"/>
+      <c r="H123" s="112"/>
+      <c r="I123" s="112"/>
+      <c r="J123" s="112"/>
+      <c r="K123" s="112"/>
+      <c r="L123" s="112"/>
+      <c r="M123" s="113"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="107" t="s">
+      <c r="A124" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="108"/>
-      <c r="C124" s="108"/>
-      <c r="D124" s="108"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="108"/>
-      <c r="G124" s="108"/>
-      <c r="H124" s="108"/>
-      <c r="I124" s="108"/>
-      <c r="J124" s="108"/>
-      <c r="K124" s="108"/>
-      <c r="L124" s="108"/>
-      <c r="M124" s="109"/>
+      <c r="B124" s="112"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="112"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="112"/>
+      <c r="G124" s="112"/>
+      <c r="H124" s="112"/>
+      <c r="I124" s="112"/>
+      <c r="J124" s="112"/>
+      <c r="K124" s="112"/>
+      <c r="L124" s="112"/>
+      <c r="M124" s="113"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="107" t="s">
+      <c r="A125" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="114"/>
-      <c r="F125" s="108"/>
-      <c r="G125" s="108"/>
-      <c r="H125" s="108"/>
-      <c r="I125" s="108"/>
-      <c r="J125" s="108"/>
-      <c r="K125" s="108"/>
-      <c r="L125" s="108"/>
-      <c r="M125" s="109"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="112"/>
+      <c r="H125" s="112"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
+      <c r="L125" s="112"/>
+      <c r="M125" s="113"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="107" t="s">
+      <c r="A126" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="108"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="108"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="108"/>
-      <c r="H126" s="108"/>
-      <c r="I126" s="108"/>
-      <c r="J126" s="108"/>
-      <c r="K126" s="108"/>
-      <c r="L126" s="108"/>
-      <c r="M126" s="109"/>
+      <c r="B126" s="112"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="112"/>
+      <c r="I126" s="112"/>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="113"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="107" t="s">
+      <c r="A127" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="108"/>
-      <c r="C127" s="108"/>
-      <c r="D127" s="108"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="108"/>
-      <c r="G127" s="108"/>
-      <c r="H127" s="108"/>
-      <c r="I127" s="108"/>
-      <c r="J127" s="108"/>
-      <c r="K127" s="108"/>
-      <c r="L127" s="108"/>
-      <c r="M127" s="109"/>
+      <c r="B127" s="112"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="118"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="112"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="112"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="112"/>
+      <c r="L127" s="112"/>
+      <c r="M127" s="113"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12732,7 +12802,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12742,7 +12812,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="103"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12752,7 +12822,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="103"/>
+      <c r="M5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12762,7 +12832,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12772,7 +12842,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="117"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12782,7 +12852,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="103"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12792,7 +12862,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="103"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12802,7 +12872,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="103"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12812,23 +12882,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="103"/>
+      <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="103"/>
+      <c r="M12" s="117"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="103"/>
+      <c r="M13" s="117"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="103"/>
+      <c r="M14" s="117"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$171</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="322">
   <si>
     <t>序号</t>
   </si>
@@ -902,10 +902,6 @@
   </si>
   <si>
     <t>飘窗榻榻米</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修公司</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1063,6 +1059,26 @@
   </si>
   <si>
     <t>纱窗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开荒</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机龙头</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1434,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1717,23 +1733,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1743,6 +1744,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1756,14 +1775,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2352,11 +2371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200714864"/>
-        <c:axId val="200715424"/>
+        <c:axId val="201707088"/>
+        <c:axId val="32498480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200714864"/>
+        <c:axId val="201707088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2410,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200715424"/>
+        <c:crossAx val="32498480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2401,7 +2420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200715424"/>
+        <c:axId val="32498480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200714864"/>
+        <c:crossAx val="201707088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,13 +2912,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S178"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2963,7 +2982,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
@@ -2973,10 +2992,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -3003,14 +3022,14 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="108"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="105"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
@@ -3035,14 +3054,14 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="117"/>
+      <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
@@ -3067,14 +3086,14 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="117"/>
+      <c r="Q4" s="108"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="105"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
@@ -3097,14 +3116,14 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="117"/>
+      <c r="Q5" s="108"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
       </c>
@@ -3127,14 +3146,14 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="117"/>
+      <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
       </c>
@@ -3152,17 +3171,17 @@
       <c r="J7" s="17"/>
       <c r="K7" s="76"/>
       <c r="L7" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="117"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
       </c>
@@ -3178,19 +3197,19 @@
       <c r="J8" s="17"/>
       <c r="K8" s="76"/>
       <c r="L8" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="117"/>
+      <c r="Q8" s="108"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
@@ -3213,14 +3232,14 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="117"/>
+      <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
       </c>
@@ -3243,14 +3262,14 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="117"/>
+      <c r="Q10" s="108"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
@@ -3273,14 +3292,14 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="117"/>
+      <c r="Q11" s="108"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
       </c>
@@ -3303,14 +3322,14 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="117"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
       </c>
@@ -3335,14 +3354,14 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="117"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="105" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="76" t="s">
@@ -3369,15 +3388,15 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="117"/>
+      <c r="Q14" s="108"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
       </c>
@@ -3407,8 +3426,8 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
       </c>
@@ -3434,12 +3453,12 @@
       <c r="N16" s="79"/>
       <c r="O16" s="81"/>
     </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="108" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3465,7 +3484,7 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O17" s="17"/>
     </row>
@@ -3473,14 +3492,14 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="99" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="17">
         <v>0</v>
@@ -3498,16 +3517,16 @@
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="99" t="s">
         <v>40</v>
       </c>
@@ -3531,16 +3550,16 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="99" t="s">
         <v>41</v>
       </c>
@@ -3564,7 +3583,7 @@
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -3572,14 +3591,14 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="99" t="s">
         <v>249</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
@@ -3597,7 +3616,7 @@
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O21" s="17"/>
       <c r="S21" s="64"/>
@@ -3606,8 +3625,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3631,7 +3650,7 @@
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O22" s="17"/>
     </row>
@@ -3639,14 +3658,14 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="100" t="s">
         <v>250</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -3664,7 +3683,7 @@
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O23" s="39"/>
     </row>
@@ -3672,8 +3691,8 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="105" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="99" t="s">
@@ -3699,7 +3718,7 @@
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O24" s="39"/>
     </row>
@@ -3707,8 +3726,8 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="105"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
@@ -3732,16 +3751,16 @@
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="105"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
@@ -3765,14 +3784,14 @@
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="105"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
       </c>
@@ -3796,14 +3815,14 @@
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="105"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
@@ -3825,7 +3844,7 @@
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O28" s="39"/>
     </row>
@@ -3833,8 +3852,8 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="105" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="107" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3860,7 +3879,7 @@
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O29" s="39"/>
     </row>
@@ -3868,8 +3887,8 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="105"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="99" t="s">
         <v>53</v>
       </c>
@@ -3893,7 +3912,7 @@
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O30" s="39"/>
     </row>
@@ -3901,8 +3920,8 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="105"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3926,7 +3945,7 @@
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O31" s="39"/>
     </row>
@@ -3934,7 +3953,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3963,38 +3982,38 @@
       <c r="N32" s="79"/>
       <c r="O32" s="81"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="110"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="111"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
-        <v>20530</v>
+        <v>21130</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="76" t="s">
@@ -4026,8 +4045,8 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="105"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
       </c>
@@ -4057,8 +4076,8 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="105"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
       </c>
@@ -4088,8 +4107,8 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="105"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
       </c>
@@ -4119,8 +4138,8 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="105"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
       </c>
@@ -4150,8 +4169,8 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="105" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="76" t="s">
@@ -4183,8 +4202,8 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="105"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
       </c>
@@ -4214,8 +4233,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="108" t="s">
+      <c r="B41" s="104"/>
+      <c r="C41" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4241,7 +4260,7 @@
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O41" s="12"/>
     </row>
@@ -4249,8 +4268,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4274,7 +4293,7 @@
       </c>
       <c r="M42" s="24"/>
       <c r="N42" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O42" s="12"/>
     </row>
@@ -4282,8 +4301,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4307,14 +4326,14 @@
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4332,7 +4351,7 @@
       </c>
       <c r="M44" s="24"/>
       <c r="N44" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O44" s="75"/>
     </row>
@@ -4340,8 +4359,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4365,7 +4384,7 @@
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O45" s="12"/>
     </row>
@@ -4373,14 +4392,14 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="101" t="s">
         <v>251</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G46" s="71">
         <v>0</v>
@@ -4398,16 +4417,16 @@
       </c>
       <c r="M46" s="24"/>
       <c r="N46" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O46" s="44"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="105" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4433,7 +4452,7 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4441,8 +4460,8 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="105"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
@@ -4466,7 +4485,7 @@
       </c>
       <c r="M48" s="24"/>
       <c r="N48" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O48" s="44"/>
     </row>
@@ -4474,8 +4493,8 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="105"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
       </c>
@@ -4499,7 +4518,7 @@
       </c>
       <c r="M49" s="24"/>
       <c r="N49" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O49" s="44"/>
     </row>
@@ -4507,8 +4526,8 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="105" t="s">
+      <c r="B50" s="104"/>
+      <c r="C50" s="107" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4534,7 +4553,7 @@
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O50" s="44"/>
     </row>
@@ -4542,8 +4561,8 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="105"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
@@ -4567,7 +4586,7 @@
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O51" s="44"/>
     </row>
@@ -4575,8 +4594,8 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="105"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
       </c>
@@ -4600,7 +4619,7 @@
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O52" s="44"/>
     </row>
@@ -4608,8 +4627,8 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="105"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -4631,42 +4650,42 @@
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O53" s="44"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="110"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="104"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="111"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
-        <v>1750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="105" t="s">
+      <c r="C55" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="76" t="s">
@@ -4698,8 +4717,8 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="105"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
       </c>
@@ -4729,8 +4748,8 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="109"/>
-      <c r="C57" s="105"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
       </c>
@@ -4760,8 +4779,8 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
       </c>
@@ -4791,8 +4810,8 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
       </c>
@@ -4822,8 +4841,8 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="105" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="76" t="s">
@@ -4855,8 +4874,8 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
       </c>
@@ -4882,12 +4901,12 @@
       <c r="N61" s="79"/>
       <c r="O61" s="79"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="108" t="s">
+      <c r="B62" s="104"/>
+      <c r="C62" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4913,16 +4932,16 @@
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
@@ -4938,7 +4957,7 @@
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O63" s="94"/>
     </row>
@@ -4946,8 +4965,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4971,7 +4990,7 @@
       </c>
       <c r="M64" s="24"/>
       <c r="N64" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O64" s="12"/>
     </row>
@@ -4979,8 +4998,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -5004,7 +5023,7 @@
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O65" s="12"/>
     </row>
@@ -5012,8 +5031,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -5037,7 +5056,7 @@
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O66" s="12"/>
     </row>
@@ -5045,8 +5064,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="105"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5070,7 +5089,7 @@
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O67" s="44"/>
     </row>
@@ -5078,8 +5097,8 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="105" t="s">
+      <c r="B68" s="104"/>
+      <c r="C68" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -5105,7 +5124,7 @@
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="17" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="O68" s="44"/>
     </row>
@@ -5113,8 +5132,8 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="105"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
       </c>
@@ -5138,7 +5157,7 @@
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O69" s="44"/>
     </row>
@@ -5146,8 +5165,8 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="105"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
       </c>
@@ -5171,7 +5190,7 @@
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O70" s="44"/>
     </row>
@@ -5179,8 +5198,8 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="105" t="s">
+      <c r="B71" s="104"/>
+      <c r="C71" s="107" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -5206,7 +5225,7 @@
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O71" s="44"/>
     </row>
@@ -5214,8 +5233,8 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="109"/>
-      <c r="C72" s="105"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
       </c>
@@ -5239,7 +5258,7 @@
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O72" s="44"/>
     </row>
@@ -5247,8 +5266,8 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="105"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
@@ -5270,28 +5289,28 @@
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O73" s="44"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="110"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="106" t="s">
+      <c r="D74" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="104"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="111"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
@@ -5302,10 +5321,10 @@
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="105" t="s">
+      <c r="B75" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="76" t="s">
@@ -5337,8 +5356,8 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="105"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
       </c>
@@ -5368,8 +5387,8 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="109"/>
-      <c r="C77" s="105"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
       </c>
@@ -5399,8 +5418,8 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="105"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
       </c>
@@ -5430,8 +5449,8 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="105"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
       </c>
@@ -5461,8 +5480,8 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="105" t="s">
+      <c r="B80" s="104"/>
+      <c r="C80" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="76" t="s">
@@ -5494,8 +5513,8 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="109"/>
-      <c r="C81" s="105"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
       </c>
@@ -5525,12 +5544,12 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="108" t="s">
+      <c r="B82" s="104"/>
+      <c r="C82" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
@@ -5552,7 +5571,7 @@
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O82" s="12"/>
     </row>
@@ -5560,8 +5579,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="110"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5585,7 +5604,7 @@
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O83" s="44"/>
     </row>
@@ -5593,8 +5612,8 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="105" t="s">
+      <c r="B84" s="104"/>
+      <c r="C84" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D84" s="12" t="s">
@@ -5620,7 +5639,7 @@
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="17" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="O84" s="44"/>
     </row>
@@ -5628,8 +5647,8 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="109"/>
-      <c r="C85" s="105"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
       </c>
@@ -5653,7 +5672,7 @@
       </c>
       <c r="M85" s="24"/>
       <c r="N85" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O85" s="44"/>
     </row>
@@ -5661,8 +5680,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="108" t="s">
+      <c r="B86" s="104"/>
+      <c r="C86" s="103" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5688,7 +5707,7 @@
       </c>
       <c r="M86" s="24"/>
       <c r="N86" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O86" s="44"/>
     </row>
@@ -5696,8 +5715,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="109"/>
-      <c r="C87" s="110"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="105"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5721,28 +5740,28 @@
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O87" s="44"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="110"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="106" t="s">
+      <c r="D88" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="104"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="110"/>
+      <c r="L88" s="110"/>
+      <c r="M88" s="111"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5753,10 +5772,10 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="105" t="s">
+      <c r="C89" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="76" t="s">
@@ -5788,8 +5807,8 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="105"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="107"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
       </c>
@@ -5819,8 +5838,8 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="105"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="107"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
       </c>
@@ -5850,8 +5869,8 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="105"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="107"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
       </c>
@@ -5881,8 +5900,8 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="105"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="107"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
       </c>
@@ -5912,8 +5931,8 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="109"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
       </c>
@@ -5943,8 +5962,8 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="105" t="s">
+      <c r="B95" s="104"/>
+      <c r="C95" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -5976,8 +5995,8 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="109"/>
-      <c r="C96" s="105"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
       </c>
@@ -6005,8 +6024,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="109"/>
-      <c r="C97" s="108" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="103" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -6032,7 +6051,7 @@
       </c>
       <c r="M97" s="40"/>
       <c r="N97" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O97" s="17"/>
     </row>
@@ -6040,8 +6059,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="109"/>
-      <c r="C98" s="109"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="104"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6065,7 +6084,7 @@
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O98" s="17"/>
     </row>
@@ -6073,8 +6092,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="109"/>
-      <c r="C99" s="110"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="105"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6098,7 +6117,7 @@
       </c>
       <c r="M99" s="40"/>
       <c r="N99" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O99" s="39"/>
     </row>
@@ -6106,8 +6125,8 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="109"/>
-      <c r="C100" s="105" t="s">
+      <c r="B100" s="104"/>
+      <c r="C100" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="99" t="s">
@@ -6115,7 +6134,7 @@
       </c>
       <c r="E100" s="46"/>
       <c r="F100" s="46">
-        <v>3599</v>
+        <v>5389</v>
       </c>
       <c r="G100" s="17">
         <v>0</v>
@@ -6133,16 +6152,16 @@
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O100" s="39"/>
     </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="109"/>
-      <c r="C101" s="105"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="107"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
       </c>
@@ -6166,16 +6185,16 @@
       </c>
       <c r="M101" s="40"/>
       <c r="N101" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O101" s="39"/>
     </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="105"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="107"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
       </c>
@@ -6199,7 +6218,7 @@
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O102" s="39"/>
     </row>
@@ -6207,8 +6226,8 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="105"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
       </c>
@@ -6232,7 +6251,7 @@
       </c>
       <c r="M103" s="40"/>
       <c r="N103" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O103" s="39"/>
     </row>
@@ -6240,8 +6259,8 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="105"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="107"/>
       <c r="D104" s="99" t="s">
         <v>258</v>
       </c>
@@ -6265,7 +6284,7 @@
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O104" s="39"/>
     </row>
@@ -6273,8 +6292,8 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="109"/>
-      <c r="C105" s="105"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="107"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
       </c>
@@ -6294,44 +6313,44 @@
       <c r="J105" s="82"/>
       <c r="K105" s="76"/>
       <c r="L105" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M105" s="79"/>
       <c r="N105" s="79"/>
       <c r="O105" s="81"/>
     </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="110"/>
+      <c r="B106" s="105"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="102" t="s">
+      <c r="D106" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="104"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="110"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="110"/>
+      <c r="J106" s="110"/>
+      <c r="K106" s="110"/>
+      <c r="L106" s="110"/>
+      <c r="M106" s="111"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
-        <v>10220</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="105" t="s">
+      <c r="C107" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="76" t="s">
@@ -6363,8 +6382,8 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="109"/>
-      <c r="C108" s="105"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="107"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
       </c>
@@ -6394,8 +6413,8 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="109"/>
-      <c r="C109" s="105"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="107"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
       </c>
@@ -6423,8 +6442,8 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="109"/>
-      <c r="C110" s="105"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="107"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
       </c>
@@ -6454,8 +6473,8 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="109"/>
-      <c r="C111" s="105"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="107"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
       </c>
@@ -6485,8 +6504,8 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="105"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="107"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
       </c>
@@ -6516,8 +6535,8 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="105"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="107"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
       </c>
@@ -6545,8 +6564,8 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="105"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="107"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
       </c>
@@ -6564,7 +6583,7 @@
       <c r="J114" s="17"/>
       <c r="K114" s="76"/>
       <c r="L114" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M114" s="80"/>
       <c r="N114" s="80"/>
@@ -6572,8 +6591,8 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="109"/>
-      <c r="C115" s="105"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="107"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
       </c>
@@ -6587,7 +6606,7 @@
       <c r="J115" s="17"/>
       <c r="K115" s="76"/>
       <c r="L115" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M115" s="80"/>
       <c r="N115" s="80"/>
@@ -6595,14 +6614,14 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="109"/>
-      <c r="C116" s="105"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="107"/>
       <c r="D116" s="99" t="s">
         <v>276</v>
       </c>
       <c r="E116" s="46"/>
       <c r="F116" s="46">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -6614,14 +6633,14 @@
       </c>
       <c r="M116" s="52"/>
       <c r="N116" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O116" s="40"/>
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="109"/>
-      <c r="C117" s="105"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
       </c>
@@ -6635,7 +6654,7 @@
       <c r="J117" s="17"/>
       <c r="K117" s="76"/>
       <c r="L117" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M117" s="80"/>
       <c r="N117" s="80"/>
@@ -6645,8 +6664,8 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="109"/>
-      <c r="C118" s="105"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="107"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
       </c>
@@ -6666,7 +6685,7 @@
       <c r="J118" s="17"/>
       <c r="K118" s="76"/>
       <c r="L118" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M118" s="80"/>
       <c r="N118" s="80"/>
@@ -6676,8 +6695,8 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="109"/>
-      <c r="C119" s="105"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="107"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
       </c>
@@ -6707,8 +6726,8 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="109"/>
-      <c r="C120" s="105"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="107"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
       </c>
@@ -6738,8 +6757,8 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="109"/>
-      <c r="C121" s="105"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="107"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
       </c>
@@ -6769,8 +6788,8 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="109"/>
-      <c r="C122" s="105"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="107"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
       </c>
@@ -6800,8 +6819,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="109"/>
-      <c r="C123" s="108" t="s">
+      <c r="B123" s="104"/>
+      <c r="C123" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6831,8 +6850,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="109"/>
-      <c r="C124" s="109"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6860,8 +6879,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6889,8 +6908,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="109"/>
-      <c r="C126" s="110"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="105"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6914,12 +6933,12 @@
       <c r="N126" s="79"/>
       <c r="O126" s="79"/>
     </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="109"/>
-      <c r="C127" s="105" t="s">
+      <c r="B127" s="104"/>
+      <c r="C127" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -6943,16 +6962,16 @@
       </c>
       <c r="M127" s="24"/>
       <c r="N127" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O127" s="44"/>
     </row>
-    <row r="128" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="109"/>
-      <c r="C128" s="105"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="107"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
       </c>
@@ -6974,7 +6993,7 @@
       </c>
       <c r="M128" s="24"/>
       <c r="N128" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O128" s="44"/>
     </row>
@@ -6982,8 +7001,8 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="109"/>
-      <c r="C129" s="105"/>
+      <c r="B129" s="104"/>
+      <c r="C129" s="107"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
       </c>
@@ -7011,8 +7030,8 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="109"/>
-      <c r="C130" s="105"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="107"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
       </c>
@@ -7036,38 +7055,38 @@
       <c r="N130" s="79"/>
       <c r="O130" s="81"/>
     </row>
-    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="110"/>
+      <c r="B131" s="105"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="102" t="s">
+      <c r="D131" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="103"/>
-      <c r="F131" s="103"/>
-      <c r="G131" s="103"/>
-      <c r="H131" s="103"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="103"/>
-      <c r="K131" s="103"/>
-      <c r="L131" s="103"/>
-      <c r="M131" s="104"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="110"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="110"/>
+      <c r="I131" s="110"/>
+      <c r="J131" s="110"/>
+      <c r="K131" s="110"/>
+      <c r="L131" s="110"/>
+      <c r="M131" s="111"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
-        <v>5812</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="115" t="s">
+      <c r="B132" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="105" t="s">
+      <c r="C132" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="76" t="s">
@@ -7099,8 +7118,8 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="109"/>
-      <c r="C133" s="105"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="107"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
       </c>
@@ -7130,8 +7149,8 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="109"/>
-      <c r="C134" s="105"/>
+      <c r="B134" s="104"/>
+      <c r="C134" s="107"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
       </c>
@@ -7161,8 +7180,8 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="109"/>
-      <c r="C135" s="105"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="107"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
       </c>
@@ -7192,8 +7211,8 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="109"/>
-      <c r="C136" s="105"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="107"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
       </c>
@@ -7223,8 +7242,8 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="109"/>
-      <c r="C137" s="105"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="107"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
       </c>
@@ -7254,8 +7273,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="109"/>
-      <c r="C138" s="108" t="s">
+      <c r="B138" s="104"/>
+      <c r="C138" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7287,8 +7306,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="109"/>
-      <c r="C139" s="109"/>
+      <c r="B139" s="104"/>
+      <c r="C139" s="104"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7312,7 +7331,7 @@
       </c>
       <c r="M139" s="24"/>
       <c r="N139" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O139" s="12"/>
     </row>
@@ -7320,8 +7339,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="109"/>
-      <c r="C140" s="110"/>
+      <c r="B140" s="104"/>
+      <c r="C140" s="105"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7345,7 +7364,7 @@
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O140" s="44"/>
     </row>
@@ -7353,7 +7372,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="109"/>
+      <c r="B141" s="104"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7380,7 +7399,7 @@
       </c>
       <c r="M141" s="24"/>
       <c r="N141" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O141" s="44"/>
     </row>
@@ -7388,8 +7407,8 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="105" t="s">
+      <c r="B142" s="104"/>
+      <c r="C142" s="107" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7415,7 +7434,7 @@
       </c>
       <c r="M142" s="24"/>
       <c r="N142" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O142" s="44"/>
     </row>
@@ -7423,8 +7442,8 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="109"/>
-      <c r="C143" s="105"/>
+      <c r="B143" s="104"/>
+      <c r="C143" s="107"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
       </c>
@@ -7448,7 +7467,7 @@
       </c>
       <c r="M143" s="24"/>
       <c r="N143" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O143" s="44"/>
     </row>
@@ -7456,8 +7475,8 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="109"/>
-      <c r="C144" s="105"/>
+      <c r="B144" s="104"/>
+      <c r="C144" s="107"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
       </c>
@@ -7481,43 +7500,43 @@
       </c>
       <c r="M144" s="24"/>
       <c r="N144" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O144" s="44"/>
     </row>
-    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="110"/>
+      <c r="B145" s="105"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="106" t="s">
+      <c r="D145" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="107"/>
-      <c r="F145" s="103"/>
-      <c r="G145" s="103"/>
-      <c r="H145" s="103"/>
-      <c r="I145" s="103"/>
-      <c r="J145" s="103"/>
-      <c r="K145" s="103"/>
-      <c r="L145" s="103"/>
-      <c r="M145" s="104"/>
+      <c r="E145" s="116"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="110"/>
+      <c r="K145" s="110"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="111"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="115" t="s">
+      <c r="B146" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="105" t="s">
-        <v>289</v>
+      <c r="C146" s="107" t="s">
+        <v>288</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>261</v>
@@ -7542,16 +7561,16 @@
       </c>
       <c r="M146" s="24"/>
       <c r="N146" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O146" s="55"/>
     </row>
-    <row r="147" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="75">
         <v>141</v>
       </c>
-      <c r="B147" s="116"/>
-      <c r="C147" s="105"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="107"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
       </c>
@@ -7575,16 +7594,16 @@
       </c>
       <c r="M147" s="24"/>
       <c r="N147" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O147" s="55"/>
     </row>
-    <row r="148" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="105"/>
+      <c r="B148" s="117"/>
+      <c r="C148" s="107"/>
       <c r="D148" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="46">
@@ -7596,20 +7615,20 @@
       <c r="J148" s="85"/>
       <c r="K148" s="85"/>
       <c r="L148" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M148" s="24"/>
       <c r="N148" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O148" s="55"/>
     </row>
-    <row r="149" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="75">
         <v>142</v>
       </c>
-      <c r="B149" s="109"/>
-      <c r="C149" s="105"/>
+      <c r="B149" s="104"/>
+      <c r="C149" s="107"/>
       <c r="D149" s="12" t="s">
         <v>129</v>
       </c>
@@ -7633,16 +7652,16 @@
       </c>
       <c r="M149" s="24"/>
       <c r="N149" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O149" s="55"/>
     </row>
-    <row r="150" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="75">
         <v>143</v>
       </c>
-      <c r="B150" s="109"/>
-      <c r="C150" s="105"/>
+      <c r="B150" s="104"/>
+      <c r="C150" s="107"/>
       <c r="D150" s="12" t="s">
         <v>130</v>
       </c>
@@ -7666,16 +7685,16 @@
       </c>
       <c r="M150" s="24"/>
       <c r="N150" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O150" s="55"/>
     </row>
-    <row r="151" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
         <v>144</v>
       </c>
-      <c r="B151" s="109"/>
-      <c r="C151" s="105"/>
+      <c r="B151" s="104"/>
+      <c r="C151" s="107"/>
       <c r="D151" s="12" t="s">
         <v>131</v>
       </c>
@@ -7695,48 +7714,48 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M151" s="24"/>
       <c r="N151" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O151" s="55"/>
     </row>
-    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="109"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="60"/>
-      <c r="D152" s="102" t="s">
+      <c r="D152" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="103"/>
-      <c r="F152" s="103"/>
-      <c r="G152" s="103"/>
-      <c r="H152" s="103"/>
-      <c r="I152" s="103"/>
-      <c r="J152" s="103"/>
-      <c r="K152" s="103"/>
-      <c r="L152" s="103"/>
-      <c r="M152" s="104"/>
+      <c r="E152" s="110"/>
+      <c r="F152" s="110"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
+      <c r="I152" s="110"/>
+      <c r="J152" s="110"/>
+      <c r="K152" s="110"/>
+      <c r="L152" s="110"/>
+      <c r="M152" s="111"/>
       <c r="N152" s="91"/>
       <c r="O152" s="65">
         <f>SUM(F146:F151)</f>
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="75">
         <v>146</v>
       </c>
-      <c r="B153" s="109"/>
-      <c r="C153" s="105" t="s">
-        <v>278</v>
+      <c r="B153" s="104"/>
+      <c r="C153" s="107" t="s">
+        <v>319</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="46">
@@ -7754,22 +7773,22 @@
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M153" s="24"/>
       <c r="N153" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O153" s="38"/>
     </row>
-    <row r="154" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="75">
         <v>147</v>
       </c>
-      <c r="B154" s="109"/>
-      <c r="C154" s="105"/>
+      <c r="B154" s="104"/>
+      <c r="C154" s="107"/>
       <c r="D154" s="75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="46">
@@ -7787,20 +7806,20 @@
       <c r="J154" s="75"/>
       <c r="K154" s="75"/>
       <c r="L154" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M154" s="24"/>
       <c r="N154" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O154" s="38"/>
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="95"/>
-      <c r="B155" s="109"/>
-      <c r="C155" s="105"/>
+      <c r="B155" s="104"/>
+      <c r="C155" s="107"/>
       <c r="D155" s="95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
@@ -7816,16 +7835,16 @@
       </c>
       <c r="M155" s="24"/>
       <c r="N155" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O155" s="38"/>
     </row>
-    <row r="156" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="75">
         <v>148</v>
       </c>
-      <c r="B156" s="109"/>
-      <c r="C156" s="105"/>
+      <c r="B156" s="104"/>
+      <c r="C156" s="107"/>
       <c r="D156" s="85" t="s">
         <v>262</v>
       </c>
@@ -7845,20 +7864,20 @@
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
       <c r="L156" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M156" s="24"/>
       <c r="N156" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O156" s="38"/>
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="85"/>
-      <c r="B157" s="109"/>
-      <c r="C157" s="105"/>
+      <c r="B157" s="104"/>
+      <c r="C157" s="107"/>
       <c r="D157" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="46">
@@ -7870,20 +7889,20 @@
       <c r="J157" s="85"/>
       <c r="K157" s="85"/>
       <c r="L157" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M157" s="24"/>
       <c r="N157" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O157" s="38"/>
     </row>
     <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="98"/>
-      <c r="B158" s="109"/>
-      <c r="C158" s="105"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="107"/>
       <c r="D158" s="98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
@@ -7895,20 +7914,20 @@
       <c r="J158" s="98"/>
       <c r="K158" s="98"/>
       <c r="L158" s="98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="17" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="O158" s="38"/>
     </row>
-    <row r="159" spans="1:15" ht="33.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A159" s="88"/>
-      <c r="B159" s="109"/>
-      <c r="C159" s="105"/>
+      <c r="B159" s="104"/>
+      <c r="C159" s="107"/>
       <c r="D159" s="88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
@@ -7920,22 +7939,22 @@
       <c r="J159" s="88"/>
       <c r="K159" s="88"/>
       <c r="L159" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M159" s="24"/>
       <c r="N159" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O159" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="98"/>
+      <c r="B160" s="104"/>
+      <c r="C160" s="107"/>
+      <c r="D160" s="98" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="98"/>
-      <c r="B160" s="109"/>
-      <c r="C160" s="105"/>
-      <c r="D160" s="98" t="s">
-        <v>314</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
@@ -7947,20 +7966,20 @@
       <c r="J160" s="98"/>
       <c r="K160" s="98"/>
       <c r="L160" s="98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M160" s="24"/>
       <c r="N160" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O160" s="38"/>
     </row>
-    <row r="161" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="96"/>
-      <c r="B161" s="109"/>
-      <c r="C161" s="105"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="107"/>
       <c r="D161" s="96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
@@ -7972,212 +7991,202 @@
       <c r="J161" s="96"/>
       <c r="K161" s="96"/>
       <c r="L161" s="96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M161" s="24"/>
       <c r="N161" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="75">
-        <v>149</v>
-      </c>
-      <c r="B162" s="109"/>
-      <c r="C162" s="105"/>
-      <c r="D162" s="12" t="s">
-        <v>281</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="102"/>
+      <c r="B162" s="104"/>
+      <c r="C162" s="107"/>
+      <c r="D162" s="102" t="s">
+        <v>317</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>5278</v>
-      </c>
-      <c r="G162" s="17">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I162" s="46">
-        <v>0</v>
-      </c>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="75" t="s">
-        <v>284</v>
+        <v>300</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="46"/>
+      <c r="J162" s="102"/>
+      <c r="K162" s="102"/>
+      <c r="L162" s="102" t="s">
+        <v>320</v>
       </c>
       <c r="M162" s="24"/>
       <c r="N162" s="17" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="O162" s="38"/>
     </row>
-    <row r="163" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="88"/>
-      <c r="B163" s="109"/>
-      <c r="C163" s="105"/>
-      <c r="D163" s="88" t="s">
-        <v>303</v>
+    <row r="163" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="102"/>
+      <c r="B163" s="104"/>
+      <c r="C163" s="107"/>
+      <c r="D163" s="102" t="s">
+        <v>321</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>811</v>
+        <v>37</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="46"/>
-      <c r="J163" s="88"/>
-      <c r="K163" s="88"/>
-      <c r="L163" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="M163" s="24" t="s">
-        <v>292</v>
-      </c>
+      <c r="J163" s="102"/>
+      <c r="K163" s="102"/>
+      <c r="L163" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="M163" s="24"/>
       <c r="N163" s="17" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="O163" s="38"/>
     </row>
-    <row r="164" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="97"/>
-      <c r="B164" s="109"/>
-      <c r="C164" s="105"/>
-      <c r="D164" s="97" t="s">
-        <v>308</v>
+    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="75">
+        <v>149</v>
+      </c>
+      <c r="B164" s="104"/>
+      <c r="C164" s="107"/>
+      <c r="D164" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>206</v>
-      </c>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="46"/>
-      <c r="J164" s="97"/>
-      <c r="K164" s="97"/>
-      <c r="L164" s="97" t="s">
-        <v>309</v>
-      </c>
-      <c r="M164" s="24" t="s">
-        <v>310</v>
-      </c>
+        <v>5278</v>
+      </c>
+      <c r="G164" s="17">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I164" s="46">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M164" s="24"/>
       <c r="N164" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O164" s="38"/>
     </row>
     <row r="165" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="85"/>
-      <c r="B165" s="109"/>
-      <c r="C165" s="105"/>
-      <c r="D165" s="85" t="s">
-        <v>282</v>
+      <c r="A165" s="88"/>
+      <c r="B165" s="104"/>
+      <c r="C165" s="107"/>
+      <c r="D165" s="88" t="s">
+        <v>302</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="46">
-        <v>950</v>
-      </c>
-      <c r="G165" s="17">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I165" s="46">
-        <v>0</v>
-      </c>
-      <c r="J165" s="85"/>
-      <c r="K165" s="85"/>
-      <c r="L165" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M165" s="24"/>
+        <v>811</v>
+      </c>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="46"/>
+      <c r="J165" s="88"/>
+      <c r="K165" s="88"/>
+      <c r="L165" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="M165" s="24" t="s">
+        <v>291</v>
+      </c>
       <c r="N165" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O165" s="38"/>
     </row>
     <row r="166" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="85"/>
-      <c r="B166" s="109"/>
-      <c r="C166" s="105"/>
-      <c r="D166" s="85" t="s">
-        <v>287</v>
+      <c r="A166" s="97"/>
+      <c r="B166" s="104"/>
+      <c r="C166" s="107"/>
+      <c r="D166" s="97" t="s">
+        <v>307</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="46">
-        <v>-1110</v>
+        <v>206</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="46"/>
-      <c r="J166" s="85"/>
-      <c r="K166" s="85"/>
-      <c r="L166" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="M166" s="24"/>
+      <c r="J166" s="97"/>
+      <c r="K166" s="97"/>
+      <c r="L166" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="M166" s="24" t="s">
+        <v>309</v>
+      </c>
       <c r="N166" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O166" s="38"/>
     </row>
     <row r="167" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="85"/>
-      <c r="B167" s="109"/>
-      <c r="C167" s="105"/>
+      <c r="B167" s="104"/>
+      <c r="C167" s="107"/>
       <c r="D167" s="85" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="46">
-        <v>-1330</v>
-      </c>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G167" s="17">
+        <v>0</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I167" s="46">
+        <v>0</v>
+      </c>
       <c r="J167" s="85"/>
       <c r="K167" s="85"/>
       <c r="L167" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M167" s="24"/>
       <c r="N167" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="O167" s="38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="75">
-        <v>150</v>
-      </c>
-      <c r="B168" s="109"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="O167" s="38"/>
+    </row>
+    <row r="168" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="85"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="107"/>
+      <c r="D168" s="85" t="s">
         <v>286</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G168" s="17">
-        <v>0</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I168" s="46">
-        <v>0</v>
-      </c>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="75" t="s">
-        <v>284</v>
+        <v>-1110</v>
+      </c>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="46"/>
+      <c r="J168" s="85"/>
+      <c r="K168" s="85"/>
+      <c r="L168" s="85" t="s">
+        <v>283</v>
       </c>
       <c r="M168" s="24"/>
       <c r="N168" s="17" t="s">
@@ -8185,223 +8194,320 @@
       </c>
       <c r="O168" s="38"/>
     </row>
-    <row r="169" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="75">
+    <row r="169" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="85"/>
+      <c r="B169" s="104"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="46">
+        <v>-1330</v>
+      </c>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="46"/>
+      <c r="J169" s="85"/>
+      <c r="K169" s="85"/>
+      <c r="L169" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="M169" s="24"/>
+      <c r="N169" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="O169" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="75">
+        <v>150</v>
+      </c>
+      <c r="B170" s="104"/>
+      <c r="C170" s="107"/>
+      <c r="D170" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G170" s="17">
+        <v>0</v>
+      </c>
+      <c r="H170" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I170" s="46">
+        <v>0</v>
+      </c>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M170" s="24"/>
+      <c r="N170" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="O170" s="38"/>
+    </row>
+    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="75">
         <v>151</v>
       </c>
-      <c r="B169" s="110"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="106" t="s">
+      <c r="B171" s="105"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="E169" s="107"/>
-      <c r="F169" s="103"/>
-      <c r="G169" s="103"/>
-      <c r="H169" s="103"/>
-      <c r="I169" s="103"/>
-      <c r="J169" s="103"/>
-      <c r="K169" s="103"/>
-      <c r="L169" s="103"/>
-      <c r="M169" s="104"/>
-      <c r="N169" s="92"/>
-      <c r="O169" s="73">
-        <f>SUM(F153:F168)</f>
-        <v>80110</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L170" s="84"/>
-      <c r="N170" s="84"/>
-    </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="111" t="s">
+      <c r="E171" s="116"/>
+      <c r="F171" s="110"/>
+      <c r="G171" s="110"/>
+      <c r="H171" s="110"/>
+      <c r="I171" s="110"/>
+      <c r="J171" s="110"/>
+      <c r="K171" s="110"/>
+      <c r="L171" s="110"/>
+      <c r="M171" s="111"/>
+      <c r="N171" s="92"/>
+      <c r="O171" s="73">
+        <f>SUM(F153:F170)</f>
+        <v>80447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L172" s="84"/>
+      <c r="N172" s="84"/>
+    </row>
+    <row r="173" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="112"/>
-      <c r="C171" s="112"/>
-      <c r="D171" s="112"/>
-      <c r="E171" s="112"/>
-      <c r="F171" s="112"/>
-      <c r="G171" s="112"/>
-      <c r="H171" s="112"/>
-      <c r="I171" s="112"/>
-      <c r="J171" s="112"/>
-      <c r="K171" s="112"/>
-      <c r="L171" s="112"/>
-      <c r="M171" s="113"/>
-      <c r="N171" s="93"/>
-      <c r="O171" s="58">
-        <f>O33+O54+O74+O88+O106+O131+O145+O152+O169</f>
-        <v>124259</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="111" t="s">
+      <c r="B173" s="113"/>
+      <c r="C173" s="113"/>
+      <c r="D173" s="113"/>
+      <c r="E173" s="113"/>
+      <c r="F173" s="113"/>
+      <c r="G173" s="113"/>
+      <c r="H173" s="113"/>
+      <c r="I173" s="113"/>
+      <c r="J173" s="113"/>
+      <c r="K173" s="113"/>
+      <c r="L173" s="113"/>
+      <c r="M173" s="114"/>
+      <c r="N173" s="93"/>
+      <c r="O173" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O152+O171</f>
+        <v>125441</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="B172" s="112"/>
-      <c r="C172" s="112"/>
-      <c r="D172" s="112"/>
-      <c r="E172" s="112"/>
-      <c r="F172" s="112"/>
-      <c r="G172" s="112"/>
-      <c r="H172" s="112"/>
-      <c r="I172" s="112"/>
-      <c r="J172" s="112"/>
-      <c r="K172" s="112"/>
-      <c r="L172" s="112"/>
-      <c r="M172" s="113"/>
-      <c r="N172" s="87"/>
-      <c r="O172" s="58">
-        <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="111" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="112"/>
-      <c r="C173" s="112"/>
-      <c r="D173" s="112"/>
-      <c r="E173" s="112"/>
-      <c r="F173" s="112"/>
-      <c r="G173" s="112"/>
-      <c r="H173" s="112"/>
-      <c r="I173" s="112"/>
-      <c r="J173" s="112"/>
-      <c r="K173" s="112"/>
-      <c r="L173" s="112"/>
-      <c r="M173" s="113"/>
-      <c r="N173" s="87"/>
-      <c r="O173" s="58">
-        <f>SUM(F138:F140,F41:F46,F17:F23)</f>
-        <v>12380</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="B174" s="112"/>
-      <c r="C174" s="112"/>
-      <c r="D174" s="112"/>
-      <c r="E174" s="112"/>
-      <c r="F174" s="112"/>
-      <c r="G174" s="112"/>
-      <c r="H174" s="112"/>
-      <c r="I174" s="112"/>
-      <c r="J174" s="112"/>
-      <c r="K174" s="112"/>
-      <c r="L174" s="112"/>
-      <c r="M174" s="113"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="113"/>
+      <c r="E174" s="113"/>
+      <c r="F174" s="113"/>
+      <c r="G174" s="113"/>
+      <c r="H174" s="113"/>
+      <c r="I174" s="113"/>
+      <c r="J174" s="113"/>
+      <c r="K174" s="113"/>
+      <c r="L174" s="113"/>
+      <c r="M174" s="114"/>
       <c r="N174" s="87"/>
       <c r="O174" s="58">
-        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
-        <v>22632</v>
+        <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="B175" s="112"/>
-      <c r="C175" s="112"/>
-      <c r="D175" s="112"/>
-      <c r="E175" s="112"/>
-      <c r="F175" s="112"/>
-      <c r="G175" s="112"/>
-      <c r="H175" s="112"/>
-      <c r="I175" s="112"/>
-      <c r="J175" s="112"/>
-      <c r="K175" s="112"/>
-      <c r="L175" s="112"/>
-      <c r="M175" s="113"/>
+      <c r="A175" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="113"/>
+      <c r="C175" s="113"/>
+      <c r="D175" s="113"/>
+      <c r="E175" s="113"/>
+      <c r="F175" s="113"/>
+      <c r="G175" s="113"/>
+      <c r="H175" s="113"/>
+      <c r="I175" s="113"/>
+      <c r="J175" s="113"/>
+      <c r="K175" s="113"/>
+      <c r="L175" s="113"/>
+      <c r="M175" s="114"/>
       <c r="N175" s="87"/>
       <c r="O175" s="58">
+        <f>SUM(F138:F140,F41:F46,F17:F23)</f>
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" s="113"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="113"/>
+      <c r="E176" s="113"/>
+      <c r="F176" s="113"/>
+      <c r="G176" s="113"/>
+      <c r="H176" s="113"/>
+      <c r="I176" s="113"/>
+      <c r="J176" s="113"/>
+      <c r="K176" s="113"/>
+      <c r="L176" s="113"/>
+      <c r="M176" s="114"/>
+      <c r="N176" s="87"/>
+      <c r="O176" s="58">
+        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
+        <v>24422</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="113"/>
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="113"/>
+      <c r="G177" s="113"/>
+      <c r="H177" s="113"/>
+      <c r="I177" s="113"/>
+      <c r="J177" s="113"/>
+      <c r="K177" s="113"/>
+      <c r="L177" s="113"/>
+      <c r="M177" s="114"/>
+      <c r="N177" s="87"/>
+      <c r="O177" s="58">
         <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="111" t="s">
+    <row r="178" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="B176" s="112"/>
-      <c r="C176" s="112"/>
-      <c r="D176" s="112"/>
-      <c r="E176" s="112"/>
-      <c r="F176" s="112"/>
-      <c r="G176" s="112"/>
-      <c r="H176" s="112"/>
-      <c r="I176" s="112"/>
-      <c r="J176" s="112"/>
-      <c r="K176" s="112"/>
-      <c r="L176" s="112"/>
-      <c r="M176" s="113"/>
-      <c r="N176" s="87"/>
-      <c r="O176" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B177" s="112"/>
-      <c r="C177" s="112"/>
-      <c r="D177" s="112"/>
-      <c r="E177" s="112"/>
-      <c r="F177" s="112"/>
-      <c r="G177" s="112"/>
-      <c r="H177" s="112"/>
-      <c r="I177" s="112"/>
-      <c r="J177" s="112"/>
-      <c r="K177" s="112"/>
-      <c r="L177" s="112"/>
-      <c r="M177" s="113"/>
-      <c r="N177" s="87"/>
-      <c r="O177" s="58">
-        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="B178" s="112"/>
-      <c r="C178" s="112"/>
-      <c r="D178" s="112"/>
-      <c r="E178" s="112"/>
-      <c r="F178" s="112"/>
-      <c r="G178" s="112"/>
-      <c r="H178" s="112"/>
-      <c r="I178" s="112"/>
-      <c r="J178" s="112"/>
-      <c r="K178" s="112"/>
-      <c r="L178" s="112"/>
-      <c r="M178" s="113"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="113"/>
+      <c r="G178" s="113"/>
+      <c r="H178" s="113"/>
+      <c r="I178" s="113"/>
+      <c r="J178" s="113"/>
+      <c r="K178" s="113"/>
+      <c r="L178" s="113"/>
+      <c r="M178" s="114"/>
       <c r="N178" s="87"/>
       <c r="O178" s="58">
-        <f>SUM(O152:O168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="113"/>
+      <c r="C179" s="113"/>
+      <c r="D179" s="113"/>
+      <c r="E179" s="113"/>
+      <c r="F179" s="113"/>
+      <c r="G179" s="113"/>
+      <c r="H179" s="113"/>
+      <c r="I179" s="113"/>
+      <c r="J179" s="113"/>
+      <c r="K179" s="113"/>
+      <c r="L179" s="113"/>
+      <c r="M179" s="114"/>
+      <c r="N179" s="87"/>
+      <c r="O179" s="58">
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="B180" s="113"/>
+      <c r="C180" s="113"/>
+      <c r="D180" s="113"/>
+      <c r="E180" s="113"/>
+      <c r="F180" s="113"/>
+      <c r="G180" s="113"/>
+      <c r="H180" s="113"/>
+      <c r="I180" s="113"/>
+      <c r="J180" s="113"/>
+      <c r="K180" s="113"/>
+      <c r="L180" s="113"/>
+      <c r="M180" s="114"/>
+      <c r="N180" s="87"/>
+      <c r="O180" s="58">
+        <f>SUM(O152:O170)</f>
         <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S169">
+  <autoFilter ref="A1:S171">
     <filterColumn colId="11">
       <filters>
         <filter val="自购"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="否"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="D152:M152"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="A177:M177"/>
+    <mergeCell ref="A178:M178"/>
+    <mergeCell ref="A179:M179"/>
+    <mergeCell ref="A180:M180"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A174:M174"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="D171:M171"/>
+    <mergeCell ref="B146:B171"/>
+    <mergeCell ref="C153:C170"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="B34:B54"/>
     <mergeCell ref="C2:C13"/>
@@ -8418,48 +8524,6 @@
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="A177:M177"/>
-    <mergeCell ref="A178:M178"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A171:M171"/>
-    <mergeCell ref="A172:M172"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="D169:M169"/>
-    <mergeCell ref="B146:B169"/>
-    <mergeCell ref="C153:C168"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D152:M152"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C107:C122"/>
-    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -8958,7 +9022,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="119"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8993,7 +9057,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="119"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11335,7 +11399,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="117"/>
+      <c r="P82" s="108"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11371,7 +11435,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="117"/>
+      <c r="P83" s="108"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11407,7 +11471,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="117"/>
+      <c r="P84" s="108"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11443,7 +11507,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="117"/>
+      <c r="P85" s="108"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11479,7 +11543,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="117"/>
+      <c r="P86" s="108"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11515,7 +11579,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="117"/>
+      <c r="P87" s="108"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11551,7 +11615,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="117"/>
+      <c r="P88" s="108"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11587,7 +11651,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="117"/>
+      <c r="P89" s="108"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11623,7 +11687,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="117"/>
+      <c r="P90" s="108"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11657,7 +11721,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="117"/>
+      <c r="P91" s="108"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11694,7 +11758,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="117"/>
+      <c r="P92" s="108"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11730,7 +11794,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="117"/>
+      <c r="P93" s="108"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12508,167 +12572,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="111" t="s">
+      <c r="A120" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="112"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="118"/>
-      <c r="F120" s="112"/>
-      <c r="G120" s="112"/>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="112"/>
-      <c r="L120" s="112"/>
-      <c r="M120" s="113"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="119"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="113"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="114"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="111" t="s">
+      <c r="A121" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="112"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="118"/>
-      <c r="F121" s="112"/>
-      <c r="G121" s="112"/>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
-      <c r="M121" s="113"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="113"/>
+      <c r="H121" s="113"/>
+      <c r="I121" s="113"/>
+      <c r="J121" s="113"/>
+      <c r="K121" s="113"/>
+      <c r="L121" s="113"/>
+      <c r="M121" s="114"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="111" t="s">
+      <c r="A122" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="112"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="118"/>
-      <c r="F122" s="112"/>
-      <c r="G122" s="112"/>
-      <c r="H122" s="112"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="112"/>
-      <c r="K122" s="112"/>
-      <c r="L122" s="112"/>
-      <c r="M122" s="113"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="113"/>
+      <c r="D122" s="113"/>
+      <c r="E122" s="119"/>
+      <c r="F122" s="113"/>
+      <c r="G122" s="113"/>
+      <c r="H122" s="113"/>
+      <c r="I122" s="113"/>
+      <c r="J122" s="113"/>
+      <c r="K122" s="113"/>
+      <c r="L122" s="113"/>
+      <c r="M122" s="114"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="111" t="s">
+      <c r="A123" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="112"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="118"/>
-      <c r="F123" s="112"/>
-      <c r="G123" s="112"/>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="112"/>
-      <c r="L123" s="112"/>
-      <c r="M123" s="113"/>
+      <c r="B123" s="113"/>
+      <c r="C123" s="113"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="119"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="113"/>
+      <c r="H123" s="113"/>
+      <c r="I123" s="113"/>
+      <c r="J123" s="113"/>
+      <c r="K123" s="113"/>
+      <c r="L123" s="113"/>
+      <c r="M123" s="114"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="111" t="s">
+      <c r="A124" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="112"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="118"/>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112"/>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="112"/>
-      <c r="L124" s="112"/>
-      <c r="M124" s="113"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="113"/>
+      <c r="D124" s="113"/>
+      <c r="E124" s="119"/>
+      <c r="F124" s="113"/>
+      <c r="G124" s="113"/>
+      <c r="H124" s="113"/>
+      <c r="I124" s="113"/>
+      <c r="J124" s="113"/>
+      <c r="K124" s="113"/>
+      <c r="L124" s="113"/>
+      <c r="M124" s="114"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="111" t="s">
+      <c r="A125" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="112"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="118"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112"/>
-      <c r="L125" s="112"/>
-      <c r="M125" s="113"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="113"/>
+      <c r="H125" s="113"/>
+      <c r="I125" s="113"/>
+      <c r="J125" s="113"/>
+      <c r="K125" s="113"/>
+      <c r="L125" s="113"/>
+      <c r="M125" s="114"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="112"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="118"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="112"/>
-      <c r="L126" s="112"/>
-      <c r="M126" s="113"/>
+      <c r="B126" s="113"/>
+      <c r="C126" s="113"/>
+      <c r="D126" s="113"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="113"/>
+      <c r="G126" s="113"/>
+      <c r="H126" s="113"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="114"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="111" t="s">
+      <c r="A127" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="118"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="112"/>
-      <c r="M127" s="113"/>
+      <c r="B127" s="113"/>
+      <c r="C127" s="113"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="113"/>
+      <c r="H127" s="113"/>
+      <c r="I127" s="113"/>
+      <c r="J127" s="113"/>
+      <c r="K127" s="113"/>
+      <c r="L127" s="113"/>
+      <c r="M127" s="114"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12802,7 +12866,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="117"/>
+      <c r="M3" s="108"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12812,7 +12876,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12822,7 +12886,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="117"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12832,7 +12896,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="117"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12842,7 +12906,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="117"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12852,7 +12916,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="117"/>
+      <c r="M8" s="108"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12862,7 +12926,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="117"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12872,7 +12936,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="117"/>
+      <c r="M10" s="108"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12882,23 +12946,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="117"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="117"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="117"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="117"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">

--- a/other/我的装修预算.xlsx
+++ b/other/我的装修预算.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房子装修预算!$A$1:$S$173</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="326">
   <si>
     <t>序号</t>
   </si>
@@ -977,30 +977,26 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>儿童房</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏用品</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑椅</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧电路位置修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>儿童房</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏用品</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑椅</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧电路位置修改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>灯带、射灯</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1034,6 +1030,58 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房壁纸</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱窗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开荒</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自购</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机龙头</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视安装</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>家政</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1046,39 +1094,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>儿童房壁纸</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>自购</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>纱窗</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>开荒</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂项</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>自购</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机龙头</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1450,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,6 +1752,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,24 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1775,14 +1794,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2371,11 +2390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201707088"/>
-        <c:axId val="32498480"/>
+        <c:axId val="215036272"/>
+        <c:axId val="215036832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201707088"/>
+        <c:axId val="215036272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,7 +2429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32498480"/>
+        <c:crossAx val="215036832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32498480"/>
+        <c:axId val="215036832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201707088"/>
+        <c:crossAx val="215036272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2912,13 +2931,13 @@
   <sheetPr filterMode="1">
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:S182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2992,7 +3011,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="107" t="s">
@@ -3022,13 +3041,13 @@
       <c r="M2" s="80"/>
       <c r="N2" s="80"/>
       <c r="O2" s="79"/>
-      <c r="Q2" s="108"/>
+      <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="107"/>
       <c r="D3" s="76" t="s">
         <v>16</v>
@@ -3054,13 +3073,13 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="79"/>
-      <c r="Q3" s="108"/>
+      <c r="Q3" s="119"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="107"/>
       <c r="D4" s="76" t="s">
         <v>18</v>
@@ -3086,13 +3105,13 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="79"/>
-      <c r="Q4" s="108"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="107"/>
       <c r="D5" s="76" t="s">
         <v>20</v>
@@ -3116,13 +3135,13 @@
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="79"/>
-      <c r="Q5" s="108"/>
+      <c r="Q5" s="119"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="107"/>
       <c r="D6" s="76" t="s">
         <v>21</v>
@@ -3146,13 +3165,13 @@
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
       <c r="O6" s="79"/>
-      <c r="Q6" s="108"/>
+      <c r="Q6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="107"/>
       <c r="D7" s="76" t="s">
         <v>22</v>
@@ -3176,11 +3195,11 @@
       <c r="M7" s="80"/>
       <c r="N7" s="80"/>
       <c r="O7" s="79"/>
-      <c r="Q7" s="108"/>
+      <c r="Q7" s="119"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="107"/>
       <c r="D8" s="76" t="s">
         <v>273</v>
@@ -3202,13 +3221,13 @@
       <c r="M8" s="80"/>
       <c r="N8" s="80"/>
       <c r="O8" s="79"/>
-      <c r="Q8" s="108"/>
+      <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="104"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="107"/>
       <c r="D9" s="76" t="s">
         <v>23</v>
@@ -3232,13 +3251,13 @@
       <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="81"/>
-      <c r="Q9" s="108"/>
+      <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="107"/>
       <c r="D10" s="76" t="s">
         <v>24</v>
@@ -3262,13 +3281,13 @@
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="81"/>
-      <c r="Q10" s="108"/>
+      <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="107"/>
       <c r="D11" s="76" t="s">
         <v>25</v>
@@ -3292,13 +3311,13 @@
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="81"/>
-      <c r="Q11" s="108"/>
+      <c r="Q11" s="119"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="107"/>
       <c r="D12" s="76" t="s">
         <v>26</v>
@@ -3322,13 +3341,13 @@
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="79"/>
-      <c r="Q12" s="108"/>
+      <c r="Q12" s="119"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="107"/>
       <c r="D13" s="82" t="s">
         <v>27</v>
@@ -3354,13 +3373,13 @@
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="81"/>
-      <c r="Q13" s="108"/>
+      <c r="Q13" s="119"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="107" t="s">
         <v>29</v>
       </c>
@@ -3388,14 +3407,14 @@
       <c r="M14" s="80"/>
       <c r="N14" s="89"/>
       <c r="O14" s="83"/>
-      <c r="Q14" s="108"/>
+      <c r="Q14" s="119"/>
       <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="107"/>
       <c r="D15" s="76" t="s">
         <v>32</v>
@@ -3426,7 +3445,7 @@
       <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="107"/>
       <c r="D16" s="76" t="s">
         <v>33</v>
@@ -3457,8 +3476,8 @@
       <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="103" t="s">
+      <c r="B17" s="111"/>
+      <c r="C17" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3492,8 +3511,8 @@
       <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="99" t="s">
         <v>38</v>
       </c>
@@ -3525,8 +3544,8 @@
       <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="99" t="s">
         <v>40</v>
       </c>
@@ -3550,7 +3569,7 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O19" s="17"/>
     </row>
@@ -3558,8 +3577,8 @@
       <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="99" t="s">
         <v>41</v>
       </c>
@@ -3591,8 +3610,8 @@
       <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="99" t="s">
         <v>249</v>
       </c>
@@ -3625,8 +3644,8 @@
       <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
@@ -3658,14 +3677,14 @@
       <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="100" t="s">
         <v>250</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
-        <v>500</v>
+        <v>899</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -3683,7 +3702,7 @@
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="17" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="O23" s="39"/>
     </row>
@@ -3691,7 +3710,7 @@
       <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="107" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +3719,7 @@
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46">
-        <v>5000</v>
+        <v>8899</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -3718,7 +3737,7 @@
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O24" s="39"/>
     </row>
@@ -3726,7 +3745,7 @@
       <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="107"/>
       <c r="D25" s="17" t="s">
         <v>47</v>
@@ -3759,7 +3778,7 @@
       <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="107"/>
       <c r="D26" s="17" t="s">
         <v>48</v>
@@ -3784,13 +3803,13 @@
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="104"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="107"/>
       <c r="D27" s="17" t="s">
         <v>265</v>
@@ -3815,13 +3834,13 @@
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="104"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="107"/>
       <c r="D28" s="17" t="s">
         <v>50</v>
@@ -3852,7 +3871,7 @@
       <c r="A29" s="71">
         <v>26</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="107" t="s">
         <v>51</v>
       </c>
@@ -3887,7 +3906,7 @@
       <c r="A30" s="71">
         <v>27</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="107"/>
       <c r="D30" s="99" t="s">
         <v>53</v>
@@ -3920,7 +3939,7 @@
       <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="107"/>
       <c r="D31" s="17" t="s">
         <v>55</v>
@@ -3953,7 +3972,7 @@
       <c r="A32" s="71">
         <v>29</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3986,31 +4005,31 @@
       <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="111"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="90"/>
       <c r="O33" s="62">
         <f>SUM(F2:F32)</f>
-        <v>21130</v>
+        <v>25428</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="117" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="107" t="s">
@@ -4045,7 +4064,7 @@
       <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="107"/>
       <c r="D35" s="76" t="s">
         <v>18</v>
@@ -4076,7 +4095,7 @@
       <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="107"/>
       <c r="D36" s="76" t="s">
         <v>60</v>
@@ -4107,7 +4126,7 @@
       <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="107"/>
       <c r="D37" s="76" t="s">
         <v>61</v>
@@ -4138,7 +4157,7 @@
       <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="104"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="107"/>
       <c r="D38" s="76" t="s">
         <v>62</v>
@@ -4169,7 +4188,7 @@
       <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="107" t="s">
         <v>29</v>
       </c>
@@ -4202,7 +4221,7 @@
       <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="104"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="107"/>
       <c r="D40" s="76" t="s">
         <v>64</v>
@@ -4233,8 +4252,8 @@
       <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="103" t="s">
+      <c r="B41" s="111"/>
+      <c r="C41" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4268,8 +4287,8 @@
       <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4301,8 +4320,8 @@
       <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="12" t="s">
         <v>68</v>
       </c>
@@ -4332,8 +4351,8 @@
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="75" t="s">
         <v>277</v>
       </c>
@@ -4359,8 +4378,8 @@
       <c r="A45" s="71">
         <v>41</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="12" t="s">
         <v>69</v>
       </c>
@@ -4392,8 +4411,8 @@
       <c r="A46" s="71">
         <v>42</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="101" t="s">
         <v>251</v>
       </c>
@@ -4425,7 +4444,7 @@
       <c r="A47" s="71">
         <v>43</v>
       </c>
-      <c r="B47" s="104"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="107" t="s">
         <v>44</v>
       </c>
@@ -4452,7 +4471,7 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O47" s="44"/>
     </row>
@@ -4460,7 +4479,7 @@
       <c r="A48" s="71">
         <v>44</v>
       </c>
-      <c r="B48" s="104"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="107"/>
       <c r="D48" s="12" t="s">
         <v>72</v>
@@ -4493,7 +4512,7 @@
       <c r="A49" s="71">
         <v>45</v>
       </c>
-      <c r="B49" s="104"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="107"/>
       <c r="D49" s="12" t="s">
         <v>252</v>
@@ -4526,7 +4545,7 @@
       <c r="A50" s="71">
         <v>46</v>
       </c>
-      <c r="B50" s="104"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="107" t="s">
         <v>51</v>
       </c>
@@ -4561,7 +4580,7 @@
       <c r="A51" s="71">
         <v>47</v>
       </c>
-      <c r="B51" s="104"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="107"/>
       <c r="D51" s="12" t="s">
         <v>53</v>
@@ -4594,7 +4613,7 @@
       <c r="A52" s="71">
         <v>48</v>
       </c>
-      <c r="B52" s="104"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="107"/>
       <c r="D52" s="12" t="s">
         <v>75</v>
@@ -4627,7 +4646,7 @@
       <c r="A53" s="71">
         <v>49</v>
       </c>
-      <c r="B53" s="104"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="107"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
@@ -4658,20 +4677,20 @@
       <c r="A54" s="71">
         <v>50</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="118" t="s">
+      <c r="D54" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="111"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
       <c r="N54" s="90"/>
       <c r="O54" s="62">
         <f>SUM(F34:F53)</f>
@@ -4682,7 +4701,7 @@
       <c r="A55" s="71">
         <v>51</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="117" t="s">
         <v>237</v>
       </c>
       <c r="C55" s="107" t="s">
@@ -4717,7 +4736,7 @@
       <c r="A56" s="71">
         <v>52</v>
       </c>
-      <c r="B56" s="104"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="107"/>
       <c r="D56" s="76" t="s">
         <v>18</v>
@@ -4748,7 +4767,7 @@
       <c r="A57" s="71">
         <v>53</v>
       </c>
-      <c r="B57" s="104"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="107"/>
       <c r="D57" s="76" t="s">
         <v>60</v>
@@ -4779,7 +4798,7 @@
       <c r="A58" s="71">
         <v>54</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="107"/>
       <c r="D58" s="76" t="s">
         <v>61</v>
@@ -4810,7 +4829,7 @@
       <c r="A59" s="71">
         <v>55</v>
       </c>
-      <c r="B59" s="104"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="107"/>
       <c r="D59" s="76" t="s">
         <v>62</v>
@@ -4841,7 +4860,7 @@
       <c r="A60" s="71">
         <v>56</v>
       </c>
-      <c r="B60" s="104"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="107" t="s">
         <v>29</v>
       </c>
@@ -4874,7 +4893,7 @@
       <c r="A61" s="71">
         <v>57</v>
       </c>
-      <c r="B61" s="104"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="107"/>
       <c r="D61" s="76" t="s">
         <v>64</v>
@@ -4905,8 +4924,8 @@
       <c r="A62" s="71">
         <v>58</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="103" t="s">
+      <c r="B62" s="111"/>
+      <c r="C62" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4938,14 +4957,14 @@
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="94"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="G63" s="94"/>
       <c r="H63" s="94"/>
@@ -4957,7 +4976,7 @@
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="17" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="O63" s="94"/>
     </row>
@@ -4965,8 +4984,8 @@
       <c r="A64" s="71">
         <v>59</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="12" t="s">
         <v>67</v>
       </c>
@@ -4998,8 +5017,8 @@
       <c r="A65" s="71">
         <v>60</v>
       </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="12" t="s">
         <v>68</v>
       </c>
@@ -5031,8 +5050,8 @@
       <c r="A66" s="71">
         <v>61</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="12" t="s">
         <v>69</v>
       </c>
@@ -5064,8 +5083,8 @@
       <c r="A67" s="71">
         <v>62</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="105"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="12" t="s">
         <v>43</v>
       </c>
@@ -5097,7 +5116,7 @@
       <c r="A68" s="71">
         <v>63</v>
       </c>
-      <c r="B68" s="104"/>
+      <c r="B68" s="111"/>
       <c r="C68" s="107" t="s">
         <v>44</v>
       </c>
@@ -5124,7 +5143,7 @@
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O68" s="44"/>
     </row>
@@ -5132,7 +5151,7 @@
       <c r="A69" s="71">
         <v>64</v>
       </c>
-      <c r="B69" s="104"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="107"/>
       <c r="D69" s="12" t="s">
         <v>72</v>
@@ -5165,7 +5184,7 @@
       <c r="A70" s="71">
         <v>65</v>
       </c>
-      <c r="B70" s="104"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="107"/>
       <c r="D70" s="12" t="s">
         <v>73</v>
@@ -5198,7 +5217,7 @@
       <c r="A71" s="71">
         <v>66</v>
       </c>
-      <c r="B71" s="104"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="107" t="s">
         <v>51</v>
       </c>
@@ -5233,7 +5252,7 @@
       <c r="A72" s="71">
         <v>67</v>
       </c>
-      <c r="B72" s="104"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="107"/>
       <c r="D72" s="12" t="s">
         <v>53</v>
@@ -5266,7 +5285,7 @@
       <c r="A73" s="71">
         <v>69</v>
       </c>
-      <c r="B73" s="104"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="107"/>
       <c r="D73" s="12" t="s">
         <v>76</v>
@@ -5297,32 +5316,32 @@
       <c r="A74" s="71">
         <v>70</v>
       </c>
-      <c r="B74" s="105"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="109" t="s">
+      <c r="D74" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="110"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="110"/>
-      <c r="L74" s="110"/>
-      <c r="M74" s="111"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="106"/>
       <c r="N74" s="90"/>
       <c r="O74" s="62">
         <f>SUM(F55:F73)</f>
-        <v>4891</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>71</v>
       </c>
-      <c r="B75" s="103" t="s">
-        <v>297</v>
+      <c r="B75" s="110" t="s">
+        <v>296</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>13</v>
@@ -5356,7 +5375,7 @@
       <c r="A76" s="71">
         <v>72</v>
       </c>
-      <c r="B76" s="104"/>
+      <c r="B76" s="111"/>
       <c r="C76" s="107"/>
       <c r="D76" s="76" t="s">
         <v>18</v>
@@ -5387,7 +5406,7 @@
       <c r="A77" s="71">
         <v>73</v>
       </c>
-      <c r="B77" s="104"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="107"/>
       <c r="D77" s="76" t="s">
         <v>60</v>
@@ -5418,7 +5437,7 @@
       <c r="A78" s="71">
         <v>74</v>
       </c>
-      <c r="B78" s="104"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="107"/>
       <c r="D78" s="76" t="s">
         <v>61</v>
@@ -5449,7 +5468,7 @@
       <c r="A79" s="71">
         <v>75</v>
       </c>
-      <c r="B79" s="104"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="107"/>
       <c r="D79" s="76" t="s">
         <v>62</v>
@@ -5480,7 +5499,7 @@
       <c r="A80" s="71">
         <v>76</v>
       </c>
-      <c r="B80" s="104"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="107" t="s">
         <v>29</v>
       </c>
@@ -5513,7 +5532,7 @@
       <c r="A81" s="71">
         <v>77</v>
       </c>
-      <c r="B81" s="104"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="107"/>
       <c r="D81" s="76" t="s">
         <v>64</v>
@@ -5544,12 +5563,12 @@
       <c r="A82" s="71">
         <v>78</v>
       </c>
-      <c r="B82" s="104"/>
-      <c r="C82" s="103" t="s">
+      <c r="B82" s="111"/>
+      <c r="C82" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32">
@@ -5579,8 +5598,8 @@
       <c r="A83" s="71">
         <v>81</v>
       </c>
-      <c r="B83" s="104"/>
-      <c r="C83" s="105"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="12" t="s">
         <v>253</v>
       </c>
@@ -5612,7 +5631,7 @@
       <c r="A84" s="71">
         <v>82</v>
       </c>
-      <c r="B84" s="104"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="107" t="s">
         <v>44</v>
       </c>
@@ -5639,7 +5658,7 @@
       </c>
       <c r="M84" s="24"/>
       <c r="N84" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O84" s="44"/>
     </row>
@@ -5647,7 +5666,7 @@
       <c r="A85" s="71">
         <v>83</v>
       </c>
-      <c r="B85" s="104"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="107"/>
       <c r="D85" s="72" t="s">
         <v>244</v>
@@ -5680,8 +5699,8 @@
       <c r="A86" s="71">
         <v>84</v>
       </c>
-      <c r="B86" s="104"/>
-      <c r="C86" s="103" t="s">
+      <c r="B86" s="111"/>
+      <c r="C86" s="110" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -5715,8 +5734,8 @@
       <c r="A87" s="71">
         <v>85</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="105"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="112"/>
       <c r="D87" s="72" t="s">
         <v>246</v>
       </c>
@@ -5748,20 +5767,20 @@
       <c r="A88" s="71">
         <v>86</v>
       </c>
-      <c r="B88" s="105"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="109" t="s">
+      <c r="D88" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110"/>
-      <c r="G88" s="110"/>
-      <c r="H88" s="110"/>
-      <c r="I88" s="110"/>
-      <c r="J88" s="110"/>
-      <c r="K88" s="110"/>
-      <c r="L88" s="110"/>
-      <c r="M88" s="111"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="106"/>
       <c r="N88" s="90"/>
       <c r="O88" s="62">
         <f>SUM(F75:F87)</f>
@@ -5772,7 +5791,7 @@
       <c r="A89" s="71">
         <v>87</v>
       </c>
-      <c r="B89" s="103" t="s">
+      <c r="B89" s="110" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="107" t="s">
@@ -5807,7 +5826,7 @@
       <c r="A90" s="71">
         <v>88</v>
       </c>
-      <c r="B90" s="104"/>
+      <c r="B90" s="111"/>
       <c r="C90" s="107"/>
       <c r="D90" s="76" t="s">
         <v>81</v>
@@ -5838,7 +5857,7 @@
       <c r="A91" s="71">
         <v>89</v>
       </c>
-      <c r="B91" s="104"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="107"/>
       <c r="D91" s="76" t="s">
         <v>82</v>
@@ -5869,7 +5888,7 @@
       <c r="A92" s="71">
         <v>90</v>
       </c>
-      <c r="B92" s="104"/>
+      <c r="B92" s="111"/>
       <c r="C92" s="107"/>
       <c r="D92" s="76" t="s">
         <v>60</v>
@@ -5900,7 +5919,7 @@
       <c r="A93" s="71">
         <v>91</v>
       </c>
-      <c r="B93" s="104"/>
+      <c r="B93" s="111"/>
       <c r="C93" s="107"/>
       <c r="D93" s="76" t="s">
         <v>83</v>
@@ -5931,7 +5950,7 @@
       <c r="A94" s="71">
         <v>92</v>
       </c>
-      <c r="B94" s="104"/>
+      <c r="B94" s="111"/>
       <c r="C94" s="107"/>
       <c r="D94" s="76" t="s">
         <v>84</v>
@@ -5962,7 +5981,7 @@
       <c r="A95" s="71">
         <v>93</v>
       </c>
-      <c r="B95" s="104"/>
+      <c r="B95" s="111"/>
       <c r="C95" s="107" t="s">
         <v>29</v>
       </c>
@@ -5995,7 +6014,7 @@
       <c r="A96" s="71">
         <v>94</v>
       </c>
-      <c r="B96" s="104"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="107"/>
       <c r="D96" s="76" t="s">
         <v>86</v>
@@ -6024,8 +6043,8 @@
       <c r="A97" s="71">
         <v>95</v>
       </c>
-      <c r="B97" s="104"/>
-      <c r="C97" s="103" t="s">
+      <c r="B97" s="111"/>
+      <c r="C97" s="110" t="s">
         <v>87</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -6059,8 +6078,8 @@
       <c r="A98" s="71">
         <v>96</v>
       </c>
-      <c r="B98" s="104"/>
-      <c r="C98" s="104"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="17" t="s">
         <v>89</v>
       </c>
@@ -6092,8 +6111,8 @@
       <c r="A99" s="71">
         <v>97</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="105"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="69" t="s">
         <v>90</v>
       </c>
@@ -6125,7 +6144,7 @@
       <c r="A100" s="71">
         <v>98</v>
       </c>
-      <c r="B100" s="104"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="107" t="s">
         <v>44</v>
       </c>
@@ -6160,7 +6179,7 @@
       <c r="A101" s="71">
         <v>99</v>
       </c>
-      <c r="B101" s="104"/>
+      <c r="B101" s="111"/>
       <c r="C101" s="107"/>
       <c r="D101" s="17" t="s">
         <v>92</v>
@@ -6193,7 +6212,7 @@
       <c r="A102" s="71">
         <v>100</v>
       </c>
-      <c r="B102" s="104"/>
+      <c r="B102" s="111"/>
       <c r="C102" s="107"/>
       <c r="D102" s="17" t="s">
         <v>93</v>
@@ -6226,7 +6245,7 @@
       <c r="A103" s="71">
         <v>101</v>
       </c>
-      <c r="B103" s="104"/>
+      <c r="B103" s="111"/>
       <c r="C103" s="107"/>
       <c r="D103" s="17" t="s">
         <v>259</v>
@@ -6259,7 +6278,7 @@
       <c r="A104" s="71">
         <v>102</v>
       </c>
-      <c r="B104" s="104"/>
+      <c r="B104" s="111"/>
       <c r="C104" s="107"/>
       <c r="D104" s="99" t="s">
         <v>258</v>
@@ -6292,7 +6311,7 @@
       <c r="A105" s="71">
         <v>103</v>
       </c>
-      <c r="B105" s="104"/>
+      <c r="B105" s="111"/>
       <c r="C105" s="107"/>
       <c r="D105" s="82" t="s">
         <v>96</v>
@@ -6323,20 +6342,20 @@
       <c r="A106" s="71">
         <v>104</v>
       </c>
-      <c r="B106" s="105"/>
+      <c r="B106" s="112"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="118" t="s">
+      <c r="D106" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="110"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="110"/>
-      <c r="H106" s="110"/>
-      <c r="I106" s="110"/>
-      <c r="J106" s="110"/>
-      <c r="K106" s="110"/>
-      <c r="L106" s="110"/>
-      <c r="M106" s="111"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
+      <c r="M106" s="106"/>
       <c r="N106" s="90"/>
       <c r="O106" s="62">
         <f>SUM(F89:F105)</f>
@@ -6347,7 +6366,7 @@
       <c r="A107" s="71">
         <v>105</v>
       </c>
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="110" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="107" t="s">
@@ -6382,7 +6401,7 @@
       <c r="A108" s="71">
         <v>106</v>
       </c>
-      <c r="B108" s="104"/>
+      <c r="B108" s="111"/>
       <c r="C108" s="107"/>
       <c r="D108" s="76" t="s">
         <v>81</v>
@@ -6413,7 +6432,7 @@
       <c r="A109" s="71">
         <v>107</v>
       </c>
-      <c r="B109" s="104"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="107"/>
       <c r="D109" s="76" t="s">
         <v>99</v>
@@ -6442,7 +6461,7 @@
       <c r="A110" s="71">
         <v>108</v>
       </c>
-      <c r="B110" s="104"/>
+      <c r="B110" s="111"/>
       <c r="C110" s="107"/>
       <c r="D110" s="76" t="s">
         <v>60</v>
@@ -6473,7 +6492,7 @@
       <c r="A111" s="71">
         <v>109</v>
       </c>
-      <c r="B111" s="104"/>
+      <c r="B111" s="111"/>
       <c r="C111" s="107"/>
       <c r="D111" s="76" t="s">
         <v>101</v>
@@ -6504,7 +6523,7 @@
       <c r="A112" s="71">
         <v>110</v>
       </c>
-      <c r="B112" s="104"/>
+      <c r="B112" s="111"/>
       <c r="C112" s="107"/>
       <c r="D112" s="76" t="s">
         <v>102</v>
@@ -6535,7 +6554,7 @@
       <c r="A113" s="71">
         <v>111</v>
       </c>
-      <c r="B113" s="104"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="107"/>
       <c r="D113" s="76" t="s">
         <v>103</v>
@@ -6564,7 +6583,7 @@
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
-      <c r="B114" s="104"/>
+      <c r="B114" s="111"/>
       <c r="C114" s="107"/>
       <c r="D114" s="76" t="s">
         <v>267</v>
@@ -6591,7 +6610,7 @@
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75"/>
-      <c r="B115" s="104"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="107"/>
       <c r="D115" s="76" t="s">
         <v>275</v>
@@ -6614,7 +6633,7 @@
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="75"/>
-      <c r="B116" s="104"/>
+      <c r="B116" s="111"/>
       <c r="C116" s="107"/>
       <c r="D116" s="99" t="s">
         <v>276</v>
@@ -6639,7 +6658,7 @@
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
-      <c r="B117" s="104"/>
+      <c r="B117" s="111"/>
       <c r="C117" s="107"/>
       <c r="D117" s="76" t="s">
         <v>274</v>
@@ -6664,7 +6683,7 @@
       <c r="A118" s="71">
         <v>112</v>
       </c>
-      <c r="B118" s="104"/>
+      <c r="B118" s="111"/>
       <c r="C118" s="107"/>
       <c r="D118" s="76" t="s">
         <v>269</v>
@@ -6695,7 +6714,7 @@
       <c r="A119" s="71">
         <v>113</v>
       </c>
-      <c r="B119" s="104"/>
+      <c r="B119" s="111"/>
       <c r="C119" s="107"/>
       <c r="D119" s="76" t="s">
         <v>105</v>
@@ -6726,7 +6745,7 @@
       <c r="A120" s="71">
         <v>114</v>
       </c>
-      <c r="B120" s="104"/>
+      <c r="B120" s="111"/>
       <c r="C120" s="107"/>
       <c r="D120" s="76" t="s">
         <v>106</v>
@@ -6757,7 +6776,7 @@
       <c r="A121" s="71">
         <v>115</v>
       </c>
-      <c r="B121" s="104"/>
+      <c r="B121" s="111"/>
       <c r="C121" s="107"/>
       <c r="D121" s="76" t="s">
         <v>107</v>
@@ -6788,7 +6807,7 @@
       <c r="A122" s="71">
         <v>116</v>
       </c>
-      <c r="B122" s="104"/>
+      <c r="B122" s="111"/>
       <c r="C122" s="107"/>
       <c r="D122" s="76" t="s">
         <v>109</v>
@@ -6819,8 +6838,8 @@
       <c r="A123" s="71">
         <v>117</v>
       </c>
-      <c r="B123" s="104"/>
-      <c r="C123" s="103" t="s">
+      <c r="B123" s="111"/>
+      <c r="C123" s="110" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="76" t="s">
@@ -6850,8 +6869,8 @@
       <c r="A124" s="71">
         <v>118</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="111"/>
       <c r="D124" s="76" t="s">
         <v>111</v>
       </c>
@@ -6879,8 +6898,8 @@
       <c r="A125" s="71">
         <v>119</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
       <c r="D125" s="76" t="s">
         <v>112</v>
       </c>
@@ -6908,8 +6927,8 @@
       <c r="A126" s="71">
         <v>120</v>
       </c>
-      <c r="B126" s="104"/>
-      <c r="C126" s="105"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="112"/>
       <c r="D126" s="76" t="s">
         <v>113</v>
       </c>
@@ -6937,7 +6956,7 @@
       <c r="A127" s="71">
         <v>121</v>
       </c>
-      <c r="B127" s="104"/>
+      <c r="B127" s="111"/>
       <c r="C127" s="107" t="s">
         <v>44</v>
       </c>
@@ -6970,7 +6989,7 @@
       <c r="A128" s="71">
         <v>122</v>
       </c>
-      <c r="B128" s="104"/>
+      <c r="B128" s="111"/>
       <c r="C128" s="107"/>
       <c r="D128" s="17" t="s">
         <v>255</v>
@@ -7001,7 +7020,7 @@
       <c r="A129" s="71">
         <v>123</v>
       </c>
-      <c r="B129" s="104"/>
+      <c r="B129" s="111"/>
       <c r="C129" s="107"/>
       <c r="D129" s="76" t="s">
         <v>257</v>
@@ -7030,7 +7049,7 @@
       <c r="A130" s="71">
         <v>124</v>
       </c>
-      <c r="B130" s="104"/>
+      <c r="B130" s="111"/>
       <c r="C130" s="107"/>
       <c r="D130" s="76" t="s">
         <v>256</v>
@@ -7059,20 +7078,20 @@
       <c r="A131" s="71">
         <v>125</v>
       </c>
-      <c r="B131" s="105"/>
+      <c r="B131" s="112"/>
       <c r="C131" s="74"/>
-      <c r="D131" s="118" t="s">
+      <c r="D131" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="E131" s="110"/>
-      <c r="F131" s="110"/>
-      <c r="G131" s="110"/>
-      <c r="H131" s="110"/>
-      <c r="I131" s="110"/>
-      <c r="J131" s="110"/>
-      <c r="K131" s="110"/>
-      <c r="L131" s="110"/>
-      <c r="M131" s="111"/>
+      <c r="E131" s="105"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="105"/>
+      <c r="H131" s="105"/>
+      <c r="I131" s="105"/>
+      <c r="J131" s="105"/>
+      <c r="K131" s="105"/>
+      <c r="L131" s="105"/>
+      <c r="M131" s="106"/>
       <c r="N131" s="91"/>
       <c r="O131" s="65">
         <f>SUM(F107:F130)</f>
@@ -7083,7 +7102,7 @@
       <c r="A132" s="71">
         <v>126</v>
       </c>
-      <c r="B132" s="106" t="s">
+      <c r="B132" s="117" t="s">
         <v>238</v>
       </c>
       <c r="C132" s="107" t="s">
@@ -7118,7 +7137,7 @@
       <c r="A133" s="71">
         <v>127</v>
       </c>
-      <c r="B133" s="104"/>
+      <c r="B133" s="111"/>
       <c r="C133" s="107"/>
       <c r="D133" s="76" t="s">
         <v>116</v>
@@ -7149,7 +7168,7 @@
       <c r="A134" s="71">
         <v>128</v>
       </c>
-      <c r="B134" s="104"/>
+      <c r="B134" s="111"/>
       <c r="C134" s="107"/>
       <c r="D134" s="76" t="s">
         <v>117</v>
@@ -7180,7 +7199,7 @@
       <c r="A135" s="71">
         <v>129</v>
       </c>
-      <c r="B135" s="104"/>
+      <c r="B135" s="111"/>
       <c r="C135" s="107"/>
       <c r="D135" s="76" t="s">
         <v>16</v>
@@ -7211,7 +7230,7 @@
       <c r="A136" s="71">
         <v>130</v>
       </c>
-      <c r="B136" s="104"/>
+      <c r="B136" s="111"/>
       <c r="C136" s="107"/>
       <c r="D136" s="76" t="s">
         <v>118</v>
@@ -7242,7 +7261,7 @@
       <c r="A137" s="71">
         <v>131</v>
       </c>
-      <c r="B137" s="104"/>
+      <c r="B137" s="111"/>
       <c r="C137" s="107"/>
       <c r="D137" s="76" t="s">
         <v>119</v>
@@ -7273,8 +7292,8 @@
       <c r="A138" s="71">
         <v>132</v>
       </c>
-      <c r="B138" s="104"/>
-      <c r="C138" s="103" t="s">
+      <c r="B138" s="111"/>
+      <c r="C138" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="76" t="s">
@@ -7306,8 +7325,8 @@
       <c r="A139" s="71">
         <v>133</v>
       </c>
-      <c r="B139" s="104"/>
-      <c r="C139" s="104"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="111"/>
       <c r="D139" s="17" t="s">
         <v>121</v>
       </c>
@@ -7339,8 +7358,8 @@
       <c r="A140" s="71">
         <v>134</v>
       </c>
-      <c r="B140" s="104"/>
-      <c r="C140" s="105"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="112"/>
       <c r="D140" s="17" t="s">
         <v>270</v>
       </c>
@@ -7372,7 +7391,7 @@
       <c r="A141" s="71">
         <v>135</v>
       </c>
-      <c r="B141" s="104"/>
+      <c r="B141" s="111"/>
       <c r="C141" s="70" t="s">
         <v>44</v>
       </c>
@@ -7407,7 +7426,7 @@
       <c r="A142" s="71">
         <v>136</v>
       </c>
-      <c r="B142" s="104"/>
+      <c r="B142" s="111"/>
       <c r="C142" s="107" t="s">
         <v>51</v>
       </c>
@@ -7442,7 +7461,7 @@
       <c r="A143" s="71">
         <v>137</v>
       </c>
-      <c r="B143" s="104"/>
+      <c r="B143" s="111"/>
       <c r="C143" s="107"/>
       <c r="D143" s="17" t="s">
         <v>124</v>
@@ -7475,7 +7494,7 @@
       <c r="A144" s="71">
         <v>138</v>
       </c>
-      <c r="B144" s="104"/>
+      <c r="B144" s="111"/>
       <c r="C144" s="107"/>
       <c r="D144" s="17" t="s">
         <v>126</v>
@@ -7508,20 +7527,20 @@
       <c r="A145" s="71">
         <v>139</v>
       </c>
-      <c r="B145" s="105"/>
+      <c r="B145" s="112"/>
       <c r="C145" s="60"/>
-      <c r="D145" s="109" t="s">
+      <c r="D145" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="116"/>
-      <c r="F145" s="110"/>
-      <c r="G145" s="110"/>
-      <c r="H145" s="110"/>
-      <c r="I145" s="110"/>
-      <c r="J145" s="110"/>
-      <c r="K145" s="110"/>
-      <c r="L145" s="110"/>
-      <c r="M145" s="111"/>
+      <c r="E145" s="109"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
+      <c r="K145" s="105"/>
+      <c r="L145" s="105"/>
+      <c r="M145" s="106"/>
       <c r="N145" s="91"/>
       <c r="O145" s="65">
         <f>SUM(F132:F144)</f>
@@ -7532,7 +7551,7 @@
       <c r="A146" s="71">
         <v>140</v>
       </c>
-      <c r="B146" s="106" t="s">
+      <c r="B146" s="117" t="s">
         <v>241</v>
       </c>
       <c r="C146" s="107" t="s">
@@ -7569,7 +7588,7 @@
       <c r="A147" s="75">
         <v>141</v>
       </c>
-      <c r="B147" s="117"/>
+      <c r="B147" s="118"/>
       <c r="C147" s="107"/>
       <c r="D147" s="75" t="s">
         <v>260</v>
@@ -7600,7 +7619,7 @@
     </row>
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="85"/>
-      <c r="B148" s="117"/>
+      <c r="B148" s="118"/>
       <c r="C148" s="107"/>
       <c r="D148" s="85" t="s">
         <v>289</v>
@@ -7624,31 +7643,23 @@
       <c r="O148" s="55"/>
     </row>
     <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="75">
-        <v>142</v>
-      </c>
-      <c r="B149" s="104"/>
+      <c r="A149" s="103"/>
+      <c r="B149" s="118"/>
       <c r="C149" s="107"/>
-      <c r="D149" s="12" t="s">
-        <v>129</v>
+      <c r="D149" s="103" t="s">
+        <v>321</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="46">
-        <v>0</v>
-      </c>
-      <c r="G149" s="17">
-        <v>0</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I149" s="46">
-        <v>0</v>
-      </c>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="75" t="s">
-        <v>272</v>
+        <v>210</v>
+      </c>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="46"/>
+      <c r="J149" s="103"/>
+      <c r="K149" s="103"/>
+      <c r="L149" s="103" t="s">
+        <v>283</v>
       </c>
       <c r="M149" s="24"/>
       <c r="N149" s="17" t="s">
@@ -7658,12 +7669,12 @@
     </row>
     <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="75">
-        <v>143</v>
-      </c>
-      <c r="B150" s="104"/>
+        <v>142</v>
+      </c>
+      <c r="B150" s="111"/>
       <c r="C150" s="107"/>
       <c r="D150" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="46">
@@ -7691,12 +7702,12 @@
     </row>
     <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75">
-        <v>144</v>
-      </c>
-      <c r="B151" s="104"/>
+        <v>143</v>
+      </c>
+      <c r="B151" s="111"/>
       <c r="C151" s="107"/>
       <c r="D151" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="46">
@@ -7714,7 +7725,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="75" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M151" s="24"/>
       <c r="N151" s="17" t="s">
@@ -7722,89 +7733,89 @@
       </c>
       <c r="O151" s="55"/>
     </row>
-    <row r="152" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="75">
+        <v>144</v>
+      </c>
+      <c r="B152" s="111"/>
+      <c r="C152" s="107"/>
+      <c r="D152" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="46">
+        <v>0</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I152" s="46">
+        <v>0</v>
+      </c>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M152" s="24"/>
+      <c r="N152" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="O152" s="55"/>
+    </row>
+    <row r="153" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="75">
         <v>145</v>
       </c>
-      <c r="B152" s="104"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="118" t="s">
+      <c r="B153" s="111"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="110"/>
-      <c r="F152" s="110"/>
-      <c r="G152" s="110"/>
-      <c r="H152" s="110"/>
-      <c r="I152" s="110"/>
-      <c r="J152" s="110"/>
-      <c r="K152" s="110"/>
-      <c r="L152" s="110"/>
-      <c r="M152" s="111"/>
-      <c r="N152" s="91"/>
-      <c r="O152" s="65">
-        <f>SUM(F146:F151)</f>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="75">
-        <v>146</v>
-      </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="107" t="s">
-        <v>319</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="46">
-        <v>28239</v>
-      </c>
-      <c r="G153" s="17">
-        <v>0</v>
-      </c>
-      <c r="H153" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I153" s="46">
-        <v>0</v>
-      </c>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="M153" s="24"/>
-      <c r="N153" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="O153" s="38"/>
+      <c r="E153" s="105"/>
+      <c r="F153" s="105"/>
+      <c r="G153" s="105"/>
+      <c r="H153" s="105"/>
+      <c r="I153" s="105"/>
+      <c r="J153" s="105"/>
+      <c r="K153" s="105"/>
+      <c r="L153" s="105"/>
+      <c r="M153" s="106"/>
+      <c r="N153" s="91"/>
+      <c r="O153" s="65">
+        <f>SUM(F146:F152)</f>
+        <v>790</v>
+      </c>
     </row>
     <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="75">
-        <v>147</v>
-      </c>
-      <c r="B154" s="104"/>
-      <c r="C154" s="107"/>
-      <c r="D154" s="75" t="s">
-        <v>278</v>
+        <v>146</v>
+      </c>
+      <c r="B154" s="111"/>
+      <c r="C154" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="46">
-        <v>39714</v>
-      </c>
-      <c r="G154" s="75">
-        <v>1</v>
-      </c>
-      <c r="H154" s="75" t="s">
-        <v>263</v>
+        <v>28239</v>
+      </c>
+      <c r="G154" s="17">
+        <v>0</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I154" s="46">
-        <v>300</v>
-      </c>
-      <c r="J154" s="75"/>
-      <c r="K154" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="75" t="s">
         <v>283</v>
       </c>
@@ -7815,227 +7826,235 @@
       <c r="O154" s="38"/>
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="95"/>
-      <c r="B155" s="104"/>
+      <c r="A155" s="75">
+        <v>147</v>
+      </c>
+      <c r="B155" s="111"/>
       <c r="C155" s="107"/>
-      <c r="D155" s="95" t="s">
-        <v>300</v>
+      <c r="D155" s="75" t="s">
+        <v>278</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="46">
-        <v>260</v>
-      </c>
-      <c r="G155" s="95"/>
-      <c r="H155" s="95"/>
-      <c r="I155" s="46"/>
-      <c r="J155" s="95"/>
-      <c r="K155" s="95"/>
-      <c r="L155" s="95" t="s">
-        <v>272</v>
+        <v>39714</v>
+      </c>
+      <c r="G155" s="75">
+        <v>1</v>
+      </c>
+      <c r="H155" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="I155" s="46">
+        <v>300</v>
+      </c>
+      <c r="J155" s="75"/>
+      <c r="K155" s="75"/>
+      <c r="L155" s="75" t="s">
+        <v>283</v>
       </c>
       <c r="M155" s="24"/>
       <c r="N155" s="17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O155" s="38"/>
     </row>
     <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="75">
-        <v>148</v>
-      </c>
-      <c r="B156" s="104"/>
+      <c r="A156" s="95"/>
+      <c r="B156" s="111"/>
       <c r="C156" s="107"/>
-      <c r="D156" s="85" t="s">
-        <v>262</v>
+      <c r="D156" s="95" t="s">
+        <v>299</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="46">
-        <v>300</v>
-      </c>
-      <c r="G156" s="17">
-        <v>0</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I156" s="46">
-        <v>0</v>
-      </c>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="75" t="s">
-        <v>283</v>
+        <v>260</v>
+      </c>
+      <c r="G156" s="95"/>
+      <c r="H156" s="95"/>
+      <c r="I156" s="46"/>
+      <c r="J156" s="95"/>
+      <c r="K156" s="95"/>
+      <c r="L156" s="95" t="s">
+        <v>272</v>
       </c>
       <c r="M156" s="24"/>
       <c r="N156" s="17" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="O156" s="38"/>
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="85"/>
-      <c r="B157" s="104"/>
+      <c r="A157" s="75">
+        <v>148</v>
+      </c>
+      <c r="B157" s="111"/>
       <c r="C157" s="107"/>
       <c r="D157" s="85" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="46"/>
-      <c r="J157" s="85"/>
-      <c r="K157" s="85"/>
-      <c r="L157" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="G157" s="17">
+        <v>0</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I157" s="46">
+        <v>0</v>
+      </c>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="75" t="s">
         <v>283</v>
       </c>
       <c r="M157" s="24"/>
       <c r="N157" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O157" s="38"/>
     </row>
     <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="98"/>
-      <c r="B158" s="104"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="111"/>
       <c r="C158" s="107"/>
-      <c r="D158" s="98" t="s">
-        <v>316</v>
+      <c r="D158" s="85" t="s">
+        <v>284</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="46">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="46"/>
-      <c r="J158" s="98"/>
-      <c r="K158" s="98"/>
-      <c r="L158" s="98" t="s">
-        <v>314</v>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85" t="s">
+        <v>283</v>
       </c>
       <c r="M158" s="24"/>
       <c r="N158" s="17" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="O158" s="38"/>
     </row>
-    <row r="159" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A159" s="88"/>
-      <c r="B159" s="104"/>
+    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="98"/>
+      <c r="B159" s="111"/>
       <c r="C159" s="107"/>
-      <c r="D159" s="88" t="s">
-        <v>304</v>
+      <c r="D159" s="98" t="s">
+        <v>314</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="46">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="46"/>
-      <c r="J159" s="88"/>
-      <c r="K159" s="88"/>
-      <c r="L159" s="88" t="s">
-        <v>290</v>
+      <c r="J159" s="98"/>
+      <c r="K159" s="98"/>
+      <c r="L159" s="98" t="s">
+        <v>312</v>
       </c>
       <c r="M159" s="24"/>
       <c r="N159" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="O159" s="38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="98"/>
-      <c r="B160" s="104"/>
+        <v>316</v>
+      </c>
+      <c r="O159" s="38"/>
+    </row>
+    <row r="160" spans="1:15" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A160" s="88"/>
+      <c r="B160" s="111"/>
       <c r="C160" s="107"/>
-      <c r="D160" s="98" t="s">
-        <v>313</v>
+      <c r="D160" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="46">
-        <v>1245</v>
+        <v>1800</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
       <c r="I160" s="46"/>
-      <c r="J160" s="98"/>
-      <c r="K160" s="98"/>
-      <c r="L160" s="98" t="s">
-        <v>314</v>
+      <c r="J160" s="88"/>
+      <c r="K160" s="88"/>
+      <c r="L160" s="88" t="s">
+        <v>290</v>
       </c>
       <c r="M160" s="24"/>
       <c r="N160" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="O160" s="38"/>
-    </row>
-    <row r="161" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="96"/>
-      <c r="B161" s="104"/>
+      <c r="O160" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="98"/>
+      <c r="B161" s="111"/>
       <c r="C161" s="107"/>
-      <c r="D161" s="96" t="s">
-        <v>303</v>
+      <c r="D161" s="98" t="s">
+        <v>311</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="46">
-        <v>2047</v>
+        <v>1245</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="46"/>
-      <c r="J161" s="96"/>
-      <c r="K161" s="96"/>
-      <c r="L161" s="96" t="s">
-        <v>290</v>
+      <c r="J161" s="98"/>
+      <c r="K161" s="98"/>
+      <c r="L161" s="98" t="s">
+        <v>312</v>
       </c>
       <c r="M161" s="24"/>
       <c r="N161" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="O161" s="38" t="s">
-        <v>305</v>
-      </c>
+      <c r="O161" s="38"/>
     </row>
     <row r="162" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="102"/>
-      <c r="B162" s="104"/>
+      <c r="A162" s="96"/>
+      <c r="B162" s="111"/>
       <c r="C162" s="107"/>
-      <c r="D162" s="102" t="s">
-        <v>317</v>
+      <c r="D162" s="96" t="s">
+        <v>302</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="46">
-        <v>300</v>
+        <v>2047</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="46"/>
-      <c r="J162" s="102"/>
-      <c r="K162" s="102"/>
-      <c r="L162" s="102" t="s">
-        <v>320</v>
+      <c r="J162" s="96"/>
+      <c r="K162" s="96"/>
+      <c r="L162" s="96" t="s">
+        <v>290</v>
       </c>
       <c r="M162" s="24"/>
       <c r="N162" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="O162" s="38"/>
+        <v>293</v>
+      </c>
+      <c r="O162" s="38" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="102"/>
-      <c r="B163" s="104"/>
+      <c r="B163" s="111"/>
       <c r="C163" s="107"/>
       <c r="D163" s="102" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="46">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
@@ -8043,95 +8062,93 @@
       <c r="J163" s="102"/>
       <c r="K163" s="102"/>
       <c r="L163" s="102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M163" s="24"/>
       <c r="N163" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O163" s="38"/>
     </row>
-    <row r="164" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="75">
-        <v>149</v>
-      </c>
-      <c r="B164" s="104"/>
+    <row r="164" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="102"/>
+      <c r="B164" s="111"/>
       <c r="C164" s="107"/>
-      <c r="D164" s="12" t="s">
-        <v>280</v>
+      <c r="D164" s="102" t="s">
+        <v>319</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="46">
-        <v>5278</v>
-      </c>
-      <c r="G164" s="17">
-        <v>0</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I164" s="46">
-        <v>0</v>
-      </c>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="75" t="s">
-        <v>283</v>
+        <v>37</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="46"/>
+      <c r="J164" s="102"/>
+      <c r="K164" s="102"/>
+      <c r="L164" s="102" t="s">
+        <v>318</v>
       </c>
       <c r="M164" s="24"/>
       <c r="N164" s="17" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="O164" s="38"/>
     </row>
     <row r="165" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="88"/>
-      <c r="B165" s="104"/>
+      <c r="A165" s="75">
+        <v>149</v>
+      </c>
+      <c r="B165" s="111"/>
       <c r="C165" s="107"/>
-      <c r="D165" s="88" t="s">
-        <v>302</v>
+      <c r="D165" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="46">
-        <v>811</v>
-      </c>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="46"/>
-      <c r="J165" s="88"/>
-      <c r="K165" s="88"/>
-      <c r="L165" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="M165" s="24" t="s">
-        <v>291</v>
-      </c>
+        <v>5278</v>
+      </c>
+      <c r="G165" s="17">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I165" s="46">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M165" s="24"/>
       <c r="N165" s="17" t="s">
         <v>293</v>
       </c>
       <c r="O165" s="38"/>
     </row>
     <row r="166" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="97"/>
-      <c r="B166" s="104"/>
+      <c r="A166" s="88"/>
+      <c r="B166" s="111"/>
       <c r="C166" s="107"/>
-      <c r="D166" s="97" t="s">
-        <v>307</v>
+      <c r="D166" s="88" t="s">
+        <v>301</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="46">
-        <v>206</v>
+        <v>811</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="46"/>
-      <c r="J166" s="97"/>
-      <c r="K166" s="97"/>
-      <c r="L166" s="97" t="s">
-        <v>308</v>
+      <c r="J166" s="88"/>
+      <c r="K166" s="88"/>
+      <c r="L166" s="88" t="s">
+        <v>290</v>
       </c>
       <c r="M166" s="24" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="N166" s="17" t="s">
         <v>293</v>
@@ -8139,75 +8156,77 @@
       <c r="O166" s="38"/>
     </row>
     <row r="167" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="85"/>
-      <c r="B167" s="104"/>
+      <c r="A167" s="97"/>
+      <c r="B167" s="111"/>
       <c r="C167" s="107"/>
-      <c r="D167" s="85" t="s">
-        <v>281</v>
+      <c r="D167" s="97" t="s">
+        <v>306</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="46">
-        <v>950</v>
-      </c>
-      <c r="G167" s="17">
-        <v>0</v>
-      </c>
-      <c r="H167" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I167" s="46">
-        <v>0</v>
-      </c>
-      <c r="J167" s="85"/>
-      <c r="K167" s="85"/>
-      <c r="L167" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="M167" s="24"/>
+        <v>206</v>
+      </c>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="46"/>
+      <c r="J167" s="97"/>
+      <c r="K167" s="97"/>
+      <c r="L167" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="M167" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="N167" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O167" s="38"/>
     </row>
     <row r="168" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="85"/>
-      <c r="B168" s="104"/>
+      <c r="A168" s="103"/>
+      <c r="B168" s="111"/>
       <c r="C168" s="107"/>
-      <c r="D168" s="85" t="s">
-        <v>286</v>
+      <c r="D168" s="103" t="s">
+        <v>322</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="46">
-        <v>-1110</v>
+        <v>200</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="46"/>
-      <c r="J168" s="85"/>
-      <c r="K168" s="85"/>
-      <c r="L168" s="85" t="s">
+      <c r="J168" s="103"/>
+      <c r="K168" s="103"/>
+      <c r="L168" s="103" t="s">
         <v>283</v>
       </c>
       <c r="M168" s="24"/>
       <c r="N168" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O168" s="38"/>
     </row>
     <row r="169" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="85"/>
-      <c r="B169" s="104"/>
+      <c r="B169" s="111"/>
       <c r="C169" s="107"/>
       <c r="D169" s="85" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="46">
-        <v>-1330</v>
-      </c>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="46"/>
+        <v>950</v>
+      </c>
+      <c r="G169" s="17">
+        <v>0</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I169" s="46">
+        <v>0</v>
+      </c>
       <c r="J169" s="85"/>
       <c r="K169" s="85"/>
       <c r="L169" s="85" t="s">
@@ -8215,250 +8234,300 @@
       </c>
       <c r="M169" s="24"/>
       <c r="N169" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="O169" s="38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="75">
-        <v>150</v>
-      </c>
-      <c r="B170" s="104"/>
+        <v>294</v>
+      </c>
+      <c r="O169" s="38"/>
+    </row>
+    <row r="170" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="85"/>
+      <c r="B170" s="111"/>
       <c r="C170" s="107"/>
-      <c r="D170" s="12" t="s">
-        <v>285</v>
+      <c r="D170" s="85" t="s">
+        <v>286</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="46">
-        <v>-1000</v>
-      </c>
-      <c r="G170" s="17">
-        <v>0</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I170" s="46">
-        <v>0</v>
-      </c>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="75" t="s">
+        <v>-1110</v>
+      </c>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="46"/>
+      <c r="J170" s="85"/>
+      <c r="K170" s="85"/>
+      <c r="L170" s="85" t="s">
         <v>283</v>
       </c>
       <c r="M170" s="24"/>
       <c r="N170" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="O170" s="38"/>
+    </row>
+    <row r="171" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="85"/>
+      <c r="B171" s="111"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="46">
+        <v>-1330</v>
+      </c>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="46"/>
+      <c r="J171" s="85"/>
+      <c r="K171" s="85"/>
+      <c r="L171" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="M171" s="24"/>
+      <c r="N171" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="O171" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="75">
+        <v>150</v>
+      </c>
+      <c r="B172" s="111"/>
+      <c r="C172" s="107"/>
+      <c r="D172" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E172" s="24"/>
+      <c r="F172" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="G172" s="17">
+        <v>0</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I172" s="46">
+        <v>0</v>
+      </c>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M172" s="24"/>
+      <c r="N172" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="O170" s="38"/>
-    </row>
-    <row r="171" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="75">
+      <c r="O172" s="38"/>
+    </row>
+    <row r="173" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="75">
         <v>151</v>
       </c>
-      <c r="B171" s="105"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="109" t="s">
+      <c r="B173" s="112"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="E171" s="116"/>
-      <c r="F171" s="110"/>
-      <c r="G171" s="110"/>
-      <c r="H171" s="110"/>
-      <c r="I171" s="110"/>
-      <c r="J171" s="110"/>
-      <c r="K171" s="110"/>
-      <c r="L171" s="110"/>
-      <c r="M171" s="111"/>
-      <c r="N171" s="92"/>
-      <c r="O171" s="73">
-        <f>SUM(F153:F170)</f>
-        <v>80447</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L172" s="84"/>
-      <c r="N172" s="84"/>
-    </row>
-    <row r="173" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="112" t="s">
+      <c r="E173" s="109"/>
+      <c r="F173" s="105"/>
+      <c r="G173" s="105"/>
+      <c r="H173" s="105"/>
+      <c r="I173" s="105"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="105"/>
+      <c r="L173" s="105"/>
+      <c r="M173" s="106"/>
+      <c r="N173" s="92"/>
+      <c r="O173" s="73">
+        <f>SUM(F154:F172)</f>
+        <v>80647</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L174" s="84"/>
+      <c r="N174" s="84"/>
+    </row>
+    <row r="175" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="113"/>
-      <c r="C173" s="113"/>
-      <c r="D173" s="113"/>
-      <c r="E173" s="113"/>
-      <c r="F173" s="113"/>
-      <c r="G173" s="113"/>
-      <c r="H173" s="113"/>
-      <c r="I173" s="113"/>
-      <c r="J173" s="113"/>
-      <c r="K173" s="113"/>
-      <c r="L173" s="113"/>
-      <c r="M173" s="114"/>
-      <c r="N173" s="93"/>
-      <c r="O173" s="58">
-        <f>O33+O54+O74+O88+O106+O131+O145+O152+O171</f>
-        <v>125441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="112" t="s">
+      <c r="B175" s="114"/>
+      <c r="C175" s="114"/>
+      <c r="D175" s="114"/>
+      <c r="E175" s="114"/>
+      <c r="F175" s="114"/>
+      <c r="G175" s="114"/>
+      <c r="H175" s="114"/>
+      <c r="I175" s="114"/>
+      <c r="J175" s="114"/>
+      <c r="K175" s="114"/>
+      <c r="L175" s="114"/>
+      <c r="M175" s="115"/>
+      <c r="N175" s="93"/>
+      <c r="O175" s="58">
+        <f>O33+O54+O74+O88+O106+O131+O145+O153+O173</f>
+        <v>130048</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="B174" s="113"/>
-      <c r="C174" s="113"/>
-      <c r="D174" s="113"/>
-      <c r="E174" s="113"/>
-      <c r="F174" s="113"/>
-      <c r="G174" s="113"/>
-      <c r="H174" s="113"/>
-      <c r="I174" s="113"/>
-      <c r="J174" s="113"/>
-      <c r="K174" s="113"/>
-      <c r="L174" s="113"/>
-      <c r="M174" s="114"/>
-      <c r="N174" s="87"/>
-      <c r="O174" s="58">
+      <c r="B176" s="114"/>
+      <c r="C176" s="114"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="114"/>
+      <c r="H176" s="114"/>
+      <c r="I176" s="114"/>
+      <c r="J176" s="114"/>
+      <c r="K176" s="114"/>
+      <c r="L176" s="114"/>
+      <c r="M176" s="115"/>
+      <c r="N176" s="87"/>
+      <c r="O176" s="58">
         <f>SUM(F2:F13)+F32+SUM(F34:F38)+SUM(F89:F94)+SUM(F107:F122)+SUM(F132:F137)</f>
         <v>255</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="112" t="s">
+    <row r="177" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B175" s="113"/>
-      <c r="C175" s="113"/>
-      <c r="D175" s="113"/>
-      <c r="E175" s="113"/>
-      <c r="F175" s="113"/>
-      <c r="G175" s="113"/>
-      <c r="H175" s="113"/>
-      <c r="I175" s="113"/>
-      <c r="J175" s="113"/>
-      <c r="K175" s="113"/>
-      <c r="L175" s="113"/>
-      <c r="M175" s="114"/>
-      <c r="N175" s="87"/>
-      <c r="O175" s="58">
-        <f>SUM(F138:F140,F41:F46,F17:F23)</f>
-        <v>11480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="B176" s="113"/>
-      <c r="C176" s="113"/>
-      <c r="D176" s="113"/>
-      <c r="E176" s="113"/>
-      <c r="F176" s="113"/>
-      <c r="G176" s="113"/>
-      <c r="H176" s="113"/>
-      <c r="I176" s="113"/>
-      <c r="J176" s="113"/>
-      <c r="K176" s="113"/>
-      <c r="L176" s="113"/>
-      <c r="M176" s="114"/>
-      <c r="N176" s="87"/>
-      <c r="O176" s="58">
-        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
-        <v>24422</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="B177" s="113"/>
-      <c r="C177" s="113"/>
-      <c r="D177" s="113"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="113"/>
-      <c r="G177" s="113"/>
-      <c r="H177" s="113"/>
-      <c r="I177" s="113"/>
-      <c r="J177" s="113"/>
-      <c r="K177" s="113"/>
-      <c r="L177" s="113"/>
-      <c r="M177" s="114"/>
+      <c r="B177" s="114"/>
+      <c r="C177" s="114"/>
+      <c r="D177" s="114"/>
+      <c r="E177" s="114"/>
+      <c r="F177" s="114"/>
+      <c r="G177" s="114"/>
+      <c r="H177" s="114"/>
+      <c r="I177" s="114"/>
+      <c r="J177" s="114"/>
+      <c r="K177" s="114"/>
+      <c r="L177" s="114"/>
+      <c r="M177" s="115"/>
       <c r="N177" s="87"/>
       <c r="O177" s="58">
+        <f>SUM(F138:F140,F41:F46,F17:F23)</f>
+        <v>11879</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178" s="114"/>
+      <c r="C178" s="114"/>
+      <c r="D178" s="114"/>
+      <c r="E178" s="114"/>
+      <c r="F178" s="114"/>
+      <c r="G178" s="114"/>
+      <c r="H178" s="114"/>
+      <c r="I178" s="114"/>
+      <c r="J178" s="114"/>
+      <c r="K178" s="114"/>
+      <c r="L178" s="114"/>
+      <c r="M178" s="115"/>
+      <c r="N178" s="87"/>
+      <c r="O178" s="58">
+        <f>SUM(F100:F105,F127:F130,F141:F141,F47:F49,F24:F28)</f>
+        <v>28321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179" s="114"/>
+      <c r="C179" s="114"/>
+      <c r="D179" s="114"/>
+      <c r="E179" s="114"/>
+      <c r="F179" s="114"/>
+      <c r="G179" s="114"/>
+      <c r="H179" s="114"/>
+      <c r="I179" s="114"/>
+      <c r="J179" s="114"/>
+      <c r="K179" s="114"/>
+      <c r="L179" s="114"/>
+      <c r="M179" s="115"/>
+      <c r="N179" s="87"/>
+      <c r="O179" s="58">
         <f>SUM(F142:F144,F51:F53,F29:F31,F97:F99)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="112" t="s">
+    <row r="180" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="113"/>
-      <c r="C178" s="113"/>
-      <c r="D178" s="113"/>
-      <c r="E178" s="113"/>
-      <c r="F178" s="113"/>
-      <c r="G178" s="113"/>
-      <c r="H178" s="113"/>
-      <c r="I178" s="113"/>
-      <c r="J178" s="113"/>
-      <c r="K178" s="113"/>
-      <c r="L178" s="113"/>
-      <c r="M178" s="114"/>
-      <c r="N178" s="87"/>
-      <c r="O178" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="B179" s="113"/>
-      <c r="C179" s="113"/>
-      <c r="D179" s="113"/>
-      <c r="E179" s="113"/>
-      <c r="F179" s="113"/>
-      <c r="G179" s="113"/>
-      <c r="H179" s="113"/>
-      <c r="I179" s="113"/>
-      <c r="J179" s="113"/>
-      <c r="K179" s="113"/>
-      <c r="L179" s="113"/>
-      <c r="M179" s="114"/>
-      <c r="N179" s="87"/>
-      <c r="O179" s="58">
-        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="B180" s="113"/>
-      <c r="C180" s="113"/>
-      <c r="D180" s="113"/>
-      <c r="E180" s="113"/>
-      <c r="F180" s="113"/>
-      <c r="G180" s="113"/>
-      <c r="H180" s="113"/>
-      <c r="I180" s="113"/>
-      <c r="J180" s="113"/>
-      <c r="K180" s="113"/>
-      <c r="L180" s="113"/>
-      <c r="M180" s="114"/>
+      <c r="B180" s="114"/>
+      <c r="C180" s="114"/>
+      <c r="D180" s="114"/>
+      <c r="E180" s="114"/>
+      <c r="F180" s="114"/>
+      <c r="G180" s="114"/>
+      <c r="H180" s="114"/>
+      <c r="I180" s="114"/>
+      <c r="J180" s="114"/>
+      <c r="K180" s="114"/>
+      <c r="L180" s="114"/>
+      <c r="M180" s="115"/>
       <c r="N180" s="87"/>
       <c r="O180" s="58">
-        <f>SUM(O152:O170)</f>
-        <v>580</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="114"/>
+      <c r="C181" s="114"/>
+      <c r="D181" s="114"/>
+      <c r="E181" s="114"/>
+      <c r="F181" s="114"/>
+      <c r="G181" s="114"/>
+      <c r="H181" s="114"/>
+      <c r="I181" s="114"/>
+      <c r="J181" s="114"/>
+      <c r="K181" s="114"/>
+      <c r="L181" s="114"/>
+      <c r="M181" s="115"/>
+      <c r="N181" s="87"/>
+      <c r="O181" s="58">
+        <f>SUM(F39:F40,F14:F16,F95:F96,F124:F126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B182" s="114"/>
+      <c r="C182" s="114"/>
+      <c r="D182" s="114"/>
+      <c r="E182" s="114"/>
+      <c r="F182" s="114"/>
+      <c r="G182" s="114"/>
+      <c r="H182" s="114"/>
+      <c r="I182" s="114"/>
+      <c r="J182" s="114"/>
+      <c r="K182" s="114"/>
+      <c r="L182" s="114"/>
+      <c r="M182" s="115"/>
+      <c r="N182" s="87"/>
+      <c r="O182" s="58">
+        <f>SUM(O153:O172)</f>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S171">
+  <autoFilter ref="A1:S173">
     <filterColumn colId="11">
       <filters>
         <filter val="自购"/>
@@ -8466,48 +8535,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="58">
-    <mergeCell ref="D152:M152"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D131:M131"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C107:C122"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="A177:M177"/>
-    <mergeCell ref="A178:M178"/>
-    <mergeCell ref="A179:M179"/>
-    <mergeCell ref="A180:M180"/>
-    <mergeCell ref="B89:B106"/>
-    <mergeCell ref="B107:B131"/>
-    <mergeCell ref="B132:B145"/>
-    <mergeCell ref="A173:M173"/>
-    <mergeCell ref="A174:M174"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="D171:M171"/>
-    <mergeCell ref="B146:B171"/>
-    <mergeCell ref="C153:C170"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="Q2:Q14"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="B34:B54"/>
     <mergeCell ref="C2:C13"/>
@@ -8524,6 +8551,48 @@
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
+    <mergeCell ref="Q2:Q14"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A179:M179"/>
+    <mergeCell ref="A180:M180"/>
+    <mergeCell ref="A181:M181"/>
+    <mergeCell ref="A182:M182"/>
+    <mergeCell ref="B89:B106"/>
+    <mergeCell ref="B107:B131"/>
+    <mergeCell ref="B132:B145"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="A177:M177"/>
+    <mergeCell ref="A178:M178"/>
+    <mergeCell ref="D173:M173"/>
+    <mergeCell ref="B146:B173"/>
+    <mergeCell ref="C154:C172"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="C146:C152"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D131:M131"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C107:C122"/>
+    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.4375" right="0.52986111111111101" top="0.65" bottom="1" header="0.5" footer="0.5"/>
@@ -9022,7 +9091,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="120"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9057,7 +9126,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="120"/>
+      <c r="M14" s="121"/>
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11399,7 +11468,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
       <c r="N82" s="40"/>
-      <c r="P82" s="108"/>
+      <c r="P82" s="119"/>
     </row>
     <row r="83" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -11435,7 +11504,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
       <c r="N83" s="40"/>
-      <c r="P83" s="108"/>
+      <c r="P83" s="119"/>
     </row>
     <row r="84" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -11471,7 +11540,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
       <c r="N84" s="40"/>
-      <c r="P84" s="108"/>
+      <c r="P84" s="119"/>
     </row>
     <row r="85" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -11507,7 +11576,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="40"/>
-      <c r="P85" s="108"/>
+      <c r="P85" s="119"/>
     </row>
     <row r="86" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -11543,7 +11612,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="40"/>
-      <c r="P86" s="108"/>
+      <c r="P86" s="119"/>
     </row>
     <row r="87" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -11579,7 +11648,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="52"/>
       <c r="N87" s="40"/>
-      <c r="P87" s="108"/>
+      <c r="P87" s="119"/>
     </row>
     <row r="88" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -11615,7 +11684,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="52"/>
       <c r="N88" s="40"/>
-      <c r="P88" s="108"/>
+      <c r="P88" s="119"/>
     </row>
     <row r="89" spans="1:16" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -11651,7 +11720,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="52"/>
       <c r="N89" s="40"/>
-      <c r="P89" s="108"/>
+      <c r="P89" s="119"/>
     </row>
     <row r="90" spans="1:16" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -11687,7 +11756,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="52"/>
       <c r="N90" s="40"/>
-      <c r="P90" s="108"/>
+      <c r="P90" s="119"/>
     </row>
     <row r="91" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -11721,7 +11790,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="24"/>
       <c r="N91" s="39"/>
-      <c r="P91" s="108"/>
+      <c r="P91" s="119"/>
     </row>
     <row r="92" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -11758,7 +11827,7 @@
       <c r="L92" s="34"/>
       <c r="M92" s="24"/>
       <c r="N92" s="17"/>
-      <c r="P92" s="108"/>
+      <c r="P92" s="119"/>
     </row>
     <row r="93" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -11794,7 +11863,7 @@
       <c r="L93" s="34"/>
       <c r="M93" s="45"/>
       <c r="N93" s="24"/>
-      <c r="P93" s="108"/>
+      <c r="P93" s="119"/>
     </row>
     <row r="94" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -12572,167 +12641,167 @@
       <c r="N119" s="50"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="112" t="s">
+      <c r="A120" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="113"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="119"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="113"/>
-      <c r="H120" s="113"/>
-      <c r="I120" s="113"/>
-      <c r="J120" s="113"/>
-      <c r="K120" s="113"/>
-      <c r="L120" s="113"/>
-      <c r="M120" s="114"/>
+      <c r="B120" s="114"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="114"/>
+      <c r="J120" s="114"/>
+      <c r="K120" s="114"/>
+      <c r="L120" s="114"/>
+      <c r="M120" s="115"/>
       <c r="N120" s="58">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="112" t="s">
+      <c r="A121" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="119"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="113"/>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="113"/>
-      <c r="K121" s="113"/>
-      <c r="L121" s="113"/>
-      <c r="M121" s="114"/>
+      <c r="B121" s="114"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="114"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="114"/>
+      <c r="I121" s="114"/>
+      <c r="J121" s="114"/>
+      <c r="K121" s="114"/>
+      <c r="L121" s="114"/>
+      <c r="M121" s="115"/>
       <c r="N121" s="58">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="112" t="s">
+      <c r="A122" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="113"/>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
-      <c r="E122" s="119"/>
-      <c r="F122" s="113"/>
-      <c r="G122" s="113"/>
-      <c r="H122" s="113"/>
-      <c r="I122" s="113"/>
-      <c r="J122" s="113"/>
-      <c r="K122" s="113"/>
-      <c r="L122" s="113"/>
-      <c r="M122" s="114"/>
+      <c r="B122" s="114"/>
+      <c r="C122" s="114"/>
+      <c r="D122" s="114"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="114"/>
+      <c r="G122" s="114"/>
+      <c r="H122" s="114"/>
+      <c r="I122" s="114"/>
+      <c r="J122" s="114"/>
+      <c r="K122" s="114"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="115"/>
       <c r="N122" s="58">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="112" t="s">
+      <c r="A123" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="113"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="119"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="113"/>
-      <c r="H123" s="113"/>
-      <c r="I123" s="113"/>
-      <c r="J123" s="113"/>
-      <c r="K123" s="113"/>
-      <c r="L123" s="113"/>
-      <c r="M123" s="114"/>
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="114"/>
+      <c r="I123" s="114"/>
+      <c r="J123" s="114"/>
+      <c r="K123" s="114"/>
+      <c r="L123" s="114"/>
+      <c r="M123" s="115"/>
       <c r="N123" s="58">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="112" t="s">
+      <c r="A124" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="119"/>
-      <c r="F124" s="113"/>
-      <c r="G124" s="113"/>
-      <c r="H124" s="113"/>
-      <c r="I124" s="113"/>
-      <c r="J124" s="113"/>
-      <c r="K124" s="113"/>
-      <c r="L124" s="113"/>
-      <c r="M124" s="114"/>
+      <c r="B124" s="114"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114"/>
+      <c r="J124" s="114"/>
+      <c r="K124" s="114"/>
+      <c r="L124" s="114"/>
+      <c r="M124" s="115"/>
       <c r="N124" s="58">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="112" t="s">
+      <c r="A125" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="119"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="113"/>
-      <c r="H125" s="113"/>
-      <c r="I125" s="113"/>
-      <c r="J125" s="113"/>
-      <c r="K125" s="113"/>
-      <c r="L125" s="113"/>
-      <c r="M125" s="114"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="114"/>
+      <c r="G125" s="114"/>
+      <c r="H125" s="114"/>
+      <c r="I125" s="114"/>
+      <c r="J125" s="114"/>
+      <c r="K125" s="114"/>
+      <c r="L125" s="114"/>
+      <c r="M125" s="115"/>
       <c r="N125" s="58">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="112" t="s">
+      <c r="A126" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="113"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="113"/>
-      <c r="E126" s="119"/>
-      <c r="F126" s="113"/>
-      <c r="G126" s="113"/>
-      <c r="H126" s="113"/>
-      <c r="I126" s="113"/>
-      <c r="J126" s="113"/>
-      <c r="K126" s="113"/>
-      <c r="L126" s="113"/>
-      <c r="M126" s="114"/>
+      <c r="B126" s="114"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="114"/>
+      <c r="G126" s="114"/>
+      <c r="H126" s="114"/>
+      <c r="I126" s="114"/>
+      <c r="J126" s="114"/>
+      <c r="K126" s="114"/>
+      <c r="L126" s="114"/>
+      <c r="M126" s="115"/>
       <c r="N126" s="58">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="112" t="s">
+      <c r="A127" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="113"/>
-      <c r="C127" s="113"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="119"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="113"/>
-      <c r="H127" s="113"/>
-      <c r="I127" s="113"/>
-      <c r="J127" s="113"/>
-      <c r="K127" s="113"/>
-      <c r="L127" s="113"/>
-      <c r="M127" s="114"/>
+      <c r="B127" s="114"/>
+      <c r="C127" s="114"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="114"/>
+      <c r="G127" s="114"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="114"/>
+      <c r="J127" s="114"/>
+      <c r="K127" s="114"/>
+      <c r="L127" s="114"/>
+      <c r="M127" s="115"/>
       <c r="N127" s="58">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -12866,7 +12935,7 @@
       <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="108"/>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12876,7 +12945,7 @@
         <f>SUM(房子装修决算!E2:E18)</f>
         <v>17597</v>
       </c>
-      <c r="M4" s="108"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12886,7 +12955,7 @@
         <f>SUM(房子装修决算!E19:E36)</f>
         <v>13545</v>
       </c>
-      <c r="M5" s="108"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -12896,7 +12965,7 @@
         <f>SUM(房子装修决算!E37:E54)</f>
         <v>5032</v>
       </c>
-      <c r="M6" s="108"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -12906,7 +12975,7 @@
         <f>SUM(房子装修决算!E55:E75)</f>
         <v>17302</v>
       </c>
-      <c r="M7" s="108"/>
+      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
@@ -12916,7 +12985,7 @@
         <f>SUM(房子装修决算!E76:E91)</f>
         <v>8150</v>
       </c>
-      <c r="M8" s="108"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -12926,7 +12995,7 @@
         <f>SUM(房子装修决算!E92:E102)</f>
         <v>4070</v>
       </c>
-      <c r="M9" s="108"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -12936,7 +13005,7 @@
         <f>SUM(房子装修决算!E103:E118)</f>
         <v>4595</v>
       </c>
-      <c r="M10" s="108"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -12946,23 +13015,23 @@
         <f>SUM(C4:C10)</f>
         <v>70291</v>
       </c>
-      <c r="M11" s="108"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="M12" s="108"/>
+      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="M13" s="108"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="108"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
